--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -17,14 +17,14 @@
     <sheet name="model2(2)turnover" sheetId="23" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)'!$O$1:$O$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model2(1)&amp;KDJ'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)&amp;RSI'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(1)turnover'!$Q$1:$Q$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model2(2)'!$O$1:$O$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'model2(2)&amp;KDJ'!$Q$1:$Q$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model2(2)&amp;RSI'!$Q$1:$Q$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'model2(2)turnover'!$Q$1:$Q$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)'!$O$1:$O$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model2(1)&amp;KDJ'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)&amp;RSI'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(1)turnover'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model2(2)'!$O$1:$O$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'model2(2)&amp;KDJ'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model2(2)&amp;RSI'!$Q$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'model2(2)turnover'!$Q$1:$Q$85</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)'!J1,0,0,COUNTA('model2(1)'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model2(1)&amp;KDJ'!J1,0,0,COUNTA('model2(1)&amp;KDJ'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)&amp;RSI'!J1,0,0,COUNTA('model2(1)&amp;RSI'!J:J)-1)</definedName>
@@ -2289,11 +2289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90561152"/>
-        <c:axId val="293067776"/>
+        <c:axId val="469104128"/>
+        <c:axId val="469105664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90561152"/>
+        <c:axId val="469104128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,14 +2336,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293067776"/>
+        <c:crossAx val="469105664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="293067776"/>
+        <c:axId val="469105664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,7 +2392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90561152"/>
+        <c:crossAx val="469104128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4023,11 +4023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372320512"/>
-        <c:axId val="372339072"/>
+        <c:axId val="469129856"/>
+        <c:axId val="469131648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="372320512"/>
+        <c:axId val="469129856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,14 +4070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372339072"/>
+        <c:crossAx val="469131648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="372339072"/>
+        <c:axId val="469131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,7 +4126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372320512"/>
+        <c:crossAx val="469129856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5757,11 +5757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372829184"/>
-        <c:axId val="389759360"/>
+        <c:axId val="473272320"/>
+        <c:axId val="473273856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="372829184"/>
+        <c:axId val="473272320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,14 +5804,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389759360"/>
+        <c:crossAx val="473273856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389759360"/>
+        <c:axId val="473273856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +5860,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372829184"/>
+        <c:crossAx val="473272320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7491,11 +7491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482416512"/>
-        <c:axId val="482435072"/>
+        <c:axId val="473441408"/>
+        <c:axId val="473442944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482416512"/>
+        <c:axId val="473441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7538,14 +7538,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482435072"/>
+        <c:crossAx val="473442944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482435072"/>
+        <c:axId val="473442944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7594,7 +7594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482416512"/>
+        <c:crossAx val="473441408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9225,11 +9225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482475392"/>
-        <c:axId val="482481280"/>
+        <c:axId val="480495872"/>
+        <c:axId val="480497664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482475392"/>
+        <c:axId val="480495872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9272,14 +9272,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482481280"/>
+        <c:crossAx val="480497664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482481280"/>
+        <c:axId val="480497664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9328,7 +9328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482475392"/>
+        <c:crossAx val="480495872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10959,11 +10959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517722496"/>
-        <c:axId val="517724416"/>
+        <c:axId val="483306880"/>
+        <c:axId val="483312768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517722496"/>
+        <c:axId val="483306880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11006,14 +11006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517724416"/>
+        <c:crossAx val="483312768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517724416"/>
+        <c:axId val="483312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11062,7 +11062,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517722496"/>
+        <c:crossAx val="483306880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12182,7 +12182,7 @@
                   <c:v>997.01821690428267</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>996.05056362079904</c:v>
+                  <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12671,7 +12671,7 @@
                   <c:v>390.33094813854075</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>389.36329485505712</c:v>
+                  <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12693,11 +12693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586470912"/>
-        <c:axId val="586472448"/>
+        <c:axId val="483611392"/>
+        <c:axId val="483612928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586470912"/>
+        <c:axId val="483611392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12740,14 +12740,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586472448"/>
+        <c:crossAx val="483612928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586472448"/>
+        <c:axId val="483612928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12796,7 +12796,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586470912"/>
+        <c:crossAx val="483611392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14427,11 +14427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293107968"/>
-        <c:axId val="293138432"/>
+        <c:axId val="483661696"/>
+        <c:axId val="483663232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="293107968"/>
+        <c:axId val="483661696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14474,14 +14474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293138432"/>
+        <c:crossAx val="483663232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="293138432"/>
+        <c:axId val="483663232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14530,7 +14530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293107968"/>
+        <c:crossAx val="483661696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14638,7 +14638,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14681,7 +14681,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14724,7 +14724,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14767,7 +14767,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14810,7 +14810,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14853,7 +14853,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14896,7 +14896,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14939,7 +14939,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15250,7 +15250,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16031,7 +16031,7 @@
         <v>43830</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" ref="Y12:Y14" si="7">VLOOKUP(X12,O:P,2,)</f>
+        <f>VLOOKUP(X12,O:P,2,)</f>
         <v>520.16324835056685</v>
       </c>
       <c r="Z12" s="1">
@@ -16089,7 +16089,7 @@
         <v>44196</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(X13,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
@@ -16147,7 +16147,7 @@
         <v>44561</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(X14,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
@@ -18402,295 +18402,6 @@
       <c r="K76" s="22">
         <v>5571.5782036552628</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1">
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -18708,7 +18419,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19477,11 +19188,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>91.417228571428666</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-91.417228571428666</v>
       </c>
     </row>
@@ -19547,11 +19258,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>3224.1951268482335</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3224.1951268482335</v>
       </c>
     </row>
@@ -19606,7 +19317,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>773.01292064913287</v>
       </c>
       <c r="AB12" s="1">
@@ -19617,11 +19328,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>773.01292064913287</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>773.01292064913287</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-773.01292064913287</v>
       </c>
     </row>
@@ -19676,7 +19387,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -19687,11 +19398,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19746,7 +19457,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -19757,11 +19468,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19822,11 +19533,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>1046.1147789499273</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>1046.1147789499273</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-1046.1147789499273</v>
       </c>
     </row>
@@ -22745,189 +22456,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
-    <row r="181" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22944,10 +22472,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -23732,11 +23260,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>58.460353571428868</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-58.460353571428868</v>
       </c>
     </row>
@@ -23804,11 +23332,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>2152.7599890739757</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2152.7599890739757</v>
       </c>
     </row>
@@ -23865,7 +23393,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>494.15508593303866</v>
       </c>
       <c r="AB12" s="1">
@@ -23876,11 +23404,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>494.15508593303866</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>494.15508593303866</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-494.15508593303866</v>
       </c>
     </row>
@@ -23937,7 +23465,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -23948,11 +23476,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24009,7 +23537,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -24020,11 +23548,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24087,11 +23615,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>988.03913880127584</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>988.03913880127584</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-988.03913880127584</v>
       </c>
     </row>
@@ -27161,189 +26689,6 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
-    <row r="181" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27362,7 +26707,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28095,11 +27440,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>29.534447075205776</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-29.534447075205776</v>
       </c>
     </row>
@@ -28159,11 +27504,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>1528.0104860270981</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1528.0104860270981</v>
       </c>
     </row>
@@ -28212,7 +27557,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>331.22983442957388</v>
       </c>
       <c r="AB12" s="1">
@@ -28223,11 +27568,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>331.22983442957388</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>331.22983442957388</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-331.22983442957388</v>
       </c>
     </row>
@@ -28276,7 +27621,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -28287,11 +27632,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -28340,7 +27685,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -28351,11 +27696,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -28410,11 +27755,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>91.832048679506215</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>91.832048679506215</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-91.832048679506215</v>
       </c>
     </row>
@@ -30967,294 +30312,6 @@
       <c r="M76" s="22">
         <v>2799.4811971394251</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="81" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="82" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="83" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="84" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="85" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="86" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="87" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="88" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="89" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="90" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="91" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="92" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="93" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="94" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N103" s="8"/>
-    </row>
-    <row r="104" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N106" s="8"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N113" s="8"/>
-    </row>
-    <row r="114" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N118" s="8"/>
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N127" s="8"/>
-    </row>
-    <row r="128" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N130" s="8"/>
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N132" s="8"/>
-    </row>
-    <row r="133" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N133" s="8"/>
-    </row>
-    <row r="134" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N142" s="8"/>
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N145" s="8"/>
-    </row>
-    <row r="146" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N146" s="8"/>
-    </row>
-    <row r="147" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N151" s="8"/>
-    </row>
-    <row r="152" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N152" s="8"/>
-    </row>
-    <row r="153" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N154" s="8"/>
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N155" s="8"/>
-    </row>
-    <row r="156" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N156" s="8"/>
-    </row>
-    <row r="157" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N157" s="8"/>
-    </row>
-    <row r="158" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N158" s="8"/>
-    </row>
-    <row r="159" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N159" s="8"/>
-    </row>
-    <row r="160" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N160" s="8"/>
-    </row>
-    <row r="161" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N161" s="8"/>
-    </row>
-    <row r="162" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N162" s="8"/>
-    </row>
-    <row r="163" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N163" s="8"/>
-    </row>
-    <row r="164" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N164" s="8"/>
-    </row>
-    <row r="165" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N165" s="8"/>
-    </row>
-    <row r="166" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N166" s="8"/>
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N167" s="8"/>
-    </row>
-    <row r="168" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N168" s="8"/>
-    </row>
-    <row r="169" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N169" s="4"/>
-    </row>
-    <row r="170" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N170" s="4"/>
-    </row>
-    <row r="171" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N171" s="4"/>
-    </row>
-    <row r="172" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N172" s="4"/>
-    </row>
-    <row r="173" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N173" s="4"/>
-    </row>
-    <row r="174" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N174" s="4"/>
-    </row>
-    <row r="175" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N175" s="4"/>
-    </row>
-    <row r="176" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N176" s="4"/>
-    </row>
-    <row r="177" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N177" s="4"/>
-    </row>
-    <row r="178" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N178" s="4"/>
-    </row>
-    <row r="179" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N179" s="4"/>
-    </row>
-    <row r="180" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N180" s="4"/>
-    </row>
-    <row r="181" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31274,7 +30331,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31377,7 +30434,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6">
         <f>MIN(F:F)</f>
-        <v>-32.454578670733859</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
@@ -32055,7 +31112,7 @@
         <v>43830</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" ref="Y12:Y14" si="5">VLOOKUP(X12,O:P,2,)</f>
+        <f>VLOOKUP(X12,O:P,2,)</f>
         <v>84.696913592045235</v>
       </c>
       <c r="Z12" s="1">
@@ -32113,7 +31170,7 @@
         <v>44196</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(X13,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
@@ -32171,7 +31228,7 @@
         <v>44561</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(X14,O:P,2,)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
@@ -34007,7 +33064,7 @@
         <v>880.65274109484881</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1">
       <c r="A65" s="16">
         <v>44712</v>
       </c>
@@ -34042,7 +33099,7 @@
         <v>880.65274109484881</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1">
       <c r="A66" s="16">
         <v>44742</v>
       </c>
@@ -34077,7 +33134,7 @@
         <v>885.53937444196254</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1">
       <c r="A67" s="16">
         <v>44771</v>
       </c>
@@ -34112,7 +33169,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1">
       <c r="A68" s="16">
         <v>44804</v>
       </c>
@@ -34147,7 +33204,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1">
       <c r="A69" s="16">
         <v>44834</v>
       </c>
@@ -34182,7 +33239,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1">
       <c r="A70" s="16">
         <v>44865</v>
       </c>
@@ -34217,7 +33274,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1">
       <c r="A71" s="16">
         <v>44895</v>
       </c>
@@ -34252,7 +33309,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1">
       <c r="A72" s="16">
         <v>44925</v>
       </c>
@@ -34287,7 +33344,7 @@
         <v>885.55336083537998</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1">
       <c r="A73" s="16">
         <v>44957</v>
       </c>
@@ -34322,7 +33379,7 @@
         <v>886.57122878558403</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1">
       <c r="A74" s="16">
         <v>44985</v>
       </c>
@@ -34357,7 +33414,7 @@
         <v>897.90658932388078</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1">
       <c r="A75" s="16">
         <v>45016</v>
       </c>
@@ -34392,7 +33449,7 @@
         <v>1014.9823800683541</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1">
       <c r="A76" s="16">
         <v>45044</v>
       </c>
@@ -34403,16 +33460,16 @@
         <v>1.2002050404532403</v>
       </c>
       <c r="D76" s="22">
-        <v>-72.179575818738272</v>
+        <v>-26.223892142419245</v>
       </c>
       <c r="E76" s="23">
-        <v>-50.974276399168467</v>
+        <v>-18.519697728434608</v>
       </c>
       <c r="F76" s="23">
-        <v>-32.454578670733859</v>
+        <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>-45.955683676319026</v>
+        <v>0</v>
       </c>
       <c r="H76" s="23">
         <v>638.61817764814953</v>
@@ -34424,296 +33481,11 @@
         <v>402.58809456262395</v>
       </c>
       <c r="K76" s="22">
-        <v>1087.1619558870925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-      <c r="O142" s="3"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-      <c r="O154" s="3"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-      <c r="O166" s="3"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.1" customHeight="1">
+      <c r="L77" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34731,7 +33503,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35500,11 +34272,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>1.8283260131836769</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.8283260131836769</v>
       </c>
     </row>
@@ -35570,11 +34342,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>672.01613508174762</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-672.01613508174762</v>
       </c>
     </row>
@@ -35629,7 +34401,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>158.87923971358168</v>
       </c>
       <c r="AB12" s="1">
@@ -35640,11 +34412,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>158.87923971358168</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-158.87923971358168</v>
       </c>
     </row>
@@ -35699,7 +34471,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -35710,11 +34482,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35769,7 +34541,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -35780,11 +34552,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35845,11 +34617,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>115.68877781628487</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-115.68877781628487</v>
       </c>
     </row>
@@ -38768,184 +37540,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:15" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-      <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -38964,7 +37558,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39081,7 +37675,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6">
         <f>MIN(F:F)</f>
-        <v>-30.83184973719716</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
@@ -39752,11 +38346,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="3">VLOOKUP(AC10,Q:R,2,)</f>
         <v>1.1609492944336848</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.1609492944336848</v>
       </c>
     </row>
@@ -39824,11 +38418,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="4">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="3"/>
         <v>412.0446810616325</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-412.0446810616325</v>
       </c>
     </row>
@@ -39885,7 +38479,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="5">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>80.462067912442933</v>
       </c>
       <c r="AB12" s="1">
@@ -39896,11 +38490,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="3"/>
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
-        <v>80.462067912442933</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="3"/>
         <v>-80.462067912442933</v>
       </c>
     </row>
@@ -39957,7 +38551,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -39968,11 +38562,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40029,7 +38623,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -40040,11 +38634,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -40107,11 +38701,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="3"/>
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="4"/>
-        <v>113.01957049723279</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="3"/>
         <v>-113.01957049723279</v>
       </c>
     </row>
@@ -43141,28 +41735,28 @@
         <v>1.2002050404532403</v>
       </c>
       <c r="D76" s="22">
-        <v>-68.570597027801355</v>
+        <v>-24.912697535298282</v>
       </c>
       <c r="E76" s="23">
-        <v>-48.425562579210037</v>
+        <v>-17.593712842012877</v>
       </c>
       <c r="F76" s="23">
-        <v>-30.83184973719716</v>
+        <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>-43.65789949250307</v>
+        <v>0</v>
       </c>
       <c r="H76" s="23">
         <v>606.68726876574192</v>
       </c>
       <c r="I76" s="23">
-        <v>996.05056362079904</v>
+        <v>996.05056362079893</v>
       </c>
       <c r="J76" s="23">
-        <v>389.36329485505712</v>
+        <v>389.36329485505701</v>
       </c>
       <c r="K76" s="22">
-        <v>1039.7084631133021</v>
+        <v>996.05056362079893</v>
       </c>
       <c r="L76" s="27">
         <v>68.835098442807833</v>
@@ -43180,186 +41774,6 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" ht="14.1" customHeight="1">
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L93" s="8"/>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L105" s="4"/>
-      <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="12:17" ht="14.1" customHeight="1">
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="110" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="111" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="112" spans="12:17" ht="14.1" customHeight="1"/>
-    <row r="113" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="114" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="115" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="116" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="117" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="119" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="120" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="121" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="122" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="123" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="124" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="125" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="126" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="127" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="128" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="129" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="131" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="132" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="133" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="134" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="135" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="136" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="137" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="138" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="139" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="140" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="141" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="143" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="144" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="145" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="146" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="147" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="148" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="149" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="150" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="151" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="152" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="153" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="155" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="156" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="157" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="158" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="159" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="160" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="161" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="162" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="163" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="164" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="165" spans="17:17" ht="14.1" customHeight="1">
-      <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="167" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="168" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="169" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="170" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="171" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="172" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="173" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="174" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="175" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="176" spans="17:17" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43378,7 +41792,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44111,11 +42525,11 @@
         <v>43098</v>
       </c>
       <c r="AD10" s="1">
-        <f>VLOOKUP(AC10,Q:R,2,)</f>
+        <f t="shared" ref="AD10:AD15" si="4">VLOOKUP(AC10,Q:R,2,)</f>
         <v>0.57621376243097611</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
+        <f t="shared" ref="AE10:AE15" si="5">-AD10</f>
         <v>-0.57621376243097611</v>
       </c>
     </row>
@@ -44175,11 +42589,11 @@
         <v>43462</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AD15" si="5">VLOOKUP(AC11,Q:R,2,)</f>
+        <f t="shared" si="4"/>
         <v>262.72397636432083</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-262.72397636432083</v>
       </c>
     </row>
@@ -44228,7 +42642,7 @@
         <v>43830</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA14" si="6">VLOOKUP(Z12,Q:R,2,)</f>
+        <f>VLOOKUP(Z12,Q:R,2,)</f>
         <v>43.135897352006509</v>
       </c>
       <c r="AB12" s="1">
@@ -44239,11 +42653,11 @@
         <v>43830</v>
       </c>
       <c r="AD12" s="1">
+        <f t="shared" si="4"/>
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="5"/>
-        <v>43.135897352006509</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="4"/>
         <v>-43.135897352006509</v>
       </c>
     </row>
@@ -44292,7 +42706,7 @@
         <v>44196</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(Z13,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
@@ -44303,11 +42717,11 @@
         <v>44196</v>
       </c>
       <c r="AD13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -44356,7 +42770,7 @@
         <v>44561</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(Z14,Q:R,2,)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
@@ -44367,11 +42781,11 @@
         <v>44561</v>
       </c>
       <c r="AD14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -44426,11 +42840,11 @@
         <v>44925</v>
       </c>
       <c r="AD15" s="1">
+        <f t="shared" si="4"/>
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="5"/>
-        <v>11.079325740253353</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="4"/>
         <v>-11.079325740253353</v>
       </c>
     </row>
@@ -46492,7 +44906,7 @@
         <v>498.005167388789</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="14.1" customHeight="1">
+    <row r="65" spans="1:14" ht="14.1" customHeight="1">
       <c r="A65" s="16">
         <v>44712</v>
       </c>
@@ -46533,7 +44947,7 @@
         <v>498.005167388789</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="14.1" customHeight="1">
+    <row r="66" spans="1:14" ht="14.1" customHeight="1">
       <c r="A66" s="16">
         <v>44742</v>
       </c>
@@ -46574,7 +44988,7 @@
         <v>498.30074018920413</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="14.1" customHeight="1">
+    <row r="67" spans="1:14" ht="14.1" customHeight="1">
       <c r="A67" s="16">
         <v>44771</v>
       </c>
@@ -46615,7 +45029,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="14.1" customHeight="1">
+    <row r="68" spans="1:14" ht="14.1" customHeight="1">
       <c r="A68" s="16">
         <v>44804</v>
       </c>
@@ -46656,7 +45070,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="14.1" customHeight="1">
+    <row r="69" spans="1:14" ht="14.1" customHeight="1">
       <c r="A69" s="16">
         <v>44834</v>
       </c>
@@ -46697,7 +45111,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="14.1" customHeight="1">
+    <row r="70" spans="1:14" ht="14.1" customHeight="1">
       <c r="A70" s="16">
         <v>44865</v>
       </c>
@@ -46738,7 +45152,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="14.1" customHeight="1">
+    <row r="71" spans="1:14" ht="14.1" customHeight="1">
       <c r="A71" s="16">
         <v>44895</v>
       </c>
@@ -46779,7 +45193,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="14.1" customHeight="1">
+    <row r="72" spans="1:14" ht="14.1" customHeight="1">
       <c r="A72" s="16">
         <v>44925</v>
       </c>
@@ -46820,7 +45234,7 @@
         <v>498.30156854831534</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="14.1" customHeight="1">
+    <row r="73" spans="1:14" ht="14.1" customHeight="1">
       <c r="A73" s="16">
         <v>44957</v>
       </c>
@@ -46861,7 +45275,7 @@
         <v>498.37951750781878</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14.1" customHeight="1">
+    <row r="74" spans="1:14" ht="14.1" customHeight="1">
       <c r="A74" s="16">
         <v>44985</v>
       </c>
@@ -46902,7 +45316,7 @@
         <v>499.4421306862356</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="14.1" customHeight="1">
+    <row r="75" spans="1:14" ht="14.1" customHeight="1">
       <c r="A75" s="16">
         <v>45016</v>
       </c>
@@ -46943,7 +45357,7 @@
         <v>513.19080303179044</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="14.1" customHeight="1">
+    <row r="76" spans="1:14" ht="14.1" customHeight="1">
       <c r="A76" s="16">
         <v>45044</v>
       </c>
@@ -46984,293 +45398,8 @@
         <v>513.19080303179044</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:13" ht="14.1" customHeight="1"/>
-    <row r="81" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="82" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="83" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="84" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="85" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="86" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="87" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="88" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="89" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="90" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="91" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="92" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="93" spans="14:17" ht="14.1" customHeight="1"/>
-    <row r="94" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N94" s="8"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N103" s="8"/>
-    </row>
-    <row r="104" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N106" s="8"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N113" s="8"/>
-    </row>
-    <row r="114" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N118" s="8"/>
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N127" s="8"/>
-    </row>
-    <row r="128" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N130" s="8"/>
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N132" s="8"/>
-    </row>
-    <row r="133" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N133" s="8"/>
-    </row>
-    <row r="134" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N142" s="8"/>
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N145" s="8"/>
-    </row>
-    <row r="146" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N146" s="8"/>
-    </row>
-    <row r="147" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N151" s="8"/>
-    </row>
-    <row r="152" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N152" s="8"/>
-    </row>
-    <row r="153" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N154" s="8"/>
-      <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N155" s="8"/>
-    </row>
-    <row r="156" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N156" s="8"/>
-    </row>
-    <row r="157" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N157" s="8"/>
-    </row>
-    <row r="158" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N158" s="8"/>
-    </row>
-    <row r="159" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N159" s="8"/>
-    </row>
-    <row r="160" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N160" s="8"/>
-    </row>
-    <row r="161" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N161" s="8"/>
-    </row>
-    <row r="162" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N162" s="8"/>
-    </row>
-    <row r="163" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N163" s="8"/>
-    </row>
-    <row r="164" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N164" s="8"/>
-    </row>
-    <row r="165" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N165" s="8"/>
-    </row>
-    <row r="166" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N166" s="8"/>
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N167" s="8"/>
-    </row>
-    <row r="168" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N168" s="8"/>
-    </row>
-    <row r="169" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N169" s="4"/>
-    </row>
-    <row r="170" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N170" s="4"/>
-    </row>
-    <row r="171" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N171" s="4"/>
-    </row>
-    <row r="172" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N172" s="4"/>
-    </row>
-    <row r="173" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N173" s="4"/>
-    </row>
-    <row r="174" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N174" s="4"/>
-    </row>
-    <row r="175" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N175" s="4"/>
-    </row>
-    <row r="176" spans="14:17" ht="14.1" customHeight="1">
-      <c r="N176" s="4"/>
-    </row>
-    <row r="177" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N177" s="4"/>
-    </row>
-    <row r="178" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N178" s="4"/>
-    </row>
-    <row r="179" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N179" s="4"/>
-    </row>
-    <row r="180" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N180" s="4"/>
-    </row>
-    <row r="181" spans="14:14" ht="14.1" customHeight="1">
-      <c r="N181" s="4"/>
+    <row r="77" spans="1:14" ht="14.1" customHeight="1">
+      <c r="N77" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1061,6 +1061,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1076,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1288,6 +1294,12 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1331,7 +1343,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1550,6 +1562,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1577,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1778,6 +1796,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>5893.6386663659068</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,7 +1844,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2039,6 +2063,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,7 +2078,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2267,6 +2297,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>2005.8338585977813</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,11 +2324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489715584"/>
-        <c:axId val="489717120"/>
+        <c:axId val="552102144"/>
+        <c:axId val="567488512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489715584"/>
+        <c:axId val="552102144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,14 +2371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489717120"/>
+        <c:crossAx val="567488512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489717120"/>
+        <c:axId val="567488512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489715584"/>
+        <c:crossAx val="552102144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,7 +2612,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2795,6 +2831,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,7 +2846,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3022,6 +3064,12 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3065,7 +3113,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3284,6 +3332,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3293,7 +3347,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3512,6 +3566,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>8743.2633591106132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8769.8776406979669</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8792.2998848275638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,7 +3614,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3773,6 +3833,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,7 +3848,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4001,6 +4067,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>3608.5233040918911</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3635.1375856792447</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3657.5598298088416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,11 +4094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558088576"/>
-        <c:axId val="558090496"/>
+        <c:axId val="507597568"/>
+        <c:axId val="507599104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558088576"/>
+        <c:axId val="507597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,14 +4141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558090496"/>
+        <c:crossAx val="507599104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558090496"/>
+        <c:axId val="507599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +4197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558088576"/>
+        <c:crossAx val="507597568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4310,7 +4382,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4529,6 +4601,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,7 +4616,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4756,6 +4834,12 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -4799,7 +4883,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5018,6 +5102,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,7 +5117,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5246,6 +5336,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>5685.7594224862769</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,7 +5384,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5507,6 +5603,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5516,7 +5618,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5735,6 +5837,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1992.344855106558</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,11 +5864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652330112"/>
-        <c:axId val="652331648"/>
+        <c:axId val="507631488"/>
+        <c:axId val="507633024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652330112"/>
+        <c:axId val="507631488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5803,14 +5911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652331648"/>
+        <c:crossAx val="507633024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="652331648"/>
+        <c:axId val="507633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,7 +5967,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652330112"/>
+        <c:crossAx val="507631488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6044,7 +6152,7 @@
               <c:f>'model2(1)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6263,6 +6371,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6272,7 +6386,7 @@
               <c:f>'model2(1)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6490,6 +6604,12 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6533,7 +6653,7 @@
               <c:f>'model2(1)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6752,6 +6872,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,7 +6887,7 @@
               <c:f>'model2(1)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6979,6 +7105,12 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7022,7 +7154,7 @@
               <c:f>'model2(1)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7241,6 +7373,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,7 +7388,7 @@
               <c:f>'model2(1)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7468,6 +7606,12 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7490,11 +7634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656720640"/>
-        <c:axId val="656722176"/>
+        <c:axId val="509361152"/>
+        <c:axId val="509379328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656720640"/>
+        <c:axId val="509361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7537,14 +7681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656722176"/>
+        <c:crossAx val="509379328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656722176"/>
+        <c:axId val="509379328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7593,7 +7737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656720640"/>
+        <c:crossAx val="509361152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7778,7 +7922,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7997,6 +8141,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8006,7 +8156,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8224,6 +8374,12 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8267,7 +8423,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8486,6 +8642,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8495,7 +8657,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8713,6 +8875,12 @@
                   <c:v>1042.2248546144406</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -8756,7 +8924,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8975,6 +9143,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8984,7 +9158,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9202,6 +9376,12 @@
                   <c:v>403.60667696629105</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9224,11 +9404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="657772544"/>
-        <c:axId val="657774464"/>
+        <c:axId val="510865792"/>
+        <c:axId val="510867328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="657772544"/>
+        <c:axId val="510865792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9271,14 +9451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657774464"/>
+        <c:crossAx val="510867328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657774464"/>
+        <c:axId val="510867328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9327,7 +9507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657772544"/>
+        <c:crossAx val="510865792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9512,7 +9692,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9731,6 +9911,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9740,7 +9926,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9958,6 +10144,12 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10001,7 +10193,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10220,6 +10412,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10229,7 +10427,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10448,6 +10646,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1735.2438323190659</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1736.385632525677</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1737.2281518785637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10490,7 +10694,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10709,6 +10913,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10718,7 +10928,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10937,6 +11147,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>786.83135369426805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>787.9731539008792</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>788.81567325376591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10958,11 +11174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658986496"/>
-        <c:axId val="658988032"/>
+        <c:axId val="515003904"/>
+        <c:axId val="515005440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658986496"/>
+        <c:axId val="515003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11005,14 +11221,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658988032"/>
+        <c:crossAx val="515005440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658988032"/>
+        <c:axId val="515005440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11061,7 +11277,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658986496"/>
+        <c:crossAx val="515003904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11246,7 +11462,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11465,6 +11681,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11474,7 +11696,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11692,6 +11914,12 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -11735,7 +11963,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11954,6 +12182,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11963,7 +12197,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12181,6 +12415,12 @@
                   <c:v>997.01821690428267</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12224,7 +12464,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12443,6 +12683,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12452,7 +12698,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12670,6 +12916,12 @@
                   <c:v>390.33094813854075</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -12692,11 +12944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663893888"/>
-        <c:axId val="663895424"/>
+        <c:axId val="515074688"/>
+        <c:axId val="515084672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="663893888"/>
+        <c:axId val="515074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12739,14 +12991,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663895424"/>
+        <c:crossAx val="515084672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="663895424"/>
+        <c:axId val="515084672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12795,7 +13047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663893888"/>
+        <c:crossAx val="515074688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12980,7 +13232,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13199,6 +13451,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13208,7 +13466,7 @@
               <c:f>'model2(2)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13426,6 +13684,12 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -13469,7 +13733,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13688,6 +13952,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13697,7 +13967,7 @@
               <c:f>'model2(2)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13915,6 +14185,12 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -13958,7 +14234,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14177,6 +14453,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14186,7 +14468,7 @@
               <c:f>'model2(2)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14404,6 +14686,12 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -14426,11 +14714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471940096"/>
-        <c:axId val="471941888"/>
+        <c:axId val="528547840"/>
+        <c:axId val="528549376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471940096"/>
+        <c:axId val="528547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14473,14 +14761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471941888"/>
+        <c:crossAx val="528549376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471941888"/>
+        <c:axId val="528549376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14529,7 +14817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471940096"/>
+        <c:crossAx val="528547840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14637,7 +14925,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14680,7 +14968,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14723,7 +15011,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14766,7 +15054,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14809,7 +15097,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14852,7 +15140,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14895,7 +15183,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14938,7 +15226,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15248,8 +15536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF76"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18402,6 +18692,76 @@
         <v>5571.5782036552628</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-325.47211688032309</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-227.44382821926422</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I77" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J77" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K77" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I78" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J78" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K78" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -18418,7 +18778,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22455,6 +22815,100 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="77" spans="1:15" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-70.83541503419481</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-49.500639634828609</v>
+      </c>
+      <c r="F77" s="22">
+        <v>1724.7864916140884</v>
+      </c>
+      <c r="G77" s="22">
+        <v>2468.1694596304528</v>
+      </c>
+      <c r="H77" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I77" s="22">
+        <v>8769.8776406979669</v>
+      </c>
+      <c r="J77" s="22">
+        <v>3635.1375856792447</v>
+      </c>
+      <c r="K77" s="21">
+        <v>6301.7081810675136</v>
+      </c>
+      <c r="L77" s="26">
+        <v>5.5983571383853049E-2</v>
+      </c>
+      <c r="M77" s="27">
+        <v>8.3802011708645194E-2</v>
+      </c>
+      <c r="N77" s="27">
+        <v>66.8045673873455</v>
+      </c>
+      <c r="O77" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-73.750605424920849</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-51.073826269164869</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1673.7126653449236</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2416.8410983351305</v>
+      </c>
+      <c r="H78" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I78" s="22">
+        <v>8792.2998848275638</v>
+      </c>
+      <c r="J78" s="22">
+        <v>3657.5598298088416</v>
+      </c>
+      <c r="K78" s="21">
+        <v>6375.4587864924342</v>
+      </c>
+      <c r="L78" s="26">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="M78" s="27">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N78" s="27">
+        <v>67.951847320001079</v>
+      </c>
+      <c r="O78" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22470,8 +22924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH76"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26688,6 +27144,106 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="77" spans="1:16" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-309.19851103630685</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-216.07163680830098</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I77" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J77" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K77" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L77" s="26">
+        <v>68.835098442807833</v>
+      </c>
+      <c r="M77" s="27">
+        <v>68.645170694118619</v>
+      </c>
+      <c r="N77" s="27">
+        <v>55.559808615747677</v>
+      </c>
+      <c r="O77" s="27">
+        <v>94.815894850860488</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I78" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K78" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L78" s="26">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="M78" s="27">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="N78" s="27">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="O78" s="27">
+        <v>88.005042619937171</v>
+      </c>
+      <c r="P78" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -26706,7 +27262,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30312,6 +30868,88 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="77" spans="1:13" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="20">
+        <v>827300</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2183975.1230284986</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K77" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L77" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M77" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="20">
+        <v>443699.03125</v>
+      </c>
+      <c r="E78" s="20">
+        <v>2166399.987299507</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K78" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L78" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M78" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -30330,7 +30968,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33483,6 +34121,76 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J77" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J78" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K78" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -33499,7 +34207,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37536,6 +38244,100 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="77" spans="1:15" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-16.185987171182685</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-11.310962429003865</v>
+      </c>
+      <c r="F77" s="22">
+        <v>64.809123938851741</v>
+      </c>
+      <c r="G77" s="22">
+        <v>92.741855985656059</v>
+      </c>
+      <c r="H77" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1736.385632525677</v>
+      </c>
+      <c r="J77" s="22">
+        <v>787.9731539008792</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1643.643776540021</v>
+      </c>
+      <c r="L77" s="26">
+        <v>5.5983571383853049E-2</v>
+      </c>
+      <c r="M77" s="27">
+        <v>8.3802011708645194E-2</v>
+      </c>
+      <c r="N77" s="27">
+        <v>66.8045673873455</v>
+      </c>
+      <c r="O77" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="21">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-17.545650969491497</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-12.1507277700585</v>
+      </c>
+      <c r="F78" s="22">
+        <v>52.658396168793239</v>
+      </c>
+      <c r="G78" s="22">
+        <v>76.038724369051195</v>
+      </c>
+      <c r="H78" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1737.2281518785637</v>
+      </c>
+      <c r="J78" s="22">
+        <v>788.81567325376591</v>
+      </c>
+      <c r="K78" s="21">
+        <v>1661.1894275095126</v>
+      </c>
+      <c r="L78" s="26">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="M78" s="27">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N78" s="27">
+        <v>67.951847320001079</v>
+      </c>
+      <c r="O78" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -37554,7 +38356,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41770,6 +42572,106 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="77" spans="1:16" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I77" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J77" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K77" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L77" s="26">
+        <v>68.835098442807833</v>
+      </c>
+      <c r="M77" s="27">
+        <v>68.645170694118619</v>
+      </c>
+      <c r="N77" s="27">
+        <v>55.559808615747677</v>
+      </c>
+      <c r="O77" s="27">
+        <v>94.815894850860488</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I78" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J78" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K78" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L78" s="26">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="M78" s="27">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="N78" s="27">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="O78" s="27">
+        <v>88.005042619937171</v>
+      </c>
+      <c r="P78" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -41788,7 +42690,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45394,6 +46296,88 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="77" spans="1:13" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="20">
+        <v>827300</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2183975.1230284986</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K77" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L77" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M77" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="20">
+        <v>443699.03125</v>
+      </c>
+      <c r="E78" s="20">
+        <v>2166399.987299507</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K78" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L78" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M78" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1067,6 +1067,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1079,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1300,6 +1303,9 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1343,7 +1349,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1568,6 +1574,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,7 +1586,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1801,6 +1810,9 @@
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
@@ -1844,7 +1856,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2069,6 +2081,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,7 +2093,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2302,6 +2317,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2324,11 +2342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552102144"/>
-        <c:axId val="567488512"/>
+        <c:axId val="401519360"/>
+        <c:axId val="401520896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="552102144"/>
+        <c:axId val="401519360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,14 +2389,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567488512"/>
+        <c:crossAx val="401520896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567488512"/>
+        <c:axId val="401520896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2445,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552102144"/>
+        <c:crossAx val="401519360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,7 +2630,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2837,6 +2855,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,7 +2867,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3070,6 +3091,9 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3113,7 +3137,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3338,6 +3362,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,7 +3374,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3572,6 +3599,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>8792.2998848275638</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8696.8981942673017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3644,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3839,6 +3869,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,7 +3881,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4073,6 +4106,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>3657.5598298088416</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3562.1581392485796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,11 +4130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507597568"/>
-        <c:axId val="507599104"/>
+        <c:axId val="403769216"/>
+        <c:axId val="403770752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507597568"/>
+        <c:axId val="403769216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,14 +4177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507599104"/>
+        <c:crossAx val="403770752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507599104"/>
+        <c:axId val="403770752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507597568"/>
+        <c:crossAx val="403769216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4382,7 +4418,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4607,6 +4643,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,7 +4655,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4840,6 +4879,9 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -4883,7 +4925,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5108,6 +5150,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,7 +5162,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5341,6 +5386,9 @@
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5384,7 +5432,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5609,6 +5657,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5618,7 +5669,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5842,6 +5893,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -5864,11 +5918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507631488"/>
-        <c:axId val="507633024"/>
+        <c:axId val="405957632"/>
+        <c:axId val="405967616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507631488"/>
+        <c:axId val="405957632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5911,14 +5965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507633024"/>
+        <c:crossAx val="405967616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507633024"/>
+        <c:axId val="405967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +6021,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507631488"/>
+        <c:crossAx val="405957632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6152,7 +6206,7 @@
               <c:f>'model2(1)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6377,6 +6431,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6386,7 +6443,7 @@
               <c:f>'model2(1)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6610,6 +6667,9 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6653,7 +6713,7 @@
               <c:f>'model2(1)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6878,6 +6938,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6887,7 +6950,7 @@
               <c:f>'model2(1)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7111,6 +7174,9 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7154,7 +7220,7 @@
               <c:f>'model2(1)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7379,6 +7445,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7388,7 +7457,7 @@
               <c:f>'model2(1)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7612,6 +7681,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7634,11 +7706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509361152"/>
-        <c:axId val="509379328"/>
+        <c:axId val="500912512"/>
+        <c:axId val="500914048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509361152"/>
+        <c:axId val="500912512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7681,14 +7753,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509379328"/>
+        <c:crossAx val="500914048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509379328"/>
+        <c:axId val="500914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7737,7 +7809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509361152"/>
+        <c:crossAx val="500912512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7922,7 +7994,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8147,6 +8219,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8156,7 +8231,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8380,6 +8455,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8423,7 +8501,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8648,6 +8726,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8657,7 +8738,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8881,6 +8962,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -8924,7 +9008,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9149,6 +9233,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9158,7 +9245,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9382,6 +9469,9 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9404,11 +9494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510865792"/>
-        <c:axId val="510867328"/>
+        <c:axId val="500995584"/>
+        <c:axId val="500997120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510865792"/>
+        <c:axId val="500995584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9451,14 +9541,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510867328"/>
+        <c:crossAx val="500997120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510867328"/>
+        <c:axId val="500997120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9507,7 +9597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510865792"/>
+        <c:crossAx val="500995584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9692,7 +9782,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9917,6 +10007,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9926,7 +10019,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10150,6 +10243,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10193,7 +10289,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10418,6 +10514,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10427,7 +10526,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10652,6 +10751,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1737.2281518785637</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1734.2266211375272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10694,7 +10796,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10919,6 +11021,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10928,7 +11033,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11153,6 +11258,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>788.81567325376591</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>785.8141425127294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11174,11 +11282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515003904"/>
-        <c:axId val="515005440"/>
+        <c:axId val="501058176"/>
+        <c:axId val="501064064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515003904"/>
+        <c:axId val="501058176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11221,14 +11329,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515005440"/>
+        <c:crossAx val="501064064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515005440"/>
+        <c:axId val="501064064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11277,7 +11385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515003904"/>
+        <c:crossAx val="501058176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11462,7 +11570,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11687,6 +11795,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11696,7 +11807,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11920,6 +12031,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -11963,7 +12077,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12188,6 +12302,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12197,7 +12314,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12421,6 +12538,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12464,7 +12584,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12689,6 +12809,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12698,7 +12821,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12922,6 +13045,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -12944,11 +13070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515074688"/>
-        <c:axId val="515084672"/>
+        <c:axId val="533987328"/>
+        <c:axId val="533988864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515074688"/>
+        <c:axId val="533987328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12991,14 +13117,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515084672"/>
+        <c:crossAx val="533988864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515084672"/>
+        <c:axId val="533988864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13047,7 +13173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515074688"/>
+        <c:crossAx val="533987328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13232,7 +13358,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13457,6 +13583,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13466,7 +13595,7 @@
               <c:f>'model2(2)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13690,6 +13819,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -13733,7 +13865,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13958,6 +14090,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13967,7 +14102,7 @@
               <c:f>'model2(2)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14191,6 +14326,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -14234,7 +14372,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14459,6 +14597,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14468,7 +14609,7 @@
               <c:f>'model2(2)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14692,6 +14833,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -14714,11 +14858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528547840"/>
-        <c:axId val="528549376"/>
+        <c:axId val="534049920"/>
+        <c:axId val="534051456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528547840"/>
+        <c:axId val="534049920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14761,14 +14905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528549376"/>
+        <c:crossAx val="534051456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528549376"/>
+        <c:axId val="534051456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14817,7 +14961,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528547840"/>
+        <c:crossAx val="534049920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14925,7 +15069,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14968,7 +15112,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15011,7 +15155,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15054,7 +15198,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15097,7 +15241,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15140,7 +15284,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15183,7 +15327,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15226,7 +15370,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15539,7 +15683,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18762,6 +18906,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I79" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J79" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K79" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -18778,7 +18957,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22909,6 +23088,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="79" spans="1:15" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-55.158700837574443</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-39.768350570179138</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1633.9443147747445</v>
+      </c>
+      <c r="G79" s="22">
+        <v>2266.2807069372939</v>
+      </c>
+      <c r="H79" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I79" s="22">
+        <v>8696.8981942673017</v>
+      </c>
+      <c r="J79" s="22">
+        <v>3562.1581392485796</v>
+      </c>
+      <c r="K79" s="21">
+        <v>6430.6174873300088</v>
+      </c>
+      <c r="L79" s="26">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="M79" s="27">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N79" s="27">
+        <v>69.063814485901545</v>
+      </c>
+      <c r="O79" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22927,7 +23153,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27244,6 +27470,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="79" spans="1:16" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I79" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K79" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L79" s="26">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="M79" s="27">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="N79" s="27">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="O79" s="27">
+        <v>84.629816630020372</v>
+      </c>
+      <c r="P79" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27262,7 +27538,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30950,6 +31226,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="79" spans="1:13" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="20">
+        <v>589925</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2143295.723269396</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K79" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L79" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M79" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -30968,7 +31285,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34191,6 +34508,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J79" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34207,7 +34559,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38338,6 +38690,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="79" spans="1:15" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="21">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-9.8144589615775342</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-7.0760340384009481</v>
+      </c>
+      <c r="F79" s="22">
+        <v>45.582362130392291</v>
+      </c>
+      <c r="G79" s="22">
+        <v>63.222734666437169</v>
+      </c>
+      <c r="H79" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1734.2266211375272</v>
+      </c>
+      <c r="J79" s="22">
+        <v>785.8141425127294</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1671.00388647109</v>
+      </c>
+      <c r="L79" s="26">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="M79" s="27">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N79" s="27">
+        <v>69.063814485901545</v>
+      </c>
+      <c r="O79" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -38356,7 +38755,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42672,6 +43071,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="79" spans="1:16" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I79" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J79" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K79" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L79" s="26">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="M79" s="27">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="N79" s="27">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="O79" s="27">
+        <v>84.629816630020372</v>
+      </c>
+      <c r="P79" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -42690,7 +43139,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46378,6 +46827,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="79" spans="1:13" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="20">
+        <v>589925</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2143295.723269396</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K79" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L79" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M79" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -4,59 +4,59 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="13" r:id="rId1"/>
     <sheet name="model2(1)&amp;RSI" sheetId="27" r:id="rId2"/>
     <sheet name="model2(1)&amp;KDJ" sheetId="24" r:id="rId3"/>
-    <sheet name="model2(1)turnover" sheetId="22" r:id="rId4"/>
+    <sheet name="model2(1)vol" sheetId="22" r:id="rId4"/>
     <sheet name="model2(2)" sheetId="21" r:id="rId5"/>
     <sheet name="model2(2)&amp;RSI" sheetId="28" r:id="rId6"/>
     <sheet name="model2(2)&amp;KDJ" sheetId="26" r:id="rId7"/>
-    <sheet name="model2(2)turnover" sheetId="23" r:id="rId8"/>
+    <sheet name="model2(2)vol" sheetId="23" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model2(1)'!$O$1:$O$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model2(1)&amp;KDJ'!$Q$1:$Q$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)&amp;RSI'!$Q$1:$Q$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(1)turnover'!$Q$1:$Q$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(1)vol'!$Q$1:$Q$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model2(2)'!$O$1:$O$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'model2(2)&amp;KDJ'!$Q$1:$Q$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model2(2)&amp;RSI'!$Q$1:$Q$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'model2(2)turnover'!$Q$1:$Q$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'model2(2)vol'!$Q$1:$Q$76</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)'!J1,0,0,COUNTA('model2(1)'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model2(1)&amp;KDJ'!J1,0,0,COUNTA('model2(1)&amp;KDJ'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)&amp;RSI'!J1,0,0,COUNTA('model2(1)&amp;RSI'!J:J)-1)</definedName>
-    <definedName name="金额" localSheetId="3">OFFSET('model2(1)turnover'!L1,0,0,COUNTA('model2(1)turnover'!L:L)-1)</definedName>
+    <definedName name="金额" localSheetId="3">OFFSET('model2(1)vol'!L1,0,0,COUNTA('model2(1)vol'!L:L)-1)</definedName>
     <definedName name="金额" localSheetId="4">OFFSET('model2(2)'!J1,0,0,COUNTA('model2(2)'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="6">OFFSET('model2(2)&amp;KDJ'!J1,0,0,COUNTA('model2(2)&amp;KDJ'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="5">OFFSET('model2(2)&amp;RSI'!J1,0,0,COUNTA('model2(2)&amp;RSI'!J:J)-1)</definedName>
-    <definedName name="金额" localSheetId="7">OFFSET('model2(2)turnover'!L1,0,0,COUNTA('model2(2)turnover'!L:L)-1)</definedName>
+    <definedName name="金额" localSheetId="7">OFFSET('model2(2)vol'!L1,0,0,COUNTA('model2(2)vol'!L:L)-1)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model2(1)'!A1,0,0,COUNTA('model2(1)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="2">OFFSET('model2(1)&amp;KDJ'!A1,0,0,COUNTA('model2(1)&amp;KDJ'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)&amp;RSI'!A1,0,0,COUNTA('model2(1)&amp;RSI'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="3">OFFSET('model2(1)turnover'!A1,0,0,COUNTA('model2(1)turnover'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="3">OFFSET('model2(1)vol'!A1,0,0,COUNTA('model2(1)vol'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="4">OFFSET('model2(2)'!A1,0,0,COUNTA('model2(2)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="6">OFFSET('model2(2)&amp;KDJ'!A1,0,0,COUNTA('model2(2)&amp;KDJ'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="5">OFFSET('model2(2)&amp;RSI'!A1,0,0,COUNTA('model2(2)&amp;RSI'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="7">OFFSET('model2(2)turnover'!A1,0,0,COUNTA('model2(2)turnover'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="7">OFFSET('model2(2)vol'!A1,0,0,COUNTA('model2(2)vol'!A:A)-1)</definedName>
     <definedName name="资产" localSheetId="0">OFFSET('model2(1)'!I1,0,0,COUNTA('model2(1)'!I:I)-1)</definedName>
     <definedName name="资产" localSheetId="2">OFFSET('model2(1)&amp;KDJ'!I1,0,0,COUNTA('model2(1)&amp;KDJ'!I:I)-1)</definedName>
     <definedName name="资产" localSheetId="1">OFFSET('model2(1)&amp;RSI'!I1,0,0,COUNTA('model2(1)&amp;RSI'!I:I)-1)</definedName>
-    <definedName name="资产" localSheetId="3">OFFSET('model2(1)turnover'!K1,0,0,COUNTA('model2(1)turnover'!K:K)-1)</definedName>
+    <definedName name="资产" localSheetId="3">OFFSET('model2(1)vol'!K1,0,0,COUNTA('model2(1)vol'!K:K)-1)</definedName>
     <definedName name="资产" localSheetId="4">OFFSET('model2(2)'!I1,0,0,COUNTA('model2(2)'!I:I)-1)</definedName>
     <definedName name="资产" localSheetId="6">OFFSET('model2(2)&amp;KDJ'!I1,0,0,COUNTA('model2(2)&amp;KDJ'!I:I)-1)</definedName>
     <definedName name="资产" localSheetId="5">OFFSET('model2(2)&amp;RSI'!I1,0,0,COUNTA('model2(2)&amp;RSI'!I:I)-1)</definedName>
-    <definedName name="资产" localSheetId="7">OFFSET('model2(2)turnover'!K1,0,0,COUNTA('model2(2)turnover'!K:K)-1)</definedName>
+    <definedName name="资产" localSheetId="7">OFFSET('model2(2)vol'!K1,0,0,COUNTA('model2(2)vol'!K:K)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model2(1)'!H1,0,0,COUNTA('model2(1)'!H:H)-1)</definedName>
     <definedName name="资金" localSheetId="2">OFFSET('model2(1)&amp;KDJ'!H1,0,0,COUNTA('model2(1)&amp;KDJ'!H:H)-1)</definedName>
     <definedName name="资金" localSheetId="1">OFFSET('model2(1)&amp;RSI'!H1,0,0,COUNTA('model2(1)&amp;RSI'!H:H)-1)</definedName>
-    <definedName name="资金" localSheetId="3">OFFSET('model2(1)turnover'!J1,0,0,COUNTA('model2(1)turnover'!J:J)-1)</definedName>
+    <definedName name="资金" localSheetId="3">OFFSET('model2(1)vol'!J1,0,0,COUNTA('model2(1)vol'!J:J)-1)</definedName>
     <definedName name="资金" localSheetId="4">OFFSET('model2(2)'!H1,0,0,COUNTA('model2(2)'!H:H)-1)</definedName>
     <definedName name="资金" localSheetId="6">OFFSET('model2(2)&amp;KDJ'!H1,0,0,COUNTA('model2(2)&amp;KDJ'!H:H)-1)</definedName>
     <definedName name="资金" localSheetId="5">OFFSET('model2(2)&amp;RSI'!H1,0,0,COUNTA('model2(2)&amp;RSI'!H:H)-1)</definedName>
-    <definedName name="资金" localSheetId="7">OFFSET('model2(2)turnover'!J1,0,0,COUNTA('model2(2)turnover'!J:J)-1)</definedName>
+    <definedName name="资金" localSheetId="7">OFFSET('model2(2)vol'!J1,0,0,COUNTA('model2(2)vol'!J:J)-1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -177,11 +177,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>turnover</t>
+    <t>vol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turnover mean</t>
+    <t>vol mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1070,6 +1070,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1082,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1306,6 +1309,9 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1349,7 +1355,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1577,6 +1583,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,7 +1595,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1813,6 +1822,9 @@
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
@@ -1856,7 +1868,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2084,6 +2096,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,7 +2108,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2320,6 +2335,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2342,11 +2360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401519360"/>
-        <c:axId val="401520896"/>
+        <c:axId val="465549568"/>
+        <c:axId val="465551360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="401519360"/>
+        <c:axId val="465549568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,14 +2407,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401520896"/>
+        <c:crossAx val="465551360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="401520896"/>
+        <c:axId val="465551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2463,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401519360"/>
+        <c:crossAx val="465549568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2630,7 +2648,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2858,6 +2876,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,7 +2888,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3094,6 +3115,9 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3137,7 +3161,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3365,6 +3389,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,7 +3401,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3602,6 +3629,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>8696.8981942673017</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8556.3790392937008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,7 +3674,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3872,6 +3902,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +3914,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4109,6 +4142,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>3562.1581392485796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3421.6389842749786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,11 +4166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403769216"/>
-        <c:axId val="403770752"/>
+        <c:axId val="466058624"/>
+        <c:axId val="466072704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403769216"/>
+        <c:axId val="466058624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,14 +4213,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403770752"/>
+        <c:crossAx val="466072704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403770752"/>
+        <c:axId val="466072704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403769216"/>
+        <c:crossAx val="466058624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,7 +4454,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4646,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,7 +4694,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4882,6 +4921,9 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -4925,7 +4967,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5153,6 +5195,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,7 +5207,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5389,6 +5434,9 @@
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5432,7 +5480,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5660,6 +5708,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5669,7 +5720,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5896,6 +5947,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -5918,11 +5972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405957632"/>
-        <c:axId val="405967616"/>
+        <c:axId val="466309888"/>
+        <c:axId val="466311424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405957632"/>
+        <c:axId val="466309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5965,14 +6019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405967616"/>
+        <c:crossAx val="466311424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405967616"/>
+        <c:axId val="466311424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6021,7 +6075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405957632"/>
+        <c:crossAx val="466309888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6180,7 +6234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(1)turnover'!$J$1</c:f>
+              <c:f>'model2(1)vol'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6203,10 +6257,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(1)turnover'!时间</c:f>
+              <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6434,16 +6488,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(1)turnover'!资金</c:f>
+              <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6670,6 +6727,9 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6687,7 +6747,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(1)turnover'!$K$1</c:f>
+              <c:f>'model2(1)vol'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6710,10 +6770,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(1)turnover'!时间</c:f>
+              <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6941,16 +7001,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(1)turnover'!资产</c:f>
+              <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7177,6 +7240,9 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7194,7 +7260,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(1)turnover'!$L$1</c:f>
+              <c:f>'model2(1)vol'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7217,10 +7283,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(1)turnover'!时间</c:f>
+              <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7448,16 +7514,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(1)turnover'!金额</c:f>
+              <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7684,6 +7753,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7706,11 +7778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500912512"/>
-        <c:axId val="500914048"/>
+        <c:axId val="466454400"/>
+        <c:axId val="466455936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500912512"/>
+        <c:axId val="466454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7753,14 +7825,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500914048"/>
+        <c:crossAx val="466455936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500914048"/>
+        <c:axId val="466455936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7809,7 +7881,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500912512"/>
+        <c:crossAx val="466454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7994,7 +8066,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8222,6 +8294,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8231,7 +8306,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8458,6 +8533,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8501,7 +8579,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8729,6 +8807,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,7 +8819,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8965,6 +9046,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9008,7 +9092,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9236,6 +9320,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9245,7 +9332,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9472,6 +9559,9 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9494,11 +9584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500995584"/>
-        <c:axId val="500997120"/>
+        <c:axId val="508562432"/>
+        <c:axId val="508564224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500995584"/>
+        <c:axId val="508562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,14 +9631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500997120"/>
+        <c:crossAx val="508564224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500997120"/>
+        <c:axId val="508564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9597,7 +9687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500995584"/>
+        <c:crossAx val="508562432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9782,7 +9872,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10010,6 +10100,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10019,7 +10112,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10246,6 +10339,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10289,7 +10385,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10517,6 +10613,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10526,7 +10625,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10754,6 +10853,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1734.2266211375272</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1730.3065395592596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10796,7 +10898,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11024,6 +11126,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11033,7 +11138,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11261,6 +11366,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>785.8141425127294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>781.89406093446178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11282,11 +11390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501058176"/>
-        <c:axId val="501064064"/>
+        <c:axId val="548164352"/>
+        <c:axId val="548165888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501058176"/>
+        <c:axId val="548164352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11329,14 +11437,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501064064"/>
+        <c:crossAx val="548165888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501064064"/>
+        <c:axId val="548165888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11385,7 +11493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501058176"/>
+        <c:crossAx val="548164352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11570,7 +11678,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11798,6 +11906,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11807,7 +11918,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12034,6 +12145,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -12077,7 +12191,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12305,6 +12419,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12314,7 +12431,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12541,6 +12658,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12584,7 +12704,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12812,6 +12932,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12821,7 +12944,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13048,6 +13171,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -13070,11 +13196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533987328"/>
-        <c:axId val="533988864"/>
+        <c:axId val="548206464"/>
+        <c:axId val="548208000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533987328"/>
+        <c:axId val="548206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13117,14 +13243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533988864"/>
+        <c:crossAx val="548208000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533988864"/>
+        <c:axId val="548208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13173,7 +13299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533987328"/>
+        <c:crossAx val="548206464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13332,7 +13458,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover'!$J$1</c:f>
+              <c:f>'model2(2)vol'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13355,10 +13481,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13586,16 +13712,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!资金</c:f>
+              <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13822,6 +13951,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -13839,7 +13971,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover'!$K$1</c:f>
+              <c:f>'model2(2)vol'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13862,10 +13994,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14093,16 +14225,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!资产</c:f>
+              <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14329,6 +14464,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -14346,7 +14484,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover'!$L$1</c:f>
+              <c:f>'model2(2)vol'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14369,10 +14507,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14600,16 +14738,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!金额</c:f>
+              <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14836,6 +14977,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -14858,11 +15002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534049920"/>
-        <c:axId val="534051456"/>
+        <c:axId val="549678080"/>
+        <c:axId val="549696256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534049920"/>
+        <c:axId val="549678080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14905,14 +15049,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534051456"/>
+        <c:crossAx val="549696256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534051456"/>
+        <c:axId val="549696256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14961,7 +15105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534049920"/>
+        <c:crossAx val="549678080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15069,7 +15213,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15112,7 +15256,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15155,7 +15299,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15198,7 +15342,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15241,7 +15385,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15284,7 +15428,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15327,7 +15471,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15370,7 +15514,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15683,7 +15827,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18941,6 +19085,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J80" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K80" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -18957,7 +19136,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23135,6 +23314,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="80" spans="1:15" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-27.906391691906613</v>
+      </c>
+      <c r="E80" s="22">
+        <v>-21.449955197819282</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1612.4943595769253</v>
+      </c>
+      <c r="G80" s="22">
+        <v>2097.8551602717853</v>
+      </c>
+      <c r="H80" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I80" s="22">
+        <v>8556.3790392937008</v>
+      </c>
+      <c r="J80" s="22">
+        <v>3421.6389842749786</v>
+      </c>
+      <c r="K80" s="21">
+        <v>6458.5238790219155</v>
+      </c>
+      <c r="L80" s="26">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="M80" s="27">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N80" s="27">
+        <v>58.40203652570424</v>
+      </c>
+      <c r="O80" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23153,7 +23379,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27520,6 +27746,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="80" spans="1:16" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K80" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L80" s="26">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="M80" s="27">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="N80" s="27">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="O80" s="27">
+        <v>70.20939819255247</v>
+      </c>
+      <c r="P80" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27538,7 +27814,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31267,6 +31543,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="20">
+        <v>543149</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2120463.4883643081</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K80" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L80" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M80" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -31285,7 +31602,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34543,6 +34860,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J80" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34559,7 +34911,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38737,6 +39089,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="80" spans="1:15" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="21">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-2.5121506363294013</v>
+      </c>
+      <c r="E80" s="22">
+        <v>-1.9309382307232033</v>
+      </c>
+      <c r="F80" s="22">
+        <v>43.651423899669091</v>
+      </c>
+      <c r="G80" s="22">
+        <v>56.790502451840247</v>
+      </c>
+      <c r="H80" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1730.3065395592596</v>
+      </c>
+      <c r="J80" s="22">
+        <v>781.89406093446178</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1673.5160371074194</v>
+      </c>
+      <c r="L80" s="26">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="M80" s="27">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N80" s="27">
+        <v>58.40203652570424</v>
+      </c>
+      <c r="O80" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -38755,7 +39154,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43121,6 +43520,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="80" spans="1:16" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I80" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J80" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K80" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L80" s="26">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="M80" s="27">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="N80" s="27">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="O80" s="27">
+        <v>70.20939819255247</v>
+      </c>
+      <c r="P80" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43139,7 +43588,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46868,6 +47317,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="20">
+        <v>543149</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2120463.4883643081</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K80" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L80" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M80" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1073,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1085,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1312,6 +1315,9 @@
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>3887.8048077681256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1355,7 +1361,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1586,6 +1592,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +1604,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1825,6 +1834,9 @@
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5897.0503205355863</c:v>
                 </c:pt>
               </c:numCache>
@@ -1868,7 +1880,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2099,6 +2111,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2108,7 +2123,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2338,6 +2353,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2360,11 +2378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465549568"/>
-        <c:axId val="465551360"/>
+        <c:axId val="449014784"/>
+        <c:axId val="449016576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465549568"/>
+        <c:axId val="449014784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,14 +2425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465551360"/>
+        <c:crossAx val="449016576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465551360"/>
+        <c:axId val="449016576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2481,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465549568"/>
+        <c:crossAx val="449014784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,7 +2666,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2879,6 +2897,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2888,7 +2909,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3118,6 +3139,9 @@
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5134.7400550187222</c:v>
                 </c:pt>
               </c:numCache>
@@ -3161,7 +3185,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3392,6 +3416,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,7 +3428,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3632,6 +3659,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>8556.3790392937008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8459.629469986754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3674,7 +3704,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3905,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3947,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4145,6 +4178,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>3421.6389842749786</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3324.8894149680318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,11 +4202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466058624"/>
-        <c:axId val="466072704"/>
+        <c:axId val="451043712"/>
+        <c:axId val="451045248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466058624"/>
+        <c:axId val="451043712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,14 +4249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466072704"/>
+        <c:crossAx val="451045248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466072704"/>
+        <c:axId val="451045248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,7 +4305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466058624"/>
+        <c:crossAx val="451043712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4454,7 +4490,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4685,6 +4721,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4694,7 +4733,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4924,6 +4963,9 @@
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>3693.4145673797188</c:v>
                 </c:pt>
               </c:numCache>
@@ -4967,7 +5009,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5198,6 +5240,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,7 +5252,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5437,6 +5482,9 @@
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5689.000493947472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5480,7 +5528,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5711,6 +5759,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5771,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5950,6 +6001,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -5972,11 +6026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466309888"/>
-        <c:axId val="466311424"/>
+        <c:axId val="451094016"/>
+        <c:axId val="451095552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466309888"/>
+        <c:axId val="451094016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6019,14 +6073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466311424"/>
+        <c:crossAx val="451095552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466311424"/>
+        <c:axId val="451095552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,7 +6129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466309888"/>
+        <c:crossAx val="451094016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6260,7 +6314,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6491,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6500,7 +6557,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6730,6 +6787,9 @@
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1980.6068162113841</c:v>
                 </c:pt>
               </c:numCache>
@@ -6773,7 +6833,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7004,6 +7064,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7013,7 +7076,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7243,6 +7306,9 @@
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2799.4811971394251</c:v>
                 </c:pt>
               </c:numCache>
@@ -7286,7 +7352,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7517,6 +7583,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7526,7 +7595,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7756,6 +7825,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7778,11 +7850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466454400"/>
-        <c:axId val="466455936"/>
+        <c:axId val="451586688"/>
+        <c:axId val="451588480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466454400"/>
+        <c:axId val="451586688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7825,14 +7897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466455936"/>
+        <c:crossAx val="451588480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466455936"/>
+        <c:axId val="451588480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7881,7 +7953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466454400"/>
+        <c:crossAx val="451586688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8066,7 +8138,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8297,6 +8369,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8306,7 +8381,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8536,6 +8611,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -8579,7 +8657,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8810,6 +8888,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8819,7 +8900,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9049,6 +9130,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9092,7 +9176,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9323,6 +9407,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9332,7 +9419,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9562,6 +9649,9 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
               </c:numCache>
@@ -9584,11 +9674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508562432"/>
-        <c:axId val="508564224"/>
+        <c:axId val="482553856"/>
+        <c:axId val="482555392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508562432"/>
+        <c:axId val="482553856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9631,14 +9721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508564224"/>
+        <c:crossAx val="482555392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508564224"/>
+        <c:axId val="482555392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9687,7 +9777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508562432"/>
+        <c:crossAx val="482553856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9872,7 +9962,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10103,6 +10193,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10112,7 +10205,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10342,6 +10435,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -10385,7 +10481,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10616,6 +10712,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10625,7 +10724,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10856,6 +10955,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1730.3065395592596</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1727.687456623034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10898,7 +11000,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11129,6 +11231,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11138,7 +11243,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11369,6 +11474,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>781.89406093446178</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>779.27497799823618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11390,11 +11498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548164352"/>
-        <c:axId val="548165888"/>
+        <c:axId val="526411264"/>
+        <c:axId val="526412800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548164352"/>
+        <c:axId val="526411264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11437,14 +11545,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548165888"/>
+        <c:crossAx val="526412800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548165888"/>
+        <c:axId val="526412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11493,7 +11601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548164352"/>
+        <c:crossAx val="526411264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11678,7 +11786,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11909,6 +12017,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11918,7 +12029,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12148,6 +12259,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -12191,7 +12305,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12422,6 +12536,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12431,7 +12548,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12661,6 +12778,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12704,7 +12824,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12935,6 +13055,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12944,7 +13067,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13174,6 +13297,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -13196,11 +13322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548206464"/>
-        <c:axId val="548208000"/>
+        <c:axId val="526498432"/>
+        <c:axId val="526516608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548206464"/>
+        <c:axId val="526498432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13243,14 +13369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548208000"/>
+        <c:crossAx val="526516608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548208000"/>
+        <c:axId val="526516608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13299,7 +13425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548206464"/>
+        <c:crossAx val="526498432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13484,7 +13610,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13715,6 +13841,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13724,7 +13853,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13954,6 +14083,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -13997,7 +14129,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14228,6 +14360,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14237,7 +14372,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14467,6 +14602,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -14510,7 +14648,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14741,6 +14879,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14750,7 +14891,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14980,6 +15121,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -15002,11 +15146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549678080"/>
-        <c:axId val="549696256"/>
+        <c:axId val="526692352"/>
+        <c:axId val="526693888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549678080"/>
+        <c:axId val="526692352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15049,14 +15193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549696256"/>
+        <c:crossAx val="526693888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549696256"/>
+        <c:axId val="526693888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15105,7 +15249,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549678080"/>
+        <c:crossAx val="526692352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15213,7 +15357,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15256,7 +15400,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15299,7 +15443,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15342,7 +15486,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15385,7 +15529,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15428,7 +15572,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15471,7 +15615,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15514,7 +15658,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15827,7 +15971,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19120,6 +19264,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>3887.8048077681256</v>
+      </c>
+      <c r="I81" s="22">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="J81" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K81" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19136,7 +19315,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23361,6 +23540,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="81" spans="1:15" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>-9.169470594120444</v>
+      </c>
+      <c r="E81" s="22">
+        <v>-7.3887753250425572</v>
+      </c>
+      <c r="F81" s="22">
+        <v>1605.1055842518826</v>
+      </c>
+      <c r="G81" s="22">
+        <v>1991.9361203707167</v>
+      </c>
+      <c r="H81" s="22">
+        <v>5134.7400550187222</v>
+      </c>
+      <c r="I81" s="22">
+        <v>8459.629469986754</v>
+      </c>
+      <c r="J81" s="22">
+        <v>3324.8894149680318</v>
+      </c>
+      <c r="K81" s="21">
+        <v>6467.6933496160364</v>
+      </c>
+      <c r="L81" s="26">
+        <v>2.9949638922363093E-2</v>
+      </c>
+      <c r="M81" s="27">
+        <v>6.561516760188689E-2</v>
+      </c>
+      <c r="N81" s="27">
+        <v>45.644383786504008</v>
+      </c>
+      <c r="O81" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23379,7 +23605,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27796,6 +28022,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="81" spans="1:16" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>3693.4145673797188</v>
+      </c>
+      <c r="I81" s="22">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="J81" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K81" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L81" s="26">
+        <v>41.742288695769702</v>
+      </c>
+      <c r="M81" s="27">
+        <v>58.235087220245759</v>
+      </c>
+      <c r="N81" s="27">
+        <v>62.490049491714892</v>
+      </c>
+      <c r="O81" s="27">
+        <v>49.725162677307495</v>
+      </c>
+      <c r="P81" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27814,7 +28090,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31584,6 +31860,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="81" spans="1:13" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="20">
+        <v>336800</v>
+      </c>
+      <c r="E81" s="20">
+        <v>2097484.440812361</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
+        <v>1980.6068162113841</v>
+      </c>
+      <c r="K81" s="22">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="L81" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M81" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -31602,7 +31919,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34895,6 +35212,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J81" s="22">
+        <v>402.58809456262395</v>
+      </c>
+      <c r="K81" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34911,7 +35263,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39136,6 +39488,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="81" spans="1:15" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="21">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>-0.271223196698192</v>
+      </c>
+      <c r="E81" s="22">
+        <v>-0.21855212280496919</v>
+      </c>
+      <c r="F81" s="22">
+        <v>43.432871776864118</v>
+      </c>
+      <c r="G81" s="22">
+        <v>53.900196318916414</v>
+      </c>
+      <c r="H81" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1727.687456623034</v>
+      </c>
+      <c r="J81" s="22">
+        <v>779.27497799823618</v>
+      </c>
+      <c r="K81" s="21">
+        <v>1673.7872603041176</v>
+      </c>
+      <c r="L81" s="26">
+        <v>2.9949638922363093E-2</v>
+      </c>
+      <c r="M81" s="27">
+        <v>6.561516760188689E-2</v>
+      </c>
+      <c r="N81" s="27">
+        <v>45.644383786504008</v>
+      </c>
+      <c r="O81" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39154,7 +39553,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43570,6 +43969,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="81" spans="1:16" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I81" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J81" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K81" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L81" s="26">
+        <v>41.742288695769702</v>
+      </c>
+      <c r="M81" s="27">
+        <v>58.235087220245759</v>
+      </c>
+      <c r="N81" s="27">
+        <v>62.490049491714892</v>
+      </c>
+      <c r="O81" s="27">
+        <v>49.725162677307495</v>
+      </c>
+      <c r="P81" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43588,7 +44037,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47358,6 +47807,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="81" spans="1:13" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="20">
+        <v>336800</v>
+      </c>
+      <c r="E81" s="20">
+        <v>2097484.440812361</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K81" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L81" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M81" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1076,6 +1076,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1088,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1319,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>3887.8048077681256</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3942.462549019066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,7 +1367,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1595,6 +1601,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,7 +1613,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1838,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>5897.0503205355863</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5951.7080617865267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,7 +1892,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2114,6 +2126,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,7 +2138,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2356,6 +2371,9 @@
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2009.2455127674607</c:v>
                 </c:pt>
               </c:numCache>
@@ -2378,11 +2396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449014784"/>
-        <c:axId val="449016576"/>
+        <c:axId val="517527808"/>
+        <c:axId val="517562368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449014784"/>
+        <c:axId val="517527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,14 +2443,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449016576"/>
+        <c:crossAx val="517562368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449016576"/>
+        <c:axId val="517562368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449014784"/>
+        <c:crossAx val="517527808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2666,7 +2684,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2900,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,7 +2930,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3143,6 +3164,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>5134.7400550187222</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5186.6649092071157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3209,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3419,6 +3443,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,7 +3455,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3661,7 +3688,10 @@
                   <c:v>8556.3790392937008</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8459.629469986754</c:v>
+                  <c:v>8459.6294699867522</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8409.0233849248343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,7 +3734,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3938,6 +3968,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +3980,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4180,7 +4213,10 @@
                   <c:v>3421.6389842749786</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3324.8894149680318</c:v>
+                  <c:v>3324.88941496803</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3222.3584757177186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,11 +4238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451043712"/>
-        <c:axId val="451045248"/>
+        <c:axId val="618358272"/>
+        <c:axId val="618374656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451043712"/>
+        <c:axId val="618358272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,14 +4285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451045248"/>
+        <c:crossAx val="618374656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451045248"/>
+        <c:axId val="618374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,7 +4341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451043712"/>
+        <c:crossAx val="618358272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4490,7 +4526,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4724,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4733,7 +4772,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4967,6 +5006,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>3693.4145673797188</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3745.3394215681124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5009,7 +5051,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5243,6 +5285,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5252,7 +5297,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5486,6 +5531,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>5689.000493947472</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5740.9253481358655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,7 +5576,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5762,6 +5810,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5771,7 +5822,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6004,6 +6055,9 @@
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1995.5859265677532</c:v>
                 </c:pt>
               </c:numCache>
@@ -6026,11 +6080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451094016"/>
-        <c:axId val="451095552"/>
+        <c:axId val="514163840"/>
+        <c:axId val="514165376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451094016"/>
+        <c:axId val="514163840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6073,14 +6127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451095552"/>
+        <c:crossAx val="514165376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451095552"/>
+        <c:axId val="514165376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6129,7 +6183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451094016"/>
+        <c:crossAx val="514163840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6314,7 +6368,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6548,6 +6602,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6557,7 +6614,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6791,6 +6848,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1980.6068162113841</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1986.8457267524557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6833,7 +6893,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7067,6 +7127,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7076,7 +7139,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7310,6 +7373,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2799.4811971394251</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2805.7201076804968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7352,7 +7418,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7586,6 +7652,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,7 +7664,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7828,6 +7897,9 @@
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>818.87438092804109</c:v>
                 </c:pt>
               </c:numCache>
@@ -7850,11 +7922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451586688"/>
-        <c:axId val="451588480"/>
+        <c:axId val="515119360"/>
+        <c:axId val="515125248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451586688"/>
+        <c:axId val="515119360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7897,14 +7969,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451588480"/>
+        <c:crossAx val="515125248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451588480"/>
+        <c:axId val="515125248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7953,7 +8025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451586688"/>
+        <c:crossAx val="515119360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8138,7 +8210,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8372,6 +8444,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8381,7 +8456,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8615,6 +8690,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>640.54557679566869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8657,7 +8735,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8891,6 +8969,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8900,7 +8981,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9133,6 +9214,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9176,7 +9260,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9410,6 +9494,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9419,7 +9506,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9653,6 +9740,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>402.58809456262395</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>400.66069541510478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9674,11 +9764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482553856"/>
-        <c:axId val="482555392"/>
+        <c:axId val="515321216"/>
+        <c:axId val="517497984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482553856"/>
+        <c:axId val="515321216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9721,14 +9811,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482555392"/>
+        <c:crossAx val="517497984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482555392"/>
+        <c:axId val="517497984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9777,7 +9867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482553856"/>
+        <c:crossAx val="515321216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9962,7 +10052,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10196,6 +10286,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10205,7 +10298,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10439,6 +10532,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>950.24350781494104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10481,7 +10577,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10715,6 +10811,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10724,7 +10823,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10958,6 +11057,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1727.687456623034</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1726.7486187892623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11000,7 +11102,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11234,6 +11336,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11243,7 +11348,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11477,6 +11582,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>779.27497799823618</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>776.50511097432127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11498,11 +11606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526411264"/>
-        <c:axId val="526412800"/>
+        <c:axId val="522404608"/>
+        <c:axId val="522406144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526411264"/>
+        <c:axId val="522404608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11545,14 +11653,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526412800"/>
+        <c:crossAx val="522406144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526412800"/>
+        <c:axId val="522406144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11601,7 +11709,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526411264"/>
+        <c:crossAx val="522404608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11786,7 +11894,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12020,6 +12128,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12029,7 +12140,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12263,6 +12374,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>608.51829795588515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12305,7 +12419,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12539,6 +12653,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12548,7 +12665,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12781,6 +12898,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12824,7 +12944,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13058,6 +13178,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13067,7 +13190,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13301,6 +13424,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>387.53226566491378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13322,11 +13448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526498432"/>
-        <c:axId val="526516608"/>
+        <c:axId val="522491776"/>
+        <c:axId val="522493312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526498432"/>
+        <c:axId val="522491776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13369,14 +13495,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526516608"/>
+        <c:crossAx val="522493312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526516608"/>
+        <c:axId val="522493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13425,7 +13551,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526498432"/>
+        <c:crossAx val="522491776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13610,7 +13736,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13844,6 +13970,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13853,7 +13982,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14087,6 +14216,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>317.73541628871601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14129,7 +14261,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14363,6 +14495,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14372,7 +14507,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14606,6 +14741,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>513.4108061014947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14648,7 +14786,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14882,6 +15020,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14891,7 +15032,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15125,6 +15266,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>195.67538981277869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15146,11 +15290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526692352"/>
-        <c:axId val="526693888"/>
+        <c:axId val="522529792"/>
+        <c:axId val="522535680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526692352"/>
+        <c:axId val="522529792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15193,14 +15337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526693888"/>
+        <c:crossAx val="522535680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526693888"/>
+        <c:axId val="522535680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15249,7 +15393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526692352"/>
+        <c:crossAx val="522529792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15968,10 +16112,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19299,6 +19441,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>54.657741250940553</v>
+      </c>
+      <c r="E82" s="22">
+        <v>46.477671169443127</v>
+      </c>
+      <c r="F82" s="22">
+        <v>46.477671169443127</v>
+      </c>
+      <c r="G82" s="22">
+        <v>54.657741250940553</v>
+      </c>
+      <c r="H82" s="22">
+        <v>3942.462549019066</v>
+      </c>
+      <c r="I82" s="22">
+        <v>5951.7080617865267</v>
+      </c>
+      <c r="J82" s="22">
+        <v>2009.2455127674607</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19315,7 +19492,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23387,13 +23564,13 @@
         <v>6301.7081810675136</v>
       </c>
       <c r="L77" s="26">
-        <v>5.5983571383853049E-2</v>
+        <v>4.9152973769025082E-2</v>
       </c>
       <c r="M77" s="27">
-        <v>8.3802011708645194E-2</v>
+        <v>7.2335007373018539E-2</v>
       </c>
       <c r="N77" s="27">
-        <v>66.8045673873455</v>
+        <v>67.951847320001079</v>
       </c>
       <c r="O77" s="27">
         <v>0.2</v>
@@ -23434,13 +23611,13 @@
         <v>6375.4587864924342</v>
       </c>
       <c r="L78" s="26">
-        <v>4.9152973769025082E-2</v>
+        <v>4.3127480048202861E-2</v>
       </c>
       <c r="M78" s="27">
-        <v>7.2335007373018539E-2</v>
+        <v>6.2445841384864087E-2</v>
       </c>
       <c r="N78" s="27">
-        <v>67.951847320001079</v>
+        <v>69.063814485901545</v>
       </c>
       <c r="O78" s="27">
         <v>0.2</v>
@@ -23481,13 +23658,13 @@
         <v>6430.6174873300088</v>
       </c>
       <c r="L79" s="26">
-        <v>4.3127480048202861E-2</v>
+        <v>3.5939566706835714E-2</v>
       </c>
       <c r="M79" s="27">
-        <v>6.2445841384864087E-2</v>
+        <v>6.153820798871934E-2</v>
       </c>
       <c r="N79" s="27">
-        <v>69.063814485901545</v>
+        <v>58.40203652570424</v>
       </c>
       <c r="O79" s="27">
         <v>0.2</v>
@@ -23528,13 +23705,13 @@
         <v>6458.5238790219155</v>
       </c>
       <c r="L80" s="26">
-        <v>3.5939566706835714E-2</v>
+        <v>2.9949638922363093E-2</v>
       </c>
       <c r="M80" s="27">
-        <v>6.153820798871934E-2</v>
+        <v>6.561516760188689E-2</v>
       </c>
       <c r="N80" s="27">
-        <v>58.40203652570424</v>
+        <v>45.644383786504008</v>
       </c>
       <c r="O80" s="27">
         <v>0.2</v>
@@ -23551,40 +23728,87 @@
         <v>1.2114211188663961</v>
       </c>
       <c r="D81" s="21">
-        <v>-9.169470594120444</v>
+        <v>-43.554985322072106</v>
       </c>
       <c r="E81" s="22">
-        <v>-7.3887753250425572</v>
+        <v>-35.096682793952148</v>
       </c>
       <c r="F81" s="22">
-        <v>1605.1055842518826</v>
+        <v>1577.3976767829731</v>
       </c>
       <c r="G81" s="22">
-        <v>1991.9361203707167</v>
+        <v>1957.550605642765</v>
       </c>
       <c r="H81" s="22">
         <v>5134.7400550187222</v>
       </c>
       <c r="I81" s="22">
-        <v>8459.629469986754</v>
+        <v>8459.6294699867522</v>
       </c>
       <c r="J81" s="22">
-        <v>3324.8894149680318</v>
+        <v>3324.88941496803</v>
       </c>
       <c r="K81" s="21">
-        <v>6467.6933496160364</v>
+        <v>6502.0788643439873</v>
       </c>
       <c r="L81" s="26">
-        <v>2.9949638922363093E-2</v>
+        <v>2.4958032435302577E-2</v>
       </c>
       <c r="M81" s="27">
-        <v>6.561516760188689E-2</v>
+        <v>6.4679296798162575E-2</v>
       </c>
       <c r="N81" s="27">
-        <v>45.644383786504008</v>
+        <v>38.587358970809944</v>
       </c>
       <c r="O81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>51.924854188393525</v>
+      </c>
+      <c r="E82" s="22">
+        <v>44.153787610970966</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1621.5514643939441</v>
+      </c>
+      <c r="G82" s="22">
+        <v>1906.9445205808463</v>
+      </c>
+      <c r="H82" s="22">
+        <v>5186.6649092071157</v>
+      </c>
+      <c r="I82" s="22">
+        <v>8409.0233849248343</v>
+      </c>
+      <c r="J82" s="22">
+        <v>3222.3584757177186</v>
+      </c>
+      <c r="K82" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L82" s="26">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="M82" s="27">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N82" s="27">
+        <v>38.587358970809944</v>
+      </c>
+      <c r="O82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -23602,10 +23826,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27857,16 +28079,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L77" s="26">
-        <v>68.835098442807833</v>
+        <v>71.104385321535176</v>
       </c>
       <c r="M77" s="27">
-        <v>68.645170694118619</v>
+        <v>69.464908903257466</v>
       </c>
       <c r="N77" s="27">
-        <v>55.559808615747677</v>
+        <v>60.194842044917607</v>
       </c>
       <c r="O77" s="27">
-        <v>94.815894850860488</v>
+        <v>88.005042619937171</v>
       </c>
       <c r="P77" s="27">
         <v>0.95</v>
@@ -27907,16 +28129,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L78" s="26">
-        <v>71.104385321535176</v>
+        <v>73.071104223370014</v>
       </c>
       <c r="M78" s="27">
-        <v>69.464908903257466</v>
+        <v>70.666974009961649</v>
       </c>
       <c r="N78" s="27">
-        <v>60.194842044917607</v>
+        <v>63.685552699932288</v>
       </c>
       <c r="O78" s="27">
-        <v>88.005042619937171</v>
+        <v>84.629816630020372</v>
       </c>
       <c r="P78" s="27">
         <v>0.95</v>
@@ -27957,16 +28179,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L79" s="26">
-        <v>73.071104223370014</v>
+        <v>58.110511427528067</v>
       </c>
       <c r="M79" s="27">
-        <v>70.666974009961649</v>
+        <v>66.481486482483788</v>
       </c>
       <c r="N79" s="27">
-        <v>63.685552699932288</v>
+        <v>64.617530627449455</v>
       </c>
       <c r="O79" s="27">
-        <v>84.629816630020372</v>
+        <v>70.20939819255247</v>
       </c>
       <c r="P79" s="27">
         <v>0.95</v>
@@ -28007,19 +28229,19 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L80" s="26">
-        <v>58.110511427528067</v>
+        <v>41.742288695769702</v>
       </c>
       <c r="M80" s="27">
-        <v>66.481486482483788</v>
+        <v>58.235087220245759</v>
       </c>
       <c r="N80" s="27">
-        <v>64.617530627449455</v>
+        <v>62.490049491714892</v>
       </c>
       <c r="O80" s="27">
-        <v>70.20939819255247</v>
+        <v>49.725162677307495</v>
       </c>
       <c r="P80" s="27">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75">
@@ -28057,19 +28279,69 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L81" s="26">
-        <v>41.742288695769702</v>
+        <v>30.853007280392731</v>
       </c>
       <c r="M81" s="27">
-        <v>58.235087220245759</v>
+        <v>49.107727240294743</v>
       </c>
       <c r="N81" s="27">
-        <v>62.490049491714892</v>
+        <v>58.02927540790818</v>
       </c>
       <c r="O81" s="27">
-        <v>49.725162677307495</v>
+        <v>31.264630905067875</v>
       </c>
       <c r="P81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>51.924854188393525</v>
+      </c>
+      <c r="E82" s="22">
+        <v>44.153787610970966</v>
+      </c>
+      <c r="F82" s="22">
+        <v>44.153787610970966</v>
+      </c>
+      <c r="G82" s="22">
+        <v>51.924854188393525</v>
+      </c>
+      <c r="H82" s="22">
+        <v>3745.3394215681124</v>
+      </c>
+      <c r="I82" s="22">
+        <v>5740.9253481358655</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1995.5859265677532</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L82" s="26">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="M82" s="27">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="N82" s="27">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="O82" s="27">
+        <v>31.264630905067875</v>
+      </c>
+      <c r="P82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -28087,10 +28359,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31901,6 +32171,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="20">
+        <v>237500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>2080685.9565690882</v>
+      </c>
+      <c r="F82" s="21">
+        <v>6.2389105410715286</v>
+      </c>
+      <c r="G82" s="22">
+        <v>5.3051960426283653</v>
+      </c>
+      <c r="H82" s="22">
+        <v>5.3051960426283653</v>
+      </c>
+      <c r="I82" s="22">
+        <v>6.2389105410715286</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1986.8457267524557</v>
+      </c>
+      <c r="K82" s="22">
+        <v>2805.7201076804968</v>
+      </c>
+      <c r="L82" s="22">
+        <v>818.87438092804109</v>
+      </c>
+      <c r="M82" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -31916,10 +32227,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35247,6 +35556,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.9273991475192054</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>640.54557679566869</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J82" s="22">
+        <v>400.66069541510478</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35263,7 +35607,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39335,13 +39679,13 @@
         <v>1643.643776540021</v>
       </c>
       <c r="L77" s="26">
-        <v>5.5983571383853049E-2</v>
+        <v>4.9152973769025082E-2</v>
       </c>
       <c r="M77" s="27">
-        <v>8.3802011708645194E-2</v>
+        <v>7.2335007373018539E-2</v>
       </c>
       <c r="N77" s="27">
-        <v>66.8045673873455</v>
+        <v>67.951847320001079</v>
       </c>
       <c r="O77" s="27">
         <v>0.2</v>
@@ -39382,13 +39726,13 @@
         <v>1661.1894275095126</v>
       </c>
       <c r="L78" s="26">
-        <v>4.9152973769025082E-2</v>
+        <v>4.3127480048202861E-2</v>
       </c>
       <c r="M78" s="27">
-        <v>7.2335007373018539E-2</v>
+        <v>6.2445841384864087E-2</v>
       </c>
       <c r="N78" s="27">
-        <v>67.951847320001079</v>
+        <v>69.063814485901545</v>
       </c>
       <c r="O78" s="27">
         <v>0.2</v>
@@ -39429,13 +39773,13 @@
         <v>1671.00388647109</v>
       </c>
       <c r="L79" s="26">
-        <v>4.3127480048202861E-2</v>
+        <v>3.5939566706835714E-2</v>
       </c>
       <c r="M79" s="27">
-        <v>6.2445841384864087E-2</v>
+        <v>6.153820798871934E-2</v>
       </c>
       <c r="N79" s="27">
-        <v>69.063814485901545</v>
+        <v>58.40203652570424</v>
       </c>
       <c r="O79" s="27">
         <v>0.2</v>
@@ -39476,13 +39820,13 @@
         <v>1673.5160371074194</v>
       </c>
       <c r="L80" s="26">
-        <v>3.5939566706835714E-2</v>
+        <v>2.9949638922363093E-2</v>
       </c>
       <c r="M80" s="27">
-        <v>6.153820798871934E-2</v>
+        <v>6.561516760188689E-2</v>
       </c>
       <c r="N80" s="27">
-        <v>58.40203652570424</v>
+        <v>45.644383786504008</v>
       </c>
       <c r="O80" s="27">
         <v>0.2</v>
@@ -39499,16 +39843,16 @@
         <v>1.2114211188663961</v>
       </c>
       <c r="D81" s="21">
-        <v>-0.271223196698192</v>
+        <v>-1.288310184316412</v>
       </c>
       <c r="E81" s="22">
-        <v>-0.21855212280496919</v>
+        <v>-1.0381225833236036</v>
       </c>
       <c r="F81" s="22">
-        <v>43.432871776864118</v>
+        <v>42.613301316345485</v>
       </c>
       <c r="G81" s="22">
-        <v>53.900196318916414</v>
+        <v>52.883109331298193</v>
       </c>
       <c r="H81" s="22">
         <v>948.41247862479781</v>
@@ -39520,19 +39864,66 @@
         <v>779.27497799823618</v>
       </c>
       <c r="K81" s="21">
-        <v>1673.7872603041176</v>
+        <v>1674.8043472917359</v>
       </c>
       <c r="L81" s="26">
-        <v>2.9949638922363093E-2</v>
+        <v>2.4958032435302577E-2</v>
       </c>
       <c r="M81" s="27">
-        <v>6.561516760188689E-2</v>
+        <v>6.4679296798162575E-2</v>
       </c>
       <c r="N81" s="27">
-        <v>45.644383786504008</v>
+        <v>38.587358970809944</v>
       </c>
       <c r="O81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="21">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.8310291901432449</v>
+      </c>
+      <c r="E82" s="22">
+        <v>1.5569976119286679</v>
+      </c>
+      <c r="F82" s="22">
+        <v>44.17029892827415</v>
+      </c>
+      <c r="G82" s="22">
+        <v>51.944271497526323</v>
+      </c>
+      <c r="H82" s="22">
+        <v>950.24350781494104</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1726.7486187892623</v>
+      </c>
+      <c r="J82" s="22">
+        <v>776.50511097432127</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L82" s="26">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="M82" s="27">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N82" s="27">
+        <v>38.587358970809944</v>
+      </c>
+      <c r="O82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -39550,10 +39941,8 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43804,16 +44193,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L77" s="26">
-        <v>68.835098442807833</v>
+        <v>71.104385321535176</v>
       </c>
       <c r="M77" s="27">
-        <v>68.645170694118619</v>
+        <v>69.464908903257466</v>
       </c>
       <c r="N77" s="27">
-        <v>55.559808615747677</v>
+        <v>60.194842044917607</v>
       </c>
       <c r="O77" s="27">
-        <v>94.815894850860488</v>
+        <v>88.005042619937171</v>
       </c>
       <c r="P77" s="27">
         <v>0.95</v>
@@ -43854,16 +44243,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L78" s="26">
-        <v>71.104385321535176</v>
+        <v>73.071104223370014</v>
       </c>
       <c r="M78" s="27">
-        <v>69.464908903257466</v>
+        <v>70.666974009961649</v>
       </c>
       <c r="N78" s="27">
-        <v>60.194842044917607</v>
+        <v>63.685552699932288</v>
       </c>
       <c r="O78" s="27">
-        <v>88.005042619937171</v>
+        <v>84.629816630020372</v>
       </c>
       <c r="P78" s="27">
         <v>0.95</v>
@@ -43904,16 +44293,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L79" s="26">
-        <v>73.071104223370014</v>
+        <v>58.110511427528067</v>
       </c>
       <c r="M79" s="27">
-        <v>70.666974009961649</v>
+        <v>66.481486482483788</v>
       </c>
       <c r="N79" s="27">
-        <v>63.685552699932288</v>
+        <v>64.617530627449455</v>
       </c>
       <c r="O79" s="27">
-        <v>84.629816630020372</v>
+        <v>70.20939819255247</v>
       </c>
       <c r="P79" s="27">
         <v>0.95</v>
@@ -43954,19 +44343,19 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L80" s="26">
-        <v>58.110511427528067</v>
+        <v>41.742288695769702</v>
       </c>
       <c r="M80" s="27">
-        <v>66.481486482483788</v>
+        <v>58.235087220245759</v>
       </c>
       <c r="N80" s="27">
-        <v>64.617530627449455</v>
+        <v>62.490049491714892</v>
       </c>
       <c r="O80" s="27">
-        <v>70.20939819255247</v>
+        <v>49.725162677307495</v>
       </c>
       <c r="P80" s="27">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75">
@@ -44004,19 +44393,69 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L81" s="26">
-        <v>41.742288695769702</v>
+        <v>30.853007280392731</v>
       </c>
       <c r="M81" s="27">
-        <v>58.235087220245759</v>
+        <v>49.107727240294743</v>
       </c>
       <c r="N81" s="27">
-        <v>62.490049491714892</v>
+        <v>58.02927540790818</v>
       </c>
       <c r="O81" s="27">
-        <v>49.725162677307495</v>
+        <v>31.264630905067875</v>
       </c>
       <c r="P81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.8310291901432449</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>608.51829795588515</v>
+      </c>
+      <c r="I82" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J82" s="22">
+        <v>387.53226566491378</v>
+      </c>
+      <c r="K82" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L82" s="26">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="M82" s="27">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="N82" s="27">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="O82" s="27">
+        <v>31.264630905067875</v>
+      </c>
+      <c r="P82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -44034,10 +44473,8 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47848,6 +48285,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="20">
+        <v>237500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>2080685.9565690882</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0.22000306970429231</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0.18707744037644836</v>
+      </c>
+      <c r="H82" s="22">
+        <v>0.18707744037644836</v>
+      </c>
+      <c r="I82" s="22">
+        <v>0.22000306970429231</v>
+      </c>
+      <c r="J82" s="22">
+        <v>317.73541628871601</v>
+      </c>
+      <c r="K82" s="22">
+        <v>513.4108061014947</v>
+      </c>
+      <c r="L82" s="22">
+        <v>195.67538981277869</v>
+      </c>
+      <c r="M82" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1079,6 +1079,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1094,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1325,6 +1331,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3942.462549019066</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3950.9794160171136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3962.6804019674473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,7 +1379,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1604,6 +1616,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,7 +1631,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1850,6 +1868,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5951.7080617865267</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5961.6192575899213</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5973.2131654186333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,7 +1916,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2129,6 +2153,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,7 +2168,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2375,6 +2405,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2009.2455127674607</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2010.6398415728077</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2010.5327634511859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,11 +2432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517527808"/>
-        <c:axId val="517562368"/>
+        <c:axId val="498139520"/>
+        <c:axId val="498141056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517527808"/>
+        <c:axId val="498139520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,14 +2479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517562368"/>
+        <c:crossAx val="498141056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517562368"/>
+        <c:axId val="498141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517527808"/>
+        <c:crossAx val="498139520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2684,7 +2720,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2921,6 +2957,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2972,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3167,6 +3209,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5186.6649092071157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5194.7559328552607</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5205.8718695080779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,7 +3257,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3446,6 +3494,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,7 +3509,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3692,6 +3746,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>8409.0233849248343</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8465.7609061118383</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8473.6203638122861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3734,7 +3794,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3971,6 +4031,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3980,7 +4046,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4217,6 +4283,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3222.3584757177186</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3271.0049732565776</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3267.7484943042082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4238,11 +4310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618358272"/>
-        <c:axId val="618374656"/>
+        <c:axId val="511512576"/>
+        <c:axId val="511514112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618358272"/>
+        <c:axId val="511512576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,14 +4357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618374656"/>
+        <c:crossAx val="511514112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618374656"/>
+        <c:axId val="511514112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,7 +4413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618358272"/>
+        <c:crossAx val="511512576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4526,7 +4598,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4763,6 +4835,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,7 +4850,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5009,6 +5087,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3745.3394215681124</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3753.4304452162578</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3764.5463818690746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5051,7 +5135,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5288,6 +5372,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,7 +5387,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5534,6 +5624,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5740.9253481358655</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5750.3409841490902</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5761.3551965863662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,7 +5672,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5813,6 +5909,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,7 +5924,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6059,6 +6161,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1995.5859265677532</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1996.9105389328324</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1996.8088147172916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6080,11 +6188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514163840"/>
-        <c:axId val="514165376"/>
+        <c:axId val="511556992"/>
+        <c:axId val="511562880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514163840"/>
+        <c:axId val="511556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,14 +6235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514165376"/>
+        <c:crossAx val="511562880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514165376"/>
+        <c:axId val="511562880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6183,7 +6291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514163840"/>
+        <c:crossAx val="511556992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6368,7 +6476,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6605,6 +6713,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6614,7 +6728,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6851,6 +6965,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1986.8457267524557</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1987.8192724956932</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1990.0742505012997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6893,7 +7013,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7130,6 +7250,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7139,7 +7265,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7376,6 +7502,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2805.7201076804968</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2806.8528091532303</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2809.0955624203825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7418,7 +7550,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7655,6 +7787,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7664,7 +7802,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7901,6 +8039,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>818.87438092804109</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>819.03353665753707</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>819.02131191908279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7922,11 +8066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515119360"/>
-        <c:axId val="515125248"/>
+        <c:axId val="511724544"/>
+        <c:axId val="511730432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515119360"/>
+        <c:axId val="511724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7969,14 +8113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515125248"/>
+        <c:crossAx val="511730432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515125248"/>
+        <c:axId val="511730432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8025,7 +8169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515119360"/>
+        <c:crossAx val="511724544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8210,7 +8354,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8447,6 +8591,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,7 +8606,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8693,6 +8843,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>640.54557679566869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>640.59237487532187</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>640.68070588965088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8735,7 +8891,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8972,6 +9128,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8981,7 +9143,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9217,6 +9379,12 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9260,7 +9428,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9497,6 +9665,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9506,7 +9680,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9743,6 +9917,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>400.66069541510478</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>400.61389733545161</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>400.5255663211226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9764,11 +9944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515321216"/>
-        <c:axId val="517497984"/>
+        <c:axId val="511904768"/>
+        <c:axId val="511914752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515321216"/>
+        <c:axId val="511904768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9811,14 +9991,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517497984"/>
+        <c:crossAx val="511914752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517497984"/>
+        <c:axId val="511914752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9867,7 +10047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515321216"/>
+        <c:crossAx val="511904768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10052,7 +10232,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10289,6 +10469,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10298,7 +10484,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10535,6 +10721,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>950.24350781494104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>950.28796599061161</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>950.37188045422408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10577,7 +10769,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10814,6 +11006,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10823,7 +11021,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11060,6 +11258,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1726.7486187892623</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1728.1181846690586</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1728.1136859447943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11102,7 +11306,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11339,6 +11543,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11348,7 +11558,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11585,6 +11795,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>776.50511097432127</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>777.83021867844695</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>777.74180549057019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11606,11 +11822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522404608"/>
-        <c:axId val="522406144"/>
+        <c:axId val="524040832"/>
+        <c:axId val="524050816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522404608"/>
+        <c:axId val="524040832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11653,14 +11869,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522406144"/>
+        <c:crossAx val="524050816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522406144"/>
+        <c:axId val="524050816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11709,7 +11925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522404608"/>
+        <c:crossAx val="524040832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11894,7 +12110,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12131,6 +12347,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12140,7 +12362,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12377,6 +12599,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>608.51829795588515</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>608.56275613155572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>608.64667059516819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12419,7 +12647,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12656,6 +12884,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12665,7 +12899,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12901,6 +13135,12 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -12944,7 +13184,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13181,6 +13421,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13190,7 +13436,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13427,6 +13673,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>387.53226566491378</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>387.48780748924321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>387.40389302563074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13448,11 +13700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522491776"/>
-        <c:axId val="522493312"/>
+        <c:axId val="533862656"/>
+        <c:axId val="533868544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522491776"/>
+        <c:axId val="533862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13495,14 +13747,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522493312"/>
+        <c:crossAx val="533868544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522493312"/>
+        <c:axId val="533868544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13551,7 +13803,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522491776"/>
+        <c:crossAx val="533862656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13736,7 +13988,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13973,6 +14225,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13982,7 +14240,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14219,6 +14477,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>317.73541628871601</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>317.74076568201389</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>317.75778856327963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14261,7 +14525,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14498,6 +14762,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14507,7 +14777,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14744,6 +15014,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>513.4108061014947</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>513.42176781265152</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>513.43840767266863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14786,7 +15062,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15023,6 +15299,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15032,7 +15314,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15269,6 +15551,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>195.67538981277869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>195.68100213063764</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>195.680619109389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15290,11 +15578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522529792"/>
-        <c:axId val="522535680"/>
+        <c:axId val="536864640"/>
+        <c:axId val="536866176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522529792"/>
+        <c:axId val="536864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15337,14 +15625,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522535680"/>
+        <c:crossAx val="536866176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522535680"/>
+        <c:axId val="536866176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15393,7 +15681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522529792"/>
+        <c:crossAx val="536864640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16113,7 +16401,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19476,6 +19764,76 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>8.5168669980476341</v>
+      </c>
+      <c r="E83" s="22">
+        <v>7.0620789443036953</v>
+      </c>
+      <c r="F83" s="22">
+        <v>53.53975011374682</v>
+      </c>
+      <c r="G83" s="22">
+        <v>64.56893705433464</v>
+      </c>
+      <c r="H83" s="22">
+        <v>3950.9794160171136</v>
+      </c>
+      <c r="I83" s="22">
+        <v>5961.6192575899213</v>
+      </c>
+      <c r="J83" s="22">
+        <v>2010.6398415728077</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>11.700985950333587</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.7184268998392387</v>
+      </c>
+      <c r="F84" s="22">
+        <v>63.258177013586057</v>
+      </c>
+      <c r="G84" s="22">
+        <v>76.162844883046816</v>
+      </c>
+      <c r="H84" s="22">
+        <v>3962.6804019674473</v>
+      </c>
+      <c r="I84" s="22">
+        <v>5973.2131654186333</v>
+      </c>
+      <c r="J84" s="22">
+        <v>2010.5327634511859</v>
+      </c>
+      <c r="K84" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19492,7 +19850,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23799,15 +24157,109 @@
         <v>6502.0788643439873</v>
       </c>
       <c r="L82" s="26">
-        <v>2.4958032435302577E-2</v>
+        <v>2.0798360362752146E-2</v>
       </c>
       <c r="M82" s="27">
-        <v>6.4679296798162575E-2</v>
+        <v>6.4732756868545308E-2</v>
       </c>
       <c r="N82" s="27">
-        <v>38.587358970809944</v>
+        <v>32.129576073807549</v>
       </c>
       <c r="O82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>8.0910236481452529</v>
+      </c>
+      <c r="E83" s="22">
+        <v>6.7089749970885109</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1628.2604393910326</v>
+      </c>
+      <c r="G83" s="22">
+        <v>1963.6820417678503</v>
+      </c>
+      <c r="H83" s="22">
+        <v>5194.7559328552607</v>
+      </c>
+      <c r="I83" s="22">
+        <v>8465.7609061118383</v>
+      </c>
+      <c r="J83" s="22">
+        <v>3271.0049732565776</v>
+      </c>
+      <c r="K83" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L83" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M83" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N83" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>11.115936652816908</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.2325055548472772</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1637.4929449458798</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1971.5414994682994</v>
+      </c>
+      <c r="H84" s="22">
+        <v>5205.8718695080779</v>
+      </c>
+      <c r="I84" s="22">
+        <v>8473.6203638122861</v>
+      </c>
+      <c r="J84" s="22">
+        <v>3267.7484943042082</v>
+      </c>
+      <c r="K84" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M84" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N84" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -23827,7 +24279,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28329,18 +28781,118 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L82" s="26">
-        <v>30.853007280392731</v>
+        <v>9.3495941806654201</v>
       </c>
       <c r="M82" s="27">
-        <v>49.107727240294743</v>
+        <v>35.8550162204183</v>
       </c>
       <c r="N82" s="27">
-        <v>58.02927540790818</v>
+        <v>50.637855678744891</v>
       </c>
       <c r="O82" s="27">
-        <v>31.264630905067875</v>
+        <v>6.289337303765123</v>
       </c>
       <c r="P82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>8.0910236481452529</v>
+      </c>
+      <c r="E83" s="22">
+        <v>6.7089749970885109</v>
+      </c>
+      <c r="F83" s="22">
+        <v>50.862762608059477</v>
+      </c>
+      <c r="G83" s="22">
+        <v>61.340490201617911</v>
+      </c>
+      <c r="H83" s="22">
+        <v>3753.4304452162578</v>
+      </c>
+      <c r="I83" s="22">
+        <v>5750.3409841490902</v>
+      </c>
+      <c r="J83" s="22">
+        <v>1996.9105389328324</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L83" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M83" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N83" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>11.115936652816908</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.2325055548472772</v>
+      </c>
+      <c r="F84" s="22">
+        <v>60.095268162906756</v>
+      </c>
+      <c r="G84" s="22">
+        <v>72.35470263889448</v>
+      </c>
+      <c r="H84" s="22">
+        <v>3764.5463818690746</v>
+      </c>
+      <c r="I84" s="22">
+        <v>5761.3551965863662</v>
+      </c>
+      <c r="J84" s="22">
+        <v>1996.8088147172916</v>
+      </c>
+      <c r="K84" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L84" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M84" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N84" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O84" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -28360,7 +28912,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32212,6 +32764,88 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="83" spans="1:13" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="20">
+        <v>235100</v>
+      </c>
+      <c r="E83" s="20">
+        <v>2056724.5505921205</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0.9735457432374901</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0.80725187985323965</v>
+      </c>
+      <c r="H83" s="22">
+        <v>6.1124479224816053</v>
+      </c>
+      <c r="I83" s="22">
+        <v>7.3716120138049934</v>
+      </c>
+      <c r="J83" s="22">
+        <v>1987.8192724956932</v>
+      </c>
+      <c r="K83" s="22">
+        <v>2806.8528091532303</v>
+      </c>
+      <c r="L83" s="22">
+        <v>819.03353665753707</v>
+      </c>
+      <c r="M83" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="20">
+        <v>392114</v>
+      </c>
+      <c r="E84" s="20">
+        <v>2034663.0404028799</v>
+      </c>
+      <c r="F84" s="21">
+        <v>2.2549780056065787</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1.8729053262052704</v>
+      </c>
+      <c r="H84" s="22">
+        <v>7.9853532486868755</v>
+      </c>
+      <c r="I84" s="22">
+        <v>9.6143652809572924</v>
+      </c>
+      <c r="J84" s="22">
+        <v>1990.0742505012997</v>
+      </c>
+      <c r="K84" s="22">
+        <v>2809.0955624203825</v>
+      </c>
+      <c r="L84" s="22">
+        <v>819.02131191908279</v>
+      </c>
+      <c r="M84" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -32228,7 +32862,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35591,6 +36225,76 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.6798079653182528E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>640.59237487532187</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J83" s="22">
+        <v>400.61389733545161</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.8331014328970323E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>640.68070588965088</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J84" s="22">
+        <v>400.5255663211226</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35607,7 +36311,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39914,15 +40618,109 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L82" s="26">
-        <v>2.4958032435302577E-2</v>
+        <v>2.0798360362752146E-2</v>
       </c>
       <c r="M82" s="27">
-        <v>6.4679296798162575E-2</v>
+        <v>6.4732756868545308E-2</v>
       </c>
       <c r="N82" s="27">
-        <v>38.587358970809944</v>
+        <v>32.129576073807549</v>
       </c>
       <c r="O82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="21">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.4458175670523403E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>3.6864159834470875E-2</v>
+      </c>
+      <c r="F83" s="22">
+        <v>44.207163088108622</v>
+      </c>
+      <c r="G83" s="22">
+        <v>53.313837377322685</v>
+      </c>
+      <c r="H83" s="22">
+        <v>950.28796599061161</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1728.1181846690586</v>
+      </c>
+      <c r="J83" s="22">
+        <v>777.83021867844695</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L83" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M83" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N83" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="21">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.3914463612521806E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>6.969639857009341E-2</v>
+      </c>
+      <c r="F84" s="22">
+        <v>44.276859486678717</v>
+      </c>
+      <c r="G84" s="22">
+        <v>53.309338653058362</v>
+      </c>
+      <c r="H84" s="22">
+        <v>950.37188045422408</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1728.1136859447943</v>
+      </c>
+      <c r="J84" s="22">
+        <v>777.74180549057019</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M84" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N84" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -39942,7 +40740,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44443,18 +45241,118 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L82" s="26">
-        <v>30.853007280392731</v>
+        <v>9.3495941806654201</v>
       </c>
       <c r="M82" s="27">
-        <v>49.107727240294743</v>
+        <v>35.8550162204183</v>
       </c>
       <c r="N82" s="27">
-        <v>58.02927540790818</v>
+        <v>50.637855678744891</v>
       </c>
       <c r="O82" s="27">
-        <v>31.264630905067875</v>
+        <v>6.289337303765123</v>
       </c>
       <c r="P82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.4458175670523403E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>608.56275613155572</v>
+      </c>
+      <c r="I83" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J83" s="22">
+        <v>387.48780748924321</v>
+      </c>
+      <c r="K83" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L83" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M83" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N83" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.3914463612521806E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>608.64667059516819</v>
+      </c>
+      <c r="I84" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J84" s="22">
+        <v>387.40389302563074</v>
+      </c>
+      <c r="K84" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L84" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M84" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N84" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O84" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44474,7 +45372,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48326,6 +49224,88 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="83" spans="1:13" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="20">
+        <v>235100</v>
+      </c>
+      <c r="E83" s="20">
+        <v>2056724.5505921205</v>
+      </c>
+      <c r="F83" s="21">
+        <v>5.3493932978510546E-3</v>
+      </c>
+      <c r="G83" s="22">
+        <v>4.4356496094412707E-3</v>
+      </c>
+      <c r="H83" s="22">
+        <v>0.19151308998588962</v>
+      </c>
+      <c r="I83" s="22">
+        <v>0.2309647808611083</v>
+      </c>
+      <c r="J83" s="22">
+        <v>317.74076568201389</v>
+      </c>
+      <c r="K83" s="22">
+        <v>513.42176781265152</v>
+      </c>
+      <c r="L83" s="22">
+        <v>195.68100213063764</v>
+      </c>
+      <c r="M83" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="20">
+        <v>392114</v>
+      </c>
+      <c r="E84" s="20">
+        <v>2034663.0404028799</v>
+      </c>
+      <c r="F84" s="21">
+        <v>1.7022881265750859E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1.4138605747246976E-2</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0.2056516957331366</v>
+      </c>
+      <c r="I84" s="22">
+        <v>0.2476046408781975</v>
+      </c>
+      <c r="J84" s="22">
+        <v>317.75778856327963</v>
+      </c>
+      <c r="K84" s="22">
+        <v>513.43840767266863</v>
+      </c>
+      <c r="L84" s="22">
+        <v>195.680619109389</v>
+      </c>
+      <c r="M84" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1085,6 +1085,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1097,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1337,6 +1340,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3962.6804019674473</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4326.5405219681797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1385,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1622,6 +1628,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1640,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1874,6 +1883,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5973.2131654186333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6322.5871646327578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,7 +1928,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2159,6 +2171,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,7 +2183,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2411,6 +2426,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>2010.5327634511859</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1996.046642664578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,11 +2450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498139520"/>
-        <c:axId val="498141056"/>
+        <c:axId val="435412352"/>
+        <c:axId val="435414144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498139520"/>
+        <c:axId val="435412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,14 +2497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498141056"/>
+        <c:crossAx val="435414144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498141056"/>
+        <c:axId val="435414144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2553,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498139520"/>
+        <c:crossAx val="435412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2720,7 +2738,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2963,6 +2981,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,7 +2993,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3215,6 +3236,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5205.8718695080779</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5551.5389835087735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,7 +3281,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3500,6 +3524,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,7 +3536,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3752,6 +3779,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8473.6203638122861</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8444.3016387077896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,7 +3824,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4037,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,7 +4079,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4289,6 +4322,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3267.7484943042082</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2892.7626551990161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,11 +4346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511512576"/>
-        <c:axId val="511514112"/>
+        <c:axId val="435485696"/>
+        <c:axId val="435491584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511512576"/>
+        <c:axId val="435485696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,14 +4393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511514112"/>
+        <c:crossAx val="435491584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511514112"/>
+        <c:axId val="435491584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4413,7 +4449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511512576"/>
+        <c:crossAx val="435485696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4598,7 +4634,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4841,6 +4877,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4850,7 +4889,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5093,6 +5132,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3764.5463818690746</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4110.2134958697707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5135,7 +5177,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5378,6 +5420,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5387,7 +5432,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5630,6 +5675,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>5761.3551965863662</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6093.2604958397851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5672,7 +5720,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5915,6 +5963,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5924,7 +5975,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6167,6 +6218,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1996.8088147172916</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1983.0469999700144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6188,11 +6242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511556992"/>
-        <c:axId val="511562880"/>
+        <c:axId val="435550848"/>
+        <c:axId val="436736384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511556992"/>
+        <c:axId val="435550848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,14 +6289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511562880"/>
+        <c:crossAx val="436736384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511562880"/>
+        <c:axId val="436736384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,7 +6345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511556992"/>
+        <c:crossAx val="435550848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6476,7 +6530,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6719,6 +6773,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6728,7 +6785,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6971,6 +7028,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1990.0742505012997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2110.9250413985901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7013,7 +7073,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7256,6 +7316,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7265,7 +7328,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7508,6 +7571,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>2809.0955624203825</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2928.1177076445711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7550,7 +7616,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7793,6 +7859,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7802,7 +7871,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8045,6 +8114,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>819.02131191908279</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>817.19266624598094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8066,11 +8138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511724544"/>
-        <c:axId val="511730432"/>
+        <c:axId val="447944960"/>
+        <c:axId val="447946752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511724544"/>
+        <c:axId val="447944960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8113,14 +8185,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511730432"/>
+        <c:crossAx val="447946752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511730432"/>
+        <c:axId val="447946752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8169,7 +8241,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511724544"/>
+        <c:crossAx val="447944960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8354,7 +8426,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8597,6 +8669,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8606,7 +8681,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8849,6 +8924,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>640.68070588965088</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>726.09631035864925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8891,7 +8969,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9134,6 +9212,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9143,7 +9224,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9385,6 +9466,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9428,7 +9512,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9671,6 +9755,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9680,7 +9767,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9923,6 +10010,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>400.5255663211226</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>315.10996185212423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9944,11 +10034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511904768"/>
-        <c:axId val="511914752"/>
+        <c:axId val="447998208"/>
+        <c:axId val="448147456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511904768"/>
+        <c:axId val="447998208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9991,14 +10081,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511914752"/>
+        <c:crossAx val="448147456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511914752"/>
+        <c:axId val="448147456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10047,7 +10137,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511904768"/>
+        <c:crossAx val="447998208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10232,7 +10322,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10475,6 +10565,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10484,7 +10577,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10727,6 +10820,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>950.37188045422408</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1031.5167046997726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10769,7 +10865,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11012,6 +11108,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11021,7 +11120,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11264,6 +11363,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1728.1136859447943</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1799.1191105924386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11306,7 +11408,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11549,6 +11651,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11558,7 +11663,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11801,6 +11906,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>777.74180549057019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>767.60240589266596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11822,11 +11930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524040832"/>
-        <c:axId val="524050816"/>
+        <c:axId val="461727616"/>
+        <c:axId val="461729152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524040832"/>
+        <c:axId val="461727616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11869,14 +11977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524050816"/>
+        <c:crossAx val="461729152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524050816"/>
+        <c:axId val="461729152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11925,7 +12033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524040832"/>
+        <c:crossAx val="461727616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12110,7 +12218,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12353,6 +12461,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12362,7 +12473,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12605,6 +12716,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>608.64667059516819</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>689.79149484071661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12647,7 +12761,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12890,6 +13004,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12899,7 +13016,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13141,6 +13258,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13184,7 +13304,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13427,6 +13547,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13436,7 +13559,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13679,6 +13802,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>387.40389302563074</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>306.25906878008232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13700,11 +13826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533862656"/>
-        <c:axId val="533868544"/>
+        <c:axId val="461821440"/>
+        <c:axId val="461822976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533862656"/>
+        <c:axId val="461821440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13747,14 +13873,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533868544"/>
+        <c:crossAx val="461822976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533868544"/>
+        <c:axId val="461822976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13803,7 +13929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533862656"/>
+        <c:crossAx val="461821440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13988,7 +14114,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14231,6 +14357,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14240,7 +14369,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14483,6 +14612,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>317.75778856327963</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>346.12732616203544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14525,7 +14657,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14768,6 +14900,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14777,7 +14912,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15020,6 +15155,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>513.43840767266863</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>541.76085103878916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15062,7 +15200,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15305,6 +15443,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15314,7 +15455,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15557,6 +15698,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>195.680619109389</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>195.63352487675371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15578,11 +15722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536864640"/>
-        <c:axId val="536866176"/>
+        <c:axId val="464594048"/>
+        <c:axId val="464595584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536864640"/>
+        <c:axId val="464594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15625,14 +15769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536866176"/>
+        <c:crossAx val="464595584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536866176"/>
+        <c:axId val="464595584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15681,7 +15825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536864640"/>
+        <c:crossAx val="464594048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15789,7 +15933,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15832,7 +15976,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15875,7 +16019,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15918,7 +16062,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15961,7 +16105,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16004,7 +16148,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16047,7 +16191,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16090,7 +16234,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16401,7 +16545,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19834,6 +19978,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>363.86012000073248</v>
+      </c>
+      <c r="E85" s="22">
+        <v>373.18985754173633</v>
+      </c>
+      <c r="F85" s="22">
+        <v>436.44803455532241</v>
+      </c>
+      <c r="G85" s="22">
+        <v>425.53684409717135</v>
+      </c>
+      <c r="H85" s="22">
+        <v>4326.5405219681797</v>
+      </c>
+      <c r="I85" s="22">
+        <v>6322.5871646327578</v>
+      </c>
+      <c r="J85" s="22">
+        <v>1996.046642664578</v>
+      </c>
+      <c r="K85" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19850,7 +20029,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24263,6 +24442,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="85" spans="1:15" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>345.66711400069585</v>
+      </c>
+      <c r="E85" s="22">
+        <v>354.53036466464948</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1992.0233096105294</v>
+      </c>
+      <c r="G85" s="22">
+        <v>1942.222774363803</v>
+      </c>
+      <c r="H85" s="22">
+        <v>5551.5389835087735</v>
+      </c>
+      <c r="I85" s="22">
+        <v>8444.3016387077896</v>
+      </c>
+      <c r="J85" s="22">
+        <v>2892.7626551990161</v>
+      </c>
+      <c r="K85" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L85" s="26">
+        <v>1.8609968500490449E-2</v>
+      </c>
+      <c r="M85" s="27">
+        <v>4.9453295115756829E-2</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.631402431181847</v>
+      </c>
+      <c r="O85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24279,7 +24505,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28896,6 +29122,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="85" spans="1:16" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>345.66711400069585</v>
+      </c>
+      <c r="E85" s="22">
+        <v>354.53036466464948</v>
+      </c>
+      <c r="F85" s="22">
+        <v>414.62563282755622</v>
+      </c>
+      <c r="G85" s="22">
+        <v>404.26000189231274</v>
+      </c>
+      <c r="H85" s="22">
+        <v>4110.2134958697707</v>
+      </c>
+      <c r="I85" s="22">
+        <v>6093.2604958397851</v>
+      </c>
+      <c r="J85" s="22">
+        <v>1983.0469999700144</v>
+      </c>
+      <c r="K85" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L85" s="26">
+        <v>15.040650454569146</v>
+      </c>
+      <c r="M85" s="27">
+        <v>24.381812756618189</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.089072088902171</v>
+      </c>
+      <c r="O85" s="27">
+        <v>-1.0327059079497758</v>
+      </c>
+      <c r="P85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -28912,7 +29188,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32846,6 +33122,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="85" spans="1:13" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="20">
+        <v>668836</v>
+      </c>
+      <c r="E85" s="20">
+        <v>2013745.5900279626</v>
+      </c>
+      <c r="F85" s="21">
+        <v>120.85079089729037</v>
+      </c>
+      <c r="G85" s="22">
+        <v>123.949526094465</v>
+      </c>
+      <c r="H85" s="22">
+        <v>131.93487934315186</v>
+      </c>
+      <c r="I85" s="22">
+        <v>128.63651050514571</v>
+      </c>
+      <c r="J85" s="22">
+        <v>2110.9250413985901</v>
+      </c>
+      <c r="K85" s="22">
+        <v>2928.1177076445711</v>
+      </c>
+      <c r="L85" s="22">
+        <v>817.19266624598094</v>
+      </c>
+      <c r="M85" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -32862,7 +33179,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36295,6 +36612,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>85.415604468998339</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>726.09631035864925</v>
+      </c>
+      <c r="I85" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J85" s="22">
+        <v>315.10996185212423</v>
+      </c>
+      <c r="K85" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -36311,7 +36663,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40724,6 +41076,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="85" spans="1:15" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="21">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>81.144824245548421</v>
+      </c>
+      <c r="E85" s="22">
+        <v>83.225458729537294</v>
+      </c>
+      <c r="F85" s="22">
+        <v>127.50231821621601</v>
+      </c>
+      <c r="G85" s="22">
+        <v>124.31476330070277</v>
+      </c>
+      <c r="H85" s="22">
+        <v>1031.5167046997726</v>
+      </c>
+      <c r="I85" s="22">
+        <v>1799.1191105924386</v>
+      </c>
+      <c r="J85" s="22">
+        <v>767.60240589266596</v>
+      </c>
+      <c r="K85" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L85" s="26">
+        <v>1.8609968500490449E-2</v>
+      </c>
+      <c r="M85" s="27">
+        <v>4.9453295115756829E-2</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.631402431181847</v>
+      </c>
+      <c r="O85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -40740,7 +41139,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45356,6 +45755,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="85" spans="1:16" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="21">
+        <v>81.144824245548421</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>689.79149484071661</v>
+      </c>
+      <c r="I85" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J85" s="22">
+        <v>306.25906878008232</v>
+      </c>
+      <c r="K85" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L85" s="26">
+        <v>15.040650454569146</v>
+      </c>
+      <c r="M85" s="27">
+        <v>24.381812756618189</v>
+      </c>
+      <c r="N85" s="27">
+        <v>37.089072088902171</v>
+      </c>
+      <c r="O85" s="27">
+        <v>-1.0327059079497758</v>
+      </c>
+      <c r="P85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -45372,7 +45821,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49306,6 +49755,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="85" spans="1:13" ht="12.75">
+      <c r="A85" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B85" s="25">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.2097484883584595</v>
+      </c>
+      <c r="D85" s="20">
+        <v>668836</v>
+      </c>
+      <c r="E85" s="20">
+        <v>2013745.5900279626</v>
+      </c>
+      <c r="F85" s="21">
+        <v>28.369537598755802</v>
+      </c>
+      <c r="G85" s="22">
+        <v>29.096960928236097</v>
+      </c>
+      <c r="H85" s="22">
+        <v>29.302612623969235</v>
+      </c>
+      <c r="I85" s="22">
+        <v>28.570048006998732</v>
+      </c>
+      <c r="J85" s="22">
+        <v>346.12732616203544</v>
+      </c>
+      <c r="K85" s="22">
+        <v>541.76085103878916</v>
+      </c>
+      <c r="L85" s="22">
+        <v>195.63352487675371</v>
+      </c>
+      <c r="M85" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1088,6 +1088,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,7 +1100,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1343,6 +1346,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>4326.5405219681797</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4353.8229600510713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1391,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1631,6 +1637,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,7 +1649,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1886,6 +1895,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>6322.5871646327578</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6444.142361114199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,7 +1940,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2174,6 +2186,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,7 +2198,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2429,6 +2444,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1996.046642664578</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2090.3194010631278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,11 +2468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435412352"/>
-        <c:axId val="435414144"/>
+        <c:axId val="425772928"/>
+        <c:axId val="425774464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435412352"/>
+        <c:axId val="425772928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,14 +2515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435414144"/>
+        <c:crossAx val="425774464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435414144"/>
+        <c:axId val="425774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435412352"/>
+        <c:crossAx val="425772928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2738,7 +2756,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2984,6 +3002,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,7 +3014,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3239,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>5551.5389835087735</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5577.4572996875213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,7 +3305,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3527,6 +3551,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,7 +3563,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3782,6 +3809,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>8444.3016387077896</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8900.4969118730114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,7 +3854,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4070,6 +4100,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,7 +4112,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4325,6 +4358,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2892.7626551990161</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3323.0396121854901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,11 +4382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435485696"/>
-        <c:axId val="435491584"/>
+        <c:axId val="425817600"/>
+        <c:axId val="425819136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435485696"/>
+        <c:axId val="425817600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,14 +4429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435491584"/>
+        <c:crossAx val="425819136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435491584"/>
+        <c:axId val="425819136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4449,7 +4485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435485696"/>
+        <c:crossAx val="425817600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4634,7 +4670,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4880,6 +4916,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4889,7 +4928,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5135,6 +5174,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>4110.2134958697707</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4137.4959339526622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,7 +5219,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5423,6 +5465,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5432,7 +5477,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5678,6 +5723,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>6093.2604958397851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6210.1020544012981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5768,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5966,6 +6014,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,7 +6026,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6221,6 +6272,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1983.0469999700144</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2072.6061204486359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6242,11 +6296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435550848"/>
-        <c:axId val="436736384"/>
+        <c:axId val="426357888"/>
+        <c:axId val="426359424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435550848"/>
+        <c:axId val="426357888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6289,14 +6343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436736384"/>
+        <c:crossAx val="426359424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436736384"/>
+        <c:axId val="426359424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,7 +6399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435550848"/>
+        <c:crossAx val="426357888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6530,7 +6584,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6776,6 +6830,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6785,7 +6842,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7031,6 +7088,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2110.9250413985901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2123.6704760526582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7073,7 +7133,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7319,6 +7379,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7328,7 +7391,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7574,6 +7637,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2928.1177076445711</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2969.3610710780208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7616,7 +7682,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7862,6 +7928,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7871,7 +7940,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8117,6 +8186,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>817.19266624598094</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>845.69059502536265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8138,11 +8210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447944960"/>
-        <c:axId val="447946752"/>
+        <c:axId val="426406656"/>
+        <c:axId val="426408192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447944960"/>
+        <c:axId val="426406656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8185,14 +8257,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447946752"/>
+        <c:crossAx val="426408192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447946752"/>
+        <c:axId val="426408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,7 +8313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447944960"/>
+        <c:crossAx val="426406656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8426,7 +8498,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8672,6 +8744,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8681,7 +8756,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8927,6 +9002,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>726.09631035864925</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>726.57652418300199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8969,7 +9047,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9215,6 +9293,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9224,7 +9305,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9469,6 +9550,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9512,7 +9596,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9758,6 +9842,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9767,7 +9854,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10013,6 +10100,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>315.10996185212423</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>314.62974802777148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10034,11 +10124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447998208"/>
-        <c:axId val="448147456"/>
+        <c:axId val="462582144"/>
+        <c:axId val="462583680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447998208"/>
+        <c:axId val="462582144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10081,14 +10171,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448147456"/>
+        <c:crossAx val="462583680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448147456"/>
+        <c:axId val="462583680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10137,7 +10227,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447998208"/>
+        <c:crossAx val="462582144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10322,7 +10412,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10568,6 +10658,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10577,7 +10670,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10823,6 +10916,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1031.5167046997726</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1031.9729078329078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10865,7 +10961,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11111,6 +11207,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11120,7 +11219,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11366,6 +11465,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1799.1191105924386</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1827.1158094748534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11408,7 +11510,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11654,6 +11756,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11663,7 +11768,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11909,6 +12014,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>767.60240589266596</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>795.14290164194563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11930,11 +12038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461727616"/>
-        <c:axId val="461729152"/>
+        <c:axId val="462655488"/>
+        <c:axId val="462657024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461727616"/>
+        <c:axId val="462655488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11977,14 +12085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461729152"/>
+        <c:crossAx val="462657024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461729152"/>
+        <c:axId val="462657024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12033,7 +12141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461727616"/>
+        <c:crossAx val="462655488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12218,7 +12326,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12464,6 +12572,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12473,7 +12584,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12719,6 +12830,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>689.79149484071661</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>690.27170866506935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12761,7 +12875,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13007,6 +13121,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13016,7 +13133,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13261,6 +13378,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13304,7 +13424,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13550,6 +13670,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13559,7 +13682,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13805,6 +13928,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>306.25906878008232</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>305.77885495572957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13826,11 +13952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461821440"/>
-        <c:axId val="461822976"/>
+        <c:axId val="462728576"/>
+        <c:axId val="462734464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461821440"/>
+        <c:axId val="462728576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13873,14 +13999,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461822976"/>
+        <c:crossAx val="462734464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461822976"/>
+        <c:axId val="462734464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13929,7 +14055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461821440"/>
+        <c:crossAx val="462728576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14114,7 +14240,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14360,6 +14486,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14369,7 +14498,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14615,6 +14744,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>346.12732616203544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>346.35166585996393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14657,7 +14789,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14903,6 +15035,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14912,7 +15047,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15158,6 +15293,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>541.76085103878916</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>548.31455391774386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15200,7 +15338,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15446,6 +15584,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15455,7 +15596,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15701,6 +15842,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>195.63352487675371</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>201.96288805777994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15722,11 +15866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464594048"/>
-        <c:axId val="464595584"/>
+        <c:axId val="462793728"/>
+        <c:axId val="462803712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464594048"/>
+        <c:axId val="462793728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15769,14 +15913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464595584"/>
+        <c:crossAx val="462803712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464595584"/>
+        <c:axId val="462803712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15825,7 +15969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464594048"/>
+        <c:crossAx val="462793728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15933,7 +16077,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15976,7 +16120,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16019,7 +16163,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16062,7 +16206,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16105,7 +16249,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16148,7 +16292,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16191,7 +16335,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16234,7 +16378,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16545,7 +16689,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20013,6 +20157,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>27.282438082891979</v>
+      </c>
+      <c r="E86" s="22">
+        <v>22.907169128822535</v>
+      </c>
+      <c r="F86" s="22">
+        <v>459.35520368414495</v>
+      </c>
+      <c r="G86" s="22">
+        <v>547.09204057861245</v>
+      </c>
+      <c r="H86" s="22">
+        <v>4353.8229600510713</v>
+      </c>
+      <c r="I86" s="22">
+        <v>6444.142361114199</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2090.3194010631278</v>
+      </c>
+      <c r="K86" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20029,7 +20208,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24489,6 +24668,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="86" spans="1:15" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>25.918316178747379</v>
+      </c>
+      <c r="E86" s="22">
+        <v>21.761810672381408</v>
+      </c>
+      <c r="F86" s="22">
+        <v>2013.7851202829108</v>
+      </c>
+      <c r="G86" s="22">
+        <v>2398.4180475290245</v>
+      </c>
+      <c r="H86" s="22">
+        <v>5577.4572996875213</v>
+      </c>
+      <c r="I86" s="22">
+        <v>8900.4969118730114</v>
+      </c>
+      <c r="J86" s="22">
+        <v>3323.0396121854901</v>
+      </c>
+      <c r="K86" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L86" s="26">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="M86" s="27">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N86" s="27">
+        <v>19.537349924268998</v>
+      </c>
+      <c r="O86" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24505,7 +24731,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29172,6 +29398,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="86" spans="1:16" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>27.282438082891979</v>
+      </c>
+      <c r="E86" s="22">
+        <v>22.907169128822535</v>
+      </c>
+      <c r="F86" s="22">
+        <v>437.53280195637876</v>
+      </c>
+      <c r="G86" s="22">
+        <v>521.10156045382632</v>
+      </c>
+      <c r="H86" s="22">
+        <v>4137.4959339526622</v>
+      </c>
+      <c r="I86" s="22">
+        <v>6210.1020544012981</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2072.6061204486359</v>
+      </c>
+      <c r="K86" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="N86" s="27">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="O86" s="27">
+        <v>-11.524831830463491</v>
+      </c>
+      <c r="P86" s="27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29188,7 +29464,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33163,6 +33439,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="86" spans="1:13" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="20">
+        <v>937400</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2006566.1276400539</v>
+      </c>
+      <c r="F86" s="21">
+        <v>12.745434654068182</v>
+      </c>
+      <c r="G86" s="22">
+        <v>10.701456605675443</v>
+      </c>
+      <c r="H86" s="22">
+        <v>142.63633594882731</v>
+      </c>
+      <c r="I86" s="22">
+        <v>169.87987393859555</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2123.6704760526582</v>
+      </c>
+      <c r="K86" s="22">
+        <v>2969.3610710780208</v>
+      </c>
+      <c r="L86" s="22">
+        <v>845.69059502536265</v>
+      </c>
+      <c r="M86" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -33179,7 +33496,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36647,6 +36964,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.48021382435279653</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>726.57652418300199</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J86" s="22">
+        <v>314.62974802777148</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -36663,7 +37015,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41123,6 +41475,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="86" spans="1:15" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="21">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.4562031331351567</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0.38304209821991209</v>
+      </c>
+      <c r="F86" s="22">
+        <v>127.88536031443593</v>
+      </c>
+      <c r="G86" s="22">
+        <v>152.31146218311744</v>
+      </c>
+      <c r="H86" s="22">
+        <v>1031.9729078329078</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1827.1158094748534</v>
+      </c>
+      <c r="J86" s="22">
+        <v>795.14290164194563</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L86" s="26">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="M86" s="27">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N86" s="27">
+        <v>19.537349924268998</v>
+      </c>
+      <c r="O86" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -41139,7 +41538,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45805,6 +46204,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="86" spans="1:16" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.48021382435279653</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>690.27170866506935</v>
+      </c>
+      <c r="I86" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J86" s="22">
+        <v>305.77885495572957</v>
+      </c>
+      <c r="K86" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="N86" s="27">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="O86" s="27">
+        <v>-11.524831830463491</v>
+      </c>
+      <c r="P86" s="27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -45821,7 +46270,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49796,6 +50245,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="86" spans="1:13" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="20">
+        <v>937400</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2006566.1276400539</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0.22433969792849093</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0.18836246918780361</v>
+      </c>
+      <c r="H86" s="22">
+        <v>29.49097509315704</v>
+      </c>
+      <c r="I86" s="22">
+        <v>35.12375088595347</v>
+      </c>
+      <c r="J86" s="22">
+        <v>346.35166585996393</v>
+      </c>
+      <c r="K86" s="22">
+        <v>548.31455391774386</v>
+      </c>
+      <c r="L86" s="22">
+        <v>201.96288805777994</v>
+      </c>
+      <c r="M86" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1091,6 +1091,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1103,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1349,6 +1352,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>4353.8229600510713</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4380.0986209711864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,7 +1397,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1640,6 +1646,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,7 +1658,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1898,6 +1907,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>6444.142361114199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6470.8773987036857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,7 +1952,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2189,6 +2201,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,7 +2213,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2447,6 +2462,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2090.3194010631278</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2090.7787777324993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,11 +2486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425772928"/>
-        <c:axId val="425774464"/>
+        <c:axId val="617604992"/>
+        <c:axId val="617612416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425772928"/>
+        <c:axId val="617604992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,14 +2533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425774464"/>
+        <c:crossAx val="617612416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425774464"/>
+        <c:axId val="617612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425772928"/>
+        <c:crossAx val="617604992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2756,7 +2774,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3005,6 +3023,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,7 +3035,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3263,6 +3284,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5577.4572996875213</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5630.0086215277506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3305,7 +3329,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3554,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,7 +3590,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3812,6 +3839,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8900.4969118730114</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8955.0621129377869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,7 +3884,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4103,6 +4133,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,7 +4145,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4361,6 +4394,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>3323.0396121854901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3325.0534914100363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,11 +4418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425817600"/>
-        <c:axId val="425819136"/>
+        <c:axId val="617645568"/>
+        <c:axId val="617689472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425817600"/>
+        <c:axId val="617645568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,14 +4465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425819136"/>
+        <c:crossAx val="617689472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425819136"/>
+        <c:axId val="617689472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,7 +4521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425817600"/>
+        <c:crossAx val="617645568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4670,7 +4706,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4919,6 +4955,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,7 +4967,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5177,6 +5216,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>4137.4959339526622</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4162.4578118267709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5219,7 +5261,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5468,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5477,7 +5522,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5726,6 +5771,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>6210.1020544012981</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6235.5014855232894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5768,7 +5816,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6017,6 +6065,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6026,7 +6077,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6275,6 +6326,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2072.6061204486359</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2073.0436736965185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6296,11 +6350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426357888"/>
-        <c:axId val="426359424"/>
+        <c:axId val="617931520"/>
+        <c:axId val="617933440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426357888"/>
+        <c:axId val="617931520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6343,14 +6397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426359424"/>
+        <c:crossAx val="617933440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426359424"/>
+        <c:axId val="617933440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426357888"/>
+        <c:crossAx val="617931520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6584,7 +6638,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6833,6 +6887,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6842,7 +6899,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7091,6 +7148,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2123.6704760526582</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2128.3626705950696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7133,7 +7193,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7382,6 +7442,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7391,7 +7454,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7640,6 +7703,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2969.3610710780208</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2974.195908621783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7682,7 +7748,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7931,6 +7997,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7940,7 +8009,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8189,6 +8258,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>845.69059502536265</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>845.83323802671339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8210,11 +8282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426406656"/>
-        <c:axId val="426408192"/>
+        <c:axId val="618156800"/>
+        <c:axId val="618168704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426406656"/>
+        <c:axId val="618156800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8257,14 +8329,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426408192"/>
+        <c:crossAx val="618168704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426408192"/>
+        <c:axId val="618168704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8313,7 +8385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426406656"/>
+        <c:crossAx val="618156800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8498,7 +8570,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8747,6 +8819,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8756,7 +8831,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9005,6 +9080,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>726.57652418300199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>727.02195021963996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9047,7 +9125,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9296,6 +9374,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9305,7 +9386,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9553,6 +9634,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
               </c:numCache>
@@ -9596,7 +9680,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9845,6 +9929,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9854,7 +9941,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10103,6 +10190,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>314.62974802777148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>314.18432199113352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10124,11 +10214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462582144"/>
-        <c:axId val="462583680"/>
+        <c:axId val="631094656"/>
+        <c:axId val="631297920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462582144"/>
+        <c:axId val="631094656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10171,14 +10261,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462583680"/>
+        <c:crossAx val="631297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462583680"/>
+        <c:axId val="631297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10227,7 +10317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462582144"/>
+        <c:crossAx val="631094656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10412,7 +10502,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10661,6 +10751,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10670,7 +10763,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10919,6 +11012,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1031.9729078329078</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1032.8637599061838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10961,7 +11057,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11210,6 +11306,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11219,7 +11318,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11468,6 +11567,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1827.1158094748534</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1828.1345528845318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11510,7 +11612,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11759,6 +11861,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11768,7 +11873,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12017,6 +12122,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>795.14290164194563</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>795.27079297834803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12038,11 +12146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462655488"/>
-        <c:axId val="462657024"/>
+        <c:axId val="476418432"/>
+        <c:axId val="476419968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462655488"/>
+        <c:axId val="476418432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12085,14 +12193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462657024"/>
+        <c:crossAx val="476419968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462657024"/>
+        <c:axId val="476419968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12141,7 +12249,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462655488"/>
+        <c:crossAx val="476418432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12326,7 +12434,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12575,6 +12683,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12584,7 +12695,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12833,6 +12944,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>690.27170866506935</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>690.69486339987543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12875,7 +12989,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13124,6 +13238,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13133,7 +13250,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13381,6 +13498,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -13424,7 +13544,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13673,6 +13793,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13682,7 +13805,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13931,6 +14054,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>305.77885495572957</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>305.3557002209235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13952,11 +14078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462728576"/>
-        <c:axId val="462734464"/>
+        <c:axId val="476487680"/>
+        <c:axId val="476489216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462728576"/>
+        <c:axId val="476487680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13999,14 +14125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462734464"/>
+        <c:crossAx val="476489216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462734464"/>
+        <c:axId val="476489216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14055,7 +14181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462728576"/>
+        <c:crossAx val="476487680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14240,7 +14366,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14489,6 +14615,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14498,7 +14627,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14747,6 +14876,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>346.35166585996393</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>346.43120812626563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14789,7 +14921,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15038,6 +15170,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15047,7 +15182,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15296,6 +15431,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>548.31455391774386</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>548.42358853725318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15338,7 +15476,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15587,6 +15725,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15596,7 +15737,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15845,6 +15986,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>201.96288805777994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>201.99238041098755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15866,11 +16010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462793728"/>
-        <c:axId val="462803712"/>
+        <c:axId val="479526272"/>
+        <c:axId val="479659136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462793728"/>
+        <c:axId val="479526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15913,14 +16057,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462803712"/>
+        <c:crossAx val="479659136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462803712"/>
+        <c:axId val="479659136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15969,7 +16113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462793728"/>
+        <c:crossAx val="479526272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16689,7 +16833,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20192,6 +20336,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>26.275660920114696</v>
+      </c>
+      <c r="E87" s="22">
+        <v>22.043339116093293</v>
+      </c>
+      <c r="F87" s="22">
+        <v>481.39854280023826</v>
+      </c>
+      <c r="G87" s="22">
+        <v>573.82707816809909</v>
+      </c>
+      <c r="H87" s="22">
+        <v>4380.0986209711864</v>
+      </c>
+      <c r="I87" s="22">
+        <v>6470.8773987036857</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2090.7787777324993</v>
+      </c>
+      <c r="K87" s="21">
+        <v>5897.0503205355863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20208,7 +20387,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24715,6 +24894,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="87" spans="1:15" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>52.551321840229392</v>
+      </c>
+      <c r="E87" s="22">
+        <v>44.086678232186586</v>
+      </c>
+      <c r="F87" s="22">
+        <v>2057.8717985150975</v>
+      </c>
+      <c r="G87" s="22">
+        <v>2452.9832485937991</v>
+      </c>
+      <c r="H87" s="22">
+        <v>5630.0086215277506</v>
+      </c>
+      <c r="I87" s="22">
+        <v>8955.0621129377869</v>
+      </c>
+      <c r="J87" s="22">
+        <v>3325.0534914100363</v>
+      </c>
+      <c r="K87" s="21">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N87" s="27">
+        <v>47.894750202325042</v>
+      </c>
+      <c r="O87" s="27">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24731,7 +24957,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29448,6 +29674,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:16" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>24.961877874108961</v>
+      </c>
+      <c r="E87" s="22">
+        <v>20.94117216028863</v>
+      </c>
+      <c r="F87" s="22">
+        <v>458.47397411666736</v>
+      </c>
+      <c r="G87" s="22">
+        <v>546.50099157581769</v>
+      </c>
+      <c r="H87" s="22">
+        <v>4162.4578118267709</v>
+      </c>
+      <c r="I87" s="22">
+        <v>6235.5014855232894</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2073.0436736965185</v>
+      </c>
+      <c r="K87" s="21">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="L87" s="26">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="M87" s="27">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="N87" s="27">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="O87" s="27">
+        <v>15.580532829582921</v>
+      </c>
+      <c r="P87" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29464,7 +29740,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33480,6 +33756,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="87" spans="1:13" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="20">
+        <v>356409</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1995842.6591715976</v>
+      </c>
+      <c r="F87" s="21">
+        <v>4.6921945424115661</v>
+      </c>
+      <c r="G87" s="22">
+        <v>3.9364047135301843</v>
+      </c>
+      <c r="H87" s="22">
+        <v>146.57274066235749</v>
+      </c>
+      <c r="I87" s="22">
+        <v>174.71471148235784</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2128.3626705950696</v>
+      </c>
+      <c r="K87" s="22">
+        <v>2974.195908621783</v>
+      </c>
+      <c r="L87" s="22">
+        <v>845.83323802671339</v>
+      </c>
+      <c r="M87" s="21">
+        <v>2799.4811971394251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -33496,7 +33813,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36999,6 +37316,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.44542603663796299</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>727.02195021963996</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="J87" s="22">
+        <v>314.18432199113352</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -37015,7 +37367,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41522,6 +41874,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="87" spans="1:15" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="21">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.89085207327592597</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0.74735910214395884</v>
+      </c>
+      <c r="F87" s="22">
+        <v>128.63271941657987</v>
+      </c>
+      <c r="G87" s="22">
+        <v>153.33020559279601</v>
+      </c>
+      <c r="H87" s="22">
+        <v>1032.8637599061838</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1828.1345528845318</v>
+      </c>
+      <c r="J87" s="22">
+        <v>795.27079297834803</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N87" s="27">
+        <v>47.894750202325042</v>
+      </c>
+      <c r="O87" s="27">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -41538,7 +41937,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46254,6 +46653,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:16" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.4231547348060648</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>690.69486339987543</v>
+      </c>
+      <c r="I87" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J87" s="22">
+        <v>305.3557002209235</v>
+      </c>
+      <c r="K87" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L87" s="26">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="M87" s="27">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="N87" s="27">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="O87" s="27">
+        <v>15.580532829582921</v>
+      </c>
+      <c r="P87" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -46270,7 +46719,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50286,6 +50735,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="87" spans="1:13" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="20">
+        <v>356409</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1995842.6591715976</v>
+      </c>
+      <c r="F87" s="21">
+        <v>7.9542266301689715E-2</v>
+      </c>
+      <c r="G87" s="22">
+        <v>6.6730087417458298E-2</v>
+      </c>
+      <c r="H87" s="22">
+        <v>29.557705180574498</v>
+      </c>
+      <c r="I87" s="22">
+        <v>35.2327855054628</v>
+      </c>
+      <c r="J87" s="22">
+        <v>346.43120812626563</v>
+      </c>
+      <c r="K87" s="22">
+        <v>548.42358853725318</v>
+      </c>
+      <c r="L87" s="22">
+        <v>201.99238041098755</v>
+      </c>
+      <c r="M87" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1094,6 +1094,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1106,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1354,6 +1357,9 @@
                   <c:v>4353.8229600510713</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>4380.0986209711864</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>4380.0986209711864</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,7 +1403,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1649,6 +1655,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,7 +1667,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1910,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>6470.8773987036857</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6484.3565565248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,7 +1964,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2204,6 +2216,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,7 +2228,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2465,6 +2480,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2090.7787777324993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2104.2579355536136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,11 +2504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617604992"/>
-        <c:axId val="617612416"/>
+        <c:axId val="549044608"/>
+        <c:axId val="549046912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617604992"/>
+        <c:axId val="549044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,14 +2551,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617612416"/>
+        <c:crossAx val="549046912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617612416"/>
+        <c:axId val="549046912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2607,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617604992"/>
+        <c:crossAx val="549044608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2774,7 +2792,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3026,6 +3044,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3056,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3286,6 +3307,9 @@
                   <c:v>5577.4572996875213</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>5630.0086215277506</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>5630.0086215277506</c:v>
                 </c:pt>
               </c:numCache>
@@ -3329,7 +3353,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3581,6 +3605,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3617,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3842,6 +3869,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>8955.0621129377869</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9012.6825174085898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,7 +3914,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4136,6 +4166,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,7 +4178,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4397,6 +4430,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>3325.0534914100363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3382.6738958808392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4418,11 +4454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617645568"/>
-        <c:axId val="617689472"/>
+        <c:axId val="459781248"/>
+        <c:axId val="459782784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617645568"/>
+        <c:axId val="459781248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,14 +4501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617689472"/>
+        <c:crossAx val="459782784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617689472"/>
+        <c:axId val="459782784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617645568"/>
+        <c:crossAx val="459781248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4706,7 +4742,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4958,6 +4994,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4967,7 +5006,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5218,6 +5257,9 @@
                   <c:v>4137.4959339526622</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>4162.4578118267709</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>4162.4578118267709</c:v>
                 </c:pt>
               </c:numCache>
@@ -5261,7 +5303,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5513,6 +5555,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,7 +5567,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5774,6 +5819,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>6235.5014855232894</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6248.3387554868523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5816,7 +5864,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6068,6 +6116,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,7 +6128,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6329,6 +6380,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2073.0436736965185</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2085.8809436600814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6350,11 +6404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617931520"/>
-        <c:axId val="617933440"/>
+        <c:axId val="460337920"/>
+        <c:axId val="460339456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617931520"/>
+        <c:axId val="460337920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6397,14 +6451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617933440"/>
+        <c:crossAx val="460339456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617933440"/>
+        <c:axId val="460339456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6453,7 +6507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617931520"/>
+        <c:crossAx val="460337920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6638,7 +6692,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6890,6 +6944,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6899,7 +6956,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7150,6 +7207,9 @@
                   <c:v>2123.6704760526582</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>2128.3626705950696</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2128.3626705950696</c:v>
                 </c:pt>
               </c:numCache>
@@ -7193,7 +7253,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7445,6 +7505,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7454,7 +7517,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7706,6 +7769,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2974.195908621783</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2978.2999449409808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7748,7 +7814,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8000,6 +8066,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8009,7 +8078,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8261,6 +8330,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>845.83323802671339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>849.93727434591119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8282,11 +8354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618156800"/>
-        <c:axId val="618168704"/>
+        <c:axId val="461881728"/>
+        <c:axId val="461883264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618156800"/>
+        <c:axId val="461881728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8329,14 +8401,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618168704"/>
+        <c:crossAx val="461883264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618168704"/>
+        <c:axId val="461883264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8385,7 +8457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618156800"/>
+        <c:crossAx val="461881728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8570,7 +8642,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8822,6 +8894,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8831,7 +8906,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9082,6 +9157,9 @@
                   <c:v>726.57652418300199</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>727.02195021963996</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>727.02195021963996</c:v>
                 </c:pt>
               </c:numCache>
@@ -9125,7 +9203,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9377,6 +9455,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9386,7 +9467,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9638,6 +9719,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1041.2062722107735</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1041.412408981193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9680,7 +9764,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9932,6 +10016,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9941,7 +10028,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10193,6 +10280,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>314.18432199113352</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>314.39045876155308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10214,11 +10304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631094656"/>
-        <c:axId val="631297920"/>
+        <c:axId val="473579520"/>
+        <c:axId val="473581056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631094656"/>
+        <c:axId val="473579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10261,14 +10351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631297920"/>
+        <c:crossAx val="473581056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631297920"/>
+        <c:axId val="473581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10317,7 +10407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631094656"/>
+        <c:crossAx val="473579520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10502,7 +10592,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10754,6 +10844,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10763,7 +10856,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11014,6 +11107,9 @@
                   <c:v>1031.9729078329078</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>1032.8637599061838</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1032.8637599061838</c:v>
                 </c:pt>
               </c:numCache>
@@ -11057,7 +11153,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11309,6 +11405,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11318,7 +11417,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11570,6 +11669,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1828.1345528845318</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1831.736268660175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11612,7 +11714,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11864,6 +11966,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11873,7 +11978,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12125,6 +12230,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>795.27079297834803</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>798.87250875399127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12146,11 +12254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476418432"/>
-        <c:axId val="476419968"/>
+        <c:axId val="488537472"/>
+        <c:axId val="488543360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476418432"/>
+        <c:axId val="488537472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12193,14 +12301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476419968"/>
+        <c:crossAx val="488543360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476419968"/>
+        <c:axId val="488543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12249,7 +12357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476418432"/>
+        <c:crossAx val="488537472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12434,7 +12542,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12686,6 +12794,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12695,7 +12806,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12946,6 +13057,9 @@
                   <c:v>690.27170866506935</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>690.69486339987543</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>690.69486339987543</c:v>
                 </c:pt>
               </c:numCache>
@@ -12989,7 +13103,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13241,6 +13355,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13250,7 +13367,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13502,6 +13619,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>996.24639355269744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13544,7 +13664,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13796,6 +13916,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13805,7 +13928,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14057,6 +14180,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>305.3557002209235</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>305.55153015282201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14078,11 +14204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476487680"/>
-        <c:axId val="476489216"/>
+        <c:axId val="502934528"/>
+        <c:axId val="502944512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476487680"/>
+        <c:axId val="502934528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14125,14 +14251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476489216"/>
+        <c:crossAx val="502944512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476489216"/>
+        <c:axId val="502944512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14181,7 +14307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476487680"/>
+        <c:crossAx val="502934528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14366,7 +14492,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14618,6 +14744,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14627,7 +14756,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14878,6 +15007,9 @@
                   <c:v>346.35166585996393</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>346.43120812626563</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>346.43120812626563</c:v>
                 </c:pt>
               </c:numCache>
@@ -14921,7 +15053,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15173,6 +15305,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15182,7 +15317,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15434,6 +15569,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>548.42358853725318</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>549.25120419774407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15476,7 +15614,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15728,6 +15866,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15737,7 +15878,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15989,6 +16130,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>201.99238041098755</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>202.81999607147844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16010,11 +16154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479526272"/>
-        <c:axId val="479659136"/>
+        <c:axId val="504310400"/>
+        <c:axId val="504312192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479526272"/>
+        <c:axId val="504310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16057,14 +16201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479659136"/>
+        <c:crossAx val="504312192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479659136"/>
+        <c:axId val="504312192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16113,7 +16257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479526272"/>
+        <c:crossAx val="504310400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16221,7 +16365,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16264,7 +16408,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16307,7 +16451,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16350,7 +16494,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16393,7 +16537,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16436,7 +16580,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16479,7 +16623,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16522,7 +16666,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16833,7 +16977,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20371,6 +20515,41 @@
         <v>5897.0503205355863</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-17.874898437477771</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-14.651555752699506</v>
+      </c>
+      <c r="F88" s="22">
+        <v>466.74698704753877</v>
+      </c>
+      <c r="G88" s="22">
+        <v>569.43133755173574</v>
+      </c>
+      <c r="H88" s="22">
+        <v>4380.0986209711864</v>
+      </c>
+      <c r="I88" s="22">
+        <v>6484.3565565248</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2104.2579355536136</v>
+      </c>
+      <c r="K88" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20387,7 +20566,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24941,6 +25120,53 @@
         <v>2</v>
       </c>
     </row>
+    <row r="88" spans="1:15" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-16.981153515603882</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-13.918977965064531</v>
+      </c>
+      <c r="F88" s="22">
+        <v>2043.9528205500328</v>
+      </c>
+      <c r="G88" s="22">
+        <v>2493.6224995489993</v>
+      </c>
+      <c r="H88" s="22">
+        <v>5630.0086215277506</v>
+      </c>
+      <c r="I88" s="22">
+        <v>9012.6825174085898</v>
+      </c>
+      <c r="J88" s="22">
+        <v>3382.6738958808392</v>
+      </c>
+      <c r="K88" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="M88" s="27">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N88" s="27">
+        <v>47.99657461175164</v>
+      </c>
+      <c r="O88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24957,7 +25183,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29724,6 +29950,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="88" spans="1:16" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-16.981153515603882</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-13.918977965064531</v>
+      </c>
+      <c r="F88" s="22">
+        <v>444.55499615160284</v>
+      </c>
+      <c r="G88" s="22">
+        <v>542.35710802377594</v>
+      </c>
+      <c r="H88" s="22">
+        <v>4162.4578118267709</v>
+      </c>
+      <c r="I88" s="22">
+        <v>6248.3387554868523</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2085.8809436600814</v>
+      </c>
+      <c r="K88" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L88" s="26">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="M88" s="27">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="N88" s="27">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="O88" s="27">
+        <v>37.889987500510934</v>
+      </c>
+      <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29740,7 +30016,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33797,6 +34073,47 @@
         <v>2799.4811971394251</v>
       </c>
     </row>
+    <row r="88" spans="1:13" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="20">
+        <v>773500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>1980368.9602156433</v>
+      </c>
+      <c r="F88" s="21">
+        <v>-6.9816454504939882</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-5.7226600711207949</v>
+      </c>
+      <c r="H88" s="22">
+        <v>140.85008059123669</v>
+      </c>
+      <c r="I88" s="22">
+        <v>171.8371023510619</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2128.3626705950696</v>
+      </c>
+      <c r="K88" s="22">
+        <v>2978.2999449409808</v>
+      </c>
+      <c r="L88" s="22">
+        <v>849.93727434591119</v>
+      </c>
+      <c r="M88" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -33813,7 +34130,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37351,6 +37668,41 @@
         <v>1041.2062722107735</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.20613677041944856</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>727.02195021963996</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1041.412408981193</v>
+      </c>
+      <c r="J88" s="22">
+        <v>314.39045876155308</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -37367,7 +37719,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41921,6 +42273,53 @@
         <v>2</v>
       </c>
     </row>
+    <row r="88" spans="1:15" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="21">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.19582993189847611</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-0.16051633385743194</v>
+      </c>
+      <c r="F88" s="22">
+        <v>128.47220308272244</v>
+      </c>
+      <c r="G88" s="22">
+        <v>156.73609143654059</v>
+      </c>
+      <c r="H88" s="22">
+        <v>1032.8637599061838</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1831.736268660175</v>
+      </c>
+      <c r="J88" s="22">
+        <v>798.87250875399127</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="M88" s="27">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N88" s="27">
+        <v>47.99657461175164</v>
+      </c>
+      <c r="O88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -41937,7 +42336,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46703,6 +47102,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="88" spans="1:16" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.19582993189847611</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>690.69486339987543</v>
+      </c>
+      <c r="I88" s="22">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="J88" s="22">
+        <v>305.55153015282201</v>
+      </c>
+      <c r="K88" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L88" s="26">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="M88" s="27">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="N88" s="27">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="O88" s="27">
+        <v>37.889987500510934</v>
+      </c>
+      <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -46719,7 +47168,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50776,6 +51225,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="88" spans="1:13" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="20">
+        <v>773500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>1980368.9602156433</v>
+      </c>
+      <c r="F88" s="21">
+        <v>-8.0513679583263734E-2</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-6.5994817782899062E-2</v>
+      </c>
+      <c r="H88" s="22">
+        <v>29.491710362791601</v>
+      </c>
+      <c r="I88" s="22">
+        <v>35.979887486370352</v>
+      </c>
+      <c r="J88" s="22">
+        <v>346.43120812626563</v>
+      </c>
+      <c r="K88" s="22">
+        <v>549.25120419774407</v>
+      </c>
+      <c r="L88" s="22">
+        <v>202.81999607147844</v>
+      </c>
+      <c r="M88" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1097,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,7 +1109,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1364,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>4380.0986209711864</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4468.6931805976556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,7 +1409,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1658,6 +1664,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1676,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1922,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>6484.3565565248</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6540.7455713742411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,7 +1976,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2219,6 +2231,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,7 +2243,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2483,6 +2498,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2104.2579355536136</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2072.0523907765855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549044608"/>
-        <c:axId val="549046912"/>
+        <c:axId val="475826816"/>
+        <c:axId val="475828992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549044608"/>
+        <c:axId val="475826816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,14 +2569,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549046912"/>
+        <c:crossAx val="475828992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549046912"/>
+        <c:axId val="475828992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,7 +2625,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549044608"/>
+        <c:crossAx val="475826816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2792,7 +2810,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3047,6 +3065,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3056,7 +3077,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3304,13 +3325,16 @@
                   <c:v>5551.5389835087735</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5577.4572996875213</c:v>
+                  <c:v>5606.1038596745575</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5630.0086215277506</c:v>
+                  <c:v>5631.0657375486662</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5630.0086215277506</c:v>
+                  <c:v>5631.0657375486662</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5648.7846494739597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3353,7 +3377,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3608,6 +3632,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,7 +3644,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3865,13 +3892,16 @@
                   <c:v>8444.3016387077896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8900.4969118730114</c:v>
+                  <c:v>8929.1434718600485</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8955.0621129377869</c:v>
+                  <c:v>8956.1432826102628</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9012.6825174085898</c:v>
+                  <c:v>9013.7890836808474</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8890.4126548029853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3944,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4169,6 +4199,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,7 +4211,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4426,13 +4459,16 @@
                   <c:v>2892.7626551990161</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3323.0396121854901</c:v>
+                  <c:v>3323.039612185491</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3325.0534914100363</c:v>
+                  <c:v>3325.0775450615965</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3382.6738958808392</c:v>
+                  <c:v>3382.7233461321812</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3241.6280053290257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,11 +4490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459781248"/>
-        <c:axId val="459782784"/>
+        <c:axId val="487941632"/>
+        <c:axId val="502362112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459781248"/>
+        <c:axId val="487941632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,14 +4537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459782784"/>
+        <c:crossAx val="502362112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459782784"/>
+        <c:axId val="502362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +4593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459781248"/>
+        <c:crossAx val="487941632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4742,7 +4778,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4997,6 +5033,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,7 +5045,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5251,16 +5290,19 @@
                   <c:v>3764.5463818690746</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4110.2134958697707</c:v>
+                  <c:v>4128.4065018698075</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4137.4959339526622</c:v>
+                  <c:v>4154.3248180485552</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4162.4578118267709</c:v>
+                  <c:v>4179.286695922664</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4162.4578118267709</c:v>
+                  <c:v>4179.286695922664</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4263.4515275678095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,7 +5345,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5558,6 +5600,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5567,7 +5612,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5812,16 +5857,19 @@
                   <c:v>5761.3551965863662</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6093.2604958397851</c:v>
+                  <c:v>6111.453501839821</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6210.1020544012981</c:v>
+                  <c:v>6230.9613882290432</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6235.5014855232894</c:v>
+                  <c:v>6256.3783343038913</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6248.3387554868523</c:v>
+                  <c:v>6269.7059999811236</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6321.9880589728027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5864,7 +5912,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6119,6 +6167,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6128,7 +6179,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6373,16 +6424,19 @@
                   <c:v>1996.8088147172916</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1983.0469999700144</c:v>
+                  <c:v>1983.0469999700135</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2072.6061204486359</c:v>
+                  <c:v>2076.636570180488</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2073.0436736965185</c:v>
+                  <c:v>2077.0916383812273</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2085.8809436600814</c:v>
+                  <c:v>2090.4193040584596</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2058.5365314049932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6404,11 +6458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460337920"/>
-        <c:axId val="460339456"/>
+        <c:axId val="574332928"/>
+        <c:axId val="574334848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460337920"/>
+        <c:axId val="574332928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6451,14 +6505,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460339456"/>
+        <c:crossAx val="574334848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460339456"/>
+        <c:axId val="574334848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,7 +6561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460337920"/>
+        <c:crossAx val="574332928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6692,7 +6746,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6947,6 +7001,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,7 +7013,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7211,6 +7268,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2128.3626705950696</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2141.070828022001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7253,7 +7313,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7508,6 +7568,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7517,7 +7580,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7772,6 +7835,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2978.2999449409808</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2981.2894460011667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7814,7 +7880,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8069,6 +8135,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,7 +8147,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8333,6 +8402,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>849.93727434591119</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>840.21861797916563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,11 +8426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461881728"/>
-        <c:axId val="461883264"/>
+        <c:axId val="797693824"/>
+        <c:axId val="797695360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461881728"/>
+        <c:axId val="797693824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8401,14 +8473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461883264"/>
+        <c:crossAx val="797695360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461883264"/>
+        <c:axId val="797695360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8457,7 +8529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461881728"/>
+        <c:crossAx val="797693824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8642,7 +8714,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8897,6 +8969,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8906,7 +8981,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9161,6 +9236,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>727.02195021963996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>732.0858186037741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9203,7 +9281,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9458,6 +9536,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9467,7 +9548,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9721,6 +9802,9 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1041.412408981193</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1041.412408981193</c:v>
                 </c:pt>
               </c:numCache>
@@ -9764,7 +9848,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10019,6 +10103,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10028,7 +10115,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10283,6 +10370,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>314.39045876155308</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>309.32659037741894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10304,11 +10394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473579520"/>
-        <c:axId val="473581056"/>
+        <c:axId val="474813952"/>
+        <c:axId val="474815488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473579520"/>
+        <c:axId val="474813952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10351,14 +10441,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473581056"/>
+        <c:crossAx val="474815488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473581056"/>
+        <c:axId val="474815488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10407,7 +10497,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473579520"/>
+        <c:crossAx val="474813952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10592,7 +10682,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10847,6 +10937,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10856,7 +10949,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11104,13 +11197,16 @@
                   <c:v>1031.5167046997726</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1031.9729078329078</c:v>
+                  <c:v>1032.4771323484781</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1032.8637599061838</c:v>
+                  <c:v>1032.9002870832842</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1032.8637599061838</c:v>
+                  <c:v>1032.9002870832842</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1033.913060760111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11153,7 +11249,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11408,6 +11504,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11417,7 +11516,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11665,13 +11764,16 @@
                   <c:v>1799.1191105924386</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1827.1158094748534</c:v>
+                  <c:v>1827.6200339904237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1828.1345528845318</c:v>
+                  <c:v>1828.1715034437352</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1831.736268660175</c:v>
+                  <c:v>1831.7740871854226</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1823.9201391976985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11714,7 +11816,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11969,6 +12071,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11978,7 +12083,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12229,10 +12334,13 @@
                   <c:v>795.14290164194563</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>795.27079297834803</c:v>
+                  <c:v>795.27121636045104</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>798.87250875399127</c:v>
+                  <c:v>798.87380010213838</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>790.00707843758755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12254,11 +12362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488537472"/>
-        <c:axId val="488543360"/>
+        <c:axId val="474903680"/>
+        <c:axId val="474905216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488537472"/>
+        <c:axId val="474903680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12301,14 +12409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488543360"/>
+        <c:crossAx val="474905216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488543360"/>
+        <c:axId val="474905216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12357,7 +12465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488537472"/>
+        <c:crossAx val="474903680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12542,7 +12650,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12797,6 +12905,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12806,7 +12917,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13051,16 +13162,19 @@
                   <c:v>608.64667059516819</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>689.79149484071661</c:v>
+                  <c:v>694.06227506416656</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>690.27170866506935</c:v>
+                  <c:v>694.51847819730176</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>690.69486339987543</c:v>
+                  <c:v>694.94163293210784</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>690.69486339987543</c:v>
+                  <c:v>694.94163293210784</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>699.75230789703528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13103,7 +13217,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13358,6 +13472,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13367,7 +13484,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13621,6 +13738,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>996.24639355269744</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>996.24639355269744</c:v>
                 </c:pt>
               </c:numCache>
@@ -13664,7 +13784,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13919,6 +14039,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13928,7 +14051,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14173,16 +14296,19 @@
                   <c:v>387.40389302563074</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>306.25906878008232</c:v>
+                  <c:v>301.98828855663237</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>305.77885495572957</c:v>
+                  <c:v>301.53208542349716</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>305.3557002209235</c:v>
+                  <c:v>301.10893068869109</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>305.55153015282201</c:v>
+                  <c:v>301.3047606205896</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>296.49408565566216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14204,11 +14330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502934528"/>
-        <c:axId val="502944512"/>
+        <c:axId val="486519552"/>
+        <c:axId val="486521088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502934528"/>
+        <c:axId val="486519552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14251,14 +14377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502944512"/>
+        <c:crossAx val="486521088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502944512"/>
+        <c:axId val="486521088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14307,7 +14433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502934528"/>
+        <c:crossAx val="486519552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14492,7 +14618,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14747,6 +14873,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14756,7 +14885,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15011,6 +15140,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>346.43120812626563</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>347.15757819781584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15053,7 +15185,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15308,6 +15440,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15317,7 +15452,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15572,6 +15707,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>549.25120419774407</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>547.94264608550873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15614,7 +15752,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15869,6 +16007,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15878,7 +16019,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16133,6 +16274,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>202.81999607147844</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>200.78506788769289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16154,11 +16298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504310400"/>
-        <c:axId val="504312192"/>
+        <c:axId val="487936384"/>
+        <c:axId val="487937920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504310400"/>
+        <c:axId val="487936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16201,14 +16345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504312192"/>
+        <c:crossAx val="487937920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504312192"/>
+        <c:axId val="487937920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16257,7 +16401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504310400"/>
+        <c:crossAx val="487936384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16977,7 +17121,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17660,6 +17804,16 @@
         <f t="shared" ref="AC10:AC15" si="6">-AB10</f>
         <v>-61.537214285714597</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>61.537214285714597</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="7">-AE10</f>
+        <v>-61.537214285714597</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -17696,6 +17850,30 @@
         <v>33.814368556700828</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>74.875594199321768</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3962.6804019674473</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5973.2131654186333</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2010.5327634511859</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5897.0503205355863</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.50736687279977677</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.7918444942110652E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -17718,6 +17896,16 @@
         <f t="shared" si="6"/>
         <v>-2266.0631463936584</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>2266.0631463936584</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="7"/>
+        <v>-2266.0631463936584</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -17776,6 +17964,16 @@
         <f t="shared" si="6"/>
         <v>-520.16324835056685</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>520.16324835056685</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="7"/>
+        <v>-520.16324835056685</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -17834,6 +18032,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -17892,6 +18100,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -17943,6 +18161,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="6"/>
+        <v>-1040.0411987381858</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1040.0411987381858</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="7"/>
         <v>-1040.0411987381858</v>
       </c>
     </row>
@@ -17991,8 +18219,18 @@
       <c r="AC16" s="1">
         <v>5612.8368947985145</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>74.875594199321768</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="7"/>
+        <v>-74.875594199321768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -18031,8 +18269,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>9.7545539735297782E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>5973.2131654186333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -18067,8 +18311,12 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.7918444942110652E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -18104,7 +18352,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -18140,7 +18388,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -18176,7 +18424,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -18212,7 +18460,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -18249,7 +18497,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -18285,7 +18533,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -18321,7 +18569,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -18357,7 +18605,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -18393,7 +18641,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -18429,7 +18677,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -18465,7 +18713,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -18501,7 +18749,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -18537,7 +18785,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -20547,6 +20795,41 @@
         <v>2104.2579355536136</v>
       </c>
       <c r="K88" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>88.59455962646912</v>
+      </c>
+      <c r="E89" s="22">
+        <v>76.97181395718863</v>
+      </c>
+      <c r="F89" s="22">
+        <v>543.71880100472742</v>
+      </c>
+      <c r="G89" s="22">
+        <v>625.82035240117705</v>
+      </c>
+      <c r="H89" s="22">
+        <v>4468.6931805976556</v>
+      </c>
+      <c r="I89" s="22">
+        <v>6540.7455713742411</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2072.0523907765855</v>
+      </c>
+      <c r="K89" s="21">
         <v>5914.9252189730641</v>
       </c>
     </row>
@@ -20566,7 +20849,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21342,6 +21625,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-91.417228571428666</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>91.417228571428666</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-91.417228571428666</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -21390,6 +21683,30 @@
         <v>0.95</v>
       </c>
       <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="S11" s="5">
+        <v>5205.8718695080779</v>
+      </c>
+      <c r="T11" s="5">
+        <v>8473.6203638122861</v>
+      </c>
+      <c r="U11" s="5">
+        <v>3267.7484943042082</v>
+      </c>
+      <c r="V11" s="5">
+        <v>6502.0788643439873</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.6277043646510243</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.9866700458986157E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -21412,6 +21729,16 @@
         <f t="shared" si="4"/>
         <v>-3224.1951268482335</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>3224.1951268482335</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-3224.1951268482335</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -21482,6 +21809,16 @@
         <f t="shared" si="4"/>
         <v>-773.01292064913287</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>773.01292064913287</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-773.01292064913287</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -21552,6 +21889,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -21622,6 +21969,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -21685,6 +22042,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-1046.1147789499273</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1046.1147789499273</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-1046.1147789499273</v>
       </c>
     </row>
@@ -21745,8 +22112,18 @@
       <c r="AE16" s="1">
         <v>8129.1503976772765</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-71.131814489355747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -21797,8 +22174,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.11614759940505137</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>8473.6203638122861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -21845,8 +22228,12 @@
         <v>0.95</v>
       </c>
       <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.9866700458986157E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -21894,7 +22281,7 @@
       </c>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -21942,7 +22329,7 @@
       </c>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -21990,7 +22377,7 @@
       </c>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -22038,7 +22425,7 @@
       </c>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -22086,7 +22473,7 @@
       </c>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -22135,7 +22522,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -22183,7 +22570,7 @@
       </c>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -22231,7 +22618,7 @@
       </c>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -22279,7 +22666,7 @@
       </c>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -22327,7 +22714,7 @@
       </c>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -22375,7 +22762,7 @@
       </c>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -22423,7 +22810,7 @@
       </c>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -22471,7 +22858,7 @@
       </c>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -24967,13 +25354,13 @@
         <v>6502.0788643439873</v>
       </c>
       <c r="L84" s="26">
-        <v>2.2331962200588539E-2</v>
+        <v>1.8609968500490449E-2</v>
       </c>
       <c r="M84" s="27">
-        <v>5.8943959288749508E-2</v>
+        <v>4.9453295115756829E-2</v>
       </c>
       <c r="N84" s="27">
-        <v>37.886769857434714</v>
+        <v>37.631402431181847</v>
       </c>
       <c r="O84" s="27">
         <v>0.95</v>
@@ -25014,13 +25401,13 @@
         <v>6502.0788643439873</v>
       </c>
       <c r="L85" s="26">
-        <v>1.8609968500490449E-2</v>
+        <v>1.550830708374204E-2</v>
       </c>
       <c r="M85" s="27">
-        <v>4.9453295115756829E-2</v>
+        <v>7.9377741320371495E-2</v>
       </c>
       <c r="N85" s="27">
-        <v>37.631402431181847</v>
+        <v>19.537349924268998</v>
       </c>
       <c r="O85" s="27">
         <v>0.95</v>
@@ -25037,40 +25424,40 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>25.918316178747379</v>
+        <v>54.564876165783957</v>
       </c>
       <c r="E86" s="22">
-        <v>21.761810672381408</v>
+        <v>45.814338257645069</v>
       </c>
       <c r="F86" s="22">
-        <v>2013.7851202829108</v>
+        <v>2037.8376478681744</v>
       </c>
       <c r="G86" s="22">
-        <v>2398.4180475290245</v>
+        <v>2427.0646075160607</v>
       </c>
       <c r="H86" s="22">
-        <v>5577.4572996875213</v>
+        <v>5606.1038596745575</v>
       </c>
       <c r="I86" s="22">
-        <v>8900.4969118730114</v>
+        <v>8929.1434718600485</v>
       </c>
       <c r="J86" s="22">
-        <v>3323.0396121854901</v>
+        <v>3323.039612185491</v>
       </c>
       <c r="K86" s="21">
         <v>6502.0788643439873</v>
       </c>
       <c r="L86" s="26">
-        <v>1.550830708374204E-2</v>
+        <v>4.8923582719677207E-2</v>
       </c>
       <c r="M86" s="27">
-        <v>7.9377741320371495E-2</v>
+        <v>0.10214811125020175</v>
       </c>
       <c r="N86" s="27">
-        <v>19.537349924268998</v>
+        <v>47.894750202325042</v>
       </c>
       <c r="O86" s="27">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75">
@@ -25084,40 +25471,40 @@
         <v>1.2089520707745522</v>
       </c>
       <c r="D87" s="21">
-        <v>52.551321840229392</v>
+        <v>24.961877874108961</v>
       </c>
       <c r="E87" s="22">
-        <v>44.086678232186586</v>
+        <v>20.94117216028863</v>
       </c>
       <c r="F87" s="22">
-        <v>2057.8717985150975</v>
+        <v>2058.7788200284631</v>
       </c>
       <c r="G87" s="22">
-        <v>2452.9832485937991</v>
+        <v>2454.0644182662759</v>
       </c>
       <c r="H87" s="22">
-        <v>5630.0086215277506</v>
+        <v>5631.0657375486662</v>
       </c>
       <c r="I87" s="22">
-        <v>8955.0621129377869</v>
+        <v>8956.1432826102628</v>
       </c>
       <c r="J87" s="22">
-        <v>3325.0534914100363</v>
+        <v>3325.0775450615965</v>
       </c>
       <c r="K87" s="21">
         <v>6502.0788643439873</v>
       </c>
       <c r="L87" s="26">
-        <v>4.8923582719677207E-2</v>
+        <v>4.0936326721404591E-2</v>
       </c>
       <c r="M87" s="27">
-        <v>0.10214811125020175</v>
+        <v>8.5290100496841714E-2</v>
       </c>
       <c r="N87" s="27">
-        <v>47.894750202325042</v>
+        <v>47.99657461175164</v>
       </c>
       <c r="O87" s="27">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75">
@@ -25137,34 +25524,81 @@
         <v>-13.918977965064531</v>
       </c>
       <c r="F88" s="22">
-        <v>2043.9528205500328</v>
+        <v>2044.8598420633984</v>
       </c>
       <c r="G88" s="22">
-        <v>2493.6224995489993</v>
+        <v>2494.7290658212555</v>
       </c>
       <c r="H88" s="22">
-        <v>5630.0086215277506</v>
+        <v>5631.0657375486662</v>
       </c>
       <c r="I88" s="22">
-        <v>9012.6825174085898</v>
+        <v>9013.7890836808474</v>
       </c>
       <c r="J88" s="22">
-        <v>3382.6738958808392</v>
+        <v>3382.7233461321812</v>
       </c>
       <c r="K88" s="21">
         <v>6519.0600178595914</v>
       </c>
       <c r="L88" s="26">
-        <v>4.0936326721404591E-2</v>
+        <v>3.8780271791E-2</v>
       </c>
       <c r="M88" s="27">
-        <v>8.5290100496841714E-2</v>
+        <v>7.5741749937197608E-2</v>
       </c>
       <c r="N88" s="27">
-        <v>47.99657461175164</v>
+        <v>51.200654623315721</v>
       </c>
       <c r="O88" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>17.718911925293824</v>
+      </c>
+      <c r="E89" s="22">
+        <v>15.394362791437725</v>
+      </c>
+      <c r="F89" s="22">
+        <v>2060.2542048548362</v>
+      </c>
+      <c r="G89" s="22">
+        <v>2371.352636943393</v>
+      </c>
+      <c r="H89" s="22">
+        <v>5648.7846494739597</v>
+      </c>
+      <c r="I89" s="22">
+        <v>8890.4126548029853</v>
+      </c>
+      <c r="J89" s="22">
+        <v>3241.6280053290257</v>
+      </c>
+      <c r="K89" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L89" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M89" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N89" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O89" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -25183,7 +25617,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25978,6 +26412,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-58.460353571428868</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>58.460353571428868</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-58.460353571428868</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -26028,6 +26472,30 @@
       <c r="P11" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3764.5463818690746</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5761.3551965863662</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1996.8088147172916</v>
+      </c>
+      <c r="V11" s="5">
+        <v>5689.000493947472</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.53042481408500752</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.1228215833742521E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -26050,6 +26518,16 @@
         <f t="shared" si="4"/>
         <v>-2152.7599890739757</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>2152.7599890739757</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-2152.7599890739757</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -26122,6 +26600,16 @@
         <f t="shared" si="4"/>
         <v>-494.15508593303866</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>494.15508593303866</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-494.15508593303866</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -26194,6 +26682,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -26266,6 +26764,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -26333,6 +26841,16 @@
         <f t="shared" si="4"/>
         <v>-988.03913880127584</v>
       </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>988.03913880127584</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
+        <v>-988.03913880127584</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="15">
@@ -26393,8 +26911,18 @@
       <c r="AE16" s="1">
         <v>5418.9977394972548</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-71.131814489355747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -26447,8 +26975,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.10190206880327168</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>5761.3551965863662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -26497,8 +27031,12 @@
       <c r="P18" s="27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.1228215833742521E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -26548,7 +27086,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -26598,7 +27136,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -26648,7 +27186,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -26698,7 +27236,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -26748,7 +27286,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -26799,7 +27337,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -26849,7 +27387,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -26899,7 +27437,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -26949,7 +27487,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -26999,7 +27537,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -27049,7 +27587,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -27099,7 +27637,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -27149,7 +27687,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -29785,16 +30323,16 @@
         <v>5689.000493947472</v>
       </c>
       <c r="L84" s="26">
-        <v>15.447149282091519</v>
+        <v>15.040650454569146</v>
       </c>
       <c r="M84" s="27">
-        <v>29.052393907642706</v>
+        <v>24.381812756618189</v>
       </c>
       <c r="N84" s="27">
-        <v>43.442701755044162</v>
+        <v>37.089072088902171</v>
       </c>
       <c r="O84" s="27">
-        <v>0.27177821283979142</v>
+        <v>-1.0327059079497758</v>
       </c>
       <c r="P84" s="27">
         <v>0.95</v>
@@ -29811,43 +30349,43 @@
         <v>1.2097484883584595</v>
       </c>
       <c r="D85" s="21">
-        <v>345.66711400069585</v>
+        <v>363.86012000073248</v>
       </c>
       <c r="E85" s="22">
-        <v>354.53036466464948</v>
+        <v>373.18985754173633</v>
       </c>
       <c r="F85" s="22">
-        <v>414.62563282755622</v>
+        <v>433.28512570464306</v>
       </c>
       <c r="G85" s="22">
-        <v>404.26000189231274</v>
+        <v>422.45300789234938</v>
       </c>
       <c r="H85" s="22">
-        <v>4110.2134958697707</v>
+        <v>4128.4065018698075</v>
       </c>
       <c r="I85" s="22">
-        <v>6093.2604958397851</v>
+        <v>6111.453501839821</v>
       </c>
       <c r="J85" s="22">
-        <v>1983.0469999700144</v>
+        <v>1983.0469999700135</v>
       </c>
       <c r="K85" s="21">
         <v>5689.000493947472</v>
       </c>
       <c r="L85" s="26">
-        <v>15.040650454569146</v>
+        <v>0</v>
       </c>
       <c r="M85" s="27">
-        <v>24.381812756618189</v>
+        <v>16.25454183774546</v>
       </c>
       <c r="N85" s="27">
-        <v>37.089072088902171</v>
+        <v>30.144228671849934</v>
       </c>
       <c r="O85" s="27">
-        <v>-1.0327059079497758</v>
+        <v>-11.524831830463491</v>
       </c>
       <c r="P85" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75">
@@ -29861,43 +30399,43 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>27.282438082891979</v>
+        <v>25.918316178747379</v>
       </c>
       <c r="E86" s="22">
-        <v>22.907169128822535</v>
+        <v>21.761810672381408</v>
       </c>
       <c r="F86" s="22">
-        <v>437.53280195637876</v>
+        <v>455.04693637702445</v>
       </c>
       <c r="G86" s="22">
-        <v>521.10156045382632</v>
+        <v>541.96089428157086</v>
       </c>
       <c r="H86" s="22">
-        <v>4137.4959339526622</v>
+        <v>4154.3248180485552</v>
       </c>
       <c r="I86" s="22">
-        <v>6210.1020544012981</v>
+        <v>6230.9613882290432</v>
       </c>
       <c r="J86" s="22">
-        <v>2072.6061204486359</v>
+        <v>2076.636570180488</v>
       </c>
       <c r="K86" s="21">
         <v>5689.000493947472</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>39.198850542858423</v>
       </c>
       <c r="M86" s="27">
-        <v>16.25454183774546</v>
+        <v>23.902644739449784</v>
       </c>
       <c r="N86" s="27">
-        <v>30.144228671849934</v>
+        <v>28.063700694383215</v>
       </c>
       <c r="O86" s="27">
-        <v>-11.524831830463491</v>
+        <v>15.580532829582921</v>
       </c>
       <c r="P86" s="27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75">
@@ -29917,34 +30455,34 @@
         <v>20.94117216028863</v>
       </c>
       <c r="F87" s="22">
-        <v>458.47397411666736</v>
+        <v>475.98810853731311</v>
       </c>
       <c r="G87" s="22">
-        <v>546.50099157581769</v>
+        <v>567.37784035641914</v>
       </c>
       <c r="H87" s="22">
-        <v>4162.4578118267709</v>
+        <v>4179.286695922664</v>
       </c>
       <c r="I87" s="22">
-        <v>6235.5014855232894</v>
+        <v>6256.3783343038913</v>
       </c>
       <c r="J87" s="22">
-        <v>2073.0436736965185</v>
+        <v>2077.0916383812273</v>
       </c>
       <c r="K87" s="21">
         <v>5689.000493947472</v>
       </c>
       <c r="L87" s="26">
-        <v>39.198850542858423</v>
+        <v>49.019609926414297</v>
       </c>
       <c r="M87" s="27">
-        <v>23.902644739449784</v>
+        <v>32.274966468437952</v>
       </c>
       <c r="N87" s="27">
-        <v>28.063700694383215</v>
+        <v>29.467455952401462</v>
       </c>
       <c r="O87" s="27">
-        <v>15.580532829582921</v>
+        <v>37.889987500510934</v>
       </c>
       <c r="P87" s="27">
         <v>0.95</v>
@@ -29967,36 +30505,86 @@
         <v>-13.918977965064531</v>
       </c>
       <c r="F88" s="22">
-        <v>444.55499615160284</v>
+        <v>462.06913057224858</v>
       </c>
       <c r="G88" s="22">
-        <v>542.35710802377594</v>
+        <v>563.72435251804711</v>
       </c>
       <c r="H88" s="22">
-        <v>4162.4578118267709</v>
+        <v>4179.286695922664</v>
       </c>
       <c r="I88" s="22">
-        <v>6248.3387554868523</v>
+        <v>6269.7059999811236</v>
       </c>
       <c r="J88" s="22">
-        <v>2085.8809436600814</v>
+        <v>2090.4193040584596</v>
       </c>
       <c r="K88" s="21">
         <v>5705.9816474630761</v>
       </c>
       <c r="L88" s="26">
-        <v>49.019609926414297</v>
+        <v>58.045981670772953</v>
       </c>
       <c r="M88" s="27">
-        <v>32.274966468437952</v>
+        <v>40.865304869216288</v>
       </c>
       <c r="N88" s="27">
-        <v>29.467455952401462</v>
+        <v>33.266738924673071</v>
       </c>
       <c r="O88" s="27">
-        <v>37.889987500510934</v>
+        <v>56.062436758302724</v>
       </c>
       <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>84.164831645145654</v>
+      </c>
+      <c r="E89" s="22">
+        <v>73.123223259329194</v>
+      </c>
+      <c r="F89" s="22">
+        <v>535.19235383157775</v>
+      </c>
+      <c r="G89" s="22">
+        <v>616.00641150972683</v>
+      </c>
+      <c r="H89" s="22">
+        <v>4263.4515275678095</v>
+      </c>
+      <c r="I89" s="22">
+        <v>6321.9880589728027</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2058.5365314049932</v>
+      </c>
+      <c r="K89" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L89" s="26">
+        <v>60</v>
+      </c>
+      <c r="M89" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N89" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O89" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P89" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -30016,7 +30604,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30756,6 +31344,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-29.534447075205776</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>29.534447075205776</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-29.534447075205776</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -30798,6 +31396,30 @@
         <v>2.3292503740678492</v>
       </c>
       <c r="N11" s="7"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>9.4674342899156727</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1990.0742505012997</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2809.0955624203825</v>
+      </c>
+      <c r="U11" s="5">
+        <v>819.02131191908279</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2799.4811971394251</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.41155314265926074</v>
+      </c>
+      <c r="X11" s="9">
+        <v>6.2722251735538137E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -30820,6 +31442,16 @@
         <f t="shared" si="4"/>
         <v>-1528.0104860270981</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1528.0104860270981</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-1528.0104860270981</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -30884,6 +31516,16 @@
         <f t="shared" si="4"/>
         <v>-331.22983442957388</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>331.22983442957388</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-331.22983442957388</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -30948,6 +31590,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -31012,6 +31664,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -31069,6 +31731,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-91.832048679506215</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>91.832048679506215</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-91.832048679506215</v>
       </c>
     </row>
@@ -31123,8 +31795,18 @@
       <c r="AE16" s="1">
         <v>2771.50085714235</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>9.4674342899156727</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-9.4674342899156727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -31169,8 +31851,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>7.4277221066691546E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>2809.0955624203825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -31211,8 +31899,12 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>6.2722251735538137E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -31254,7 +31946,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -31296,7 +31988,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -31338,7 +32030,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -31380,7 +32072,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -31422,7 +32114,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -31465,7 +32157,7 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -31507,7 +32199,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -31549,7 +32241,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -31591,7 +32283,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -31633,7 +32325,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -31675,7 +32367,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -31717,7 +32409,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -31759,7 +32451,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -34111,6 +34803,47 @@
         <v>849.93727434591119</v>
       </c>
       <c r="M88" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="20">
+        <v>281400</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1961772.1311867775</v>
+      </c>
+      <c r="F89" s="21">
+        <v>12.708157426931463</v>
+      </c>
+      <c r="G89" s="22">
+        <v>11.040970611836403</v>
+      </c>
+      <c r="H89" s="22">
+        <v>151.89105120307309</v>
+      </c>
+      <c r="I89" s="22">
+        <v>174.82660341124739</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2141.070828022001</v>
+      </c>
+      <c r="K89" s="22">
+        <v>2981.2894460011667</v>
+      </c>
+      <c r="L89" s="22">
+        <v>840.21861797916563</v>
+      </c>
+      <c r="M89" s="21">
         <v>2806.4628425899191</v>
       </c>
     </row>
@@ -34130,7 +34863,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34813,6 +35546,16 @@
         <f t="shared" ref="AC10:AC15" si="4">-AB10</f>
         <v>-1.2220518888775631</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1.2220518888775631</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="5">-AE10</f>
+        <v>-1.2220518888775631</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -34849,6 +35592,30 @@
         <v>3.987403519999928</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>640.68070588965088</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="S11" s="5">
+        <v>400.5255663211226</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1041.2062722107735</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.62515627931225393</v>
+      </c>
+      <c r="V11" s="9">
+        <v>9.7594534949349665E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -34871,6 +35638,16 @@
         <f t="shared" si="4"/>
         <v>-433.73124322277113</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>433.73124322277113</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="5"/>
+        <v>-433.73124322277113</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -34929,6 +35706,16 @@
         <f t="shared" si="4"/>
         <v>-84.696913592045235</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>84.696913592045235</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="5"/>
+        <v>-84.696913592045235</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -34987,6 +35774,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -35045,6 +35842,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -35096,6 +35903,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="4"/>
+        <v>-118.96796894445561</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>118.96796894445561</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="5"/>
         <v>-118.96796894445561</v>
       </c>
     </row>
@@ -35144,8 +35961,18 @@
       <c r="AC16" s="1">
         <v>1003.6023736622923</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.0625282415013544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -35184,8 +36011,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>0.11251673597824041</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1041.2062722107735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -35220,8 +36053,12 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>9.7594534949349665E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -35257,7 +36094,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -35293,7 +36130,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -35329,7 +36166,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -35365,7 +36202,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -35401,7 +36238,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -35438,7 +36275,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -35474,7 +36311,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -35510,7 +36347,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -35546,7 +36383,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -35582,7 +36419,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -35618,7 +36455,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -35654,7 +36491,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -35690,7 +36527,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -37700,6 +38537,41 @@
         <v>314.39045876155308</v>
       </c>
       <c r="K88" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>5.0638683841341896</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>732.0858186037741</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1041.412408981193</v>
+      </c>
+      <c r="J89" s="22">
+        <v>309.32659037741894</v>
+      </c>
+      <c r="K89" s="21">
         <v>1041.412408981193</v>
       </c>
     </row>
@@ -37719,7 +38591,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38495,6 +39367,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.8283260131836769</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.8283260131836769</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-1.8283260131836769</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -38543,6 +39425,30 @@
         <v>0.95</v>
       </c>
       <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="S11" s="5">
+        <v>950.37188045422408</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1728.1136859447943</v>
+      </c>
+      <c r="U11" s="5">
+        <v>777.74180549057019</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.81835523702453561</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.11654017696586116</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -38565,6 +39471,16 @@
         <f t="shared" si="4"/>
         <v>-672.01613508174762</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>672.01613508174762</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-672.01613508174762</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -38635,6 +39551,16 @@
         <f t="shared" si="4"/>
         <v>-158.87923971358168</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-158.87923971358168</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -38705,6 +39631,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -38775,6 +39711,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -38838,6 +39784,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-115.68877781628487</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-115.68877781628487</v>
       </c>
     </row>
@@ -38898,8 +39854,18 @@
       <c r="AE16" s="1">
         <v>1701.127830360952</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9594018294262696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -38950,8 +39916,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.14044080627359001</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1728.1136859447943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -38998,8 +39970,12 @@
         <v>0.95</v>
       </c>
       <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>0.11654017696586116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -39047,7 +40023,7 @@
       </c>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -39095,7 +40071,7 @@
       </c>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -39143,7 +40119,7 @@
       </c>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -39191,7 +40167,7 @@
       </c>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -39239,7 +40215,7 @@
       </c>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -39288,7 +40264,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -39336,7 +40312,7 @@
       </c>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -39384,7 +40360,7 @@
       </c>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -39432,7 +40408,7 @@
       </c>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -39480,7 +40456,7 @@
       </c>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -39528,7 +40504,7 @@
       </c>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -39576,7 +40552,7 @@
       </c>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -39624,7 +40600,7 @@
       </c>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -42120,13 +43096,13 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L84" s="26">
-        <v>2.2331962200588539E-2</v>
+        <v>1.8609968500490449E-2</v>
       </c>
       <c r="M84" s="27">
-        <v>5.8943959288749508E-2</v>
+        <v>4.9453295115756829E-2</v>
       </c>
       <c r="N84" s="27">
-        <v>37.886769857434714</v>
+        <v>37.631402431181847</v>
       </c>
       <c r="O84" s="27">
         <v>0.95</v>
@@ -42167,13 +43143,13 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L85" s="26">
-        <v>1.8609968500490449E-2</v>
+        <v>1.550830708374204E-2</v>
       </c>
       <c r="M85" s="27">
-        <v>4.9453295115756829E-2</v>
+        <v>7.9377741320371495E-2</v>
       </c>
       <c r="N85" s="27">
-        <v>37.631402431181847</v>
+        <v>19.537349924268998</v>
       </c>
       <c r="O85" s="27">
         <v>0.95</v>
@@ -42190,22 +43166,22 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>0.4562031331351567</v>
+        <v>0.96042764870559305</v>
       </c>
       <c r="E86" s="22">
-        <v>0.38304209821991209</v>
+        <v>0.80640441730507806</v>
       </c>
       <c r="F86" s="22">
-        <v>127.88536031443593</v>
+        <v>128.30872263352109</v>
       </c>
       <c r="G86" s="22">
-        <v>152.31146218311744</v>
+        <v>152.81568669868787</v>
       </c>
       <c r="H86" s="22">
-        <v>1031.9729078329078</v>
+        <v>1032.4771323484781</v>
       </c>
       <c r="I86" s="22">
-        <v>1827.1158094748534</v>
+        <v>1827.6200339904237</v>
       </c>
       <c r="J86" s="22">
         <v>795.14290164194563</v>
@@ -42214,16 +43190,16 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L86" s="26">
-        <v>1.550830708374204E-2</v>
+        <v>4.8923582719677207E-2</v>
       </c>
       <c r="M86" s="27">
-        <v>7.9377741320371495E-2</v>
+        <v>0.10214811125020175</v>
       </c>
       <c r="N86" s="27">
-        <v>19.537349924268998</v>
+        <v>47.894750202325042</v>
       </c>
       <c r="O86" s="27">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75">
@@ -42237,40 +43213,40 @@
         <v>1.2089520707745522</v>
       </c>
       <c r="D87" s="21">
-        <v>0.89085207327592597</v>
+        <v>0.4231547348060648</v>
       </c>
       <c r="E87" s="22">
-        <v>0.74735910214395884</v>
+        <v>0.35499557351838046</v>
       </c>
       <c r="F87" s="22">
-        <v>128.63271941657987</v>
+        <v>128.66371820703947</v>
       </c>
       <c r="G87" s="22">
-        <v>153.33020559279601</v>
+        <v>153.36715615199941</v>
       </c>
       <c r="H87" s="22">
-        <v>1032.8637599061838</v>
+        <v>1032.9002870832842</v>
       </c>
       <c r="I87" s="22">
-        <v>1828.1345528845318</v>
+        <v>1828.1715034437352</v>
       </c>
       <c r="J87" s="22">
-        <v>795.27079297834803</v>
+        <v>795.27121636045104</v>
       </c>
       <c r="K87" s="21">
         <v>1674.8043472917359</v>
       </c>
       <c r="L87" s="26">
-        <v>4.8923582719677207E-2</v>
+        <v>4.0936326721404591E-2</v>
       </c>
       <c r="M87" s="27">
-        <v>0.10214811125020175</v>
+        <v>8.5290100496841714E-2</v>
       </c>
       <c r="N87" s="27">
-        <v>47.894750202325042</v>
+        <v>47.99657461175164</v>
       </c>
       <c r="O87" s="27">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75">
@@ -42290,34 +43266,81 @@
         <v>-0.16051633385743194</v>
       </c>
       <c r="F88" s="22">
-        <v>128.47220308272244</v>
+        <v>128.50320187318204</v>
       </c>
       <c r="G88" s="22">
-        <v>156.73609143654059</v>
+        <v>156.77390996178818</v>
       </c>
       <c r="H88" s="22">
-        <v>1032.8637599061838</v>
+        <v>1032.9002870832842</v>
       </c>
       <c r="I88" s="22">
-        <v>1831.736268660175</v>
+        <v>1831.7740871854226</v>
       </c>
       <c r="J88" s="22">
-        <v>798.87250875399127</v>
+        <v>798.87380010213838</v>
       </c>
       <c r="K88" s="21">
         <v>1675.0001772236344</v>
       </c>
       <c r="L88" s="26">
-        <v>4.0936326721404591E-2</v>
+        <v>3.8780271791E-2</v>
       </c>
       <c r="M88" s="27">
-        <v>8.5290100496841714E-2</v>
+        <v>7.5741749937197608E-2</v>
       </c>
       <c r="N88" s="27">
-        <v>47.99657461175164</v>
+        <v>51.200654623315721</v>
       </c>
       <c r="O88" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="21">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>1.0127736768268381</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0.87990760789517908</v>
+      </c>
+      <c r="F89" s="22">
+        <v>129.38310948107721</v>
+      </c>
+      <c r="G89" s="22">
+        <v>148.91996197406422</v>
+      </c>
+      <c r="H89" s="22">
+        <v>1033.913060760111</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1823.9201391976985</v>
+      </c>
+      <c r="J89" s="22">
+        <v>790.00707843758755</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L89" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M89" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N89" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O89" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -42336,7 +43359,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43131,6 +44154,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.1609492944336848</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.1609492944336848</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-1.1609492944336848</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -43181,6 +44214,30 @@
       <c r="P11" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="S11" s="5">
+        <v>608.64667059516819</v>
+      </c>
+      <c r="T11" s="5">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="U11" s="5">
+        <v>387.40389302563074</v>
+      </c>
+      <c r="V11" s="5">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.63650047185308001</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.9032665900877781E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -43203,6 +44260,16 @@
         <f t="shared" si="4"/>
         <v>-412.0446810616325</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>412.0446810616325</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-412.0446810616325</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -43275,6 +44342,16 @@
         <f t="shared" si="4"/>
         <v>-80.462067912442933</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-80.462067912442933</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -43347,6 +44424,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -43419,6 +44506,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -43486,6 +44583,16 @@
         <f t="shared" si="4"/>
         <v>-113.01957049723279</v>
       </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
+        <v>-113.01957049723279</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="15">
@@ -43546,8 +44653,18 @@
       <c r="AE16" s="1">
         <v>960.32685999974194</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9594018294262696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -43600,8 +44717,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.11436498939085693</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>996.05056362079893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -43650,8 +44773,12 @@
       <c r="P18" s="27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.9032665900877781E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -43701,7 +44828,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -43751,7 +44878,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -43801,7 +44928,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -43851,7 +44978,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -43901,7 +45028,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -43952,7 +45079,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -44002,7 +45129,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -44052,7 +45179,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -44102,7 +45229,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -44152,7 +45279,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -44202,7 +45329,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -44252,7 +45379,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -44302,7 +45429,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -46937,16 +48064,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L84" s="26">
-        <v>15.447149282091519</v>
+        <v>15.040650454569146</v>
       </c>
       <c r="M84" s="27">
-        <v>29.052393907642706</v>
+        <v>24.381812756618189</v>
       </c>
       <c r="N84" s="27">
-        <v>43.442701755044162</v>
+        <v>37.089072088902171</v>
       </c>
       <c r="O84" s="27">
-        <v>0.27177821283979142</v>
+        <v>-1.0327059079497758</v>
       </c>
       <c r="P84" s="27">
         <v>0.95</v>
@@ -46963,7 +48090,7 @@
         <v>1.2097484883584595</v>
       </c>
       <c r="D85" s="21">
-        <v>81.144824245548421</v>
+        <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
         <v>0</v>
@@ -46975,31 +48102,31 @@
         <v>0</v>
       </c>
       <c r="H85" s="22">
-        <v>689.79149484071661</v>
+        <v>694.06227506416656</v>
       </c>
       <c r="I85" s="22">
         <v>996.05056362079893</v>
       </c>
       <c r="J85" s="22">
-        <v>306.25906878008232</v>
+        <v>301.98828855663237</v>
       </c>
       <c r="K85" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L85" s="26">
-        <v>15.040650454569146</v>
+        <v>0</v>
       </c>
       <c r="M85" s="27">
-        <v>24.381812756618189</v>
+        <v>16.25454183774546</v>
       </c>
       <c r="N85" s="27">
-        <v>37.089072088902171</v>
+        <v>30.144228671849934</v>
       </c>
       <c r="O85" s="27">
-        <v>-1.0327059079497758</v>
+        <v>-11.524831830463491</v>
       </c>
       <c r="P85" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75">
@@ -47013,7 +48140,7 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>0.48021382435279653</v>
+        <v>0.4562031331351567</v>
       </c>
       <c r="E86" s="22">
         <v>0</v>
@@ -47025,31 +48152,31 @@
         <v>0</v>
       </c>
       <c r="H86" s="22">
-        <v>690.27170866506935</v>
+        <v>694.51847819730176</v>
       </c>
       <c r="I86" s="22">
         <v>996.05056362079893</v>
       </c>
       <c r="J86" s="22">
-        <v>305.77885495572957</v>
+        <v>301.53208542349716</v>
       </c>
       <c r="K86" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>39.198850542858423</v>
       </c>
       <c r="M86" s="27">
-        <v>16.25454183774546</v>
+        <v>23.902644739449784</v>
       </c>
       <c r="N86" s="27">
-        <v>30.144228671849934</v>
+        <v>28.063700694383215</v>
       </c>
       <c r="O86" s="27">
-        <v>-11.524831830463491</v>
+        <v>15.580532829582921</v>
       </c>
       <c r="P86" s="27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75">
@@ -47075,28 +48202,28 @@
         <v>0</v>
       </c>
       <c r="H87" s="22">
-        <v>690.69486339987543</v>
+        <v>694.94163293210784</v>
       </c>
       <c r="I87" s="22">
         <v>996.05056362079893</v>
       </c>
       <c r="J87" s="22">
-        <v>305.3557002209235</v>
+        <v>301.10893068869109</v>
       </c>
       <c r="K87" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L87" s="26">
-        <v>39.198850542858423</v>
+        <v>49.019609926414297</v>
       </c>
       <c r="M87" s="27">
-        <v>23.902644739449784</v>
+        <v>32.274966468437952</v>
       </c>
       <c r="N87" s="27">
-        <v>28.063700694383215</v>
+        <v>29.467455952401462</v>
       </c>
       <c r="O87" s="27">
-        <v>15.580532829582921</v>
+        <v>37.889987500510934</v>
       </c>
       <c r="P87" s="27">
         <v>0.95</v>
@@ -47125,30 +48252,80 @@
         <v>0</v>
       </c>
       <c r="H88" s="22">
-        <v>690.69486339987543</v>
+        <v>694.94163293210784</v>
       </c>
       <c r="I88" s="22">
         <v>996.24639355269744</v>
       </c>
       <c r="J88" s="22">
-        <v>305.55153015282201</v>
+        <v>301.3047606205896</v>
       </c>
       <c r="K88" s="21">
         <v>996.24639355269744</v>
       </c>
       <c r="L88" s="26">
-        <v>49.019609926414297</v>
+        <v>58.045981670772953</v>
       </c>
       <c r="M88" s="27">
-        <v>32.274966468437952</v>
+        <v>40.865304869216288</v>
       </c>
       <c r="N88" s="27">
-        <v>29.467455952401462</v>
+        <v>33.266738924673071</v>
       </c>
       <c r="O88" s="27">
-        <v>37.889987500510934</v>
+        <v>56.062436758302724</v>
       </c>
       <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>4.8106749649274798</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>699.75230789703528</v>
+      </c>
+      <c r="I89" s="22">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="J89" s="22">
+        <v>296.49408565566216</v>
+      </c>
+      <c r="K89" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L89" s="26">
+        <v>60</v>
+      </c>
+      <c r="M89" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N89" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O89" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P89" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -47168,7 +48345,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47908,6 +49085,16 @@
         <f t="shared" ref="AE10:AE15" si="5">-AD10</f>
         <v>-0.57621376243097611</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.57621376243097611</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="6">-AG10</f>
+        <v>-0.57621376243097611</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -47950,6 +49137,30 @@
         <v>4.7167320074873662E-2</v>
       </c>
       <c r="N11" s="7"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="S11" s="5">
+        <v>317.75778856327963</v>
+      </c>
+      <c r="T11" s="5">
+        <v>513.43840767266863</v>
+      </c>
+      <c r="U11" s="5">
+        <v>195.680619109389</v>
+      </c>
+      <c r="V11" s="5">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.61581690882903517</v>
+      </c>
+      <c r="X11" s="9">
+        <v>8.7073790790229921E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -47972,6 +49183,16 @@
         <f t="shared" si="5"/>
         <v>-262.72397636432083</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>262.72397636432083</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="6"/>
+        <v>-262.72397636432083</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -48036,6 +49257,16 @@
         <f t="shared" si="5"/>
         <v>-43.135897352006509</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="6"/>
+        <v>-43.135897352006509</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -48100,6 +49331,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -48164,6 +49405,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -48221,6 +49472,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="5"/>
+        <v>-11.079325740253353</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="6"/>
         <v>-11.079325740253353</v>
       </c>
     </row>
@@ -48275,8 +49536,18 @@
       <c r="AE16" s="1">
         <v>509.51578528070536</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.24237534426794127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -48321,8 +49592,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.10458712586200214</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>513.43840767266863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -48363,8 +49640,12 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>8.7073790790229921E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -48406,7 +49687,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -48448,7 +49729,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -48490,7 +49771,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -48532,7 +49813,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -48574,7 +49855,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -48617,7 +49898,7 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -48659,7 +49940,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -48701,7 +49982,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -48743,7 +50024,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -48785,7 +50066,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -48827,7 +50108,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -48869,7 +50150,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -48911,7 +50192,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -51263,6 +52544,47 @@
         <v>202.81999607147844</v>
       </c>
       <c r="M88" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="20">
+        <v>281400</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1961772.1311867775</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0.72637007155021682</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0.63107737368027983</v>
+      </c>
+      <c r="H89" s="22">
+        <v>30.122787736471881</v>
+      </c>
+      <c r="I89" s="22">
+        <v>34.671329374135034</v>
+      </c>
+      <c r="J89" s="22">
+        <v>347.15757819781584</v>
+      </c>
+      <c r="K89" s="22">
+        <v>547.94264608550873</v>
+      </c>
+      <c r="L89" s="22">
+        <v>200.78506788769289</v>
+      </c>
+      <c r="M89" s="21">
         <v>513.27131671137374</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1100,6 +1100,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1112,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1367,6 +1370,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>4468.6931805976556</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4549.0299447737698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,7 +1415,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1667,6 +1673,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1685,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1934,6 +1943,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>6540.7455713742411</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6623.8009269627255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,7 +1988,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2234,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,7 +2258,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2501,6 +2516,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2072.0523907765855</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2074.7709821889557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,11 +2540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475826816"/>
-        <c:axId val="475828992"/>
+        <c:axId val="492780160"/>
+        <c:axId val="492786048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475826816"/>
+        <c:axId val="492780160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,14 +2587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475828992"/>
+        <c:crossAx val="492786048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475828992"/>
+        <c:axId val="492786048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475826816"/>
+        <c:crossAx val="492780160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2810,7 +2828,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3068,6 +3086,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3098,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3335,6 +3356,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>5648.7846494739597</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5725.104575441268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3377,7 +3401,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3635,6 +3659,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,7 +3671,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3902,6 +3929,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>8890.4126548029853</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8977.0338419705095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3944,7 +3974,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4202,6 +4232,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,7 +4244,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4469,6 +4502,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3241.6280053290257</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3251.9292665292414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,11 +4526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487941632"/>
-        <c:axId val="502362112"/>
+        <c:axId val="492804352"/>
+        <c:axId val="492806144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487941632"/>
+        <c:axId val="492804352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4537,14 +4573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502362112"/>
+        <c:crossAx val="492806144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502362112"/>
+        <c:axId val="492806144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4593,7 +4629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487941632"/>
+        <c:crossAx val="492804352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4778,7 +4814,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5036,6 +5072,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5045,7 +5084,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5303,6 +5342,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>4263.4515275678095</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4339.7714535351179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,7 +5387,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5603,6 +5645,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,7 +5657,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5870,6 +5915,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>6321.9880589728027</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6400.9839441572731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5912,7 +5960,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6170,6 +6218,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6179,7 +6230,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6437,6 +6488,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2058.5365314049932</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2061.2124906221552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6458,11 +6512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574332928"/>
-        <c:axId val="574334848"/>
+        <c:axId val="492951424"/>
+        <c:axId val="492952960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574332928"/>
+        <c:axId val="492951424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6505,14 +6559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574334848"/>
+        <c:crossAx val="492952960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574334848"/>
+        <c:axId val="492952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6561,7 +6615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574332928"/>
+        <c:crossAx val="492951424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6746,7 +6800,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7004,6 +7058,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7013,7 +7070,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7271,6 +7328,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2141.070828022001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2154.2159799891756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7313,7 +7373,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7571,6 +7631,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7580,7 +7643,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7838,6 +7901,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2981.2894460011667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2995.1940525000837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,7 +7946,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8138,6 +8204,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8147,7 +8216,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8405,6 +8474,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>840.21861797916563</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>840.97807251090808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8426,11 +8498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="797693824"/>
-        <c:axId val="797695360"/>
+        <c:axId val="534799872"/>
+        <c:axId val="534801408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="797693824"/>
+        <c:axId val="534799872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8473,14 +8545,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797695360"/>
+        <c:crossAx val="534801408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="797695360"/>
+        <c:axId val="534801408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8529,7 +8601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797693824"/>
+        <c:crossAx val="534799872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8714,7 +8786,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8972,6 +9044,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8981,7 +9056,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9239,6 +9314,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>732.0858186037741</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>736.24968678331516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9281,7 +9359,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9539,6 +9617,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9548,7 +9629,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9784,28 +9865,31 @@
                   <c:v>1041.2062722107735</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1043.1336713582928</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1043.2296377366952</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1043.3146132957579</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1128.3292127384425</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1148.1105048061181</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1041.2062722107735</c:v>
+                  <c:v>1148.6456950993506</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1041.412408981193</c:v>
+                  <c:v>1151.1694396077971</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1041.412408981193</c:v>
+                  <c:v>1150.0257378577753</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1154.6614271630115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9848,7 +9932,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10106,6 +10190,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10115,7 +10202,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10351,28 +10438,31 @@
                   <c:v>402.58809456262395</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>400.66069541510478</c:v>
+                  <c:v>402.58809456262406</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>400.61389733545161</c:v>
+                  <c:v>402.6372628613733</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>400.5255663211226</c:v>
+                  <c:v>402.63390740610703</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>315.10996185212423</c:v>
+                  <c:v>402.23290237979325</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>314.62974802777148</c:v>
+                  <c:v>421.53398062311612</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>314.18432199113352</c:v>
+                  <c:v>421.62374487971067</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>314.39045876155308</c:v>
+                  <c:v>424.14748938815717</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>309.32659037741894</c:v>
+                  <c:v>417.93991925400121</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>418.41174037969631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10394,11 +10484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474813952"/>
-        <c:axId val="474815488"/>
+        <c:axId val="535798912"/>
+        <c:axId val="535800448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474813952"/>
+        <c:axId val="535798912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10441,14 +10531,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474815488"/>
+        <c:crossAx val="535800448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474815488"/>
+        <c:axId val="535800448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10497,7 +10587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474813952"/>
+        <c:crossAx val="535798912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10682,7 +10772,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10940,6 +11030,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10949,7 +11042,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11207,6 +11300,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1033.913060760111</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1037.8687355306749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11249,7 +11345,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11507,6 +11603,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11516,7 +11615,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11774,6 +11873,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1823.9201391976985</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1828.5227288987212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11816,7 +11918,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12074,6 +12176,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12083,7 +12188,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12341,6 +12446,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>790.00707843758755</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>790.65399336804626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12362,11 +12470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474903680"/>
-        <c:axId val="474905216"/>
+        <c:axId val="536273664"/>
+        <c:axId val="536275200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474903680"/>
+        <c:axId val="536273664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12409,14 +12517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474905216"/>
+        <c:crossAx val="536275200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474905216"/>
+        <c:axId val="536275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12465,7 +12573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474903680"/>
+        <c:crossAx val="536273664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12650,7 +12758,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12908,6 +13016,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12917,7 +13028,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13175,6 +13286,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>699.75230789703528</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>703.70798266759925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13217,7 +13331,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13475,6 +13589,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13484,7 +13601,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13720,28 +13837,31 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>997.88159281094215</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>997.97276087042451</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>998.05348765153417</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1083.0881373455345</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1102.8265066956899</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1103.3393179662535</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>996.24639355269744</c:v>
+                  <c:v>1105.859523281189</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>996.24639355269744</c:v>
+                  <c:v>1104.4707667697967</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1108.8965730253919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13784,7 +13904,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14042,6 +14162,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14051,7 +14174,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14287,28 +14410,31 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>387.53226566491378</c:v>
+                  <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>387.48780748924321</c:v>
+                  <c:v>389.41000473886879</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>387.40389302563074</c:v>
+                  <c:v>389.40681705636598</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>301.98828855663237</c:v>
+                  <c:v>389.02586228136795</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>301.53208542349716</c:v>
+                  <c:v>408.30802849838813</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>301.10893068869109</c:v>
+                  <c:v>408.39768503414564</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>301.3047606205896</c:v>
+                  <c:v>410.91789034908118</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>296.49408565566216</c:v>
+                  <c:v>404.7184588727614</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>405.18859035779269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14330,11 +14456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486519552"/>
-        <c:axId val="486521088"/>
+        <c:axId val="540389760"/>
+        <c:axId val="540391296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486519552"/>
+        <c:axId val="540389760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14377,14 +14503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486521088"/>
+        <c:crossAx val="540391296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486521088"/>
+        <c:axId val="540391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14433,7 +14559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486519552"/>
+        <c:crossAx val="540389760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14618,7 +14744,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14876,6 +15002,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14885,7 +15014,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15143,6 +15272,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>347.15757819781584</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>347.83889366468429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15185,7 +15317,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15443,6 +15575,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15452,7 +15587,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15710,6 +15845,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>547.94264608550873</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>548.77457534742291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15752,7 +15890,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16010,6 +16148,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16019,7 +16160,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16277,6 +16418,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>200.78506788769289</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>200.93568168273862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16298,11 +16442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487936384"/>
-        <c:axId val="487937920"/>
+        <c:axId val="540540928"/>
+        <c:axId val="540542464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487936384"/>
+        <c:axId val="540540928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16345,14 +16489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487937920"/>
+        <c:crossAx val="540542464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487937920"/>
+        <c:axId val="540542464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16401,7 +16545,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487936384"/>
+        <c:crossAx val="540540928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17121,7 +17265,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20833,6 +20977,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>80.336764176114258</v>
+      </c>
+      <c r="E90" s="22">
+        <v>69.495469651271122</v>
+      </c>
+      <c r="F90" s="22">
+        <v>613.21427065599858</v>
+      </c>
+      <c r="G90" s="22">
+        <v>708.87570798966169</v>
+      </c>
+      <c r="H90" s="22">
+        <v>4549.0299447737698</v>
+      </c>
+      <c r="I90" s="22">
+        <v>6623.8009269627255</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2074.7709821889557</v>
+      </c>
+      <c r="K90" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20849,7 +21028,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25601,6 +25780,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="90" spans="1:15" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>76.319925967308535</v>
+      </c>
+      <c r="E90" s="22">
+        <v>66.020696168707559</v>
+      </c>
+      <c r="F90" s="22">
+        <v>2126.2749010235439</v>
+      </c>
+      <c r="G90" s="22">
+        <v>2457.973824110918</v>
+      </c>
+      <c r="H90" s="22">
+        <v>5725.104575441268</v>
+      </c>
+      <c r="I90" s="22">
+        <v>8977.0338419705095</v>
+      </c>
+      <c r="J90" s="22">
+        <v>3251.9292665292414</v>
+      </c>
+      <c r="K90" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L90" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M90" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N90" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -25617,7 +25843,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30588,6 +30814,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="90" spans="1:16" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>76.319925967308535</v>
+      </c>
+      <c r="E90" s="22">
+        <v>66.020696168707559</v>
+      </c>
+      <c r="F90" s="22">
+        <v>601.21305000028531</v>
+      </c>
+      <c r="G90" s="22">
+        <v>695.0022966941973</v>
+      </c>
+      <c r="H90" s="22">
+        <v>4339.7714535351179</v>
+      </c>
+      <c r="I90" s="22">
+        <v>6400.9839441572731</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2061.2124906221552</v>
+      </c>
+      <c r="K90" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L90" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M90" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N90" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O90" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -30604,7 +30880,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34847,6 +35123,47 @@
         <v>2806.4628425899191</v>
       </c>
     </row>
+    <row r="90" spans="1:13" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="20">
+        <v>318300</v>
+      </c>
+      <c r="E90" s="20">
+        <v>1945294.5162682247</v>
+      </c>
+      <c r="F90" s="21">
+        <v>13.145151967174575</v>
+      </c>
+      <c r="G90" s="22">
+        <v>11.371238547690199</v>
+      </c>
+      <c r="H90" s="22">
+        <v>163.2622897507633</v>
+      </c>
+      <c r="I90" s="22">
+        <v>188.73120991016438</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2154.2159799891756</v>
+      </c>
+      <c r="K90" s="22">
+        <v>2995.1940525000837</v>
+      </c>
+      <c r="L90" s="22">
+        <v>840.97807251090808</v>
+      </c>
+      <c r="M90" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -34863,7 +35180,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35602,16 +35919,16 @@
         <v>640.68070588965088</v>
       </c>
       <c r="R11" s="5">
-        <v>1041.2062722107735</v>
+        <v>1043.3146132957579</v>
       </c>
       <c r="S11" s="5">
-        <v>400.5255663211226</v>
+        <v>402.63390740610703</v>
       </c>
       <c r="T11" s="5">
         <v>1041.2062722107735</v>
       </c>
       <c r="U11" s="9">
-        <v>0.62515627931225393</v>
+        <v>0.62844706217117707</v>
       </c>
       <c r="V11" s="9">
         <v>9.7594534949349665E-2</v>
@@ -38309,22 +38626,22 @@
         <v>1.9273991475192054</v>
       </c>
       <c r="E82" s="22">
-        <v>0</v>
+        <v>1.638944854661756</v>
       </c>
       <c r="F82" s="22">
-        <v>0</v>
+        <v>1.638944854661756</v>
       </c>
       <c r="G82" s="22">
-        <v>0</v>
+        <v>1.9273991475192054</v>
       </c>
       <c r="H82" s="22">
         <v>640.54557679566869</v>
       </c>
       <c r="I82" s="22">
-        <v>1041.2062722107735</v>
+        <v>1043.1336713582928</v>
       </c>
       <c r="J82" s="22">
-        <v>400.66069541510478</v>
+        <v>402.58809456262406</v>
       </c>
       <c r="K82" s="21">
         <v>1041.2062722107735</v>
@@ -38344,22 +38661,22 @@
         <v>4.6798079653182528E-2</v>
       </c>
       <c r="E83" s="22">
-        <v>0</v>
+        <v>3.8804378773127236E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>0</v>
+        <v>1.6777492334348831</v>
       </c>
       <c r="G83" s="22">
-        <v>0</v>
+        <v>2.0233655259216521</v>
       </c>
       <c r="H83" s="22">
         <v>640.59237487532187</v>
       </c>
       <c r="I83" s="22">
-        <v>1041.2062722107735</v>
+        <v>1043.2296377366952</v>
       </c>
       <c r="J83" s="22">
-        <v>400.61389733545161</v>
+        <v>402.6372628613733</v>
       </c>
       <c r="K83" s="21">
         <v>1041.2062722107735</v>
@@ -38379,22 +38696,22 @@
         <v>8.8331014328970323E-2</v>
       </c>
       <c r="E84" s="22">
-        <v>0</v>
+        <v>7.3364630073782536E-2</v>
       </c>
       <c r="F84" s="22">
-        <v>0</v>
+        <v>1.7511138635086656</v>
       </c>
       <c r="G84" s="22">
-        <v>0</v>
+        <v>2.1083410849844642</v>
       </c>
       <c r="H84" s="22">
         <v>640.68070588965088</v>
       </c>
       <c r="I84" s="22">
-        <v>1041.2062722107735</v>
+        <v>1043.3146132957579</v>
       </c>
       <c r="J84" s="22">
-        <v>400.5255663211226</v>
+        <v>402.63390740610703</v>
       </c>
       <c r="K84" s="21">
         <v>1041.2062722107735</v>
@@ -38414,22 +38731,22 @@
         <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
-        <v>0</v>
+        <v>87.605746031091883</v>
       </c>
       <c r="F85" s="22">
-        <v>0</v>
+        <v>89.356859894600547</v>
       </c>
       <c r="G85" s="22">
-        <v>0</v>
+        <v>87.122940527669087</v>
       </c>
       <c r="H85" s="22">
         <v>726.09631035864925</v>
       </c>
       <c r="I85" s="22">
-        <v>1041.2062722107735</v>
+        <v>1128.3292127384425</v>
       </c>
       <c r="J85" s="22">
-        <v>315.10996185212423</v>
+        <v>402.23290237979325</v>
       </c>
       <c r="K85" s="21">
         <v>1041.2062722107735</v>
@@ -38449,22 +38766,22 @@
         <v>0.48021382435279653</v>
       </c>
       <c r="E86" s="22">
-        <v>0</v>
+        <v>0.40320220865253903</v>
       </c>
       <c r="F86" s="22">
-        <v>0</v>
+        <v>89.760062103253091</v>
       </c>
       <c r="G86" s="22">
-        <v>0</v>
+        <v>106.90423259534458</v>
       </c>
       <c r="H86" s="22">
         <v>726.57652418300199</v>
       </c>
       <c r="I86" s="22">
-        <v>1041.2062722107735</v>
+        <v>1148.1105048061181</v>
       </c>
       <c r="J86" s="22">
-        <v>314.62974802777148</v>
+        <v>421.53398062311612</v>
       </c>
       <c r="K86" s="21">
         <v>1041.2062722107735</v>
@@ -38484,22 +38801,22 @@
         <v>0.44542603663796299</v>
       </c>
       <c r="E87" s="22">
-        <v>0</v>
+        <v>0.37367955107197942</v>
       </c>
       <c r="F87" s="22">
-        <v>0</v>
+        <v>90.133741654325064</v>
       </c>
       <c r="G87" s="22">
-        <v>0</v>
+        <v>107.43942288857721</v>
       </c>
       <c r="H87" s="22">
         <v>727.02195021963996</v>
       </c>
       <c r="I87" s="22">
-        <v>1041.2062722107735</v>
+        <v>1148.6456950993506</v>
       </c>
       <c r="J87" s="22">
-        <v>314.18432199113352</v>
+        <v>421.62374487971067</v>
       </c>
       <c r="K87" s="21">
         <v>1041.2062722107735</v>
@@ -38519,22 +38836,22 @@
         <v>-0.20613677041944856</v>
       </c>
       <c r="E88" s="22">
-        <v>0</v>
+        <v>-0.16896456195519152</v>
       </c>
       <c r="F88" s="22">
-        <v>0</v>
+        <v>89.964777092369872</v>
       </c>
       <c r="G88" s="22">
-        <v>0</v>
+        <v>109.75703062660416</v>
       </c>
       <c r="H88" s="22">
         <v>727.02195021963996</v>
       </c>
       <c r="I88" s="22">
-        <v>1041.412408981193</v>
+        <v>1151.1694396077971</v>
       </c>
       <c r="J88" s="22">
-        <v>314.39045876155308</v>
+        <v>424.14748938815717</v>
       </c>
       <c r="K88" s="21">
         <v>1041.412408981193</v>
@@ -38554,24 +38871,59 @@
         <v>5.0638683841341896</v>
       </c>
       <c r="E89" s="22">
-        <v>0</v>
+        <v>4.3995380394758952</v>
       </c>
       <c r="F89" s="22">
-        <v>0</v>
+        <v>94.364315131845771</v>
       </c>
       <c r="G89" s="22">
-        <v>0</v>
+        <v>108.61332887658226</v>
       </c>
       <c r="H89" s="22">
         <v>732.0858186037741</v>
       </c>
       <c r="I89" s="22">
+        <v>1150.0257378577753</v>
+      </c>
+      <c r="J89" s="22">
+        <v>417.93991925400121</v>
+      </c>
+      <c r="K89" s="21">
         <v>1041.412408981193</v>
       </c>
-      <c r="J89" s="22">
-        <v>309.32659037741894</v>
-      </c>
-      <c r="K89" s="21">
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>4.1638681795410299</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.6019620365693381</v>
+      </c>
+      <c r="F90" s="22">
+        <v>97.966277168415104</v>
+      </c>
+      <c r="G90" s="22">
+        <v>113.24901818181839</v>
+      </c>
+      <c r="H90" s="22">
+        <v>736.24968678331516</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1154.6614271630115</v>
+      </c>
+      <c r="J90" s="22">
+        <v>418.41174037969631</v>
+      </c>
+      <c r="K90" s="21">
         <v>1041.412408981193</v>
       </c>
     </row>
@@ -38591,7 +38943,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43343,6 +43695,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="90" spans="1:15" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="21">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>3.9556747705639781</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.421863934740871</v>
+      </c>
+      <c r="F90" s="22">
+        <v>132.8049734158181</v>
+      </c>
+      <c r="G90" s="22">
+        <v>153.52255167508687</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1037.8687355306749</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1828.5227288987212</v>
+      </c>
+      <c r="J90" s="22">
+        <v>790.65399336804626</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L90" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M90" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N90" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43359,7 +43758,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44224,16 +44623,16 @@
         <v>608.64667059516819</v>
       </c>
       <c r="T11" s="5">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
       <c r="U11" s="5">
-        <v>387.40389302563074</v>
+        <v>389.40681705636598</v>
       </c>
       <c r="V11" s="5">
         <v>996.05056362079893</v>
       </c>
       <c r="W11" s="9">
-        <v>0.63650047185308001</v>
+        <v>0.63979125471200327</v>
       </c>
       <c r="X11" s="9">
         <v>9.9032665900877781E-2</v>
@@ -47943,22 +48342,22 @@
         <v>1.8310291901432449</v>
       </c>
       <c r="E82" s="22">
-        <v>0</v>
+        <v>1.5569976119286679</v>
       </c>
       <c r="F82" s="22">
-        <v>0</v>
+        <v>1.5569976119286679</v>
       </c>
       <c r="G82" s="22">
-        <v>0</v>
+        <v>1.8310291901432449</v>
       </c>
       <c r="H82" s="22">
         <v>608.51829795588515</v>
       </c>
       <c r="I82" s="22">
-        <v>996.05056362079893</v>
+        <v>997.88159281094215</v>
       </c>
       <c r="J82" s="22">
-        <v>387.53226566491378</v>
+        <v>389.36329485505701</v>
       </c>
       <c r="K82" s="21">
         <v>996.05056362079893</v>
@@ -47993,22 +48392,22 @@
         <v>4.4458175670523403E-2</v>
       </c>
       <c r="E83" s="22">
-        <v>0</v>
+        <v>3.6864159834470875E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>0</v>
+        <v>1.5938617717631387</v>
       </c>
       <c r="G83" s="22">
-        <v>0</v>
+        <v>1.9221972496255693</v>
       </c>
       <c r="H83" s="22">
         <v>608.56275613155572</v>
       </c>
       <c r="I83" s="22">
-        <v>996.05056362079893</v>
+        <v>997.97276087042451</v>
       </c>
       <c r="J83" s="22">
-        <v>387.48780748924321</v>
+        <v>389.41000473886879</v>
       </c>
       <c r="K83" s="21">
         <v>996.05056362079893</v>
@@ -48043,22 +48442,22 @@
         <v>8.3914463612521806E-2</v>
       </c>
       <c r="E84" s="22">
-        <v>0</v>
+        <v>6.969639857009341E-2</v>
       </c>
       <c r="F84" s="22">
-        <v>0</v>
+        <v>1.6635581703332321</v>
       </c>
       <c r="G84" s="22">
-        <v>0</v>
+        <v>2.0029240307352407</v>
       </c>
       <c r="H84" s="22">
         <v>608.64667059516819</v>
       </c>
       <c r="I84" s="22">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
       <c r="J84" s="22">
-        <v>387.40389302563074</v>
+        <v>389.40681705636598</v>
       </c>
       <c r="K84" s="21">
         <v>996.05056362079893</v>
@@ -48093,22 +48492,22 @@
         <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
-        <v>0</v>
+        <v>87.605746031091883</v>
       </c>
       <c r="F85" s="22">
-        <v>0</v>
+        <v>89.269304201425115</v>
       </c>
       <c r="G85" s="22">
-        <v>0</v>
+        <v>87.037573724735552</v>
       </c>
       <c r="H85" s="22">
         <v>694.06227506416656</v>
       </c>
       <c r="I85" s="22">
-        <v>996.05056362079893</v>
+        <v>1083.0881373455345</v>
       </c>
       <c r="J85" s="22">
-        <v>301.98828855663237</v>
+        <v>389.02586228136795</v>
       </c>
       <c r="K85" s="21">
         <v>996.05056362079893</v>
@@ -48143,22 +48542,22 @@
         <v>0.4562031331351567</v>
       </c>
       <c r="E86" s="22">
-        <v>0</v>
+        <v>0.38304209821991209</v>
       </c>
       <c r="F86" s="22">
-        <v>0</v>
+        <v>89.652346299645032</v>
       </c>
       <c r="G86" s="22">
-        <v>0</v>
+        <v>106.77594307489099</v>
       </c>
       <c r="H86" s="22">
         <v>694.51847819730176</v>
       </c>
       <c r="I86" s="22">
-        <v>996.05056362079893</v>
+        <v>1102.8265066956899</v>
       </c>
       <c r="J86" s="22">
-        <v>301.53208542349716</v>
+        <v>408.30802849838813</v>
       </c>
       <c r="K86" s="21">
         <v>996.05056362079893</v>
@@ -48193,22 +48592,22 @@
         <v>0.4231547348060648</v>
       </c>
       <c r="E87" s="22">
-        <v>0</v>
+        <v>0.35499557351838046</v>
       </c>
       <c r="F87" s="22">
-        <v>0</v>
+        <v>90.007341873163412</v>
       </c>
       <c r="G87" s="22">
-        <v>0</v>
+        <v>107.28875434545456</v>
       </c>
       <c r="H87" s="22">
         <v>694.94163293210784</v>
       </c>
       <c r="I87" s="22">
-        <v>996.05056362079893</v>
+        <v>1103.3393179662535</v>
       </c>
       <c r="J87" s="22">
-        <v>301.10893068869109</v>
+        <v>408.39768503414564</v>
       </c>
       <c r="K87" s="21">
         <v>996.05056362079893</v>
@@ -48243,22 +48642,22 @@
         <v>-0.19582993189847611</v>
       </c>
       <c r="E88" s="22">
-        <v>0</v>
+        <v>-0.16051633385743194</v>
       </c>
       <c r="F88" s="22">
-        <v>0</v>
+        <v>89.846825539305982</v>
       </c>
       <c r="G88" s="22">
-        <v>0</v>
+        <v>109.6131297284916</v>
       </c>
       <c r="H88" s="22">
         <v>694.94163293210784</v>
       </c>
       <c r="I88" s="22">
-        <v>996.24639355269744</v>
+        <v>1105.859523281189</v>
       </c>
       <c r="J88" s="22">
-        <v>301.3047606205896</v>
+        <v>410.91789034908118</v>
       </c>
       <c r="K88" s="21">
         <v>996.24639355269744</v>
@@ -48293,22 +48692,22 @@
         <v>4.8106749649274798</v>
       </c>
       <c r="E89" s="22">
-        <v>0</v>
+        <v>4.1795611375021</v>
       </c>
       <c r="F89" s="22">
-        <v>0</v>
+        <v>94.026386676808087</v>
       </c>
       <c r="G89" s="22">
-        <v>0</v>
+        <v>108.22437321709931</v>
       </c>
       <c r="H89" s="22">
         <v>699.75230789703528</v>
       </c>
       <c r="I89" s="22">
-        <v>996.24639355269744</v>
+        <v>1104.4707667697967</v>
       </c>
       <c r="J89" s="22">
-        <v>296.49408565566216</v>
+        <v>404.7184588727614</v>
       </c>
       <c r="K89" s="21">
         <v>996.24639355269744</v>
@@ -48326,6 +48725,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P89" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>3.9556747705639781</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.421863934740871</v>
+      </c>
+      <c r="F90" s="22">
+        <v>97.448250611548957</v>
+      </c>
+      <c r="G90" s="22">
+        <v>112.65017947269457</v>
+      </c>
+      <c r="H90" s="22">
+        <v>703.70798266759925</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1108.8965730253919</v>
+      </c>
+      <c r="J90" s="22">
+        <v>405.18859035779269</v>
+      </c>
+      <c r="K90" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L90" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M90" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N90" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O90" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P90" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -48345,7 +48794,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52588,6 +53037,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="90" spans="1:13" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="20">
+        <v>318300</v>
+      </c>
+      <c r="E90" s="20">
+        <v>1945294.5162682247</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0.68131546686844424</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0.5893732319975018</v>
+      </c>
+      <c r="H90" s="22">
+        <v>30.712160968469384</v>
+      </c>
+      <c r="I90" s="22">
+        <v>35.503258636049189</v>
+      </c>
+      <c r="J90" s="22">
+        <v>347.83889366468429</v>
+      </c>
+      <c r="K90" s="22">
+        <v>548.77457534742291</v>
+      </c>
+      <c r="L90" s="22">
+        <v>200.93568168273862</v>
+      </c>
+      <c r="M90" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="13" r:id="rId1"/>
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1103,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1115,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1373,6 +1376,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4549.0299447737698</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4642.1857138246714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1421,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1676,6 +1682,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,7 +1694,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1946,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>6623.8009269627255</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6711.4377289804816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,7 +2000,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2249,6 +2261,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,7 +2273,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2519,6 +2534,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2074.7709821889557</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2069.2520151558101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,11 +2558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492780160"/>
-        <c:axId val="492786048"/>
+        <c:axId val="495385216"/>
+        <c:axId val="495911296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492780160"/>
+        <c:axId val="495385216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,14 +2605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492786048"/>
+        <c:crossAx val="495911296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492786048"/>
+        <c:axId val="495911296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2661,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492780160"/>
+        <c:crossAx val="495385216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2828,7 +2846,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3089,6 +3107,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,7 +3119,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3359,6 +3380,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5725.104575441268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5813.6025560396247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,7 +3425,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3662,6 +3686,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3671,7 +3698,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3932,6 +3959,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>8977.0338419705095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9046.3952146265856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3974,7 +4004,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4235,6 +4265,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4277,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4505,6 +4538,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3251.9292665292414</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3232.7926585869609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4526,11 +4562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492804352"/>
-        <c:axId val="492806144"/>
+        <c:axId val="495937792"/>
+        <c:axId val="495943680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492804352"/>
+        <c:axId val="495937792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,14 +4609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492806144"/>
+        <c:crossAx val="495943680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492806144"/>
+        <c:axId val="495943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4629,7 +4665,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492804352"/>
+        <c:crossAx val="495937792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4814,7 +4850,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5075,6 +5111,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,7 +5123,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5345,6 +5384,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4339.7714535351179</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4428.2694341334745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5387,7 +5429,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5648,6 +5690,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5657,7 +5702,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5918,6 +5963,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>6400.9839441572731</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6484.0709694637717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5960,7 +6008,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6221,6 +6269,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6230,7 +6281,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6491,6 +6542,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2061.2124906221552</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2055.8015353302972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6512,11 +6566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492951424"/>
-        <c:axId val="492952960"/>
+        <c:axId val="496199552"/>
+        <c:axId val="496201088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492951424"/>
+        <c:axId val="496199552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6559,14 +6613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492952960"/>
+        <c:crossAx val="496201088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492952960"/>
+        <c:axId val="496201088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6615,7 +6669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492951424"/>
+        <c:crossAx val="496199552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6800,7 +6854,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7061,6 +7115,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7070,7 +7127,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7331,6 +7388,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2154.2159799891756</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2172.2104771276968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7373,7 +7433,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7634,6 +7694,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7643,7 +7706,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7904,6 +7967,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2995.1940525000837</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3011.7191787547104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7946,7 +8012,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8207,6 +8273,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8216,7 +8285,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8477,6 +8546,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>840.97807251090808</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>839.50870162701358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8498,11 +8570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534799872"/>
-        <c:axId val="534801408"/>
+        <c:axId val="499545600"/>
+        <c:axId val="499547136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534799872"/>
+        <c:axId val="499545600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8545,14 +8617,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534801408"/>
+        <c:crossAx val="499547136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534801408"/>
+        <c:axId val="499547136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8601,7 +8673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534799872"/>
+        <c:crossAx val="499545600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8786,7 +8858,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9047,6 +9119,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9056,7 +9131,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9317,6 +9392,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>736.24968678331516</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>741.84839472361512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9359,7 +9437,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9620,6 +9698,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9629,7 +9710,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9890,6 +9971,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1154.6614271630115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1159.3784324425528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9932,7 +10016,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10193,6 +10277,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10202,7 +10289,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10463,6 +10550,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>418.41174037969631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>417.53003771893771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10484,11 +10574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535798912"/>
-        <c:axId val="535800448"/>
+        <c:axId val="499831936"/>
+        <c:axId val="499833472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535798912"/>
+        <c:axId val="499831936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10531,14 +10621,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535800448"/>
+        <c:crossAx val="499833472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535800448"/>
+        <c:axId val="499833472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10587,7 +10677,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535798912"/>
+        <c:crossAx val="499831936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10772,7 +10862,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11033,6 +11123,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11042,7 +11135,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11303,6 +11396,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1037.8687355306749</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1043.1875080739599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11345,7 +11441,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11606,6 +11702,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11615,7 +11714,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11876,6 +11975,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1828.5227288987212</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1832.6462483221862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11918,7 +12020,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12179,6 +12281,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12188,7 +12293,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12449,6 +12554,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>790.65399336804626</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>789.45874024822638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12470,11 +12578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536273664"/>
-        <c:axId val="536275200"/>
+        <c:axId val="500540160"/>
+        <c:axId val="500541696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536273664"/>
+        <c:axId val="500540160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12517,14 +12625,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536275200"/>
+        <c:crossAx val="500541696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536275200"/>
+        <c:axId val="500541696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12573,7 +12681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536273664"/>
+        <c:crossAx val="500540160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12758,7 +12866,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13019,6 +13127,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13028,7 +13139,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13289,6 +13400,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>703.70798266759925</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>709.02675521088418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13331,7 +13445,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13592,6 +13706,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13601,7 +13718,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13862,6 +13979,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1108.8965730253919</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1113.3383051795361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13904,7 +14024,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14165,6 +14285,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14174,7 +14297,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14435,6 +14558,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>405.18859035779269</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>404.31154996865189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14456,11 +14582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540389760"/>
-        <c:axId val="540391296"/>
+        <c:axId val="500851072"/>
+        <c:axId val="500852608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540389760"/>
+        <c:axId val="500851072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14503,14 +14629,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540391296"/>
+        <c:crossAx val="500852608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540391296"/>
+        <c:axId val="500852608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14559,7 +14685,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540389760"/>
+        <c:crossAx val="500851072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14744,7 +14870,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15005,6 +15131,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15014,7 +15143,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15275,6 +15404,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>347.83889366468429</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>348.92037187089284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15317,7 +15449,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15578,6 +15710,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15587,7 +15722,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15848,6 +15983,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>548.77457534742291</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>549.57964217181484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15890,7 +16028,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16151,6 +16289,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16160,7 +16301,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16421,6 +16562,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>200.93568168273862</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>200.659270300922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16442,11 +16586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540540928"/>
-        <c:axId val="540542464"/>
+        <c:axId val="501030912"/>
+        <c:axId val="501032448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540540928"/>
+        <c:axId val="501030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16489,14 +16633,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540542464"/>
+        <c:crossAx val="501032448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540542464"/>
+        <c:axId val="501032448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16545,7 +16689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540540928"/>
+        <c:crossAx val="501030912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16653,7 +16797,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16696,7 +16840,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16739,7 +16883,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16782,7 +16926,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16825,7 +16969,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16868,7 +17012,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16911,7 +17055,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16954,7 +17098,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17265,7 +17409,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21012,6 +21156,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>93.155769050901711</v>
+      </c>
+      <c r="E91" s="22">
+        <v>81.216889879042213</v>
+      </c>
+      <c r="F91" s="22">
+        <v>694.43116053504082</v>
+      </c>
+      <c r="G91" s="22">
+        <v>796.51251000741718</v>
+      </c>
+      <c r="H91" s="22">
+        <v>4642.1857138246714</v>
+      </c>
+      <c r="I91" s="22">
+        <v>6711.4377289804816</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2069.2520151558101</v>
+      </c>
+      <c r="K91" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21028,7 +21207,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25827,6 +26006,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="91" spans="1:15" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>88.497980598356619</v>
+      </c>
+      <c r="E91" s="22">
+        <v>77.156045385090096</v>
+      </c>
+      <c r="F91" s="22">
+        <v>2203.4309464086341</v>
+      </c>
+      <c r="G91" s="22">
+        <v>2527.3351967669946</v>
+      </c>
+      <c r="H91" s="22">
+        <v>5813.6025560396247</v>
+      </c>
+      <c r="I91" s="22">
+        <v>9046.3952146265856</v>
+      </c>
+      <c r="J91" s="22">
+        <v>3232.7926585869609</v>
+      </c>
+      <c r="K91" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L91" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N91" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -25843,7 +26069,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30864,6 +31090,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="91" spans="1:16" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>88.497980598356619</v>
+      </c>
+      <c r="E91" s="22">
+        <v>77.156045385090096</v>
+      </c>
+      <c r="F91" s="22">
+        <v>678.36909538537543</v>
+      </c>
+      <c r="G91" s="22">
+        <v>778.08932200069603</v>
+      </c>
+      <c r="H91" s="22">
+        <v>4428.2694341334745</v>
+      </c>
+      <c r="I91" s="22">
+        <v>6484.0709694637717</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2055.8015353302972</v>
+      </c>
+      <c r="K91" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L91" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M91" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N91" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O91" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -30880,7 +31156,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35164,6 +35440,47 @@
         <v>2806.4628425899191</v>
       </c>
     </row>
+    <row r="91" spans="1:13" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="20">
+        <v>371833</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1924943.4316979402</v>
+      </c>
+      <c r="F91" s="21">
+        <v>17.99449713852129</v>
+      </c>
+      <c r="G91" s="22">
+        <v>15.688315467928366</v>
+      </c>
+      <c r="H91" s="22">
+        <v>178.95060521869166</v>
+      </c>
+      <c r="I91" s="22">
+        <v>205.25633616479132</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2172.2104771276968</v>
+      </c>
+      <c r="K91" s="22">
+        <v>3011.7191787547104</v>
+      </c>
+      <c r="L91" s="22">
+        <v>839.50870162701358</v>
+      </c>
+      <c r="M91" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -35180,7 +35497,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38927,6 +39244,41 @@
         <v>1041.412408981193</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.5987079402999607</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.8811753784545644</v>
+      </c>
+      <c r="F91" s="22">
+        <v>102.84745254686968</v>
+      </c>
+      <c r="G91" s="22">
+        <v>117.96602346135974</v>
+      </c>
+      <c r="H91" s="22">
+        <v>741.84839472361512</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1159.3784324425528</v>
+      </c>
+      <c r="J91" s="22">
+        <v>417.53003771893771</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -38943,7 +39295,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43742,6 +44094,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="91" spans="1:15" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="21">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.318772543284962</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.6371166095318355</v>
+      </c>
+      <c r="F91" s="22">
+        <v>137.44209002534993</v>
+      </c>
+      <c r="G91" s="22">
+        <v>157.64607109855177</v>
+      </c>
+      <c r="H91" s="22">
+        <v>1043.1875080739599</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1832.6462483221862</v>
+      </c>
+      <c r="J91" s="22">
+        <v>789.45874024822638</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L91" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N91" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43758,7 +44157,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48778,6 +49177,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="91" spans="1:16" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.318772543284962</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.6371166095318355</v>
+      </c>
+      <c r="F91" s="22">
+        <v>102.08536722108079</v>
+      </c>
+      <c r="G91" s="22">
+        <v>117.09191162683859</v>
+      </c>
+      <c r="H91" s="22">
+        <v>709.02675521088418</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1113.3383051795361</v>
+      </c>
+      <c r="J91" s="22">
+        <v>404.31154996865189</v>
+      </c>
+      <c r="K91" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L91" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M91" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N91" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O91" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -48794,7 +49243,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53078,6 +53527,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="91" spans="1:13" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="20">
+        <v>371833</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1924943.4316979402</v>
+      </c>
+      <c r="F91" s="21">
+        <v>1.0814782062085171</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0.9428755435664673</v>
+      </c>
+      <c r="H91" s="22">
+        <v>31.655036512035849</v>
+      </c>
+      <c r="I91" s="22">
+        <v>36.308325460441139</v>
+      </c>
+      <c r="J91" s="22">
+        <v>348.92037187089284</v>
+      </c>
+      <c r="K91" s="22">
+        <v>549.57964217181484</v>
+      </c>
+      <c r="L91" s="22">
+        <v>200.659270300922</v>
+      </c>
+      <c r="M91" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="13" r:id="rId1"/>
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1106,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1118,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1379,6 +1382,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>4642.1857138246714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,7 +1427,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1685,6 +1691,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,7 +1703,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1958,6 +1967,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>6711.4377289804816</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6890.7852170020124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,7 +2012,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2264,6 +2276,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2288,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2537,6 +2552,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2069.2520151558101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1997.031193665739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,11 +2576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495385216"/>
-        <c:axId val="495911296"/>
+        <c:axId val="483306496"/>
+        <c:axId val="483308288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495385216"/>
+        <c:axId val="483306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,14 +2623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495911296"/>
+        <c:crossAx val="483308288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495911296"/>
+        <c:axId val="483308288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495385216"/>
+        <c:crossAx val="483306496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2846,7 +2864,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3110,6 +3128,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,7 +3140,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3383,6 +3404,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5813.6025560396247</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3449,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3689,6 +3713,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,7 +3725,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3962,6 +3989,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>9046.3952146265856</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9056.2283511754194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,7 +4034,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4268,6 +4298,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,7 +4310,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4541,6 +4574,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3232.7926585869609</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3003.635901099773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4562,11 +4598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495937792"/>
-        <c:axId val="495943680"/>
+        <c:axId val="483879552"/>
+        <c:axId val="483889536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495937792"/>
+        <c:axId val="483879552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,14 +4645,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495943680"/>
+        <c:crossAx val="483889536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495943680"/>
+        <c:axId val="483889536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,7 +4701,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495937792"/>
+        <c:crossAx val="483879552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4850,7 +4886,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5114,6 +5150,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,7 +5162,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5387,6 +5426,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>4428.2694341334745</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5429,7 +5471,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5693,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,7 +5747,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5966,6 +6011,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>6484.0709694637717</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6463.8342642073658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6008,7 +6056,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6272,6 +6320,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6281,7 +6332,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6545,6 +6596,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2055.8015353302972</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1985.2511681715705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6566,11 +6620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496199552"/>
-        <c:axId val="496201088"/>
+        <c:axId val="485435648"/>
+        <c:axId val="485437440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496199552"/>
+        <c:axId val="485435648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6613,14 +6667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496201088"/>
+        <c:crossAx val="485437440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496201088"/>
+        <c:axId val="485437440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6669,7 +6723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496199552"/>
+        <c:crossAx val="485435648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6854,7 +6908,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7118,6 +7172,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7127,7 +7184,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7391,6 +7448,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2172.2104771276968</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7433,7 +7493,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7697,6 +7757,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7706,7 +7769,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7970,6 +8033,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3011.7191787547104</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3100.9726120303476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8012,7 +8078,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8276,6 +8342,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8285,7 +8354,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8549,6 +8618,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>839.50870162701358</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>820.89784363342687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8570,11 +8642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499545600"/>
-        <c:axId val="499547136"/>
+        <c:axId val="486229888"/>
+        <c:axId val="486231424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499545600"/>
+        <c:axId val="486229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,14 +8689,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499547136"/>
+        <c:crossAx val="486231424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499547136"/>
+        <c:axId val="486231424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8673,7 +8745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499545600"/>
+        <c:crossAx val="486229888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8858,7 +8930,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9122,6 +9194,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9131,7 +9206,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9395,6 +9470,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>741.84839472361512</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9437,7 +9515,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9701,6 +9779,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,7 +9791,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9974,6 +10055,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1159.3784324425528</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1189.5123739966168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10016,7 +10100,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10280,6 +10364,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10289,7 +10376,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10553,6 +10640,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>417.53003771893771</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>406.83390549846945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10574,11 +10664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499831936"/>
-        <c:axId val="499833472"/>
+        <c:axId val="486544896"/>
+        <c:axId val="486546432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499831936"/>
+        <c:axId val="486544896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10621,14 +10711,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499833472"/>
+        <c:crossAx val="486546432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499833472"/>
+        <c:axId val="486546432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10677,7 +10767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499831936"/>
+        <c:crossAx val="486544896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10862,7 +10952,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11126,6 +11216,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11135,7 +11228,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11399,6 +11492,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1043.1875080739599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11441,7 +11537,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11705,6 +11801,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11714,7 +11813,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11978,6 +12077,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1832.6462483221862</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1857.1408448465302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12020,7 +12122,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12284,6 +12386,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12293,7 +12398,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12557,6 +12662,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>789.45874024822638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>775.16476668676478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12578,11 +12686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500540160"/>
-        <c:axId val="500541696"/>
+        <c:axId val="486904960"/>
+        <c:axId val="486906496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500540160"/>
+        <c:axId val="486904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12625,14 +12733,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500541696"/>
+        <c:crossAx val="486906496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500541696"/>
+        <c:axId val="486906496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12681,7 +12789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500540160"/>
+        <c:crossAx val="486904960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12866,7 +12974,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13130,6 +13238,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13139,7 +13250,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13403,6 +13514,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>709.02675521088418</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13445,7 +13559,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13709,6 +13823,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13718,7 +13835,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13982,6 +14099,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1113.3383051795361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1110.8874445667798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14024,7 +14144,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14288,6 +14408,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14297,7 +14420,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14561,6 +14684,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>404.31154996865189</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>393.69467460098917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14582,11 +14708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500851072"/>
-        <c:axId val="500852608"/>
+        <c:axId val="487305984"/>
+        <c:axId val="487307520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500851072"/>
+        <c:axId val="487305984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14629,14 +14755,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500852608"/>
+        <c:crossAx val="487307520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500852608"/>
+        <c:axId val="487307520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14685,7 +14811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500851072"/>
+        <c:crossAx val="487305984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14870,7 +14996,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15134,6 +15260,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15143,7 +15272,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15407,6 +15536,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>348.92037187089284</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15449,7 +15581,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15713,6 +15845,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15722,7 +15857,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15986,6 +16121,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>549.57964217181484</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>563.79412403149411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16028,7 +16166,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16292,6 +16430,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16301,7 +16442,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16565,6 +16706,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>200.659270300922</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>197.36714737913957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16586,11 +16730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501030912"/>
-        <c:axId val="501032448"/>
+        <c:axId val="487805312"/>
+        <c:axId val="487806848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501030912"/>
+        <c:axId val="487805312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16633,14 +16777,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501032448"/>
+        <c:crossAx val="487806848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501032448"/>
+        <c:axId val="487806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16689,7 +16833,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501030912"/>
+        <c:crossAx val="487805312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17409,7 +17553,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21191,6 +21335,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>251.5683095116016</v>
+      </c>
+      <c r="E92" s="22">
+        <v>241.19684913904115</v>
+      </c>
+      <c r="F92" s="22">
+        <v>935.62800967408202</v>
+      </c>
+      <c r="G92" s="22">
+        <v>975.85999802894833</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I92" s="22">
+        <v>6890.7852170020124</v>
+      </c>
+      <c r="J92" s="22">
+        <v>1997.031193665739</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5914.9252189730641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21207,7 +21386,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26041,15 +26220,62 @@
         <v>6519.0600178595914</v>
       </c>
       <c r="L91" s="26">
-        <v>2.7764076837910292E-2</v>
+        <v>2.3136730698258574E-2</v>
       </c>
       <c r="M91" s="27">
-        <v>6.3015104123053903E-2</v>
+        <v>5.4012597259629064E-2</v>
       </c>
       <c r="N91" s="27">
-        <v>44.05940008238894</v>
+        <v>42.83580474207595</v>
       </c>
       <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>238.9898940360215</v>
+      </c>
+      <c r="E92" s="22">
+        <v>229.13700668208907</v>
+      </c>
+      <c r="F92" s="22">
+        <v>2432.5679530907232</v>
+      </c>
+      <c r="G92" s="22">
+        <v>2537.168333315828</v>
+      </c>
+      <c r="H92" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I92" s="22">
+        <v>9056.2283511754194</v>
+      </c>
+      <c r="J92" s="22">
+        <v>3003.635901099773</v>
+      </c>
+      <c r="K92" s="21">
+        <v>6519.0600178595914</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="M92" s="27">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N92" s="27">
+        <v>30.926252070346163</v>
+      </c>
+      <c r="O92" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26069,7 +26295,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31125,19 +31351,69 @@
         <v>5705.9816474630761</v>
       </c>
       <c r="L91" s="26">
-        <v>65.122614210687615</v>
+        <v>62.67028127379821</v>
       </c>
       <c r="M91" s="27">
-        <v>53.203229123214221</v>
+        <v>56.358913173408887</v>
       </c>
       <c r="N91" s="27">
-        <v>43.018190691921113</v>
+        <v>47.465098185750371</v>
       </c>
       <c r="O91" s="27">
-        <v>73.573305985800445</v>
+        <v>74.146543148725911</v>
       </c>
       <c r="P91" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>50.31366190232032</v>
+      </c>
+      <c r="E92" s="22">
+        <v>48.239369827808233</v>
+      </c>
+      <c r="F92" s="22">
+        <v>726.60846521318365</v>
+      </c>
+      <c r="G92" s="22">
+        <v>757.85261674428955</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I92" s="22">
+        <v>6463.8342642073658</v>
+      </c>
+      <c r="J92" s="22">
+        <v>1985.2511681715705</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5705.9816474630761</v>
+      </c>
+      <c r="L92" s="26">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="M92" s="27">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="N92" s="27">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="O92" s="27">
+        <v>51.085614300453685</v>
+      </c>
+      <c r="P92" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -31156,7 +31432,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35481,6 +35757,47 @@
         <v>2806.4628425899191</v>
       </c>
     </row>
+    <row r="92" spans="1:13" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="20">
+        <v>817453</v>
+      </c>
+      <c r="E92" s="20">
+        <v>1906518.5233721782</v>
+      </c>
+      <c r="F92" s="21">
+        <v>107.8642912692239</v>
+      </c>
+      <c r="G92" s="22">
+        <v>103.41734711840874</v>
+      </c>
+      <c r="H92" s="22">
+        <v>282.36795233710041</v>
+      </c>
+      <c r="I92" s="22">
+        <v>294.50976944042856</v>
+      </c>
+      <c r="J92" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K92" s="22">
+        <v>3100.9726120303476</v>
+      </c>
+      <c r="L92" s="22">
+        <v>820.89784363342687</v>
+      </c>
+      <c r="M92" s="21">
+        <v>2806.4628425899191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -35497,7 +35814,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39279,6 +39596,41 @@
         <v>1041.412408981193</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>40.830073774532245</v>
+      </c>
+      <c r="E92" s="22">
+        <v>39.146763611247344</v>
+      </c>
+      <c r="F92" s="22">
+        <v>141.99421615811701</v>
+      </c>
+      <c r="G92" s="22">
+        <v>148.09996501542378</v>
+      </c>
+      <c r="H92" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1189.5123739966168</v>
+      </c>
+      <c r="J92" s="22">
+        <v>406.83390549846945</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1041.412408981193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39295,7 +39647,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44129,15 +44481,62 @@
         <v>1675.0001772236344</v>
       </c>
       <c r="L91" s="26">
-        <v>2.7764076837910292E-2</v>
+        <v>2.3136730698258574E-2</v>
       </c>
       <c r="M91" s="27">
-        <v>6.3015104123053903E-2</v>
+        <v>5.4012597259629064E-2</v>
       </c>
       <c r="N91" s="27">
-        <v>44.05940008238894</v>
+        <v>42.83580474207595</v>
       </c>
       <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="21">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>38.788570085805631</v>
+      </c>
+      <c r="E92" s="22">
+        <v>37.189425430684977</v>
+      </c>
+      <c r="F92" s="22">
+        <v>174.63151545603489</v>
+      </c>
+      <c r="G92" s="22">
+        <v>182.14066762289576</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1857.1408448465302</v>
+      </c>
+      <c r="J92" s="22">
+        <v>775.16476668676478</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="M92" s="27">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N92" s="27">
+        <v>30.926252070346163</v>
+      </c>
+      <c r="O92" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44157,7 +44556,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49212,19 +49611,69 @@
         <v>996.24639355269744</v>
       </c>
       <c r="L91" s="26">
-        <v>65.122614210687615</v>
+        <v>62.67028127379821</v>
       </c>
       <c r="M91" s="27">
-        <v>53.203229123214221</v>
+        <v>56.358913173408887</v>
       </c>
       <c r="N91" s="27">
-        <v>43.018190691921113</v>
+        <v>47.465098185750371</v>
       </c>
       <c r="O91" s="27">
-        <v>73.573305985800445</v>
+        <v>74.146543148725911</v>
       </c>
       <c r="P91" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>8.166014754906449</v>
+      </c>
+      <c r="E92" s="22">
+        <v>7.8293527222494683</v>
+      </c>
+      <c r="F92" s="22">
+        <v>109.91471994333025</v>
+      </c>
+      <c r="G92" s="22">
+        <v>114.64105101408224</v>
+      </c>
+      <c r="H92" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1110.8874445667798</v>
+      </c>
+      <c r="J92" s="22">
+        <v>393.69467460098917</v>
+      </c>
+      <c r="K92" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L92" s="26">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="M92" s="27">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="N92" s="27">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="O92" s="27">
+        <v>51.085614300453685</v>
+      </c>
+      <c r="P92" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -49243,7 +49692,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53568,6 +54017,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="92" spans="1:13" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="20">
+        <v>817453</v>
+      </c>
+      <c r="E92" s="20">
+        <v>1906518.5233721782</v>
+      </c>
+      <c r="F92" s="21">
+        <v>17.506604781461718</v>
+      </c>
+      <c r="G92" s="22">
+        <v>16.784856250808122</v>
+      </c>
+      <c r="H92" s="22">
+        <v>48.439892762843968</v>
+      </c>
+      <c r="I92" s="22">
+        <v>50.522807320120393</v>
+      </c>
+      <c r="J92" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K92" s="22">
+        <v>563.79412403149411</v>
+      </c>
+      <c r="L92" s="22">
+        <v>197.36714737913957</v>
+      </c>
+      <c r="M92" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1109,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1121,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1384,6 +1387,9 @@
                   <c:v>4642.1857138246714</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1427,7 +1433,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1694,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1712,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1970,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>6890.7852170020124</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7129.3703550074815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,7 +2024,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2279,6 +2291,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,7 +2303,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2555,6 +2570,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1997.031193665739</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2235.6163316712082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,11 +2594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483306496"/>
-        <c:axId val="483308288"/>
+        <c:axId val="445771776"/>
+        <c:axId val="445773312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483306496"/>
+        <c:axId val="445771776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,14 +2641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483308288"/>
+        <c:crossAx val="445773312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483308288"/>
+        <c:axId val="445773312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483306496"/>
+        <c:crossAx val="445771776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2864,7 +2882,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3131,6 +3149,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3140,7 +3161,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3406,6 +3427,9 @@
                   <c:v>5813.6025560396247</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3449,7 +3473,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3716,6 +3740,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,7 +3752,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3992,6 +4019,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>9056.2283511754194</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9676.533167614165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,7 +4064,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4301,6 +4331,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,7 +4343,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4577,6 +4610,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>3003.635901099773</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3623.9407175385186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4598,11 +4634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483879552"/>
-        <c:axId val="483889536"/>
+        <c:axId val="458063232"/>
+        <c:axId val="458069120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483879552"/>
+        <c:axId val="458063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4645,14 +4681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483889536"/>
+        <c:crossAx val="458069120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483889536"/>
+        <c:axId val="458069120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483879552"/>
+        <c:crossAx val="458063232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4886,7 +4922,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5153,6 +5189,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,7 +5201,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5428,6 +5467,9 @@
                   <c:v>4428.2694341334745</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5471,7 +5513,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5738,6 +5780,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5747,7 +5792,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6014,6 +6059,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>6463.8342642073658</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6649.1194193719884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6056,7 +6104,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6323,6 +6371,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6332,7 +6383,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6599,6 +6650,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1985.2511681715705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2170.5363233361932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6620,11 +6674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485435648"/>
-        <c:axId val="485437440"/>
+        <c:axId val="462543872"/>
+        <c:axId val="462545664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485435648"/>
+        <c:axId val="462543872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6667,14 +6721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485437440"/>
+        <c:crossAx val="462545664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485437440"/>
+        <c:axId val="462545664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,7 +6777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485435648"/>
+        <c:crossAx val="462543872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6908,7 +6962,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7175,6 +7229,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7184,7 +7241,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7450,6 +7507,9 @@
                   <c:v>2172.2104771276968</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7493,7 +7553,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7760,6 +7820,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7769,7 +7832,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8036,6 +8099,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>3100.9726120303476</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3172.9764385298727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,7 +8144,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8345,6 +8411,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8423,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8621,6 +8690,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>820.89784363342687</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>892.90167013295195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8642,11 +8714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486229888"/>
-        <c:axId val="486231424"/>
+        <c:axId val="464956032"/>
+        <c:axId val="464961920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486229888"/>
+        <c:axId val="464956032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8689,14 +8761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486231424"/>
+        <c:crossAx val="464961920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486231424"/>
+        <c:axId val="464961920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8745,7 +8817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486229888"/>
+        <c:crossAx val="464956032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8930,7 +9002,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9197,6 +9269,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9206,7 +9281,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9472,6 +9547,9 @@
                   <c:v>741.84839472361512</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9515,7 +9593,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9782,6 +9860,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9791,7 +9872,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10058,6 +10139,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1189.5123739966168</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1225.7208984398555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10100,7 +10184,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10367,6 +10451,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10376,7 +10463,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10643,6 +10730,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>406.83390549846945</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>443.04242994170818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10664,11 +10754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486544896"/>
-        <c:axId val="486546432"/>
+        <c:axId val="465320192"/>
+        <c:axId val="465330176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486544896"/>
+        <c:axId val="465320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10711,14 +10801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486546432"/>
+        <c:crossAx val="465330176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486546432"/>
+        <c:axId val="465330176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10767,7 +10857,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486544896"/>
+        <c:crossAx val="465320192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10952,7 +11042,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11219,6 +11309,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11228,7 +11321,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11494,6 +11587,9 @@
                   <c:v>1043.1875080739599</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11537,7 +11633,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11804,6 +11900,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11813,7 +11912,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12080,6 +12179,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1857.1408448465302</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1901.671880455111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12122,7 +12224,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12389,6 +12491,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12398,7 +12503,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12665,6 +12770,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>775.16476668676478</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>819.69580229534563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12686,11 +12794,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486904960"/>
-        <c:axId val="486906496"/>
+        <c:axId val="470767488"/>
+        <c:axId val="470769024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486904960"/>
+        <c:axId val="470767488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12733,14 +12841,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486906496"/>
+        <c:crossAx val="470769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486906496"/>
+        <c:axId val="470769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12789,7 +12897,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486904960"/>
+        <c:crossAx val="470767488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12974,7 +13082,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13241,6 +13349,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13250,7 +13361,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13516,6 +13627,9 @@
                   <c:v>709.02675521088418</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13559,7 +13673,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13826,6 +13940,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13835,7 +13952,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14102,6 +14219,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1110.8874445667798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1138.9156976282147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14144,7 +14264,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14411,6 +14531,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14420,7 +14543,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14687,6 +14810,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>393.69467460098917</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>421.72292766242413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14708,11 +14834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487305984"/>
-        <c:axId val="487307520"/>
+        <c:axId val="471217664"/>
+        <c:axId val="471219200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487305984"/>
+        <c:axId val="471217664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14755,14 +14881,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487307520"/>
+        <c:crossAx val="471219200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487307520"/>
+        <c:axId val="471219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14811,7 +14937,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487305984"/>
+        <c:crossAx val="471217664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14996,7 +15122,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15263,6 +15389,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15272,7 +15401,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15538,6 +15667,9 @@
                   <c:v>348.92037187089284</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -15581,7 +15713,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15848,6 +15980,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15857,7 +15992,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16124,6 +16259,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>563.79412403149411</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>576.14629645503999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16166,7 +16304,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16433,6 +16571,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16442,7 +16583,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16709,6 +16850,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>197.36714737913957</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>209.71931980268545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16730,11 +16874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487805312"/>
-        <c:axId val="487806848"/>
+        <c:axId val="476333184"/>
+        <c:axId val="476334720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487805312"/>
+        <c:axId val="476333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16777,14 +16921,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487806848"/>
+        <c:crossAx val="476334720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487806848"/>
+        <c:axId val="476334720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16833,7 +16977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487805312"/>
+        <c:crossAx val="476333184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17553,7 +17697,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21370,6 +21514,41 @@
         <v>5914.9252189730641</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-146.20950850210846</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-112.64215021021475</v>
+      </c>
+      <c r="F93" s="22">
+        <v>822.98585946386731</v>
+      </c>
+      <c r="G93" s="22">
+        <v>1068.2356275323089</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I93" s="22">
+        <v>7129.3703550074815</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2235.6163316712082</v>
+      </c>
+      <c r="K93" s="21">
+        <v>6061.1347274751724</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21386,7 +21565,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26279,6 +26458,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="93" spans="1:15" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-138.89903307700303</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-107.010042699704</v>
+      </c>
+      <c r="F93" s="22">
+        <v>2325.557910391019</v>
+      </c>
+      <c r="G93" s="22">
+        <v>3018.5741166775711</v>
+      </c>
+      <c r="H93" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I93" s="22">
+        <v>9676.533167614165</v>
+      </c>
+      <c r="J93" s="22">
+        <v>3623.9407175385186</v>
+      </c>
+      <c r="K93" s="21">
+        <v>6657.9590509365944</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M93" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N93" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -26295,7 +26521,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31416,6 +31642,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="93" spans="1:16" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-138.89903307700303</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-107.010042699704</v>
+      </c>
+      <c r="F93" s="22">
+        <v>619.59842251347959</v>
+      </c>
+      <c r="G93" s="22">
+        <v>804.23873883190913</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I93" s="22">
+        <v>6649.1194193719884</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2170.5363233361932</v>
+      </c>
+      <c r="K93" s="21">
+        <v>5844.8806805400791</v>
+      </c>
+      <c r="L93" s="26">
+        <v>100</v>
+      </c>
+      <c r="M93" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N93" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O93" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -31432,7 +31708,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35798,6 +36074,47 @@
         <v>2806.4628425899191</v>
       </c>
     </row>
+    <row r="93" spans="1:13" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="20">
+        <v>3414655</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1892002.6977170091</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-263.87648910685738</v>
+      </c>
+      <c r="G93" s="22">
+        <v>-203.29467917259353</v>
+      </c>
+      <c r="H93" s="22">
+        <v>79.073273164506872</v>
+      </c>
+      <c r="I93" s="22">
+        <v>102.63710683309648</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K93" s="22">
+        <v>3172.9764385298727</v>
+      </c>
+      <c r="L93" s="22">
+        <v>892.90167013295195</v>
+      </c>
+      <c r="M93" s="21">
+        <v>3070.3393316967763</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -35814,7 +36131,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39631,6 +39948,41 @@
         <v>1041.412408981193</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.791755081566535</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.625389302487855</v>
+      </c>
+      <c r="F93" s="22">
+        <v>131.36882685562915</v>
+      </c>
+      <c r="G93" s="22">
+        <v>170.5167343770959</v>
+      </c>
+      <c r="H93" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1225.7208984398555</v>
+      </c>
+      <c r="J93" s="22">
+        <v>443.04242994170818</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1055.2041640627597</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39647,7 +39999,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44540,6 +44892,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="93" spans="1:15" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="21">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.102167327488207</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.094119837363461</v>
+      </c>
+      <c r="F93" s="22">
+        <v>164.53739561867144</v>
+      </c>
+      <c r="G93" s="22">
+        <v>213.56953590398851</v>
+      </c>
+      <c r="H93" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1901.671880455111</v>
+      </c>
+      <c r="J93" s="22">
+        <v>819.69580229534563</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1688.1023445511225</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M93" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N93" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -44556,7 +44955,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49676,6 +50075,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="93" spans="1:16" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.102167327488207</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.094119837363461</v>
+      </c>
+      <c r="F93" s="22">
+        <v>99.82060010596679</v>
+      </c>
+      <c r="G93" s="22">
+        <v>129.56713674802901</v>
+      </c>
+      <c r="H93" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1138.9156976282147</v>
+      </c>
+      <c r="J93" s="22">
+        <v>421.72292766242413</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1009.3485608801857</v>
+      </c>
+      <c r="L93" s="26">
+        <v>100</v>
+      </c>
+      <c r="M93" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N93" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O93" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -49692,7 +50141,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54058,6 +54507,47 @@
         <v>513.27131671137374</v>
       </c>
     </row>
+    <row r="93" spans="1:13" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="20">
+        <v>3414655</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1892002.6977170091</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-24.891130179081035</v>
+      </c>
+      <c r="G93" s="22">
+        <v>-19.176525885754021</v>
+      </c>
+      <c r="H93" s="22">
+        <v>29.263366877089947</v>
+      </c>
+      <c r="I93" s="22">
+        <v>37.983849564585157</v>
+      </c>
+      <c r="J93" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K93" s="22">
+        <v>576.14629645503999</v>
+      </c>
+      <c r="L93" s="22">
+        <v>209.71931980268545</v>
+      </c>
+      <c r="M93" s="21">
+        <v>538.16244689045482</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1112,6 +1112,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,7 +1124,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1390,6 +1393,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1433,7 +1439,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1703,6 +1709,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,7 +1721,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1982,6 +1991,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>7129.3703550074815</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7221.5447618491089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2036,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2294,6 +2306,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,7 +2318,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2573,6 +2588,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2235.6163316712082</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2327.7907385128356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445771776"/>
-        <c:axId val="445773312"/>
+        <c:axId val="508987648"/>
+        <c:axId val="514156032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445771776"/>
+        <c:axId val="508987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,14 +2659,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445773312"/>
+        <c:crossAx val="514156032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445773312"/>
+        <c:axId val="514156032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445771776"/>
+        <c:crossAx val="508987648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2882,7 +2900,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3152,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,7 +3182,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3430,6 +3451,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3473,7 +3497,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3743,6 +3767,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3752,7 +3779,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4022,6 +4049,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>9676.533167614165</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9936.9956269640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,7 +4094,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4334,6 +4364,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,7 +4376,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4613,6 +4646,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>3623.9407175385186</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3884.4031768884161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4634,11 +4670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458063232"/>
-        <c:axId val="458069120"/>
+        <c:axId val="489684992"/>
+        <c:axId val="489686528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458063232"/>
+        <c:axId val="489684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,14 +4717,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458069120"/>
+        <c:crossAx val="489686528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458069120"/>
+        <c:axId val="489686528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,7 +4773,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458063232"/>
+        <c:crossAx val="489684992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4922,7 +4958,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5192,6 +5228,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,7 +5240,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5470,6 +5509,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5513,7 +5555,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5783,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,7 +5837,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6062,6 +6107,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>6649.1194193719884</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6718.5144356027567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,7 +6152,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6374,6 +6422,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6383,7 +6434,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6653,6 +6704,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2170.5363233361932</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2239.9313395669615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6674,11 +6728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462543872"/>
-        <c:axId val="462545664"/>
+        <c:axId val="489704832"/>
+        <c:axId val="489710720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462543872"/>
+        <c:axId val="489704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6721,14 +6775,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462545664"/>
+        <c:crossAx val="489710720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462545664"/>
+        <c:axId val="489710720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6777,7 +6831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462543872"/>
+        <c:crossAx val="489704832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6962,7 +7016,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7232,6 +7286,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7241,7 +7298,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7510,6 +7567,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7553,7 +7613,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7823,6 +7883,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7832,7 +7895,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8102,6 +8165,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>3172.9764385298727</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8144,7 +8210,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8414,6 +8480,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8423,7 +8492,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8693,6 +8762,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>892.90167013295195</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8714,11 +8786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464956032"/>
-        <c:axId val="464961920"/>
+        <c:axId val="492669952"/>
+        <c:axId val="492688128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464956032"/>
+        <c:axId val="492669952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8761,14 +8833,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464961920"/>
+        <c:crossAx val="492688128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464961920"/>
+        <c:axId val="492688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8817,7 +8889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464956032"/>
+        <c:crossAx val="492669952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9002,7 +9074,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9272,6 +9344,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9281,7 +9356,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9550,6 +9625,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9593,7 +9671,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9863,6 +9941,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9872,7 +9953,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10142,6 +10223,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1225.7208984398555</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1240.4342055442892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10184,7 +10268,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10454,6 +10538,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10463,7 +10550,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10733,6 +10820,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>443.04242994170818</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>457.7557370461418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10754,11 +10844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465320192"/>
-        <c:axId val="465330176"/>
+        <c:axId val="492853888"/>
+        <c:axId val="492859776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465320192"/>
+        <c:axId val="492853888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10801,14 +10891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465330176"/>
+        <c:crossAx val="492859776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465330176"/>
+        <c:axId val="492859776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10857,7 +10947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465320192"/>
+        <c:crossAx val="492853888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11042,7 +11132,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11312,6 +11402,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11321,7 +11414,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11590,6 +11683,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11633,7 +11729,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11903,6 +11999,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11912,7 +12011,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12182,6 +12281,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1901.671880455111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1920.1000668814213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12224,7 +12326,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12494,6 +12596,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12503,7 +12608,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12773,6 +12878,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>819.69580229534563</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>838.12398872165591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12794,11 +12902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470767488"/>
-        <c:axId val="470769024"/>
+        <c:axId val="507959552"/>
+        <c:axId val="509014016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470767488"/>
+        <c:axId val="507959552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12841,14 +12949,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470769024"/>
+        <c:crossAx val="509014016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470769024"/>
+        <c:axId val="509014016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12897,7 +13005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470767488"/>
+        <c:crossAx val="507959552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13082,7 +13190,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13352,6 +13460,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13361,7 +13472,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13630,6 +13741,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13673,7 +13787,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13943,6 +14057,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13952,7 +14069,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14222,6 +14339,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1138.9156976282147</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1150.0956036977268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14264,7 +14384,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14534,6 +14654,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14543,7 +14666,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14813,6 +14936,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>421.72292766242413</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>432.9028337319362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14834,11 +14960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471217664"/>
-        <c:axId val="471219200"/>
+        <c:axId val="514176896"/>
+        <c:axId val="514178432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471217664"/>
+        <c:axId val="514176896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14881,14 +15007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471219200"/>
+        <c:crossAx val="514178432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471219200"/>
+        <c:axId val="514178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14937,7 +15063,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471217664"/>
+        <c:crossAx val="514176896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15122,7 +15248,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15392,6 +15518,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15401,7 +15530,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15670,6 +15799,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -15713,7 +15845,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15983,6 +16115,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15992,7 +16127,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16262,6 +16397,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>576.14629645503999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16304,7 +16442,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16574,6 +16712,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16583,7 +16724,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16853,6 +16994,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>209.71931980268545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16874,11 +17018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476333184"/>
-        <c:axId val="476334720"/>
+        <c:axId val="514307584"/>
+        <c:axId val="514309120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476333184"/>
+        <c:axId val="514307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16921,14 +17065,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476334720"/>
+        <c:crossAx val="514309120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476334720"/>
+        <c:axId val="514309120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16977,7 +17121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476333184"/>
+        <c:crossAx val="514307584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17085,7 +17229,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17128,7 +17272,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17171,7 +17315,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17214,7 +17358,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17257,7 +17401,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17300,7 +17444,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17343,7 +17487,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17386,7 +17530,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17697,7 +17841,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21549,6 +21693,41 @@
         <v>6061.1347274751724</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-317.08118847778479</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-224.88028083969786</v>
+      </c>
+      <c r="F94" s="22">
+        <v>598.10557862416942</v>
+      </c>
+      <c r="G94" s="22">
+        <v>843.32884589615139</v>
+      </c>
+      <c r="H94" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I94" s="22">
+        <v>7221.5447618491089</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2327.7907385128356</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6378.2159159529574</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21565,7 +21744,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26505,6 +26684,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="94" spans="1:15" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-63.416237695556958</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-44.976056167939568</v>
+      </c>
+      <c r="F94" s="22">
+        <v>2280.5818542230795</v>
+      </c>
+      <c r="G94" s="22">
+        <v>3215.6203383319103</v>
+      </c>
+      <c r="H94" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I94" s="22">
+        <v>9936.9956269640625</v>
+      </c>
+      <c r="J94" s="22">
+        <v>3884.4031768884161</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6721.3752886321518</v>
+      </c>
+      <c r="L94" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M94" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N94" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -26521,7 +26747,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31692,6 +31918,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="94" spans="1:16" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-301.22712905389557</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-213.63626679771298</v>
+      </c>
+      <c r="F94" s="22">
+        <v>405.96215571576658</v>
+      </c>
+      <c r="G94" s="22">
+        <v>572.40662600878204</v>
+      </c>
+      <c r="H94" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I94" s="22">
+        <v>6718.5144356027567</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2239.9313395669615</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6146.1078095939747</v>
+      </c>
+      <c r="L94" s="26">
+        <v>100</v>
+      </c>
+      <c r="M94" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N94" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O94" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -31707,8 +31983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH93"/>
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31826,7 +32104,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>0</v>
+        <v>-104.04434806394403</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -36113,6 +36391,47 @@
       </c>
       <c r="M93" s="21">
         <v>3070.3393316967763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="20">
+        <v>1541107</v>
+      </c>
+      <c r="E94" s="20">
+        <v>1892579.0573243788</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-258.19583981990576</v>
+      </c>
+      <c r="G94" s="22">
+        <v>-183.1176212284509</v>
+      </c>
+      <c r="H94" s="22">
+        <v>-104.04434806394403</v>
+      </c>
+      <c r="I94" s="22">
+        <v>-146.70252729730629</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K94" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L94" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M94" s="21">
+        <v>3328.5351715166821</v>
       </c>
     </row>
   </sheetData>
@@ -36131,7 +36450,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39983,6 +40302,41 @@
         <v>1055.2041640627597</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-64.864825862248068</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-46.00342368636737</v>
+      </c>
+      <c r="F94" s="22">
+        <v>85.365403169261782</v>
+      </c>
+      <c r="G94" s="22">
+        <v>120.36521561928137</v>
+      </c>
+      <c r="H94" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1240.4342055442892</v>
+      </c>
+      <c r="J94" s="22">
+        <v>457.7557370461418</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1120.0689899250078</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39999,7 +40353,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44939,6 +45293,53 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="94" spans="1:15" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="21">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-12.972965172449614</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-9.200684737273475</v>
+      </c>
+      <c r="F94" s="22">
+        <v>155.33671088139798</v>
+      </c>
+      <c r="G94" s="22">
+        <v>219.02475715784905</v>
+      </c>
+      <c r="H94" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1920.1000668814213</v>
+      </c>
+      <c r="J94" s="22">
+        <v>838.12398872165591</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1701.0753097235722</v>
+      </c>
+      <c r="L94" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M94" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N94" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -44955,7 +45356,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50125,6 +50526,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="94" spans="1:16" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-61.621584569135663</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-43.703252502049004</v>
+      </c>
+      <c r="F94" s="22">
+        <v>56.117347603917786</v>
+      </c>
+      <c r="G94" s="22">
+        <v>79.125458248405522</v>
+      </c>
+      <c r="H94" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1150.0956036977268</v>
+      </c>
+      <c r="J94" s="22">
+        <v>432.9028337319362</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1070.9701454493213</v>
+      </c>
+      <c r="L94" s="26">
+        <v>100</v>
+      </c>
+      <c r="M94" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N94" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O94" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -50140,8 +50591,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH93"/>
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50259,7 +50712,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>0</v>
+        <v>-8.1967318134533151</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -54546,6 +54999,47 @@
       </c>
       <c r="M93" s="21">
         <v>538.16244689045482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="20">
+        <v>1541107</v>
+      </c>
+      <c r="E94" s="20">
+        <v>1892579.0573243788</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-52.81873790330031</v>
+      </c>
+      <c r="G94" s="22">
+        <v>-37.460098690543262</v>
+      </c>
+      <c r="H94" s="22">
+        <v>-8.1967318134533151</v>
+      </c>
+      <c r="I94" s="22">
+        <v>-11.557391583373732</v>
+      </c>
+      <c r="J94" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K94" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L94" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M94" s="21">
+        <v>590.98118479375512</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1115,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1127,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1396,6 +1399,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1439,7 +1445,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1712,6 +1718,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1730,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1994,6 +2003,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>7221.5447618491089</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7244.8708999497767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,7 +2048,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2309,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2333,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2591,6 +2606,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2327.7907385128356</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2351.1168766135033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,11 +2630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508987648"/>
-        <c:axId val="514156032"/>
+        <c:axId val="501171328"/>
+        <c:axId val="501172864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508987648"/>
+        <c:axId val="501171328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,14 +2677,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514156032"/>
+        <c:crossAx val="501172864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514156032"/>
+        <c:axId val="501172864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2715,7 +2733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508987648"/>
+        <c:crossAx val="501171328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,7 +2918,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3173,6 +3191,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3203,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3454,6 +3475,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3497,7 +3521,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3770,6 +3794,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3779,7 +3806,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4052,6 +4079,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>9936.9956269640625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10025.938397576327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,7 +4124,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4367,6 +4397,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,7 +4409,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4649,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3884.4031768884161</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3973.3459475006803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,11 +4706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489684992"/>
-        <c:axId val="489686528"/>
+        <c:axId val="505451264"/>
+        <c:axId val="505452800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489684992"/>
+        <c:axId val="505451264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,14 +4753,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489686528"/>
+        <c:crossAx val="505452800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489686528"/>
+        <c:axId val="505452800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489684992"/>
+        <c:crossAx val="505451264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4958,7 +4994,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5231,6 +5267,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,7 +5279,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5512,6 +5551,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5555,7 +5597,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5828,6 +5870,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5837,7 +5882,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6110,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>6718.5144356027567</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6734.3469736132765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6152,7 +6200,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6425,6 +6473,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6434,7 +6485,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6707,6 +6758,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2239.9313395669615</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2255.7638775774813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6728,11 +6782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489704832"/>
-        <c:axId val="489710720"/>
+        <c:axId val="538517888"/>
+        <c:axId val="538519424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489704832"/>
+        <c:axId val="538517888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,14 +6829,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489710720"/>
+        <c:crossAx val="538519424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489710720"/>
+        <c:axId val="538519424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6831,7 +6885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489704832"/>
+        <c:crossAx val="538517888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7016,7 +7070,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7289,6 +7343,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7298,7 +7355,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7570,6 +7627,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7613,7 +7673,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7886,6 +7946,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7895,7 +7958,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8167,6 +8230,9 @@
                   <c:v>3172.9764385298727</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8210,7 +8276,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8483,6 +8549,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8492,7 +8561,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8764,6 +8833,9 @@
                   <c:v>892.90167013295195</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -8786,11 +8858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492669952"/>
-        <c:axId val="492688128"/>
+        <c:axId val="539660288"/>
+        <c:axId val="539661824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492669952"/>
+        <c:axId val="539660288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8833,14 +8905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492688128"/>
+        <c:crossAx val="539661824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492688128"/>
+        <c:axId val="539661824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8889,7 +8961,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492669952"/>
+        <c:crossAx val="539660288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9074,7 +9146,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9347,6 +9419,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9356,7 +9431,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9628,6 +9703,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9671,7 +9749,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9944,6 +10022,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9953,7 +10034,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10226,6 +10307,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1240.4342055442892</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1243.7634591986789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10268,7 +10352,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10541,6 +10625,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10550,7 +10637,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10823,6 +10910,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>457.7557370461418</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>461.08499070053153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10844,11 +10934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492853888"/>
-        <c:axId val="492859776"/>
+        <c:axId val="539905408"/>
+        <c:axId val="539911296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492853888"/>
+        <c:axId val="539905408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10891,14 +10981,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492859776"/>
+        <c:crossAx val="539911296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492859776"/>
+        <c:axId val="539911296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10947,7 +11037,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492853888"/>
+        <c:crossAx val="539905408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11132,7 +11222,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11405,6 +11495,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11414,7 +11507,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11686,6 +11779,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11729,7 +11825,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12002,6 +12098,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12011,7 +12110,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12284,6 +12383,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1920.1000668814213</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1926.1582039388586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12326,7 +12428,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12599,6 +12701,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12608,7 +12713,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12881,6 +12986,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>838.12398872165591</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>844.18212577909321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12902,11 +13010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507959552"/>
-        <c:axId val="509014016"/>
+        <c:axId val="543448064"/>
+        <c:axId val="543458048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507959552"/>
+        <c:axId val="543448064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12949,14 +13057,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509014016"/>
+        <c:crossAx val="543458048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509014016"/>
+        <c:axId val="543458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13005,7 +13113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507959552"/>
+        <c:crossAx val="543448064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13190,7 +13298,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13463,6 +13571,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13472,7 +13583,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13744,6 +13855,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13787,7 +13901,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14060,6 +14174,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14069,7 +14186,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14342,6 +14459,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1150.0956036977268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14384,7 +14504,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14657,6 +14777,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14666,7 +14789,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14939,6 +15062,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>432.9028337319362</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14960,11 +15086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514176896"/>
-        <c:axId val="514178432"/>
+        <c:axId val="543513216"/>
+        <c:axId val="543519104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514176896"/>
+        <c:axId val="543513216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15007,14 +15133,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514178432"/>
+        <c:crossAx val="543519104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514178432"/>
+        <c:axId val="543519104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15063,7 +15189,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514176896"/>
+        <c:crossAx val="543513216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15248,7 +15374,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15521,6 +15647,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15530,7 +15659,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15802,6 +15931,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -15845,7 +15977,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16118,6 +16250,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16127,7 +16262,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16399,6 +16534,9 @@
                   <c:v>576.14629645503999</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16442,7 +16580,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16715,6 +16853,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16724,7 +16865,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16996,6 +17137,9 @@
                   <c:v>209.71931980268545</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17018,11 +17162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514307584"/>
-        <c:axId val="514309120"/>
+        <c:axId val="543697152"/>
+        <c:axId val="543707136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514307584"/>
+        <c:axId val="543697152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17065,14 +17209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514309120"/>
+        <c:crossAx val="543707136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514309120"/>
+        <c:axId val="543707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17121,7 +17265,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514307584"/>
+        <c:crossAx val="543697152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17841,7 +17985,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21728,6 +21872,41 @@
         <v>6378.2159159529574</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-373.21773966299781</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-257.56917834186385</v>
+      </c>
+      <c r="F95" s="22">
+        <v>340.53640028230558</v>
+      </c>
+      <c r="G95" s="22">
+        <v>493.43724433382158</v>
+      </c>
+      <c r="H95" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I95" s="22">
+        <v>7244.8708999497767</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2351.1168766135033</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6751.4336556159551</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21744,7 +21923,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26719,15 +26898,62 @@
         <v>6721.3752886321518</v>
       </c>
       <c r="L94" s="26">
-        <v>5.8567173301284303E-2</v>
+        <v>6.7472642510388287E-2</v>
       </c>
       <c r="M94" s="27">
-        <v>9.4453187905492245E-2</v>
+        <v>9.7377654680561573E-2</v>
       </c>
       <c r="N94" s="27">
-        <v>62.006560710142793</v>
+        <v>69.289656576476474</v>
       </c>
       <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-74.64354793259956</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-51.513835668372764</v>
+      </c>
+      <c r="F95" s="22">
+        <v>2229.0680185547067</v>
+      </c>
+      <c r="G95" s="22">
+        <v>3229.9195610115748</v>
+      </c>
+      <c r="H95" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I95" s="22">
+        <v>10025.938397576327</v>
+      </c>
+      <c r="J95" s="22">
+        <v>3973.3459475006803</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6796.0188365647509</v>
+      </c>
+      <c r="L95" s="26">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="M95" s="27">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>71.567144838255288</v>
+      </c>
+      <c r="O95" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -26747,7 +26973,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31953,18 +32179,68 @@
         <v>6146.1078095939747</v>
       </c>
       <c r="L94" s="26">
-        <v>100</v>
+        <v>79.644581076132468</v>
       </c>
       <c r="M94" s="27">
-        <v>66.011165299463087</v>
+        <v>70.555637225019552</v>
       </c>
       <c r="N94" s="27">
-        <v>53.991931615531115</v>
+        <v>59.513166818693925</v>
       </c>
       <c r="O94" s="27">
-        <v>90.049632667327046</v>
+        <v>92.640578037670807</v>
       </c>
       <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-354.55685267984791</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-244.69071942477063</v>
+      </c>
+      <c r="F95" s="22">
+        <v>161.27143629099595</v>
+      </c>
+      <c r="G95" s="22">
+        <v>233.68231133945355</v>
+      </c>
+      <c r="H95" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I95" s="22">
+        <v>6734.3469736132765</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2255.7638775774813</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6500.6646622738226</v>
+      </c>
+      <c r="L95" s="26">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="M95" s="27">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="N95" s="27">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="O95" s="27">
+        <v>92.596961243288405</v>
+      </c>
+      <c r="P95" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -31986,7 +32262,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32104,7 +32380,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>-104.04434806394403</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -36410,16 +36686,16 @@
         <v>1892579.0573243788</v>
       </c>
       <c r="F94" s="21">
-        <v>-258.19583981990576</v>
+        <v>-111.49331252259945</v>
       </c>
       <c r="G94" s="22">
-        <v>-183.1176212284509</v>
+        <v>-79.073273164506872</v>
       </c>
       <c r="H94" s="22">
-        <v>-104.04434806394403</v>
+        <v>0</v>
       </c>
       <c r="I94" s="22">
-        <v>-146.70252729730629</v>
+        <v>0</v>
       </c>
       <c r="J94" s="22">
         <v>2280.0747683969207</v>
@@ -36431,7 +36707,48 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M94" s="21">
-        <v>3328.5351715166821</v>
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="20">
+        <v>675343</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1886019.7527461865</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K95" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L95" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M95" s="21">
+        <v>3181.8326442193757</v>
       </c>
     </row>
   </sheetData>
@@ -36450,7 +36767,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40337,6 +40654,41 @@
         <v>1120.0689899250078</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-89.865471741391744</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-62.018959062971604</v>
+      </c>
+      <c r="F95" s="22">
+        <v>23.346444106290178</v>
+      </c>
+      <c r="G95" s="22">
+        <v>33.828997532279374</v>
+      </c>
+      <c r="H95" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1243.7634591986789</v>
+      </c>
+      <c r="J95" s="22">
+        <v>461.08499070053153</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1209.9344616663996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -40353,7 +40705,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45328,15 +45680,62 @@
         <v>1701.0753097235722</v>
       </c>
       <c r="L94" s="26">
-        <v>5.8567173301284303E-2</v>
+        <v>6.7472642510388287E-2</v>
       </c>
       <c r="M94" s="27">
-        <v>9.4453187905492245E-2</v>
+        <v>9.7377654680561573E-2</v>
       </c>
       <c r="N94" s="27">
-        <v>62.006560710142793</v>
+        <v>69.289656576476474</v>
       </c>
       <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="21">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-17.973094348278348</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-12.403791812594321</v>
+      </c>
+      <c r="F95" s="22">
+        <v>142.93291906880364</v>
+      </c>
+      <c r="G95" s="22">
+        <v>207.10979986700792</v>
+      </c>
+      <c r="H95" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1926.1582039388586</v>
+      </c>
+      <c r="J95" s="22">
+        <v>844.18212577909321</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1719.0484040718507</v>
+      </c>
+      <c r="L95" s="26">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="M95" s="27">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>71.567144838255288</v>
+      </c>
+      <c r="O95" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -45355,8 +45754,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH94"/>
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45473,7 +45874,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-2.8006635059052343</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -50561,18 +50962,68 @@
         <v>1070.9701454493213</v>
       </c>
       <c r="L94" s="26">
-        <v>100</v>
+        <v>79.644581076132468</v>
       </c>
       <c r="M94" s="27">
-        <v>66.011165299463087</v>
+        <v>70.555637225019552</v>
       </c>
       <c r="N94" s="27">
-        <v>53.991931615531115</v>
+        <v>59.513166818693925</v>
       </c>
       <c r="O94" s="27">
-        <v>90.049632667327046</v>
+        <v>92.640578037670807</v>
       </c>
       <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-85.372198154322149</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-58.91801110982302</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-2.8006635059052343</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-4.058161422727605</v>
+      </c>
+      <c r="H95" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J95" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1156.3423436036435</v>
+      </c>
+      <c r="L95" s="26">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="M95" s="27">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="N95" s="27">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="O95" s="27">
+        <v>92.596961243288405</v>
+      </c>
+      <c r="P95" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -50594,7 +51045,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50712,7 +51163,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>-8.1967318134533151</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -55018,16 +55469,16 @@
         <v>1892579.0573243788</v>
       </c>
       <c r="F94" s="21">
-        <v>-52.81873790330031</v>
+        <v>-41.261346319926574</v>
       </c>
       <c r="G94" s="22">
-        <v>-37.460098690543262</v>
+        <v>-29.263366877089947</v>
       </c>
       <c r="H94" s="22">
-        <v>-8.1967318134533151</v>
+        <v>0</v>
       </c>
       <c r="I94" s="22">
-        <v>-11.557391583373732</v>
+        <v>0</v>
       </c>
       <c r="J94" s="22">
         <v>366.42697665235454</v>
@@ -55039,7 +55490,48 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M94" s="21">
-        <v>590.98118479375512</v>
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="20">
+        <v>675343</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1886019.7527461865</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K95" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L95" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M95" s="21">
+        <v>579.4237932103814</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1118,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,7 +1130,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1402,6 +1405,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1445,7 +1451,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1721,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,7 +1739,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2006,6 +2015,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>7244.8708999497767</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7246.9141326409463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,7 +2060,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2324,6 +2336,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2348,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2609,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2351.1168766135033</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2353.1601093046729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,11 +2648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501171328"/>
-        <c:axId val="501172864"/>
+        <c:axId val="365270528"/>
+        <c:axId val="365272064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501171328"/>
+        <c:axId val="365270528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,14 +2695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501172864"/>
+        <c:crossAx val="365272064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501172864"/>
+        <c:axId val="365272064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501171328"/>
+        <c:crossAx val="365270528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2918,7 +2936,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3194,6 +3212,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,7 +3224,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3478,6 +3499,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3521,7 +3545,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3797,6 +3821,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,7 +3833,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4082,6 +4109,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>10025.938397576327</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10039.31289922307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,7 +4154,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4400,6 +4430,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4409,7 +4442,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4685,6 +4718,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>3973.3459475006803</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3986.720449147424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4706,11 +4742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505451264"/>
-        <c:axId val="505452800"/>
+        <c:axId val="395142272"/>
+        <c:axId val="395143808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505451264"/>
+        <c:axId val="395142272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,14 +4789,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505452800"/>
+        <c:crossAx val="395143808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505452800"/>
+        <c:axId val="395143808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,7 +4845,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505451264"/>
+        <c:crossAx val="395142272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4994,7 +5030,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5270,6 +5306,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5279,7 +5318,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5554,6 +5593,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5597,7 +5639,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5873,6 +5915,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5882,7 +5927,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6158,6 +6203,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>6734.3469736132765</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6200,7 +6248,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6476,6 +6524,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6485,7 +6536,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6761,6 +6812,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2255.7638775774813</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6782,11 +6836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538517888"/>
-        <c:axId val="538519424"/>
+        <c:axId val="395313920"/>
+        <c:axId val="395315456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538517888"/>
+        <c:axId val="395313920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6829,14 +6883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538519424"/>
+        <c:crossAx val="395315456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538519424"/>
+        <c:axId val="395315456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6885,7 +6939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538517888"/>
+        <c:crossAx val="395313920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7070,7 +7124,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7346,6 +7400,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7355,7 +7412,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7630,6 +7687,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7673,7 +7733,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7949,6 +8009,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7958,7 +8021,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8233,6 +8296,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8276,7 +8342,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8552,6 +8618,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8561,7 +8630,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8836,6 +8905,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -8858,11 +8930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539660288"/>
-        <c:axId val="539661824"/>
+        <c:axId val="395366784"/>
+        <c:axId val="395368320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539660288"/>
+        <c:axId val="395366784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8905,14 +8977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539661824"/>
+        <c:crossAx val="395368320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539661824"/>
+        <c:axId val="395368320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,7 +9033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539660288"/>
+        <c:crossAx val="395366784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9146,7 +9218,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9422,6 +9494,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9431,7 +9506,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9706,6 +9781,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9749,7 +9827,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10025,6 +10103,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10034,7 +10115,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10310,6 +10391,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1243.7634591986789</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10352,7 +10436,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10628,6 +10712,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10637,7 +10724,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10913,6 +11000,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>461.08499070053153</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10934,11 +11024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539905408"/>
-        <c:axId val="539911296"/>
+        <c:axId val="448081920"/>
+        <c:axId val="448083456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539905408"/>
+        <c:axId val="448081920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10981,14 +11071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539911296"/>
+        <c:crossAx val="448083456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539911296"/>
+        <c:axId val="448083456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11037,7 +11127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539905408"/>
+        <c:crossAx val="448081920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11222,7 +11312,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11498,6 +11588,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11507,7 +11600,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11782,6 +11875,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11825,7 +11921,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12101,6 +12197,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12110,7 +12209,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12386,6 +12485,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1926.1582039388586</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1927.0158074509754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12428,7 +12530,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12704,6 +12806,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12713,7 +12818,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12989,6 +13094,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>844.18212577909321</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>845.03972929121005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13010,11 +13118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543448064"/>
-        <c:axId val="543458048"/>
+        <c:axId val="458431872"/>
+        <c:axId val="458441856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543448064"/>
+        <c:axId val="458431872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13057,14 +13165,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543458048"/>
+        <c:crossAx val="458441856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543458048"/>
+        <c:axId val="458441856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13113,7 +13221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543448064"/>
+        <c:crossAx val="458431872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13298,7 +13406,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13574,6 +13682,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13583,7 +13694,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13858,6 +13969,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -13901,7 +14015,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14177,6 +14291,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14186,7 +14303,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14461,6 +14578,9 @@
                   <c:v>1150.0956036977268</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14504,7 +14624,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14780,6 +14900,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14789,7 +14912,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15064,6 +15187,9 @@
                   <c:v>432.9028337319362</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15086,11 +15212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543513216"/>
-        <c:axId val="543519104"/>
+        <c:axId val="459459584"/>
+        <c:axId val="459465472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543513216"/>
+        <c:axId val="459459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15133,14 +15259,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543519104"/>
+        <c:crossAx val="459465472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543519104"/>
+        <c:axId val="459465472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15189,7 +15315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543513216"/>
+        <c:crossAx val="459459584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15374,7 +15500,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15650,6 +15776,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15659,7 +15788,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15934,6 +16063,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -15977,7 +16109,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16253,6 +16385,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16262,7 +16397,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16537,6 +16672,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16580,7 +16718,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16856,6 +16994,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16865,7 +17006,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17140,6 +17281,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17162,11 +17306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543697152"/>
-        <c:axId val="543707136"/>
+        <c:axId val="459532928"/>
+        <c:axId val="459538816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543697152"/>
+        <c:axId val="459532928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17209,14 +17353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543707136"/>
+        <c:crossAx val="459538816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543707136"/>
+        <c:axId val="459538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17265,7 +17409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543697152"/>
+        <c:crossAx val="459532928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17373,7 +17517,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17416,7 +17560,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17459,7 +17603,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17502,7 +17646,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17545,7 +17689,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17588,7 +17732,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17631,7 +17775,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17674,7 +17818,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17985,7 +18129,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18806,6 +18950,30 @@
         <v>33.814368556700828</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>931.07362136882602</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="R12" s="5">
+        <v>7246.9141326409463</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2353.1601093046729</v>
+      </c>
+      <c r="T12" s="5">
+        <v>7129.0390324428317</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.48084969086787627</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8.0590612386088223E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -19215,6 +19383,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>61.537214285714597</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="8">-Y19</f>
+        <v>-61.537214285714597</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -19251,6 +19429,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2266.0631463936584</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="8"/>
+        <v>-2266.0631463936584</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -19287,6 +19475,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>520.16324835056685</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="8"/>
+        <v>-520.16324835056685</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -19323,6 +19521,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -19360,6 +19568,16 @@
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
+      <c r="X23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -19396,6 +19614,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L24" s="7"/>
+      <c r="X24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1040.0411987381858</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="8"/>
+        <v>-1040.0411987381858</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -19432,6 +19660,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>74.875594199321768</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="8"/>
+        <v>-74.875594199321768</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -19468,6 +19706,16 @@
         <v>125.42807429540611</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>931.07362136882602</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="8"/>
+        <v>-931.07362136882602</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -19504,6 +19752,12 @@
         <v>219.05654068196128</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>7246.9141326409463</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -19540,6 +19794,10 @@
         <v>239.95815033990942</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>8.0590612386088223E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -21905,6 +22163,41 @@
       </c>
       <c r="K95" s="21">
         <v>6751.4336556159551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-377.60537682687692</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-259.52258810266375</v>
+      </c>
+      <c r="F96" s="22">
+        <v>81.013812179641832</v>
+      </c>
+      <c r="G96" s="22">
+        <v>117.87510019811451</v>
+      </c>
+      <c r="H96" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I96" s="22">
+        <v>7246.9141326409463</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2353.1601093046729</v>
+      </c>
+      <c r="K96" s="21">
+        <v>7129.0390324428317</v>
       </c>
     </row>
   </sheetData>
@@ -21923,7 +22216,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22861,6 +23154,30 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>846.7205805675685</v>
+      </c>
+      <c r="S12" s="5">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="T12" s="5">
+        <v>10039.31289922307</v>
+      </c>
+      <c r="U12" s="5">
+        <v>3986.720449147424</v>
+      </c>
+      <c r="V12" s="5">
+        <v>6871.5399119301264</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.65867981068138781</v>
+      </c>
+      <c r="X12" s="9">
+        <v>9.5878483331409026E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -23354,6 +23671,16 @@
         <v>0.95</v>
       </c>
       <c r="P19" s="27"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>91.417228571428666</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-91.417228571428666</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -23402,6 +23729,16 @@
         <v>0.95</v>
       </c>
       <c r="P20" s="27"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>3224.1951268482335</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-3224.1951268482335</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -23450,6 +23787,16 @@
         <v>2</v>
       </c>
       <c r="P21" s="27"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>773.01292064913287</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-773.01292064913287</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -23498,6 +23845,16 @@
         <v>2</v>
       </c>
       <c r="P22" s="27"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -23546,6 +23903,16 @@
         <v>2</v>
       </c>
       <c r="P23" s="27"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -23595,6 +23962,16 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1046.1147789499273</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-1046.1147789499273</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -23643,6 +24020,16 @@
         <v>2</v>
       </c>
       <c r="P25" s="27"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-71.131814489355747</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -23691,6 +24078,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="27"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>846.7205805675685</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-846.7205805675685</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -23739,6 +24136,12 @@
         <v>0.2</v>
       </c>
       <c r="P27" s="27"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>10039.31289922307</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -23787,6 +24190,10 @@
         <v>0.2</v>
       </c>
       <c r="P28" s="27"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>9.5878483331409026E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -26954,6 +27361,53 @@
         <v>71.567144838255288</v>
       </c>
       <c r="O95" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-75.521075365375381</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-51.904517620532744</v>
+      </c>
+      <c r="F96" s="22">
+        <v>2177.163500934174</v>
+      </c>
+      <c r="G96" s="22">
+        <v>3167.772987292944</v>
+      </c>
+      <c r="H96" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I96" s="22">
+        <v>10039.31289922307</v>
+      </c>
+      <c r="J96" s="22">
+        <v>3986.720449147424</v>
+      </c>
+      <c r="K96" s="21">
+        <v>6871.5399119301264</v>
+      </c>
+      <c r="L96" s="26">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="M96" s="27">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>71.951167459958171</v>
+      </c>
+      <c r="O96" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -26972,8 +27426,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH95"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27090,7 +27546,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-85.275022406534561</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -27934,6 +28390,30 @@
       <c r="P12" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>714.03671416672069</v>
+      </c>
+      <c r="S12" s="5">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="T12" s="5">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="V12" s="5">
+        <v>6859.3897702593558</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.50389408091143495</v>
+      </c>
+      <c r="X12" s="9">
+        <v>8.1631978236141212E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -28441,6 +28921,16 @@
       <c r="P19" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>58.460353571428868</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-58.460353571428868</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -28491,6 +28981,16 @@
       <c r="P20" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>2152.7599890739757</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-2152.7599890739757</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -28541,6 +29041,16 @@
       <c r="P21" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>494.15508593303866</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-494.15508593303866</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -28591,6 +29101,16 @@
       <c r="P22" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -28641,6 +29161,16 @@
       <c r="P23" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -28692,6 +29222,16 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>988.03913880127584</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-988.03913880127584</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -28742,6 +29282,16 @@
       <c r="P25" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>71.131814489355747</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-71.131814489355747</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -28792,6 +29342,16 @@
       <c r="P26" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>714.03671416672069</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-714.03671416672069</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -28842,6 +29402,12 @@
       <c r="P27" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>6735.3146089982411</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -28892,6 +29458,10 @@
       <c r="P28" s="27">
         <v>0.95</v>
       </c>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>8.1631978236141212E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -32241,6 +32811,56 @@
         <v>92.596961243288405</v>
       </c>
       <c r="P95" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-358.72510798553304</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-246.54645869753051</v>
+      </c>
+      <c r="F96" s="22">
+        <v>-85.275022406534561</v>
+      </c>
+      <c r="G96" s="22">
+        <v>-124.07516126111473</v>
+      </c>
+      <c r="H96" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I96" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K96" s="21">
+        <v>6859.3897702593558</v>
+      </c>
+      <c r="L96" s="26">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="M96" s="27">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="N96" s="27">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="O96" s="27">
+        <v>92.001401816041067</v>
+      </c>
+      <c r="P96" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -32262,7 +32882,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33152,6 +33772,30 @@
         <v>2.3292503740678492</v>
       </c>
       <c r="N12" s="7"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>290.00051789562099</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="T12" s="5">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="U12" s="5">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="V12" s="5">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.39549487074779771</v>
+      </c>
+      <c r="X12" s="9">
+        <v>5.6778087802117572E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -33603,6 +34247,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N19" s="7"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>29.534447075205776</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-29.534447075205776</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -33645,6 +34299,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N20" s="7"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1528.0104860270981</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-1528.0104860270981</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -33687,6 +34351,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N21" s="8"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>331.22983442957388</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-331.22983442957388</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -33729,6 +34403,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N22" s="7"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -33771,6 +34455,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N23" s="7"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -33814,6 +34508,16 @@
       </c>
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>91.832048679506215</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-91.832048679506215</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -33856,6 +34560,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N25" s="7"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>9.4674342899156727</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-9.4674342899156727</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -33898,6 +34612,16 @@
         <v>193.28001945795327</v>
       </c>
       <c r="N26" s="7"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>290.00051789562099</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-290.00051789562099</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -33940,6 +34664,12 @@
         <v>658.6906975570239</v>
       </c>
       <c r="N27" s="7"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>3181.8326442193757</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -33982,6 +34712,10 @@
         <v>680.54982309941465</v>
       </c>
       <c r="N28" s="7"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>5.6778087802117572E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -36748,6 +37482,47 @@
         <v>901.75787582245493</v>
       </c>
       <c r="M95" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="20">
+        <v>1227300</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1875140.6638665621</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K96" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L96" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M96" s="21">
         <v>3181.8326442193757</v>
       </c>
     </row>
@@ -36766,8 +37541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF95"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36870,7 +37647,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-39.877507297318026</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -37518,7 +38295,7 @@
         <v>0.62844706217117707</v>
       </c>
       <c r="V11" s="9">
-        <v>9.7594534949349665E-2</v>
+        <v>9.8012622279313177E-2</v>
       </c>
       <c r="X11" s="6">
         <v>43462</v>
@@ -37588,6 +38365,30 @@
         <v>3.987403519999928</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>141.99776260849649</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="S12" s="5">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1301.9253136719271</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.58929060771258057</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8.9263687221011079E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -37919,7 +38720,7 @@
         <v>45289</v>
       </c>
       <c r="AF17" s="1">
-        <v>1041.2062722107735</v>
+        <v>1043.3146132957579</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="14.1" customHeight="1">
@@ -37959,7 +38760,7 @@
       <c r="L18" s="7"/>
       <c r="AF18" s="2">
         <f>IRR(AF10:AF17)</f>
-        <v>9.7594534949349665E-2</v>
+        <v>9.8012622279313177E-2</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="14.1" customHeight="1">
@@ -37997,6 +38798,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.2220518888775631</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="6">-Y19</f>
+        <v>-1.2220518888775631</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -38033,6 +38844,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>433.73124322277113</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="6"/>
+        <v>-433.73124322277113</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -38069,6 +38890,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>84.696913592045235</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="6"/>
+        <v>-84.696913592045235</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -38105,6 +38936,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -38141,6 +38982,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L23" s="7"/>
+      <c r="X23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -38178,6 +39029,16 @@
       </c>
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
+      <c r="X24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>118.96796894445561</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="6"/>
+        <v>-118.96796894445561</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -38214,6 +39075,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.0625282415013544</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -38250,6 +39121,16 @@
         <v>7.2769907937643099</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>141.99776260849649</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="6"/>
+        <v>-141.99776260849649</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -38286,6 +39167,12 @@
         <v>12.932661579505144</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1243.9035388429725</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -38322,6 +39209,10 @@
         <v>13.214517893242713</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>8.9263687221011079E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -40687,6 +41578,41 @@
       </c>
       <c r="K95" s="21">
         <v>1209.9344616663996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-91.990852005527572</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-63.223951403608204</v>
+      </c>
+      <c r="F96" s="22">
+        <v>-39.877507297318026</v>
+      </c>
+      <c r="G96" s="22">
+        <v>-58.021774828954683</v>
+      </c>
+      <c r="H96" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J96" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1301.9253136719271</v>
       </c>
     </row>
   </sheetData>
@@ -40705,7 +41631,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41643,6 +42569,30 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>131.60419770554131</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1927.0158074509754</v>
+      </c>
+      <c r="U12" s="5">
+        <v>845.03972929121005</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1737.4465744729562</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.78101516877199462</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0.10293825750561858</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -42136,6 +43086,16 @@
         <v>0.95</v>
       </c>
       <c r="P19" s="27"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.8283260131836769</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-1.8283260131836769</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -42184,6 +43144,16 @@
         <v>0.95</v>
       </c>
       <c r="P20" s="27"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>672.01613508174762</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-672.01613508174762</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -42232,6 +43202,16 @@
         <v>2</v>
       </c>
       <c r="P21" s="27"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-158.87923971358168</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -42280,6 +43260,16 @@
         <v>2</v>
       </c>
       <c r="P22" s="27"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -42328,6 +43318,16 @@
         <v>2</v>
       </c>
       <c r="P23" s="27"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -42377,6 +43377,16 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-115.68877781628487</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -42425,6 +43435,16 @@
         <v>2</v>
       </c>
       <c r="P25" s="27"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9594018294262696</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -42473,6 +43493,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="27"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>131.60419770554131</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-131.60419770554131</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -42521,6 +43551,12 @@
         <v>0.2</v>
       </c>
       <c r="P27" s="27"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1927.0158074509754</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -42569,6 +43605,10 @@
         <v>0.2</v>
       </c>
       <c r="P28" s="27"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>0.10293825750561858</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -45736,6 +46776,53 @@
         <v>71.567144838255288</v>
       </c>
       <c r="O95" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="21">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-18.398170401105514</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-12.64479028072164</v>
+      </c>
+      <c r="F96" s="22">
+        <v>130.28812878808199</v>
+      </c>
+      <c r="G96" s="22">
+        <v>189.56923297801919</v>
+      </c>
+      <c r="H96" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1927.0158074509754</v>
+      </c>
+      <c r="J96" s="22">
+        <v>845.03972929121005</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1737.4465744729562</v>
+      </c>
+      <c r="L96" s="26">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="M96" s="27">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>71.951167459958171</v>
+      </c>
+      <c r="O96" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -45757,7 +46844,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45874,7 +46961,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-2.8006635059052343</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -46634,7 +47721,7 @@
         <v>0.63979125471200327</v>
       </c>
       <c r="X11" s="9">
-        <v>9.9032665900877781E-2</v>
+        <v>9.9448205942007872E-2</v>
       </c>
       <c r="Z11" s="6">
         <v>43462</v>
@@ -46718,6 +47805,30 @@
       <c r="P12" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>108.54609937062241</v>
+      </c>
+      <c r="S12" s="5">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="U12" s="5">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.60665894921929941</v>
+      </c>
+      <c r="X12" s="9">
+        <v>8.9145401197216145E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -47119,7 +48230,7 @@
         <v>45289</v>
       </c>
       <c r="AH17" s="1">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.1" customHeight="1">
@@ -47173,7 +48284,7 @@
       </c>
       <c r="AH18" s="2">
         <f>IRR(AH10:AH17)</f>
-        <v>9.9032665900877781E-2</v>
+        <v>9.9448205942007872E-2</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.1" customHeight="1">
@@ -47225,6 +48336,16 @@
       <c r="P19" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.1609492944336848</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-1.1609492944336848</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -47275,6 +48396,16 @@
       <c r="P20" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>412.0446810616325</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-412.0446810616325</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -47325,6 +48456,16 @@
       <c r="P21" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-80.462067912442933</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -47375,6 +48516,16 @@
       <c r="P22" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -47425,6 +48576,16 @@
       <c r="P23" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -47476,6 +48637,16 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-113.01957049723279</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -47526,6 +48697,16 @@
       <c r="P25" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9594018294262696</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -47576,6 +48757,16 @@
       <c r="P26" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>108.54609937062241</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-108.54609937062241</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -47626,6 +48817,12 @@
       <c r="P27" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1152.2841821809159</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -47676,6 +48873,10 @@
       <c r="P28" s="27">
         <v>0.95</v>
       </c>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>8.9145401197216145E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -50988,16 +52189,16 @@
         <v>1.2082143624614177</v>
       </c>
       <c r="D95" s="21">
-        <v>-85.372198154322149</v>
+        <v>-81.314036731594541</v>
       </c>
       <c r="E95" s="22">
-        <v>-58.91801110982302</v>
+        <v>-56.117347603917786</v>
       </c>
       <c r="F95" s="22">
-        <v>-2.8006635059052343</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-4.058161422727605</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>717.1927699657906</v>
@@ -51009,7 +52210,7 @@
         <v>435.09141221512527</v>
       </c>
       <c r="K95" s="21">
-        <v>1156.3423436036435</v>
+        <v>1152.2841821809159</v>
       </c>
       <c r="L95" s="26">
         <v>79.964533123378445</v>
@@ -51024,6 +52225,56 @@
         <v>92.596961243288405</v>
       </c>
       <c r="P95" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J96" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L96" s="26">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="M96" s="27">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="N96" s="27">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="O96" s="27">
+        <v>92.001401816041067</v>
+      </c>
+      <c r="P96" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -51045,7 +52296,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -51935,6 +53186,30 @@
         <v>4.7167320074873662E-2</v>
       </c>
       <c r="N12" s="7"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>48.669188089074908</v>
+      </c>
+      <c r="S12" s="5">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="T12" s="5">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="U12" s="5">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="V12" s="5">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.58128039180943369</v>
+      </c>
+      <c r="X12" s="9">
+        <v>7.7879086338844994E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -52386,6 +53661,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N19" s="7"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.57621376243097611</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="7">-AA19</f>
+        <v>-0.57621376243097611</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -52428,6 +53713,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N20" s="7"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>262.72397636432083</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="7"/>
+        <v>-262.72397636432083</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -52470,6 +53765,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N21" s="8"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="7"/>
+        <v>-43.135897352006509</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -52512,6 +53817,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N22" s="7"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -52554,6 +53869,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N23" s="7"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -52597,6 +53922,16 @@
       </c>
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="7"/>
+        <v>-11.079325740253353</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -52639,6 +53974,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N25" s="7"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.24237534426794127</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -52681,6 +54026,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N26" s="7"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>48.669188089074908</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="7"/>
+        <v>-48.669188089074908</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -52723,6 +54078,12 @@
         <v>35.497382163166584</v>
       </c>
       <c r="N27" s="7"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>579.4237932103814</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -52765,6 +54126,10 @@
         <v>35.792150491909254</v>
       </c>
       <c r="N28" s="7"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>7.7879086338844994E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -55531,6 +56896,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M95" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="20">
+        <v>1227300</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1875140.6638665621</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K96" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L96" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M96" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -2648,11 +2648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365270528"/>
-        <c:axId val="365272064"/>
+        <c:axId val="471859200"/>
+        <c:axId val="471861120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="365270528"/>
+        <c:axId val="471859200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,14 +2695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365272064"/>
+        <c:crossAx val="471861120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="365272064"/>
+        <c:axId val="471861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365270528"/>
+        <c:crossAx val="471859200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4742,11 +4742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395142272"/>
-        <c:axId val="395143808"/>
+        <c:axId val="481576448"/>
+        <c:axId val="481577984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395142272"/>
+        <c:axId val="481576448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,14 +4789,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395143808"/>
+        <c:crossAx val="481577984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395143808"/>
+        <c:axId val="481577984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,7 +4845,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395142272"/>
+        <c:crossAx val="481576448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6836,11 +6836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395313920"/>
-        <c:axId val="395315456"/>
+        <c:axId val="535211392"/>
+        <c:axId val="541710592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395313920"/>
+        <c:axId val="535211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,14 +6883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395315456"/>
+        <c:crossAx val="541710592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395315456"/>
+        <c:axId val="541710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6939,7 +6939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395313920"/>
+        <c:crossAx val="535211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8930,11 +8930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395366784"/>
-        <c:axId val="395368320"/>
+        <c:axId val="470851968"/>
+        <c:axId val="470853504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395366784"/>
+        <c:axId val="470851968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8977,14 +8977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395368320"/>
+        <c:crossAx val="470853504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395368320"/>
+        <c:axId val="470853504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9033,7 +9033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395366784"/>
+        <c:crossAx val="470851968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11024,11 +11024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448081920"/>
-        <c:axId val="448083456"/>
+        <c:axId val="475389952"/>
+        <c:axId val="475391488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448081920"/>
+        <c:axId val="475389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11071,14 +11071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448083456"/>
+        <c:crossAx val="475391488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448083456"/>
+        <c:axId val="475391488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11127,7 +11127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448081920"/>
+        <c:crossAx val="475389952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13118,11 +13118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458431872"/>
-        <c:axId val="458441856"/>
+        <c:axId val="475438464"/>
+        <c:axId val="475452544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458431872"/>
+        <c:axId val="475438464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13165,14 +13165,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458441856"/>
+        <c:crossAx val="475452544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458441856"/>
+        <c:axId val="475452544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13221,7 +13221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458431872"/>
+        <c:crossAx val="475438464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15212,11 +15212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459459584"/>
-        <c:axId val="459465472"/>
+        <c:axId val="481512448"/>
+        <c:axId val="481530624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459459584"/>
+        <c:axId val="481512448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15259,14 +15259,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459465472"/>
+        <c:crossAx val="481530624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459465472"/>
+        <c:axId val="481530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15315,7 +15315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459459584"/>
+        <c:crossAx val="481512448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17306,11 +17306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459532928"/>
-        <c:axId val="459538816"/>
+        <c:axId val="481569408"/>
+        <c:axId val="481587584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459532928"/>
+        <c:axId val="481569408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17353,14 +17353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459538816"/>
+        <c:crossAx val="481587584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459538816"/>
+        <c:axId val="481587584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17409,7 +17409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459532928"/>
+        <c:crossAx val="481569408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1121,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1133,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1408,6 +1411,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1451,7 +1457,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1730,6 +1736,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,7 +1748,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2018,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>7246.9141326409463</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2072,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2339,6 +2351,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,7 +2363,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2642,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2353.1601093046729</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,11 +2666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471859200"/>
-        <c:axId val="471861120"/>
+        <c:axId val="467961728"/>
+        <c:axId val="467963264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471859200"/>
+        <c:axId val="467961728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,14 +2713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471861120"/>
+        <c:crossAx val="467963264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471861120"/>
+        <c:axId val="467963264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2769,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471859200"/>
+        <c:crossAx val="467961728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2936,7 +2954,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3215,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,7 +3245,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3502,6 +3523,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3545,7 +3569,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3824,6 +3848,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,7 +3860,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4112,6 +4139,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>10039.31289922307</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10019.718290678538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4154,7 +4184,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4433,6 +4463,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4442,7 +4475,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4721,6 +4754,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>3986.720449147424</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3967.1258406028919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,11 +4778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481576448"/>
-        <c:axId val="481577984"/>
+        <c:axId val="467985920"/>
+        <c:axId val="467987456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481576448"/>
+        <c:axId val="467985920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,14 +4825,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481577984"/>
+        <c:crossAx val="467987456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481577984"/>
+        <c:axId val="467987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,7 +4881,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481576448"/>
+        <c:crossAx val="467985920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5030,7 +5066,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5309,6 +5345,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5318,7 +5357,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5596,6 +5635,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5639,7 +5681,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5918,6 +5960,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5927,7 +5972,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6205,6 +6250,9 @@
                   <c:v>6734.3469736132765</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6248,7 +6296,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6527,6 +6575,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6536,7 +6587,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6814,6 +6865,9 @@
                   <c:v>2255.7638775774813</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -6836,11 +6890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535211392"/>
-        <c:axId val="541710592"/>
+        <c:axId val="471098496"/>
+        <c:axId val="471100032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535211392"/>
+        <c:axId val="471098496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,14 +6937,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541710592"/>
+        <c:crossAx val="471100032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541710592"/>
+        <c:axId val="471100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6939,7 +6993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535211392"/>
+        <c:crossAx val="471098496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7124,7 +7178,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7403,6 +7457,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7412,7 +7469,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7690,6 +7747,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7733,7 +7793,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8012,6 +8072,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8021,7 +8084,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8299,6 +8362,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8342,7 +8408,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8621,6 +8687,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8630,7 +8699,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8908,6 +8977,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -8930,11 +9002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470851968"/>
-        <c:axId val="470853504"/>
+        <c:axId val="477520640"/>
+        <c:axId val="477522176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470851968"/>
+        <c:axId val="477520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8977,14 +9049,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470853504"/>
+        <c:crossAx val="477522176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470853504"/>
+        <c:axId val="477522176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9033,7 +9105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470851968"/>
+        <c:crossAx val="477520640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9218,7 +9290,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9497,6 +9569,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9506,7 +9581,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9784,6 +9859,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9827,7 +9905,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10106,6 +10184,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10115,7 +10196,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10393,6 +10474,9 @@
                   <c:v>1243.7634591986789</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10436,7 +10520,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10715,6 +10799,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10724,7 +10811,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11002,6 +11089,9 @@
                   <c:v>461.08499070053153</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11024,11 +11114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475389952"/>
-        <c:axId val="475391488"/>
+        <c:axId val="510894464"/>
+        <c:axId val="510896000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475389952"/>
+        <c:axId val="510894464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11071,14 +11161,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475391488"/>
+        <c:crossAx val="510896000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475391488"/>
+        <c:axId val="510896000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11127,7 +11217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475389952"/>
+        <c:crossAx val="510894464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11312,7 +11402,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11591,6 +11681,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11600,7 +11693,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11878,6 +11971,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -11921,7 +12017,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12200,6 +12296,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12209,7 +12308,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12488,6 +12587,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1927.0158074509754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1925.8432060912214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12530,7 +12632,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12809,6 +12911,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12818,7 +12923,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13097,6 +13202,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>845.03972929121005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>843.86712793145603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13118,11 +13226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475438464"/>
-        <c:axId val="475452544"/>
+        <c:axId val="530796544"/>
+        <c:axId val="530798080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475438464"/>
+        <c:axId val="530796544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13165,14 +13273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475452544"/>
+        <c:crossAx val="530798080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475452544"/>
+        <c:axId val="530798080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13221,7 +13329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475438464"/>
+        <c:crossAx val="530796544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13406,7 +13514,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13685,6 +13793,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13694,7 +13805,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13972,6 +14083,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14015,7 +14129,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14294,6 +14408,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14303,7 +14420,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14581,6 +14698,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14624,7 +14744,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14903,6 +15023,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14912,7 +15035,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15190,6 +15313,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15212,11 +15338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481512448"/>
-        <c:axId val="481530624"/>
+        <c:axId val="530894208"/>
+        <c:axId val="530900096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481512448"/>
+        <c:axId val="530894208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15259,14 +15385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481530624"/>
+        <c:crossAx val="530900096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481530624"/>
+        <c:axId val="530900096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15315,7 +15441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481512448"/>
+        <c:crossAx val="530894208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15500,7 +15626,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15779,6 +15905,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15788,7 +15917,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16066,6 +16195,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16109,7 +16241,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16388,6 +16520,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16397,7 +16532,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16675,6 +16810,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16718,7 +16856,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16997,6 +17135,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17006,7 +17147,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17284,6 +17425,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17306,11 +17450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481569408"/>
-        <c:axId val="481587584"/>
+        <c:axId val="530963456"/>
+        <c:axId val="531895040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481569408"/>
+        <c:axId val="530963456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17353,14 +17497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481587584"/>
+        <c:crossAx val="531895040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481587584"/>
+        <c:axId val="531895040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17409,7 +17553,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481569408"/>
+        <c:crossAx val="530963456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17517,7 +17661,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17560,7 +17704,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17603,7 +17747,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17646,7 +17790,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17689,7 +17833,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17732,7 +17876,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17775,7 +17919,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17818,7 +17962,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18128,8 +18272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF96"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18232,7 +18378,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-168.41438821437734</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -22198,6 +22344,41 @@
       </c>
       <c r="K96" s="21">
         <v>7129.0390324428317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-360.6731727744131</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-249.42820039401917</v>
+      </c>
+      <c r="F97" s="22">
+        <v>-168.41438821437734</v>
+      </c>
+      <c r="G97" s="22">
+        <v>-243.52720198512762</v>
+      </c>
+      <c r="H97" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I97" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J97" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K97" s="21">
+        <v>7489.7122052172444</v>
       </c>
     </row>
   </sheetData>
@@ -22216,7 +22397,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27411,6 +27592,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="97" spans="1:15" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-72.134634554882624</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-49.885640078803839</v>
+      </c>
+      <c r="F97" s="22">
+        <v>2127.2778608553699</v>
+      </c>
+      <c r="G97" s="22">
+        <v>3076.0437441935296</v>
+      </c>
+      <c r="H97" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I97" s="22">
+        <v>10019.718290678538</v>
+      </c>
+      <c r="J97" s="22">
+        <v>3967.1258406028919</v>
+      </c>
+      <c r="K97" s="21">
+        <v>6943.6745464850092</v>
+      </c>
+      <c r="L97" s="26">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="M97" s="27">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N97" s="27">
+        <v>70.243455160968878</v>
+      </c>
+      <c r="O97" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27429,7 +27657,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27546,7 +27774,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-85.275022406534561</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -28406,7 +28634,7 @@
         <v>2256.7315129624458</v>
       </c>
       <c r="V12" s="5">
-        <v>6859.3897702593558</v>
+        <v>6735.3146089982411</v>
       </c>
       <c r="W12" s="9">
         <v>0.50389408091143495</v>
@@ -32825,16 +33053,16 @@
         <v>1.211383670768972</v>
       </c>
       <c r="D96" s="21">
-        <v>-358.72510798553304</v>
+        <v>-234.6499467244183</v>
       </c>
       <c r="E96" s="22">
-        <v>-246.54645869753051</v>
+        <v>-161.27143629099595</v>
       </c>
       <c r="F96" s="22">
-        <v>-85.275022406534561</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>-124.07516126111473</v>
+        <v>0</v>
       </c>
       <c r="H96" s="22">
         <v>4478.5830960357953</v>
@@ -32846,7 +33074,7 @@
         <v>2256.7315129624458</v>
       </c>
       <c r="K96" s="21">
-        <v>6859.3897702593558</v>
+        <v>6735.3146089982411</v>
       </c>
       <c r="L96" s="26">
         <v>81.028370330837475</v>
@@ -32861,6 +33089,56 @@
         <v>92.001401816041067</v>
       </c>
       <c r="P96" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I97" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J97" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K97" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L97" s="26">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="M97" s="27">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="N97" s="27">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="O97" s="27">
+        <v>89.276339607984056</v>
+      </c>
+      <c r="P97" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -32882,7 +33160,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37526,6 +37804,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="97" spans="1:13" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="20">
+        <v>1310843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1865309.5692843222</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K97" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L97" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M97" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -37544,7 +37863,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37647,7 +37966,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-39.877507297318026</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -38381,7 +38700,7 @@
         <v>461.2250703448251</v>
       </c>
       <c r="T12" s="5">
-        <v>1301.9253136719271</v>
+        <v>1243.9035388429725</v>
       </c>
       <c r="U12" s="9">
         <v>0.58929060771258057</v>
@@ -41591,16 +41910,16 @@
         <v>1.211383670768972</v>
       </c>
       <c r="D96" s="21">
-        <v>-91.990852005527572</v>
+        <v>-33.969077176572895</v>
       </c>
       <c r="E96" s="22">
-        <v>-63.223951403608204</v>
+        <v>-23.346444106290178</v>
       </c>
       <c r="F96" s="22">
-        <v>-39.877507297318026</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>-58.021774828954683</v>
+        <v>0</v>
       </c>
       <c r="H96" s="22">
         <v>782.67846849814737</v>
@@ -41612,7 +41931,42 @@
         <v>461.2250703448251</v>
       </c>
       <c r="K96" s="21">
-        <v>1301.9253136719271</v>
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J97" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1243.9035388429725</v>
       </c>
     </row>
   </sheetData>
@@ -41631,7 +41985,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46826,6 +47180,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="97" spans="1:15" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="21">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-16.785179039891826</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-11.608007795551357</v>
+      </c>
+      <c r="F97" s="22">
+        <v>118.68012099253063</v>
+      </c>
+      <c r="G97" s="22">
+        <v>171.61145257837345</v>
+      </c>
+      <c r="H97" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1925.8432060912214</v>
+      </c>
+      <c r="J97" s="22">
+        <v>843.86712793145603</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1754.2317535128479</v>
+      </c>
+      <c r="L97" s="26">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="M97" s="27">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N97" s="27">
+        <v>70.243455160968878</v>
+      </c>
+      <c r="O97" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -46844,7 +47245,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52278,6 +52679,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="97" spans="1:16" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J97" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L97" s="26">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="M97" s="27">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="N97" s="27">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="O97" s="27">
+        <v>89.276339607984056</v>
+      </c>
+      <c r="P97" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -52296,7 +52747,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56940,6 +57391,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="97" spans="1:13" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="20">
+        <v>1310843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1865309.5692843222</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K97" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L97" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M97" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1124,6 +1124,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,7 +1136,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1414,6 +1417,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1457,7 +1463,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1739,6 +1745,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1757,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2029,6 +2038,9 @@
                   <c:v>7246.9141326409463</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2072,7 +2084,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2354,6 +2366,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,7 +2378,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2644,6 +2659,9 @@
                   <c:v>2353.1601093046729</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2666,11 +2684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467961728"/>
-        <c:axId val="467963264"/>
+        <c:axId val="614941440"/>
+        <c:axId val="616153472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467961728"/>
+        <c:axId val="614941440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,14 +2731,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467963264"/>
+        <c:crossAx val="616153472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467963264"/>
+        <c:axId val="616153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467961728"/>
+        <c:crossAx val="614941440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,7 +2972,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3236,6 +3254,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,7 +3266,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3526,6 +3547,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3569,7 +3593,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3851,6 +3875,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,7 +3887,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4142,6 +4169,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>10019.718290678538</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10391.992068482998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,7 +4214,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4466,6 +4496,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4475,7 +4508,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4757,6 +4790,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>3967.1258406028919</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4339.3996184073512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4778,11 +4814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467985920"/>
-        <c:axId val="467987456"/>
+        <c:axId val="426089472"/>
+        <c:axId val="426111744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467985920"/>
+        <c:axId val="426089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,14 +4861,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467987456"/>
+        <c:crossAx val="426111744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467987456"/>
+        <c:axId val="426111744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +4917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467985920"/>
+        <c:crossAx val="426089472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5066,7 +5102,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5348,6 +5384,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5357,7 +5396,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5638,6 +5677,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5681,7 +5723,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5963,6 +6005,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,7 +6017,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6253,6 +6298,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6296,7 +6344,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6578,6 +6626,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6587,7 +6638,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6868,6 +6919,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -6890,11 +6944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471098496"/>
-        <c:axId val="471100032"/>
+        <c:axId val="436890240"/>
+        <c:axId val="436904320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471098496"/>
+        <c:axId val="436890240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,14 +6991,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471100032"/>
+        <c:crossAx val="436904320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471100032"/>
+        <c:axId val="436904320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6993,7 +7047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471098496"/>
+        <c:crossAx val="436890240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7178,7 +7232,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7460,6 +7514,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7469,7 +7526,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7750,6 +7807,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7793,7 +7853,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8075,6 +8135,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8084,7 +8147,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8365,6 +8428,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8408,7 +8474,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8690,6 +8756,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8699,7 +8768,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8980,6 +9049,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9002,11 +9074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477520640"/>
-        <c:axId val="477522176"/>
+        <c:axId val="451754240"/>
+        <c:axId val="451764224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477520640"/>
+        <c:axId val="451754240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,14 +9121,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477522176"/>
+        <c:crossAx val="451764224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477522176"/>
+        <c:axId val="451764224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9105,7 +9177,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477520640"/>
+        <c:crossAx val="451754240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9290,7 +9362,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9572,6 +9644,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9581,7 +9656,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9862,6 +9937,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9905,7 +9983,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10187,6 +10265,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10196,7 +10277,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10477,6 +10558,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10520,7 +10604,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10802,6 +10886,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10811,7 +10898,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11092,6 +11179,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11114,11 +11204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510894464"/>
-        <c:axId val="510896000"/>
+        <c:axId val="452597632"/>
+        <c:axId val="452599168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510894464"/>
+        <c:axId val="452597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11161,14 +11251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510896000"/>
+        <c:crossAx val="452599168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510896000"/>
+        <c:axId val="452599168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11217,7 +11307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510894464"/>
+        <c:crossAx val="452597632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11402,7 +11492,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11684,6 +11774,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11693,7 +11786,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11974,6 +12067,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12017,7 +12113,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12299,6 +12395,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12308,7 +12407,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12590,6 +12689,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1925.8432060912214</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1946.612235753578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12632,7 +12734,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12914,6 +13016,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12923,7 +13028,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13205,6 +13310,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>843.86712793145603</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>864.63615759381264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13226,11 +13334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530796544"/>
-        <c:axId val="530798080"/>
+        <c:axId val="452687360"/>
+        <c:axId val="452688896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530796544"/>
+        <c:axId val="452687360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13273,14 +13381,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530798080"/>
+        <c:crossAx val="452688896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530798080"/>
+        <c:axId val="452688896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13329,7 +13437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530796544"/>
+        <c:crossAx val="452687360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13514,7 +13622,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13796,6 +13904,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13805,7 +13916,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14086,6 +14197,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14129,7 +14243,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14411,6 +14525,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14420,7 +14537,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14701,6 +14818,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14744,7 +14864,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15026,6 +15146,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15035,7 +15158,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15316,6 +15439,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15338,11 +15464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530894208"/>
-        <c:axId val="530900096"/>
+        <c:axId val="463287424"/>
+        <c:axId val="463288960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530894208"/>
+        <c:axId val="463287424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15385,14 +15511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530900096"/>
+        <c:crossAx val="463288960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530900096"/>
+        <c:axId val="463288960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15441,7 +15567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530894208"/>
+        <c:crossAx val="463287424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15626,7 +15752,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15908,6 +16034,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15917,7 +16046,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16198,6 +16327,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16241,7 +16373,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16523,6 +16655,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16532,7 +16667,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16813,6 +16948,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16856,7 +16994,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17138,6 +17276,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17147,7 +17288,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17428,6 +17569,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17450,11 +17594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530963456"/>
-        <c:axId val="531895040"/>
+        <c:axId val="463393536"/>
+        <c:axId val="463395072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530963456"/>
+        <c:axId val="463393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17497,14 +17641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531895040"/>
+        <c:crossAx val="463395072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531895040"/>
+        <c:axId val="463395072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17553,7 +17697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530963456"/>
+        <c:crossAx val="463393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17661,7 +17805,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17704,7 +17848,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17747,7 +17891,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17790,7 +17934,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17833,7 +17977,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17876,7 +18020,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17919,7 +18063,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17962,7 +18106,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18275,10 +18419,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -18378,7 +18522,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-168.41438821437734</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -22357,16 +22501,16 @@
         <v>1.2133076104409599</v>
       </c>
       <c r="D97" s="21">
-        <v>-360.6731727744131</v>
+        <v>-117.14597078928546</v>
       </c>
       <c r="E97" s="22">
-        <v>-249.42820039401917</v>
+        <v>-81.013812179641832</v>
       </c>
       <c r="F97" s="22">
-        <v>-168.41438821437734</v>
+        <v>0</v>
       </c>
       <c r="G97" s="22">
-        <v>-243.52720198512762</v>
+        <v>0</v>
       </c>
       <c r="H97" s="22">
         <v>4893.7540233362733</v>
@@ -22378,7 +22522,42 @@
         <v>2352.4309798958438</v>
       </c>
       <c r="K97" s="21">
-        <v>7489.7122052172444</v>
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I98" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J98" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K98" s="21">
+        <v>7246.1850032321172</v>
       </c>
     </row>
   </sheetData>
@@ -22397,7 +22576,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27639,6 +27818,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="98" spans="1:15" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>-125.16762874812233</v>
+      </c>
+      <c r="E98" s="22">
+        <v>-77.216301524741112</v>
+      </c>
+      <c r="F98" s="22">
+        <v>2050.0615593306288</v>
+      </c>
+      <c r="G98" s="22">
+        <v>3323.1498932498662</v>
+      </c>
+      <c r="H98" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I98" s="22">
+        <v>10391.992068482998</v>
+      </c>
+      <c r="J98" s="22">
+        <v>4339.3996184073512</v>
+      </c>
+      <c r="K98" s="21">
+        <v>7068.8421752331315</v>
+      </c>
+      <c r="L98" s="26">
+        <v>6.616159537368943E-2</v>
+      </c>
+      <c r="M98" s="27">
+        <v>8.1833388534190366E-2</v>
+      </c>
+      <c r="N98" s="27">
+        <v>80.849145512344037</v>
+      </c>
+      <c r="O98" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27657,7 +27883,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33142,6 +33368,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="98" spans="1:16" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I98" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J98" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K98" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L98" s="26">
+        <v>82.298553614891929</v>
+      </c>
+      <c r="M98" s="27">
+        <v>78.923393993989535</v>
+      </c>
+      <c r="N98" s="27">
+        <v>73.784832312206845</v>
+      </c>
+      <c r="O98" s="27">
+        <v>89.200517357554929</v>
+      </c>
+      <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -33160,7 +33436,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37845,6 +38121,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="98" spans="1:13" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="20">
+        <v>1486519</v>
+      </c>
+      <c r="E98" s="20">
+        <v>1865881.4132321663</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K98" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L98" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M98" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -37863,7 +38180,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41969,6 +42286,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I98" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J98" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -41985,7 +42337,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47227,6 +47579,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="98" spans="1:15" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="21">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>-50.538500923960576</v>
+      </c>
+      <c r="E98" s="22">
+        <v>-31.177359234038281</v>
+      </c>
+      <c r="F98" s="22">
+        <v>87.502761758492355</v>
+      </c>
+      <c r="G98" s="22">
+        <v>141.84198131676948</v>
+      </c>
+      <c r="H98" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I98" s="22">
+        <v>1946.612235753578</v>
+      </c>
+      <c r="J98" s="22">
+        <v>864.63615759381264</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1804.7702544368085</v>
+      </c>
+      <c r="L98" s="26">
+        <v>6.616159537368943E-2</v>
+      </c>
+      <c r="M98" s="27">
+        <v>8.1833388534190366E-2</v>
+      </c>
+      <c r="N98" s="27">
+        <v>80.849145512344037</v>
+      </c>
+      <c r="O98" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -47245,7 +47644,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52729,6 +53128,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="98" spans="1:16" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I98" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J98" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L98" s="26">
+        <v>82.298553614891929</v>
+      </c>
+      <c r="M98" s="27">
+        <v>78.923393993989535</v>
+      </c>
+      <c r="N98" s="27">
+        <v>73.784832312206845</v>
+      </c>
+      <c r="O98" s="27">
+        <v>89.200517357554929</v>
+      </c>
+      <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -52747,7 +53196,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -57432,6 +57881,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="98" spans="1:13" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="20">
+        <v>1486519</v>
+      </c>
+      <c r="E98" s="20">
+        <v>1865881.4132321663</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K98" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L98" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M98" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1127,6 +1127,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,7 +1139,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1420,6 +1423,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1463,7 +1469,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1748,6 +1754,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,7 +1766,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2041,6 +2050,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2084,7 +2096,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2369,6 +2381,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,7 +2393,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2662,6 +2677,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2684,11 +2702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614941440"/>
-        <c:axId val="616153472"/>
+        <c:axId val="446903040"/>
+        <c:axId val="446904576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614941440"/>
+        <c:axId val="446903040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,14 +2749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616153472"/>
+        <c:crossAx val="446904576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616153472"/>
+        <c:axId val="446904576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2805,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614941440"/>
+        <c:crossAx val="446903040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2972,7 +2990,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3257,6 +3275,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,7 +3287,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3550,6 +3571,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3593,7 +3617,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3878,6 +3902,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3887,7 +3914,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4172,6 +4199,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>10391.992068482998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10195.186004335064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4244,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4499,6 +4529,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4508,7 +4541,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4793,6 +4826,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>4339.3996184073512</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4142.5935542594179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,11 +4850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426089472"/>
-        <c:axId val="426111744"/>
+        <c:axId val="453673344"/>
+        <c:axId val="453674880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426089472"/>
+        <c:axId val="453673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4861,14 +4897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426111744"/>
+        <c:crossAx val="453674880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426111744"/>
+        <c:axId val="453674880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4917,7 +4953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426089472"/>
+        <c:crossAx val="453673344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5102,7 +5138,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5387,6 +5423,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5396,7 +5435,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5680,6 +5719,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5723,7 +5765,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6008,6 +6050,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6017,7 +6062,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6301,6 +6346,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6344,7 +6392,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6629,6 +6677,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6638,7 +6689,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6922,6 +6973,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -6944,11 +6998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436890240"/>
-        <c:axId val="436904320"/>
+        <c:axId val="474693632"/>
+        <c:axId val="474695168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436890240"/>
+        <c:axId val="474693632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6991,14 +7045,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436904320"/>
+        <c:crossAx val="474695168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436904320"/>
+        <c:axId val="474695168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7047,7 +7101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436890240"/>
+        <c:crossAx val="474693632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7232,7 +7286,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7517,6 +7571,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7526,7 +7583,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7810,6 +7867,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7853,7 +7913,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8138,6 +8198,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8147,7 +8210,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8431,6 +8494,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8474,7 +8540,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8759,6 +8825,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8768,7 +8837,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9052,6 +9121,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9074,11 +9146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451754240"/>
-        <c:axId val="451764224"/>
+        <c:axId val="482446720"/>
+        <c:axId val="482460800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451754240"/>
+        <c:axId val="482446720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9121,14 +9193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451764224"/>
+        <c:crossAx val="482460800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451764224"/>
+        <c:axId val="482460800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9177,7 +9249,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451754240"/>
+        <c:crossAx val="482446720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9362,7 +9434,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9647,6 +9719,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9656,7 +9731,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9940,6 +10015,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -9983,7 +10061,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10268,6 +10346,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10277,7 +10358,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10561,6 +10642,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10604,7 +10688,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10889,6 +10973,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10898,7 +10985,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11182,6 +11269,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11204,11 +11294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452597632"/>
-        <c:axId val="452599168"/>
+        <c:axId val="512965632"/>
+        <c:axId val="512971520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452597632"/>
+        <c:axId val="512965632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11251,14 +11341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452599168"/>
+        <c:crossAx val="512971520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452599168"/>
+        <c:axId val="512971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11307,7 +11397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452597632"/>
+        <c:crossAx val="512965632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11492,7 +11582,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11777,6 +11867,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11786,7 +11879,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12070,6 +12163,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12113,7 +12209,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12398,6 +12494,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12407,7 +12506,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12692,6 +12791,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1946.612235753578</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12734,7 +12836,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13019,6 +13121,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13028,7 +13133,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13313,6 +13418,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>864.63615759381264</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13334,11 +13442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452687360"/>
-        <c:axId val="452688896"/>
+        <c:axId val="513051264"/>
+        <c:axId val="513081728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452687360"/>
+        <c:axId val="513051264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13381,14 +13489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452688896"/>
+        <c:crossAx val="513081728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452688896"/>
+        <c:axId val="513081728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13437,7 +13545,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452687360"/>
+        <c:crossAx val="513051264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13622,7 +13730,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13907,6 +14015,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13916,7 +14027,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14200,6 +14311,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14243,7 +14357,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14528,6 +14642,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14537,7 +14654,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14821,6 +14938,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14864,7 +14984,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15149,6 +15269,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15158,7 +15281,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15442,6 +15565,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15464,11 +15590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463287424"/>
-        <c:axId val="463288960"/>
+        <c:axId val="513132800"/>
+        <c:axId val="513146880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463287424"/>
+        <c:axId val="513132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15511,14 +15637,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463288960"/>
+        <c:crossAx val="513146880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463288960"/>
+        <c:axId val="513146880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15567,7 +15693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463287424"/>
+        <c:crossAx val="513132800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15752,7 +15878,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16037,6 +16163,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16046,7 +16175,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16330,6 +16459,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16373,7 +16505,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16658,6 +16790,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16667,7 +16802,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16951,6 +17086,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -16994,7 +17132,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17279,6 +17417,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17288,7 +17429,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17572,6 +17713,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17594,11 +17738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463393536"/>
-        <c:axId val="463395072"/>
+        <c:axId val="523257728"/>
+        <c:axId val="523259264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463393536"/>
+        <c:axId val="523257728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17641,14 +17785,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463395072"/>
+        <c:crossAx val="523259264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463395072"/>
+        <c:axId val="523259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17697,7 +17841,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463393536"/>
+        <c:crossAx val="523257728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17805,7 +17949,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17848,7 +17992,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17891,7 +18035,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17934,7 +18078,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17977,7 +18121,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18020,7 +18164,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18063,7 +18207,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18106,7 +18250,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18419,10 +18563,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -22560,6 +22704,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I99" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J99" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K99" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22576,7 +22755,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27865,6 +28044,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="99" spans="1:15" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>-470.32422616526213</v>
+      </c>
+      <c r="E99" s="22">
+        <v>-308.40933345463191</v>
+      </c>
+      <c r="F99" s="22">
+        <v>1741.6522258759969</v>
+      </c>
+      <c r="G99" s="22">
+        <v>2656.0196029366703</v>
+      </c>
+      <c r="H99" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I99" s="22">
+        <v>10195.186004335064</v>
+      </c>
+      <c r="J99" s="22">
+        <v>4142.5935542594179</v>
+      </c>
+      <c r="K99" s="21">
+        <v>7539.1664013983936</v>
+      </c>
+      <c r="L99" s="26">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="M99" s="27">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N99" s="27">
+        <v>65.484872343961669</v>
+      </c>
+      <c r="O99" s="27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27883,7 +28109,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33418,6 +33644,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="99" spans="1:16" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I99" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J99" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K99" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L99" s="26">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="M99" s="27">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="N99" s="27">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="O99" s="27">
+        <v>78.53642932368183</v>
+      </c>
+      <c r="P99" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -33436,7 +33712,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38162,6 +38438,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="99" spans="1:13" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="20">
+        <v>1048890</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1854302.9814498641</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K99" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L99" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M99" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -38180,7 +38497,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42321,6 +42638,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J99" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -42336,8 +42688,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH98"/>
+  <sheetPr codeName="Sheet6">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42451,7 +42805,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-6.0794195958263657</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -47624,6 +47978,53 @@
       </c>
       <c r="O98" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="21">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>-142.71282433416297</v>
+      </c>
+      <c r="E99" s="22">
+        <v>-93.58218135431872</v>
+      </c>
+      <c r="F99" s="22">
+        <v>-6.0794195958263657</v>
+      </c>
+      <c r="G99" s="22">
+        <v>-9.2711147386905495</v>
+      </c>
+      <c r="H99" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J99" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1947.4830787709716</v>
+      </c>
+      <c r="L99" s="26">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="M99" s="27">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N99" s="27">
+        <v>65.484872343961669</v>
+      </c>
+      <c r="O99" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -47644,7 +48045,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53178,6 +53579,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="99" spans="1:16" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J99" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L99" s="26">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="M99" s="27">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="N99" s="27">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="O99" s="27">
+        <v>78.53642932368183</v>
+      </c>
+      <c r="P99" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -53196,7 +53647,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -57922,6 +58373,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="99" spans="1:13" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="20">
+        <v>1048890</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1854302.9814498641</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K99" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L99" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M99" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1130,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1142,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1426,6 +1429,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1469,7 +1475,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1757,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,7 +1775,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2053,6 +2062,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2096,7 +2108,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2384,6 +2396,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2408,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2680,6 +2695,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2702,11 +2720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446903040"/>
-        <c:axId val="446904576"/>
+        <c:axId val="454270976"/>
+        <c:axId val="454272512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446903040"/>
+        <c:axId val="454270976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,14 +2767,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446904576"/>
+        <c:crossAx val="454272512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446904576"/>
+        <c:axId val="454272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +2823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446903040"/>
+        <c:crossAx val="454270976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2990,7 +3008,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3278,6 +3296,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,7 +3308,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3574,6 +3595,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3617,7 +3641,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3905,6 +3929,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3941,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4202,6 +4229,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>10195.186004335064</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10085.461977221697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4274,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4532,6 +4562,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,7 +4574,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4829,6 +4862,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>4142.5935542594179</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4032.869527146051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4850,11 +4886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453673344"/>
-        <c:axId val="453674880"/>
+        <c:axId val="467743872"/>
+        <c:axId val="467745408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453673344"/>
+        <c:axId val="467743872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,14 +4933,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453674880"/>
+        <c:crossAx val="467745408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453674880"/>
+        <c:axId val="467745408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4953,7 +4989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453673344"/>
+        <c:crossAx val="467743872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5138,7 +5174,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5426,6 +5462,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5435,7 +5474,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5722,6 +5761,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5765,7 +5807,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6053,6 +6095,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,7 +6107,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6349,6 +6394,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6392,7 +6440,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6680,6 +6728,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6689,7 +6740,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6976,6 +7027,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -6998,11 +7052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474693632"/>
-        <c:axId val="474695168"/>
+        <c:axId val="467794176"/>
+        <c:axId val="468320256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474693632"/>
+        <c:axId val="467794176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7045,14 +7099,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474695168"/>
+        <c:crossAx val="468320256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474695168"/>
+        <c:axId val="468320256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7101,7 +7155,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474693632"/>
+        <c:crossAx val="467794176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7286,7 +7340,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7574,6 +7628,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7640,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7870,6 +7927,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7913,7 +7973,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8201,6 +8261,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8210,7 +8273,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8497,6 +8560,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8540,7 +8606,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8828,6 +8894,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8837,7 +8906,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9124,6 +9193,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9146,11 +9218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482446720"/>
-        <c:axId val="482460800"/>
+        <c:axId val="468364672"/>
+        <c:axId val="468370560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482446720"/>
+        <c:axId val="468364672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9193,14 +9265,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482460800"/>
+        <c:crossAx val="468370560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482460800"/>
+        <c:axId val="468370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9249,7 +9321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482446720"/>
+        <c:crossAx val="468364672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9434,7 +9506,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9722,6 +9794,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9731,7 +9806,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10018,6 +10093,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10061,7 +10139,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10349,6 +10427,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10358,7 +10439,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10645,6 +10726,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10688,7 +10772,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10976,6 +11060,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10985,7 +11072,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11272,6 +11359,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11294,11 +11384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512965632"/>
-        <c:axId val="512971520"/>
+        <c:axId val="469070592"/>
+        <c:axId val="469072128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512965632"/>
+        <c:axId val="469070592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11341,14 +11431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512971520"/>
+        <c:crossAx val="469072128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512971520"/>
+        <c:axId val="469072128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11397,7 +11487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512965632"/>
+        <c:crossAx val="469070592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11582,7 +11672,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11870,6 +11960,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11879,7 +11972,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12166,6 +12259,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12209,7 +12305,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12497,6 +12593,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12506,7 +12605,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12793,6 +12892,9 @@
                   <c:v>1946.612235753578</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -12836,7 +12938,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13124,6 +13226,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13133,7 +13238,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13420,6 +13525,9 @@
                   <c:v>864.63615759381264</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13442,11 +13550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513051264"/>
-        <c:axId val="513081728"/>
+        <c:axId val="469854080"/>
+        <c:axId val="469855616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513051264"/>
+        <c:axId val="469854080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13489,14 +13597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513081728"/>
+        <c:crossAx val="469855616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513081728"/>
+        <c:axId val="469855616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13545,7 +13653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513051264"/>
+        <c:crossAx val="469854080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13730,7 +13838,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14018,6 +14126,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14027,7 +14138,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14314,6 +14425,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14357,7 +14471,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14645,6 +14759,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14654,7 +14771,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14941,6 +15058,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -14984,7 +15104,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15272,6 +15392,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15281,7 +15404,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15568,6 +15691,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15590,11 +15716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513132800"/>
-        <c:axId val="513146880"/>
+        <c:axId val="474401792"/>
+        <c:axId val="474419968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513132800"/>
+        <c:axId val="474401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15637,14 +15763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513146880"/>
+        <c:crossAx val="474419968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513146880"/>
+        <c:axId val="474419968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15693,7 +15819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513132800"/>
+        <c:crossAx val="474401792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15878,7 +16004,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16166,6 +16292,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16175,7 +16304,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16462,6 +16591,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16505,7 +16637,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16793,6 +16925,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16802,7 +16937,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17089,6 +17224,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17132,7 +17270,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17420,6 +17558,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17429,7 +17570,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17716,6 +17857,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17738,11 +17882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523257728"/>
-        <c:axId val="523259264"/>
+        <c:axId val="474472832"/>
+        <c:axId val="474474368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523257728"/>
+        <c:axId val="474472832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17785,14 +17929,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523259264"/>
+        <c:crossAx val="474474368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523259264"/>
+        <c:axId val="474474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17841,7 +17985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523257728"/>
+        <c:crossAx val="474472832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18563,7 +18707,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22739,6 +22883,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I100" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J100" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K100" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22755,7 +22934,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28091,6 +28270,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="100" spans="1:15" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>-73.846228429154749</v>
+      </c>
+      <c r="E100" s="22">
+        <v>-50.510415733884017</v>
+      </c>
+      <c r="F100" s="22">
+        <v>1691.1418101421129</v>
+      </c>
+      <c r="G100" s="22">
+        <v>2472.4493473941498</v>
+      </c>
+      <c r="H100" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I100" s="22">
+        <v>10085.461977221697</v>
+      </c>
+      <c r="J100" s="22">
+        <v>4032.869527146051</v>
+      </c>
+      <c r="K100" s="21">
+        <v>7613.0126298275482</v>
+      </c>
+      <c r="L100" s="26">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="M100" s="27">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N100" s="27">
+        <v>56.960535185349521</v>
+      </c>
+      <c r="O100" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -28109,7 +28335,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33694,6 +33920,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="100" spans="1:16" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I100" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J100" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K100" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L100" s="26">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="M100" s="27">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="N100" s="27">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="O100" s="27">
+        <v>66.332860439304199</v>
+      </c>
+      <c r="P100" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -33712,7 +33988,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38479,6 +38755,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="100" spans="1:13" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="20">
+        <v>739608</v>
+      </c>
+      <c r="E100" s="20">
+        <v>1841298.9452924884</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K100" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L100" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M100" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -38497,7 +38814,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42673,6 +42990,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J100" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -42691,7 +43043,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42805,7 +43157,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-6.0794195958263657</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -47991,16 +48343,16 @@
         <v>1.2215649915353923</v>
       </c>
       <c r="D99" s="21">
-        <v>-142.71282433416297</v>
+        <v>-133.44170959547242</v>
       </c>
       <c r="E99" s="22">
-        <v>-93.58218135431872</v>
+        <v>-87.502761758492355</v>
       </c>
       <c r="F99" s="22">
-        <v>-6.0794195958263657</v>
+        <v>0</v>
       </c>
       <c r="G99" s="22">
-        <v>-9.2711147386905495</v>
+        <v>0</v>
       </c>
       <c r="H99" s="22">
         <v>1081.9760781597654</v>
@@ -48012,7 +48364,7 @@
         <v>856.23588587251561</v>
       </c>
       <c r="K99" s="21">
-        <v>1947.4830787709716</v>
+        <v>1938.211964032281</v>
       </c>
       <c r="L99" s="26">
         <v>5.5134662811407859E-2</v>
@@ -48025,6 +48377,53 @@
       </c>
       <c r="O99" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="21">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J100" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L100" s="26">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="M100" s="27">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N100" s="27">
+        <v>56.960535185349521</v>
+      </c>
+      <c r="O100" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -48045,7 +48444,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53629,6 +54028,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="100" spans="1:16" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J100" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L100" s="26">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="M100" s="27">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="N100" s="27">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="O100" s="27">
+        <v>66.332860439304199</v>
+      </c>
+      <c r="P100" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -53647,7 +54096,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -58414,6 +58863,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="100" spans="1:13" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="20">
+        <v>739608</v>
+      </c>
+      <c r="E100" s="20">
+        <v>1841298.9452924884</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K100" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L100" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M100" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1133,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1145,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1432,6 +1435,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1475,7 +1481,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1766,6 +1772,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,7 +1784,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2065,6 +2074,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2108,7 +2120,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2399,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,7 +2423,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2698,6 +2713,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2720,11 +2738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454270976"/>
-        <c:axId val="454272512"/>
+        <c:axId val="593354752"/>
+        <c:axId val="593356288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454270976"/>
+        <c:axId val="593354752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,14 +2785,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454272512"/>
+        <c:crossAx val="593356288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454272512"/>
+        <c:axId val="593356288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2841,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454270976"/>
+        <c:crossAx val="593354752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3008,7 +3026,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3299,6 +3317,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3329,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3598,6 +3619,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3641,7 +3665,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3932,6 +3956,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,7 +3968,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4232,6 +4259,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>10085.461977221697</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10041.49225145084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4274,7 +4304,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4565,6 +4595,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,7 +4607,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4865,6 +4898,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>4032.869527146051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3988.8998013751934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4886,11 +4922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467743872"/>
-        <c:axId val="467745408"/>
+        <c:axId val="593716352"/>
+        <c:axId val="593717888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467743872"/>
+        <c:axId val="593716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,14 +4969,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467745408"/>
+        <c:crossAx val="593717888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467745408"/>
+        <c:axId val="593717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4989,7 +5025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467743872"/>
+        <c:crossAx val="593716352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5174,7 +5210,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5465,6 +5501,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,7 +5513,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5764,6 +5803,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5807,7 +5849,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6098,6 +6140,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6107,7 +6152,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6397,6 +6442,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6440,7 +6488,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6731,6 +6779,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6740,7 +6791,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7030,6 +7081,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7052,11 +7106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467794176"/>
-        <c:axId val="468320256"/>
+        <c:axId val="594573568"/>
+        <c:axId val="594579456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467794176"/>
+        <c:axId val="594573568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7099,14 +7153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468320256"/>
+        <c:crossAx val="594579456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468320256"/>
+        <c:axId val="594579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,7 +7209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467794176"/>
+        <c:crossAx val="594573568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7340,7 +7394,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7631,6 +7685,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7640,7 +7697,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7930,6 +7987,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -7973,7 +8033,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8264,6 +8324,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8273,7 +8336,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8563,6 +8626,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8606,7 +8672,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8897,6 +8963,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8906,7 +8975,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9196,6 +9265,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9218,11 +9290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468364672"/>
-        <c:axId val="468370560"/>
+        <c:axId val="594627968"/>
+        <c:axId val="594646144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468364672"/>
+        <c:axId val="594627968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9265,14 +9337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468370560"/>
+        <c:crossAx val="594646144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468370560"/>
+        <c:axId val="594646144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9321,7 +9393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468364672"/>
+        <c:crossAx val="594627968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9506,7 +9578,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9797,6 +9869,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9806,7 +9881,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10096,6 +10171,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10139,7 +10217,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10430,6 +10508,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10439,7 +10520,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10729,6 +10810,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10772,7 +10856,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11063,6 +11147,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11072,7 +11159,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11362,6 +11449,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11384,11 +11474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469070592"/>
-        <c:axId val="469072128"/>
+        <c:axId val="598307584"/>
+        <c:axId val="598309120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469070592"/>
+        <c:axId val="598307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11431,14 +11521,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469072128"/>
+        <c:crossAx val="598309120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469072128"/>
+        <c:axId val="598309120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11487,7 +11577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469070592"/>
+        <c:crossAx val="598307584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11672,7 +11762,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11963,6 +12053,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11972,7 +12065,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12262,6 +12355,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12305,7 +12401,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12596,6 +12692,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12605,7 +12704,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12895,6 +12994,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -12938,7 +13040,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13229,6 +13331,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13238,7 +13343,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13528,6 +13633,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13550,11 +13658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469854080"/>
-        <c:axId val="469855616"/>
+        <c:axId val="598366080"/>
+        <c:axId val="598367616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469854080"/>
+        <c:axId val="598366080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13597,14 +13705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469855616"/>
+        <c:crossAx val="598367616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469855616"/>
+        <c:axId val="598367616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13653,7 +13761,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469854080"/>
+        <c:crossAx val="598366080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13838,7 +13946,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14129,6 +14237,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14138,7 +14249,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14428,6 +14539,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14471,7 +14585,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14762,6 +14876,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14771,7 +14888,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15061,6 +15178,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15104,7 +15224,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15395,6 +15515,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15404,7 +15527,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15694,6 +15817,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15716,11 +15842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474401792"/>
-        <c:axId val="474419968"/>
+        <c:axId val="598473728"/>
+        <c:axId val="598475520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474401792"/>
+        <c:axId val="598473728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15763,14 +15889,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474419968"/>
+        <c:crossAx val="598475520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474419968"/>
+        <c:axId val="598475520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15819,7 +15945,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474401792"/>
+        <c:crossAx val="598473728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16004,7 +16130,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16295,6 +16421,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16304,7 +16433,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16594,6 +16723,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16637,7 +16769,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16928,6 +17060,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16937,7 +17072,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17227,6 +17362,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17270,7 +17408,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17561,6 +17699,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17570,7 +17711,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17860,6 +18001,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -17882,11 +18026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474472832"/>
-        <c:axId val="474474368"/>
+        <c:axId val="598507904"/>
+        <c:axId val="598509440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474472832"/>
+        <c:axId val="598507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17929,14 +18073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474474368"/>
+        <c:crossAx val="598509440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474474368"/>
+        <c:axId val="598509440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17985,7 +18129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474472832"/>
+        <c:crossAx val="598507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18707,7 +18851,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22918,6 +23062,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I101" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J101" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K101" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22934,7 +23113,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28317,6 +28496,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="101" spans="1:15" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>-65.041016750797738</v>
+      </c>
+      <c r="E101" s="22">
+        <v>-45.293187483246648</v>
+      </c>
+      <c r="F101" s="22">
+        <v>1645.8486226588664</v>
+      </c>
+      <c r="G101" s="22">
+        <v>2363.4386048724928</v>
+      </c>
+      <c r="H101" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I101" s="22">
+        <v>10041.49225145084</v>
+      </c>
+      <c r="J101" s="22">
+        <v>3988.8998013751934</v>
+      </c>
+      <c r="K101" s="21">
+        <v>7678.0536465783462</v>
+      </c>
+      <c r="L101" s="26">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="M101" s="27">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N101" s="27">
+        <v>53.51087465273141</v>
+      </c>
+      <c r="O101" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -28335,7 +28561,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33970,6 +34196,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="101" spans="1:16" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I101" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J101" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K101" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L101" s="26">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="M101" s="27">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="N101" s="27">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="O101" s="27">
+        <v>57.67787758968268</v>
+      </c>
+      <c r="P101" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -33988,7 +34264,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38796,6 +39072,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="101" spans="1:13" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="20">
+        <v>179000</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1827974.5769715563</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K101" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L101" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M101" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -38814,7 +39131,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43025,6 +43342,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J101" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43043,7 +43395,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48426,6 +48778,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="101" spans="1:15" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="21">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J101" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L101" s="26">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="M101" s="27">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N101" s="27">
+        <v>53.51087465273141</v>
+      </c>
+      <c r="O101" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -48444,7 +48843,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54078,6 +54477,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="101" spans="1:16" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J101" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L101" s="26">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="M101" s="27">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="N101" s="27">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="O101" s="27">
+        <v>57.67787758968268</v>
+      </c>
+      <c r="P101" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -54096,7 +54545,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -58904,6 +59353,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="101" spans="1:13" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="20">
+        <v>179000</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1827974.5769715563</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K101" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L101" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M101" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="13" r:id="rId1"/>
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1136,6 +1136,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1148,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1438,6 +1441,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1481,7 +1487,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1775,6 +1781,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,7 +1793,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2077,6 +2086,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2120,7 +2132,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2414,6 +2426,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2438,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2716,6 +2731,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2738,11 +2756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593354752"/>
-        <c:axId val="593356288"/>
+        <c:axId val="547110272"/>
+        <c:axId val="551376768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593354752"/>
+        <c:axId val="547110272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,14 +2803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593356288"/>
+        <c:crossAx val="551376768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593356288"/>
+        <c:axId val="551376768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593354752"/>
+        <c:crossAx val="547110272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3026,7 +3044,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3320,6 +3338,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,7 +3350,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3622,6 +3643,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3665,7 +3689,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3959,6 +3983,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,7 +3995,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4262,6 +4289,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>10041.49225145084</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10224.181549020601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,7 +4334,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4598,6 +4628,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4607,7 +4640,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4901,6 +4934,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>3988.8998013751934</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4171.5890989449545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4922,11 +4958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593716352"/>
-        <c:axId val="593717888"/>
+        <c:axId val="448621568"/>
+        <c:axId val="448627456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593716352"/>
+        <c:axId val="448621568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,14 +5005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593717888"/>
+        <c:crossAx val="448627456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593717888"/>
+        <c:axId val="448627456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5061,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593716352"/>
+        <c:crossAx val="448621568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5210,7 +5246,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5504,6 +5540,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,7 +5552,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5806,6 +5845,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5849,7 +5891,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6143,6 +6185,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6152,7 +6197,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6445,6 +6490,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6488,7 +6536,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6782,6 +6830,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6791,7 +6842,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7084,6 +7135,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7106,11 +7160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594573568"/>
-        <c:axId val="594579456"/>
+        <c:axId val="467214720"/>
+        <c:axId val="467216256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594573568"/>
+        <c:axId val="467214720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7153,14 +7207,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594579456"/>
+        <c:crossAx val="467216256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594579456"/>
+        <c:axId val="467216256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7209,7 +7263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594573568"/>
+        <c:crossAx val="467214720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7394,7 +7448,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7688,6 +7742,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7697,7 +7754,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7990,6 +8047,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8033,7 +8093,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8327,6 +8387,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8336,7 +8399,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8629,6 +8692,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8672,7 +8738,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8966,6 +9032,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8975,7 +9044,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9268,6 +9337,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9290,11 +9362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594627968"/>
-        <c:axId val="594646144"/>
+        <c:axId val="467256832"/>
+        <c:axId val="467258368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594627968"/>
+        <c:axId val="467256832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9337,14 +9409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594646144"/>
+        <c:crossAx val="467258368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594646144"/>
+        <c:axId val="467258368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9393,7 +9465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594627968"/>
+        <c:crossAx val="467256832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9578,7 +9650,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9872,6 +9944,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9881,7 +9956,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10174,6 +10249,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10217,7 +10295,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10511,6 +10589,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10520,7 +10601,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10813,6 +10894,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10856,7 +10940,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11150,6 +11234,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11159,7 +11246,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11452,6 +11539,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11474,11 +11564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598307584"/>
-        <c:axId val="598309120"/>
+        <c:axId val="468966016"/>
+        <c:axId val="468971904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598307584"/>
+        <c:axId val="468966016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11521,14 +11611,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598309120"/>
+        <c:crossAx val="468971904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598309120"/>
+        <c:axId val="468971904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11577,7 +11667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598307584"/>
+        <c:crossAx val="468966016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11762,7 +11852,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12056,6 +12146,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12065,7 +12158,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12358,6 +12451,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12401,7 +12497,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12695,6 +12791,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12704,7 +12803,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12997,6 +13096,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13040,7 +13142,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13334,6 +13436,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13343,7 +13448,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13636,6 +13741,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13658,11 +13766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598366080"/>
-        <c:axId val="598367616"/>
+        <c:axId val="469741568"/>
+        <c:axId val="469743104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598366080"/>
+        <c:axId val="469741568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13705,14 +13813,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598367616"/>
+        <c:crossAx val="469743104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598367616"/>
+        <c:axId val="469743104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13761,7 +13869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598366080"/>
+        <c:crossAx val="469741568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13946,7 +14054,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14240,6 +14348,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14249,7 +14360,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14542,6 +14653,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14585,7 +14699,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14879,6 +14993,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14888,7 +15005,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15181,6 +15298,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15224,7 +15344,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15518,6 +15638,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15527,7 +15650,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15820,6 +15943,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15842,11 +15968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598473728"/>
-        <c:axId val="598475520"/>
+        <c:axId val="491844736"/>
+        <c:axId val="491846272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598473728"/>
+        <c:axId val="491844736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15889,14 +16015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598475520"/>
+        <c:crossAx val="491846272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598475520"/>
+        <c:axId val="491846272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15945,7 +16071,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598473728"/>
+        <c:crossAx val="491844736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16130,7 +16256,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16424,6 +16550,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16433,7 +16562,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16726,6 +16855,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16769,7 +16901,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17063,6 +17195,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17072,7 +17207,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17365,6 +17500,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17408,7 +17546,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17702,6 +17840,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17711,7 +17852,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18004,6 +18145,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18026,11 +18170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598507904"/>
-        <c:axId val="598509440"/>
+        <c:axId val="510122240"/>
+        <c:axId val="510128128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598507904"/>
+        <c:axId val="510122240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18073,14 +18217,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598509440"/>
+        <c:crossAx val="510128128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598509440"/>
+        <c:axId val="510128128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18129,7 +18273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598507904"/>
+        <c:crossAx val="510122240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18851,7 +18995,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23097,6 +23241,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I102" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J102" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K102" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23113,7 +23292,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28543,6 +28722,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="102" spans="1:15" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>-98.646344374429589</v>
+      </c>
+      <c r="E102" s="22">
+        <v>-63.766219231663023</v>
+      </c>
+      <c r="F102" s="22">
+        <v>1582.0824034272034</v>
+      </c>
+      <c r="G102" s="22">
+        <v>2447.4815580678255</v>
+      </c>
+      <c r="H102" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I102" s="22">
+        <v>10224.181549020601</v>
+      </c>
+      <c r="J102" s="22">
+        <v>4171.5890989449545</v>
+      </c>
+      <c r="K102" s="21">
+        <v>7776.6999909527758</v>
+      </c>
+      <c r="L102" s="26">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="M102" s="27">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N102" s="27">
+        <v>64.519300193420989</v>
+      </c>
+      <c r="O102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -28561,7 +28787,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34246,6 +34472,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="102" spans="1:16" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I102" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J102" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K102" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L102" s="26">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="M102" s="27">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="N102" s="27">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="O102" s="27">
+        <v>53.201875125729686</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34264,7 +34540,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39113,6 +39389,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="102" spans="1:13" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="20">
+        <v>745111</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1814779.0382777185</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K102" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L102" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M102" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -39131,7 +39448,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43377,6 +43694,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J102" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43395,7 +43747,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48825,6 +49177,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="102" spans="1:15" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="21">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J102" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L102" s="26">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="M102" s="27">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N102" s="27">
+        <v>64.519300193420989</v>
+      </c>
+      <c r="O102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -48843,7 +49242,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54527,6 +54926,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="102" spans="1:16" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J102" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L102" s="26">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="M102" s="27">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="N102" s="27">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="O102" s="27">
+        <v>53.201875125729686</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -54545,7 +54994,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -59394,6 +59843,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="102" spans="1:13" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="20">
+        <v>745111</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1814779.0382777185</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K102" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L102" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M102" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1139,6 +1139,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,7 +1151,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1444,6 +1447,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1487,7 +1493,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1784,6 +1790,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,7 +1802,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2089,6 +2098,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2132,7 +2144,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2429,6 +2441,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,7 +2453,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2734,6 +2749,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2756,11 +2774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547110272"/>
-        <c:axId val="551376768"/>
+        <c:axId val="491352064"/>
+        <c:axId val="491353600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547110272"/>
+        <c:axId val="491352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2803,14 +2821,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551376768"/>
+        <c:crossAx val="491353600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551376768"/>
+        <c:axId val="491353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2877,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547110272"/>
+        <c:crossAx val="491352064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3044,7 +3062,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3341,6 +3359,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,7 +3371,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3646,6 +3667,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3689,7 +3713,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3986,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,7 +4022,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4292,6 +4319,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>10224.181549020601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10459.911715480695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4334,7 +4364,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4631,6 +4661,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,7 +4673,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4937,6 +4970,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>4171.5890989449545</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4407.319265405049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,11 +4994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448621568"/>
-        <c:axId val="448627456"/>
+        <c:axId val="491373696"/>
+        <c:axId val="491375232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448621568"/>
+        <c:axId val="491373696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,14 +5041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448627456"/>
+        <c:crossAx val="491375232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448627456"/>
+        <c:axId val="491375232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5061,7 +5097,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448621568"/>
+        <c:crossAx val="491373696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5246,7 +5282,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5543,6 +5579,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5552,7 +5591,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5848,6 +5887,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5891,7 +5933,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6188,6 +6230,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,7 +6242,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6493,6 +6538,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6536,7 +6584,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6833,6 +6881,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6842,7 +6893,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7138,6 +7189,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7160,11 +7214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467214720"/>
-        <c:axId val="467216256"/>
+        <c:axId val="504236288"/>
+        <c:axId val="504258560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467214720"/>
+        <c:axId val="504236288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,14 +7261,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467216256"/>
+        <c:crossAx val="504258560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467216256"/>
+        <c:axId val="504258560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7263,7 +7317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467214720"/>
+        <c:crossAx val="504236288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7448,7 +7502,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7745,6 +7799,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7754,7 +7811,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8050,6 +8107,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8093,7 +8153,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8390,6 +8450,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8399,7 +8462,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8695,6 +8758,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8738,7 +8804,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9035,6 +9101,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9044,7 +9113,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9340,6 +9409,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9362,11 +9434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467256832"/>
-        <c:axId val="467258368"/>
+        <c:axId val="504327552"/>
+        <c:axId val="504337536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467256832"/>
+        <c:axId val="504327552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9409,14 +9481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467258368"/>
+        <c:crossAx val="504337536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467258368"/>
+        <c:axId val="504337536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9465,7 +9537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467256832"/>
+        <c:crossAx val="504327552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9650,7 +9722,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9947,6 +10019,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9956,7 +10031,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10252,6 +10327,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10295,7 +10373,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10592,6 +10670,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10601,7 +10682,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10897,6 +10978,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -10940,7 +11024,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11237,6 +11321,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11246,7 +11333,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11542,6 +11629,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11564,11 +11654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468966016"/>
-        <c:axId val="468971904"/>
+        <c:axId val="505139968"/>
+        <c:axId val="505141504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468966016"/>
+        <c:axId val="505139968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11611,14 +11701,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468971904"/>
+        <c:crossAx val="505141504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468971904"/>
+        <c:axId val="505141504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11667,7 +11757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468966016"/>
+        <c:crossAx val="505139968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11852,7 +11942,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12149,6 +12239,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12158,7 +12251,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12454,6 +12547,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12497,7 +12593,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12794,6 +12890,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12803,7 +12902,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13099,6 +13198,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13142,7 +13244,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13439,6 +13541,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13448,7 +13553,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13744,6 +13849,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13766,11 +13874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469741568"/>
-        <c:axId val="469743104"/>
+        <c:axId val="506816384"/>
+        <c:axId val="506817920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469741568"/>
+        <c:axId val="506816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13813,14 +13921,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469743104"/>
+        <c:crossAx val="506817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469743104"/>
+        <c:axId val="506817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13869,7 +13977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469741568"/>
+        <c:crossAx val="506816384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14054,7 +14162,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14351,6 +14459,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14360,7 +14471,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14656,6 +14767,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14699,7 +14813,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14996,6 +15110,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15005,7 +15122,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15301,6 +15418,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15344,7 +15464,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15641,6 +15761,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15650,7 +15773,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15946,6 +16069,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -15968,11 +16094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491844736"/>
-        <c:axId val="491846272"/>
+        <c:axId val="509357056"/>
+        <c:axId val="509358848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491844736"/>
+        <c:axId val="509357056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16015,14 +16141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491846272"/>
+        <c:crossAx val="509358848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491846272"/>
+        <c:axId val="509358848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16071,7 +16197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491844736"/>
+        <c:crossAx val="509357056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16256,7 +16382,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16553,6 +16679,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16562,7 +16691,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16858,6 +16987,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -16901,7 +17033,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17198,6 +17330,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17207,7 +17342,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17503,6 +17638,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17546,7 +17684,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17843,6 +17981,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17852,7 +17993,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18148,6 +18289,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18170,11 +18314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510122240"/>
-        <c:axId val="510128128"/>
+        <c:axId val="509419904"/>
+        <c:axId val="509421440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510122240"/>
+        <c:axId val="509419904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18217,14 +18361,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510128128"/>
+        <c:crossAx val="509421440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510128128"/>
+        <c:axId val="509421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18273,7 +18417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510122240"/>
+        <c:crossAx val="509419904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18381,7 +18525,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18424,7 +18568,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18467,7 +18611,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18510,7 +18654,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18553,7 +18697,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18596,7 +18740,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18639,7 +18783,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18682,7 +18826,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18995,7 +19139,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23276,6 +23420,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I103" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J103" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K103" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23292,7 +23471,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28769,6 +28948,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="103" spans="1:15" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>-143.5521588962317</v>
+      </c>
+      <c r="E103" s="22">
+        <v>-84.641604122265747</v>
+      </c>
+      <c r="F103" s="22">
+        <v>1497.4407993049376</v>
+      </c>
+      <c r="G103" s="22">
+        <v>2539.6595656316867</v>
+      </c>
+      <c r="H103" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I103" s="22">
+        <v>10459.911715480695</v>
+      </c>
+      <c r="J103" s="22">
+        <v>4407.319265405049</v>
+      </c>
+      <c r="K103" s="21">
+        <v>7920.2521498490078</v>
+      </c>
+      <c r="L103" s="26">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="M103" s="27">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N103" s="27">
+        <v>74.316012831920972</v>
+      </c>
+      <c r="O103" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -28787,7 +29013,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34522,6 +34748,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="103" spans="1:16" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I103" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J103" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K103" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L103" s="26">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="M103" s="27">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="N103" s="27">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="O103" s="27">
+        <v>74.976992648986823</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34540,7 +34816,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39430,6 +39706,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="103" spans="1:13" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="20">
+        <v>1031255</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1805667.904803097</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K103" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L103" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M103" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -39448,7 +39765,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43729,6 +44046,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J103" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43747,7 +44099,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49224,6 +49576,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="103" spans="1:15" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="21">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J103" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L103" s="26">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="M103" s="27">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N103" s="27">
+        <v>74.316012831920972</v>
+      </c>
+      <c r="O103" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -49242,7 +49641,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54976,6 +55375,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="103" spans="1:16" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J103" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L103" s="26">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="M103" s="27">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="N103" s="27">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="O103" s="27">
+        <v>74.976992648986823</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -54994,7 +55443,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -59884,6 +60333,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="103" spans="1:13" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="20">
+        <v>1031255</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1805667.904803097</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K103" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L103" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M103" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1142,6 +1142,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,7 +1154,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1450,6 +1453,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1493,7 +1499,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1793,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,7 +1811,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2101,6 +2110,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2144,7 +2156,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2444,6 +2456,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,7 +2468,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2752,6 +2767,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2774,11 +2792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491352064"/>
-        <c:axId val="491353600"/>
+        <c:axId val="428666880"/>
+        <c:axId val="428668416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491352064"/>
+        <c:axId val="428666880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,14 +2839,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491353600"/>
+        <c:crossAx val="428668416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491353600"/>
+        <c:axId val="428668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491352064"/>
+        <c:crossAx val="428666880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3062,7 +3080,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3362,6 +3380,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,7 +3392,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3670,6 +3691,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3713,7 +3737,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4013,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,7 +4049,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4322,6 +4349,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>10459.911715480695</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12107.096630417898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4364,7 +4394,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4664,6 +4694,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4673,7 +4706,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4973,6 +5006,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>4407.319265405049</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6054.5041803422519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,11 +5030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491373696"/>
-        <c:axId val="491375232"/>
+        <c:axId val="428700800"/>
+        <c:axId val="428702336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491373696"/>
+        <c:axId val="428700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,14 +5077,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491375232"/>
+        <c:crossAx val="428702336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491375232"/>
+        <c:axId val="428702336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491373696"/>
+        <c:crossAx val="428700800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5282,7 +5318,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5582,6 +5618,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5591,7 +5630,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5890,6 +5929,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5933,7 +5975,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6233,6 +6275,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6242,7 +6287,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6541,6 +6586,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6584,7 +6632,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6884,6 +6932,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6893,7 +6944,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7192,6 +7243,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7214,11 +7268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504236288"/>
-        <c:axId val="504258560"/>
+        <c:axId val="428976384"/>
+        <c:axId val="428982272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504236288"/>
+        <c:axId val="428976384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7261,14 +7315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504258560"/>
+        <c:crossAx val="428982272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504258560"/>
+        <c:axId val="428982272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7317,7 +7371,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504236288"/>
+        <c:crossAx val="428976384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7502,7 +7556,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7802,6 +7856,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7811,7 +7868,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8110,6 +8167,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8153,7 +8213,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8453,6 +8513,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8462,7 +8525,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8761,6 +8824,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8804,7 +8870,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9104,6 +9170,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9113,7 +9182,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9412,6 +9481,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9434,11 +9506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504327552"/>
-        <c:axId val="504337536"/>
+        <c:axId val="429030784"/>
+        <c:axId val="429036672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504327552"/>
+        <c:axId val="429030784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9481,14 +9553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504337536"/>
+        <c:crossAx val="429036672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504337536"/>
+        <c:axId val="429036672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9537,7 +9609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504327552"/>
+        <c:crossAx val="429030784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9722,7 +9794,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10022,6 +10094,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10031,7 +10106,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10330,6 +10405,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10373,7 +10451,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10673,6 +10751,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10682,7 +10763,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10981,6 +11062,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11024,7 +11108,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11324,6 +11408,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11333,7 +11420,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11632,6 +11719,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11654,11 +11744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505139968"/>
-        <c:axId val="505141504"/>
+        <c:axId val="429105920"/>
+        <c:axId val="429107456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505139968"/>
+        <c:axId val="429105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11701,14 +11791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505141504"/>
+        <c:crossAx val="429107456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505141504"/>
+        <c:axId val="429107456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11757,7 +11847,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505139968"/>
+        <c:crossAx val="429105920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11942,7 +12032,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12242,6 +12332,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12251,7 +12344,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12550,6 +12643,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12593,7 +12689,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12893,6 +12989,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12902,7 +13001,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13201,6 +13300,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13244,7 +13346,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13544,6 +13646,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13553,7 +13658,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13852,6 +13957,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13874,11 +13982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506816384"/>
-        <c:axId val="506817920"/>
+        <c:axId val="429156224"/>
+        <c:axId val="429157760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506816384"/>
+        <c:axId val="429156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13921,14 +14029,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506817920"/>
+        <c:crossAx val="429157760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506817920"/>
+        <c:axId val="429157760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13977,7 +14085,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506816384"/>
+        <c:crossAx val="429156224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14162,7 +14270,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14462,6 +14570,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14471,7 +14582,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14770,6 +14881,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14813,7 +14927,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15113,6 +15227,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15122,7 +15239,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15421,6 +15538,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15464,7 +15584,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15764,6 +15884,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15773,7 +15896,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16072,6 +16195,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16094,11 +16220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509357056"/>
-        <c:axId val="509358848"/>
+        <c:axId val="468605952"/>
+        <c:axId val="468607744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509357056"/>
+        <c:axId val="468605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16141,14 +16267,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509358848"/>
+        <c:crossAx val="468607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509358848"/>
+        <c:axId val="468607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16197,7 +16323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509357056"/>
+        <c:crossAx val="468605952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16382,7 +16508,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16682,6 +16808,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16691,7 +16820,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16990,6 +17119,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17033,7 +17165,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17333,6 +17465,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17342,7 +17477,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17641,6 +17776,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17684,7 +17822,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17984,6 +18122,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17993,7 +18134,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18292,6 +18433,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18314,11 +18458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509419904"/>
-        <c:axId val="509421440"/>
+        <c:axId val="468664704"/>
+        <c:axId val="468666240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509419904"/>
+        <c:axId val="468664704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18361,14 +18505,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509421440"/>
+        <c:crossAx val="468666240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509421440"/>
+        <c:axId val="468666240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18417,7 +18561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509419904"/>
+        <c:crossAx val="468664704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19139,7 +19283,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23455,6 +23599,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I104" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J104" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K104" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23471,7 +23650,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28995,6 +29174,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="104" spans="1:15" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>-482.27697934025804</v>
+      </c>
+      <c r="E104" s="22">
+        <v>-172.48818980052496</v>
+      </c>
+      <c r="F104" s="22">
+        <v>1324.9526095044127</v>
+      </c>
+      <c r="G104" s="22">
+        <v>3704.567501228631</v>
+      </c>
+      <c r="H104" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I104" s="22">
+        <v>12107.096630417898</v>
+      </c>
+      <c r="J104" s="22">
+        <v>6054.5041803422519</v>
+      </c>
+      <c r="K104" s="21">
+        <v>8402.5291291892663</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N104" s="27">
+        <v>92.546963528779443</v>
+      </c>
+      <c r="O104" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29013,7 +29239,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34798,6 +35024,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="104" spans="1:16" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I104" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J104" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K104" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L104" s="26">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="M104" s="27">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="N104" s="27">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="O104" s="27">
+        <v>94.401190236399628</v>
+      </c>
+      <c r="P104" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34816,7 +35092,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39747,6 +40023,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="104" spans="1:13" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10846671</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1808751.2091945638</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K104" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L104" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M104" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -39765,7 +40082,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44081,6 +44398,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J104" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -44099,7 +44451,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49623,6 +49975,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="104" spans="1:15" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="21">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J104" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N104" s="27">
+        <v>92.546963528779443</v>
+      </c>
+      <c r="O104" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -49641,7 +50040,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55425,6 +55824,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="104" spans="1:16" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J104" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L104" s="26">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="M104" s="27">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="N104" s="27">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="O104" s="27">
+        <v>94.401190236399628</v>
+      </c>
+      <c r="P104" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -55443,7 +55892,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -60374,6 +60823,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="104" spans="1:13" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10846671</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1808751.2091945638</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K104" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L104" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M104" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1145,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1157,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1456,6 +1459,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1499,7 +1505,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1802,6 +1808,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,7 +1820,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2113,6 +2122,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2156,7 +2168,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2459,6 +2471,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,7 +2483,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2770,6 +2785,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2792,11 +2810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428666880"/>
-        <c:axId val="428668416"/>
+        <c:axId val="655707136"/>
+        <c:axId val="703005440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428666880"/>
+        <c:axId val="655707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,14 +2857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428668416"/>
+        <c:crossAx val="703005440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428668416"/>
+        <c:axId val="703005440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428666880"/>
+        <c:crossAx val="655707136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3080,7 +3098,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3383,6 +3401,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,7 +3413,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3694,6 +3715,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3737,7 +3761,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4040,6 +4064,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,7 +4076,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4352,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>12107.096630417898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11582.415518357186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,7 +4424,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4697,6 +4727,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4706,7 +4739,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5009,6 +5042,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>6054.5041803422519</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5529.8230682815392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,11 +5066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428700800"/>
-        <c:axId val="428702336"/>
+        <c:axId val="823147520"/>
+        <c:axId val="105923328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428700800"/>
+        <c:axId val="823147520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,14 +5113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428702336"/>
+        <c:crossAx val="105923328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428702336"/>
+        <c:axId val="105923328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5133,7 +5169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428700800"/>
+        <c:crossAx val="823147520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5318,7 +5354,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5621,6 +5657,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5630,7 +5669,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5932,6 +5971,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -5975,7 +6017,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6278,6 +6320,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6287,7 +6332,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6589,6 +6634,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6632,7 +6680,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6935,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6944,7 +6995,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7246,6 +7297,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7268,11 +7322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428976384"/>
-        <c:axId val="428982272"/>
+        <c:axId val="105939328"/>
+        <c:axId val="105940864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428976384"/>
+        <c:axId val="105939328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7315,14 +7369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428982272"/>
+        <c:crossAx val="105940864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428982272"/>
+        <c:axId val="105940864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7371,7 +7425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428976384"/>
+        <c:crossAx val="105939328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7556,7 +7610,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7859,6 +7913,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7868,7 +7925,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8170,6 +8227,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8213,7 +8273,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8516,6 +8576,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8525,7 +8588,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8827,6 +8890,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8870,7 +8936,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9173,6 +9239,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9182,7 +9251,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9484,6 +9553,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9506,11 +9578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429030784"/>
-        <c:axId val="429036672"/>
+        <c:axId val="541246976"/>
+        <c:axId val="541248512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429030784"/>
+        <c:axId val="541246976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9553,14 +9625,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429036672"/>
+        <c:crossAx val="541248512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429036672"/>
+        <c:axId val="541248512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9609,7 +9681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429030784"/>
+        <c:crossAx val="541246976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9794,7 +9866,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10097,6 +10169,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10106,7 +10181,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10408,6 +10483,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10451,7 +10529,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10754,6 +10832,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10763,7 +10844,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11065,6 +11146,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11108,7 +11192,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11411,6 +11495,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11420,7 +11507,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11722,6 +11809,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11744,11 +11834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429105920"/>
-        <c:axId val="429107456"/>
+        <c:axId val="543185536"/>
+        <c:axId val="543195520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429105920"/>
+        <c:axId val="543185536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11791,14 +11881,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429107456"/>
+        <c:crossAx val="543195520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429107456"/>
+        <c:axId val="543195520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11847,7 +11937,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429105920"/>
+        <c:crossAx val="543185536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12032,7 +12122,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12335,6 +12425,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12344,7 +12437,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12646,6 +12739,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12689,7 +12785,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12992,6 +13088,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13001,7 +13100,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13303,6 +13402,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13346,7 +13448,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13649,6 +13751,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13658,7 +13763,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13960,6 +14065,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -13982,11 +14090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429156224"/>
-        <c:axId val="429157760"/>
+        <c:axId val="563027968"/>
+        <c:axId val="563029504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429156224"/>
+        <c:axId val="563027968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14029,14 +14137,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429157760"/>
+        <c:crossAx val="563029504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429157760"/>
+        <c:axId val="563029504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14085,7 +14193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429156224"/>
+        <c:crossAx val="563027968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14270,7 +14378,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14573,6 +14681,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14582,7 +14693,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14884,6 +14995,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -14927,7 +15041,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15230,6 +15344,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15239,7 +15356,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15541,6 +15658,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15584,7 +15704,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15887,6 +16007,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15896,7 +16019,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16198,6 +16321,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16220,11 +16346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468605952"/>
-        <c:axId val="468607744"/>
+        <c:axId val="563082368"/>
+        <c:axId val="563083904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468605952"/>
+        <c:axId val="563082368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16267,14 +16393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468607744"/>
+        <c:crossAx val="563083904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468607744"/>
+        <c:axId val="563083904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16323,7 +16449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468605952"/>
+        <c:crossAx val="563082368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16508,7 +16634,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16811,6 +16937,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16820,7 +16949,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17122,6 +17251,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17165,7 +17297,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17468,6 +17600,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17477,7 +17612,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17779,6 +17914,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17822,7 +17960,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18125,6 +18263,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18134,7 +18275,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18436,6 +18577,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18458,11 +18602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468664704"/>
-        <c:axId val="468666240"/>
+        <c:axId val="568097024"/>
+        <c:axId val="568102912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468664704"/>
+        <c:axId val="568097024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18505,14 +18649,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468666240"/>
+        <c:crossAx val="568102912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468666240"/>
+        <c:axId val="568102912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18561,7 +18705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468664704"/>
+        <c:crossAx val="568097024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19283,7 +19427,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23634,6 +23778,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I105" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J105" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K105" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23650,7 +23829,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29221,6 +29400,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="105" spans="1:15" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>-1780.1868289688459</v>
+      </c>
+      <c r="E105" s="22">
+        <v>-741.74448259607482</v>
+      </c>
+      <c r="F105" s="22">
+        <v>583.20812690833793</v>
+      </c>
+      <c r="G105" s="22">
+        <v>1399.6995601990723</v>
+      </c>
+      <c r="H105" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I105" s="22">
+        <v>11582.415518357186</v>
+      </c>
+      <c r="J105" s="22">
+        <v>5529.8230682815392</v>
+      </c>
+      <c r="K105" s="21">
+        <v>10182.715958158113</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N105" s="27">
+        <v>70.828138094565318</v>
+      </c>
+      <c r="O105" s="27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29239,7 +29465,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35074,6 +35300,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="105" spans="1:16" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I105" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J105" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K105" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L105" s="26">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="M105" s="27">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="N105" s="27">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="O105" s="27">
+        <v>83.272569167503974</v>
+      </c>
+      <c r="P105" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35092,7 +35368,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40064,6 +40340,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="105" spans="1:13" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="20">
+        <v>3159410</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1875856.8129367707</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K105" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L105" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M105" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -40082,7 +40399,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44433,6 +44750,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J105" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -44451,7 +44803,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50022,6 +50374,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="105" spans="1:15" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="21">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J105" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N105" s="27">
+        <v>70.828138094565318</v>
+      </c>
+      <c r="O105" s="27">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -50040,7 +50439,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55874,6 +56273,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="105" spans="1:16" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J105" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L105" s="26">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="M105" s="27">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="N105" s="27">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="O105" s="27">
+        <v>83.272569167503974</v>
+      </c>
+      <c r="P105" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -55892,7 +56341,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -60864,6 +61313,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="105" spans="1:13" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="20">
+        <v>3159410</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1875856.8129367707</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K105" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L105" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M105" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1148,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1160,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1462,6 +1465,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1505,7 +1511,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1811,6 +1817,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,7 +1829,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2125,6 +2134,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2168,7 +2180,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2474,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,7 +2498,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2788,6 +2803,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2810,11 +2828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="655707136"/>
-        <c:axId val="703005440"/>
+        <c:axId val="435735552"/>
+        <c:axId val="435737344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="655707136"/>
+        <c:axId val="435735552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,14 +2875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703005440"/>
+        <c:crossAx val="435737344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="703005440"/>
+        <c:axId val="435737344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +2931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655707136"/>
+        <c:crossAx val="435735552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3098,7 +3116,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3404,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,7 +3434,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3718,6 +3739,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3761,7 +3785,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4067,6 +4091,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,7 +4103,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4382,6 +4409,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>11582.415518357186</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11543.923790880284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,7 +4454,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4730,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4739,7 +4772,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5045,6 +5078,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5529.8230682815392</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5491.3313408046379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5066,11 +5102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="823147520"/>
-        <c:axId val="105923328"/>
+        <c:axId val="435839360"/>
+        <c:axId val="435840896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="823147520"/>
+        <c:axId val="435839360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,14 +5149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105923328"/>
+        <c:crossAx val="435840896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105923328"/>
+        <c:axId val="435840896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5169,7 +5205,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823147520"/>
+        <c:crossAx val="435839360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5354,7 +5390,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5660,6 +5696,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5669,7 +5708,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5974,6 +6013,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -6017,7 +6059,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6323,6 +6365,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6332,7 +6377,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6637,6 +6682,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6680,7 +6728,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6986,6 +7034,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6995,7 +7046,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7300,6 +7351,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7322,11 +7376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105939328"/>
-        <c:axId val="105940864"/>
+        <c:axId val="437036544"/>
+        <c:axId val="437038080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105939328"/>
+        <c:axId val="437036544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7369,14 +7423,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105940864"/>
+        <c:crossAx val="437038080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105940864"/>
+        <c:axId val="437038080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7425,7 +7479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105939328"/>
+        <c:crossAx val="437036544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7610,7 +7664,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7916,6 +7970,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7925,7 +7982,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8230,6 +8287,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8273,7 +8333,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8579,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,7 +8651,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8893,6 +8956,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -8936,7 +9002,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9242,6 +9308,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9251,7 +9320,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9556,6 +9625,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9578,11 +9650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541246976"/>
-        <c:axId val="541248512"/>
+        <c:axId val="448899712"/>
+        <c:axId val="448913792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541246976"/>
+        <c:axId val="448899712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9625,14 +9697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541248512"/>
+        <c:crossAx val="448913792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541248512"/>
+        <c:axId val="448913792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9681,7 +9753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541246976"/>
+        <c:crossAx val="448899712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9866,7 +9938,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10172,6 +10244,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10181,7 +10256,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10486,6 +10561,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10529,7 +10607,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10835,6 +10913,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10844,7 +10925,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11149,6 +11230,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11192,7 +11276,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11498,6 +11582,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11507,7 +11594,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11812,6 +11899,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11834,11 +11924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543185536"/>
-        <c:axId val="543195520"/>
+        <c:axId val="471990272"/>
+        <c:axId val="471991808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543185536"/>
+        <c:axId val="471990272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11881,14 +11971,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543195520"/>
+        <c:crossAx val="471991808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543195520"/>
+        <c:axId val="471991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11937,7 +12027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543185536"/>
+        <c:crossAx val="471990272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12122,7 +12212,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12428,6 +12518,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12437,7 +12530,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12742,6 +12835,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12785,7 +12881,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13091,6 +13187,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13100,7 +13199,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13405,6 +13504,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13448,7 +13550,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13754,6 +13856,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13763,7 +13868,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14068,6 +14173,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -14090,11 +14198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563027968"/>
-        <c:axId val="563029504"/>
+        <c:axId val="472044672"/>
+        <c:axId val="472046208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563027968"/>
+        <c:axId val="472044672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14137,14 +14245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563029504"/>
+        <c:crossAx val="472046208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563029504"/>
+        <c:axId val="472046208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14193,7 +14301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563027968"/>
+        <c:crossAx val="472044672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14378,7 +14486,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14684,6 +14792,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14693,7 +14804,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14998,6 +15109,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -15041,7 +15155,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15347,6 +15461,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15356,7 +15473,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15661,6 +15778,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15704,7 +15824,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16010,6 +16130,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16019,7 +16142,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16324,6 +16447,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16346,11 +16472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563082368"/>
-        <c:axId val="563083904"/>
+        <c:axId val="480979200"/>
+        <c:axId val="480985088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563082368"/>
+        <c:axId val="480979200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16393,14 +16519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563083904"/>
+        <c:crossAx val="480985088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563083904"/>
+        <c:axId val="480985088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16449,7 +16575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563082368"/>
+        <c:crossAx val="480979200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16634,7 +16760,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16940,6 +17066,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16949,7 +17078,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17254,6 +17383,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17297,7 +17429,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17603,6 +17735,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17612,7 +17747,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17917,6 +18052,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -17960,7 +18098,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18266,6 +18404,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18275,7 +18416,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18580,6 +18721,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18602,11 +18746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568097024"/>
-        <c:axId val="568102912"/>
+        <c:axId val="481037696"/>
+        <c:axId val="481051776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568097024"/>
+        <c:axId val="481037696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18649,14 +18793,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568102912"/>
+        <c:crossAx val="481051776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568102912"/>
+        <c:axId val="481051776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18705,7 +18849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568097024"/>
+        <c:crossAx val="481037696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19427,7 +19571,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23813,6 +23957,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I106" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K106" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23829,7 +24008,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29447,6 +29626,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="1:15" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>-332.85947048720885</v>
+      </c>
+      <c r="E106" s="22">
+        <v>-142.61330536008478</v>
+      </c>
+      <c r="F106" s="22">
+        <v>440.59482154825315</v>
+      </c>
+      <c r="G106" s="22">
+        <v>1028.3483622349629</v>
+      </c>
+      <c r="H106" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I106" s="22">
+        <v>11543.923790880284</v>
+      </c>
+      <c r="J106" s="22">
+        <v>5491.3313408046379</v>
+      </c>
+      <c r="K106" s="21">
+        <v>10515.575428645321</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="M106" s="27">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N106" s="27">
+        <v>67.652800290658575</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29465,7 +29691,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35350,6 +35576,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="106" spans="1:16" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I106" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K106" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L106" s="26">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="M106" s="27">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="N106" s="27">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="O106" s="27">
+        <v>73.71030032376305</v>
+      </c>
+      <c r="P106" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35368,7 +35644,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40381,6 +40657,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="106" spans="1:13" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="20">
+        <v>3566154</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1890263.9004151097</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K106" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L106" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M106" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -40399,7 +40716,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44785,6 +45102,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J106" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -44803,7 +45155,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50421,6 +50773,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="1:15" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="21">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J106" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="M106" s="27">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N106" s="27">
+        <v>67.652800290658575</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -50439,7 +50838,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56323,6 +56722,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="106" spans="1:16" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J106" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L106" s="26">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="M106" s="27">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="N106" s="27">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="O106" s="27">
+        <v>73.71030032376305</v>
+      </c>
+      <c r="P106" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -56341,7 +56790,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -61354,6 +61803,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="106" spans="1:13" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="20">
+        <v>3566154</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1890263.9004151097</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K106" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L106" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M106" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel2mean.xlsx
@@ -842,7 +842,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1151,6 +1151,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1163,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1468,6 +1471,9 @@
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>4893.7540233362733</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>4893.7540233362733</c:v>
                 </c:pt>
               </c:numCache>
@@ -1511,7 +1517,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1820,6 +1826,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,7 +1838,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2137,6 +2146,9 @@
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>7246.1850032321172</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>7246.1850032321172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2180,7 +2192,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2489,6 +2501,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2513,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2806,6 +2821,9 @@
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>2352.4309798958438</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>2352.4309798958438</c:v>
                 </c:pt>
               </c:numCache>
@@ -2828,11 +2846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435735552"/>
-        <c:axId val="435737344"/>
+        <c:axId val="602842624"/>
+        <c:axId val="602844544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435735552"/>
+        <c:axId val="602842624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,14 +2893,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435737344"/>
+        <c:crossAx val="602844544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435737344"/>
+        <c:axId val="602844544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,7 +2949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435735552"/>
+        <c:crossAx val="602842624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3116,7 +3134,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3425,6 +3443,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,7 +3455,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3742,6 +3763,9 @@
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>6052.5924500756464</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>6052.5924500756464</c:v>
                 </c:pt>
               </c:numCache>
@@ -3785,7 +3809,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4094,6 +4118,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,7 +4130,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4412,6 +4439,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>11543.923790880284</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11507.354340016456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,7 +4484,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4763,6 +4793,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,7 +4805,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5081,6 +5114,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>5491.3313408046379</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5454.7618899408099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,11 +5138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435839360"/>
-        <c:axId val="435840896"/>
+        <c:axId val="426884096"/>
+        <c:axId val="426894080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435839360"/>
+        <c:axId val="426884096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,14 +5185,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435840896"/>
+        <c:crossAx val="426894080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435840896"/>
+        <c:axId val="426894080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5205,7 +5241,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435839360"/>
+        <c:crossAx val="426884096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5390,7 +5426,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5699,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5708,7 +5747,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6016,6 +6055,9 @@
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>4478.5830960357953</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>4478.5830960357953</c:v>
                 </c:pt>
               </c:numCache>
@@ -6059,7 +6101,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6368,6 +6410,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6377,7 +6422,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6685,6 +6730,9 @@
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>6735.3146089982411</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>6735.3146089982411</c:v>
                 </c:pt>
               </c:numCache>
@@ -6728,7 +6776,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7037,6 +7085,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7046,7 +7097,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7354,6 +7405,9 @@
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>2256.7315129624458</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>2256.7315129624458</c:v>
                 </c:pt>
               </c:numCache>
@@ -7376,11 +7430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437036544"/>
-        <c:axId val="437038080"/>
+        <c:axId val="427037056"/>
+        <c:axId val="427038592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="437036544"/>
+        <c:axId val="427037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7423,14 +7477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437038080"/>
+        <c:crossAx val="427038592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="437038080"/>
+        <c:axId val="427038592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7479,7 +7533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437036544"/>
+        <c:crossAx val="427037056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7664,7 +7718,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7973,6 +8027,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7982,7 +8039,7 @@
               <c:f>'model2(1)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8290,6 +8347,9 @@
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>2280.0747683969207</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>2280.0747683969207</c:v>
                 </c:pt>
               </c:numCache>
@@ -8333,7 +8393,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8642,6 +8702,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8651,7 +8714,7 @@
               <c:f>'model2(1)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8959,6 +9022,9 @@
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>3181.8326442193757</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>3181.8326442193757</c:v>
                 </c:pt>
               </c:numCache>
@@ -9002,7 +9068,7 @@
               <c:f>'model2(1)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9311,6 +9377,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9320,7 +9389,7 @@
               <c:f>'model2(1)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9628,6 +9697,9 @@
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>901.75787582245493</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>901.75787582245493</c:v>
                 </c:pt>
               </c:numCache>
@@ -9650,11 +9722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448899712"/>
-        <c:axId val="448913792"/>
+        <c:axId val="427087360"/>
+        <c:axId val="427088896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448899712"/>
+        <c:axId val="427087360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9697,14 +9769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448913792"/>
+        <c:crossAx val="427088896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448913792"/>
+        <c:axId val="427088896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9753,7 +9825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448899712"/>
+        <c:crossAx val="427087360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9938,7 +10010,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10247,6 +10319,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10256,7 +10331,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10564,6 +10639,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -10607,7 +10685,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10916,6 +10994,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10925,7 +11006,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11233,6 +11314,9 @@
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1243.9035388429725</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1243.9035388429725</c:v>
                 </c:pt>
               </c:numCache>
@@ -11276,7 +11360,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11585,6 +11669,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11594,7 +11681,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11902,6 +11989,9 @@
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>461.2250703448251</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>461.2250703448251</c:v>
                 </c:pt>
               </c:numCache>
@@ -11924,11 +12014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471990272"/>
-        <c:axId val="471991808"/>
+        <c:axId val="500828800"/>
+        <c:axId val="500842880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471990272"/>
+        <c:axId val="500828800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11971,14 +12061,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471991808"/>
+        <c:crossAx val="500842880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471991808"/>
+        <c:axId val="500842880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12027,7 +12117,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471990272"/>
+        <c:crossAx val="500828800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12212,7 +12302,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12521,6 +12611,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12530,7 +12623,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12838,6 +12931,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -12881,7 +12977,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13190,6 +13286,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13199,7 +13298,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13507,6 +13606,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -13550,7 +13652,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13859,6 +13961,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13868,7 +13973,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14176,6 +14281,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -14198,11 +14306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472044672"/>
-        <c:axId val="472046208"/>
+        <c:axId val="500912128"/>
+        <c:axId val="500913664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472044672"/>
+        <c:axId val="500912128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14245,14 +14353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472046208"/>
+        <c:crossAx val="500913664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472046208"/>
+        <c:axId val="500913664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14301,7 +14409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472044672"/>
+        <c:crossAx val="500912128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14486,7 +14594,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14795,6 +14903,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14804,7 +14915,7 @@
               <c:f>'model2(2)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15112,6 +15223,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -15155,7 +15269,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15464,6 +15578,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15473,7 +15590,7 @@
               <c:f>'model2(2)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15781,6 +15898,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -15824,7 +15944,7 @@
               <c:f>'model2(2)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16133,6 +16253,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16142,7 +16265,7 @@
               <c:f>'model2(2)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16450,6 +16573,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -16472,11 +16598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480979200"/>
-        <c:axId val="480985088"/>
+        <c:axId val="501081216"/>
+        <c:axId val="501082752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480979200"/>
+        <c:axId val="501081216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16519,14 +16645,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480985088"/>
+        <c:crossAx val="501082752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480985088"/>
+        <c:axId val="501082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16575,7 +16701,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480979200"/>
+        <c:crossAx val="501081216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16760,7 +16886,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17069,6 +17195,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17078,7 +17207,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17386,6 +17515,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -17429,7 +17561,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17738,6 +17870,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17747,7 +17882,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18055,6 +18190,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -18098,7 +18236,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18407,6 +18545,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18416,7 +18557,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18724,6 +18865,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -18746,11 +18890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481037696"/>
-        <c:axId val="481051776"/>
+        <c:axId val="501860608"/>
+        <c:axId val="501866496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481037696"/>
+        <c:axId val="501860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18793,14 +18937,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481051776"/>
+        <c:crossAx val="501866496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481051776"/>
+        <c:axId val="501866496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18849,7 +18993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481037696"/>
+        <c:crossAx val="501860608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18957,7 +19101,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19000,7 +19144,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19043,7 +19187,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19086,7 +19230,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19129,7 +19273,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19172,7 +19316,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19215,7 +19359,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19258,7 +19402,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19571,7 +19715,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23992,6 +24136,41 @@
         <v>7246.1850032321172</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>4893.7540233362733</v>
+      </c>
+      <c r="I107" s="22">
+        <v>7246.1850032321172</v>
+      </c>
+      <c r="J107" s="22">
+        <v>2352.4309798958438</v>
+      </c>
+      <c r="K107" s="21">
+        <v>7246.1850032321172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24008,7 +24187,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29673,6 +29852,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="107" spans="1:15" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>-304.19317746161732</v>
+      </c>
+      <c r="E107" s="22">
+        <v>-135.13691126443317</v>
+      </c>
+      <c r="F107" s="22">
+        <v>305.45791028381996</v>
+      </c>
+      <c r="G107" s="22">
+        <v>687.58573390951904</v>
+      </c>
+      <c r="H107" s="22">
+        <v>6052.5924500756464</v>
+      </c>
+      <c r="I107" s="22">
+        <v>11507.354340016456</v>
+      </c>
+      <c r="J107" s="22">
+        <v>5454.7618899408099</v>
+      </c>
+      <c r="K107" s="21">
+        <v>10819.768606106938</v>
+      </c>
+      <c r="L107" s="26">
+        <v>0.13832892688705978</v>
+      </c>
+      <c r="M107" s="27">
+        <v>0.21830224953303168</v>
+      </c>
+      <c r="N107" s="27">
+        <v>63.365781700810651</v>
+      </c>
+      <c r="O107" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -29691,7 +29917,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35626,6 +35852,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="107" spans="1:16" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>4478.5830960357953</v>
+      </c>
+      <c r="I107" s="22">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="J107" s="22">
+        <v>2256.7315129624458</v>
+      </c>
+      <c r="K107" s="21">
+        <v>6735.3146089982411</v>
+      </c>
+      <c r="L107" s="26">
+        <v>62.197511309289077</v>
+      </c>
+      <c r="M107" s="27">
+        <v>70.163157251790594</v>
+      </c>
+      <c r="N107" s="27">
+        <v>72.96359919905052</v>
+      </c>
+      <c r="O107" s="27">
+        <v>64.562273357270726</v>
+      </c>
+      <c r="P107" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35644,7 +35920,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40698,6 +40974,47 @@
         <v>3181.8326442193757</v>
       </c>
     </row>
+    <row r="107" spans="1:13" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="20">
+        <v>1387054</v>
+      </c>
+      <c r="E107" s="20">
+        <v>1888206.2111501612</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="22">
+        <v>2280.0747683969207</v>
+      </c>
+      <c r="K107" s="22">
+        <v>3181.8326442193757</v>
+      </c>
+      <c r="L107" s="22">
+        <v>901.75787582245493</v>
+      </c>
+      <c r="M107" s="21">
+        <v>3181.8326442193757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -40716,7 +41033,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45137,6 +45454,41 @@
         <v>1243.9035388429725</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I107" s="22">
+        <v>1243.9035388429725</v>
+      </c>
+      <c r="J107" s="22">
+        <v>461.2250703448251</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1243.9035388429725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -45155,7 +45507,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50820,6 +51172,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="107" spans="1:15" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="21">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I107" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J107" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L107" s="26">
+        <v>0.13832892688705978</v>
+      </c>
+      <c r="M107" s="27">
+        <v>0.21830224953303168</v>
+      </c>
+      <c r="N107" s="27">
+        <v>63.365781700810651</v>
+      </c>
+      <c r="O107" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -50838,7 +51237,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56772,6 +57171,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="107" spans="1:16" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I107" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J107" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L107" s="26">
+        <v>62.197511309289077</v>
+      </c>
+      <c r="M107" s="27">
+        <v>70.163157251790594</v>
+      </c>
+      <c r="N107" s="27">
+        <v>72.96359919905052</v>
+      </c>
+      <c r="O107" s="27">
+        <v>64.562273357270726</v>
+      </c>
+      <c r="P107" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -56790,7 +57239,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -61844,6 +62293,47 @@
         <v>579.4237932103814</v>
       </c>
     </row>
+    <row r="107" spans="1:13" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="20">
+        <v>1387054</v>
+      </c>
+      <c r="E107" s="20">
+        <v>1888206.2111501612</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K107" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L107" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M107" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
